--- a/Assets/Excel_Data/Entity_QuestSetDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_QuestSetDataBase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E6BEC71-361C-495E-B750-734C16629030}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EEC8F19-E0B3-40BB-BD57-067F50C80AE2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3480" yWindow="2775" windowWidth="23475" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="50">
   <si>
     <t>desc</t>
   </si>
@@ -275,6 +275,10 @@
   </si>
   <si>
     <t>オレンジねこクッキーの納品</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>QuestType</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -679,33 +683,33 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z8"/>
+  <dimension ref="A1:AA8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="Y4" sqref="Y4"/>
+      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="27.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7.85546875" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="22.42578125" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" customWidth="1"/>
-    <col min="6" max="6" width="12.140625" customWidth="1"/>
-    <col min="7" max="7" width="9.5703125" customWidth="1"/>
-    <col min="8" max="9" width="10.28515625" customWidth="1"/>
-    <col min="10" max="16" width="6.7109375" customWidth="1"/>
-    <col min="17" max="17" width="8.42578125" customWidth="1"/>
-    <col min="18" max="19" width="6.7109375" customWidth="1"/>
-    <col min="20" max="20" width="11.5703125" customWidth="1"/>
-    <col min="25" max="25" width="21.140625" customWidth="1"/>
-    <col min="26" max="26" width="60.28515625" customWidth="1"/>
+    <col min="2" max="3" width="9.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" customWidth="1"/>
+    <col min="5" max="5" width="22.42578125" customWidth="1"/>
+    <col min="6" max="6" width="17.7109375" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" customWidth="1"/>
+    <col min="8" max="8" width="9.5703125" customWidth="1"/>
+    <col min="9" max="10" width="10.28515625" customWidth="1"/>
+    <col min="11" max="17" width="6.7109375" customWidth="1"/>
+    <col min="18" max="18" width="8.42578125" customWidth="1"/>
+    <col min="19" max="20" width="6.7109375" customWidth="1"/>
+    <col min="21" max="21" width="11.5703125" customWidth="1"/>
+    <col min="26" max="26" width="21.140625" customWidth="1"/>
+    <col min="27" max="27" width="62" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>28</v>
       </c>
@@ -713,79 +717,82 @@
         <v>29</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <f t="shared" ref="A2:A8" si="0">ROW()-2</f>
         <v>0</v>
@@ -793,30 +800,30 @@
       <c r="B2" s="3">
         <v>0</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="3">
+        <v>0</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="3">
-        <v>0</v>
+      <c r="F2" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="G2" s="3">
+        <v>0</v>
+      </c>
+      <c r="H2" s="3">
         <v>1</v>
       </c>
-      <c r="H2" s="3">
-        <v>7</v>
-      </c>
       <c r="I2" s="3">
+        <v>7</v>
+      </c>
+      <c r="J2" s="3">
         <v>20</v>
       </c>
-      <c r="J2" s="3">
-        <v>0</v>
-      </c>
       <c r="K2" s="3">
         <v>0</v>
       </c>
@@ -844,11 +851,11 @@
       <c r="S2" s="3">
         <v>0</v>
       </c>
-      <c r="T2" s="5" t="s">
-        <v>7</v>
+      <c r="T2" s="3">
+        <v>0</v>
       </c>
       <c r="U2" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="V2" s="5" t="s">
         <v>13</v>
@@ -859,14 +866,17 @@
       <c r="X2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="Y2" s="7" t="s">
+      <c r="Y2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z2" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="Z2" s="6" t="s">
+      <c r="AA2" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:27" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -874,30 +884,30 @@
       <c r="B3" s="3">
         <v>1</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="3">
+        <v>0</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>7</v>
-      </c>
       <c r="E3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="3">
-        <v>0</v>
+      <c r="F3" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="G3" s="3">
+        <v>0</v>
+      </c>
+      <c r="H3" s="3">
         <v>1</v>
       </c>
-      <c r="H3" s="3">
-        <v>7</v>
-      </c>
       <c r="I3" s="3">
+        <v>7</v>
+      </c>
+      <c r="J3" s="3">
         <v>30</v>
       </c>
-      <c r="J3" s="3">
-        <v>0</v>
-      </c>
       <c r="K3" s="3">
         <v>0</v>
       </c>
@@ -908,11 +918,11 @@
         <v>0</v>
       </c>
       <c r="N3" s="3">
+        <v>0</v>
+      </c>
+      <c r="O3" s="3">
         <v>20</v>
       </c>
-      <c r="O3" s="3">
-        <v>0</v>
-      </c>
       <c r="P3" s="3">
         <v>0</v>
       </c>
@@ -925,8 +935,8 @@
       <c r="S3" s="3">
         <v>0</v>
       </c>
-      <c r="T3" s="5" t="s">
-        <v>7</v>
+      <c r="T3" s="3">
+        <v>0</v>
       </c>
       <c r="U3" s="5" t="s">
         <v>7</v>
@@ -940,14 +950,17 @@
       <c r="X3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="Y3" s="7" t="s">
+      <c r="Y3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z3" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="Z3" s="4" t="s">
+      <c r="AA3" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:27" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -955,33 +968,33 @@
       <c r="B4" s="3">
         <v>2</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="3">
+        <v>0</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>7</v>
-      </c>
       <c r="E4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="3">
-        <v>0</v>
-      </c>
       <c r="G4" s="3">
+        <v>0</v>
+      </c>
+      <c r="H4" s="3">
         <v>1</v>
       </c>
-      <c r="H4" s="3">
-        <v>7</v>
-      </c>
       <c r="I4" s="3">
+        <v>7</v>
+      </c>
+      <c r="J4" s="3">
         <v>40</v>
       </c>
-      <c r="J4" s="3">
+      <c r="K4" s="3">
         <v>30</v>
       </c>
-      <c r="K4" s="3">
-        <v>0</v>
-      </c>
       <c r="L4" s="3">
         <v>0</v>
       </c>
@@ -1006,8 +1019,8 @@
       <c r="S4" s="3">
         <v>0</v>
       </c>
-      <c r="T4" s="5" t="s">
-        <v>7</v>
+      <c r="T4" s="3">
+        <v>0</v>
       </c>
       <c r="U4" s="5" t="s">
         <v>7</v>
@@ -1021,14 +1034,17 @@
       <c r="X4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="Y4" s="7" t="s">
+      <c r="Y4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z4" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="Z4" s="4" t="s">
+      <c r="AA4" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1036,30 +1052,30 @@
       <c r="B5" s="3">
         <v>3</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="3">
+        <v>0</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>7</v>
-      </c>
       <c r="E5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="3">
-        <v>0</v>
-      </c>
       <c r="G5" s="3">
+        <v>0</v>
+      </c>
+      <c r="H5" s="3">
         <v>1</v>
       </c>
-      <c r="H5" s="3">
-        <v>7</v>
-      </c>
       <c r="I5" s="3">
+        <v>7</v>
+      </c>
+      <c r="J5" s="3">
         <v>50</v>
       </c>
-      <c r="J5" s="3">
-        <v>0</v>
-      </c>
       <c r="K5" s="3">
         <v>0</v>
       </c>
@@ -1087,12 +1103,12 @@
       <c r="S5" s="3">
         <v>0</v>
       </c>
-      <c r="T5" s="5" t="s">
+      <c r="T5" s="3">
+        <v>0</v>
+      </c>
+      <c r="U5" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="U5" s="5" t="s">
-        <v>7</v>
-      </c>
       <c r="V5" s="5" t="s">
         <v>7</v>
       </c>
@@ -1102,14 +1118,17 @@
       <c r="X5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="Y5" s="7" t="s">
+      <c r="Y5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z5" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="Z5" s="4" t="s">
+      <c r="AA5" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1117,30 +1136,30 @@
       <c r="B6" s="3">
         <v>4</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>39</v>
+      <c r="C6" s="3">
+        <v>0</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>19</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" s="3">
-        <v>0</v>
+        <v>19</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="G6" s="3">
+        <v>0</v>
+      </c>
+      <c r="H6" s="3">
         <v>1</v>
       </c>
-      <c r="H6" s="3">
-        <v>7</v>
-      </c>
       <c r="I6" s="3">
+        <v>7</v>
+      </c>
+      <c r="J6" s="3">
         <v>60</v>
       </c>
-      <c r="J6" s="3">
-        <v>0</v>
-      </c>
       <c r="K6" s="3">
         <v>0</v>
       </c>
@@ -1168,8 +1187,8 @@
       <c r="S6" s="3">
         <v>0</v>
       </c>
-      <c r="T6" s="5" t="s">
-        <v>7</v>
+      <c r="T6" s="3">
+        <v>0</v>
       </c>
       <c r="U6" s="5" t="s">
         <v>7</v>
@@ -1183,14 +1202,17 @@
       <c r="X6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="Y6" s="7" t="s">
+      <c r="Y6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z6" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="Z6" s="4" t="s">
+      <c r="AA6" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1198,30 +1220,30 @@
       <c r="B7" s="3">
         <v>5</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="3">
+        <v>1</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="E7" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" s="3">
-        <v>0</v>
+      <c r="F7" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="G7" s="3">
+        <v>0</v>
+      </c>
+      <c r="H7" s="3">
         <v>1</v>
       </c>
-      <c r="H7" s="3">
-        <v>7</v>
-      </c>
       <c r="I7" s="3">
+        <v>7</v>
+      </c>
+      <c r="J7" s="3">
         <v>70</v>
       </c>
-      <c r="J7" s="3">
-        <v>0</v>
-      </c>
       <c r="K7" s="3">
         <v>0</v>
       </c>
@@ -1249,8 +1271,8 @@
       <c r="S7" s="3">
         <v>0</v>
       </c>
-      <c r="T7" s="5" t="s">
-        <v>7</v>
+      <c r="T7" s="3">
+        <v>0</v>
       </c>
       <c r="U7" s="5" t="s">
         <v>7</v>
@@ -1264,14 +1286,17 @@
       <c r="X7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="Y7" s="7" t="s">
+      <c r="Y7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z7" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="Z7" s="6" t="s">
+      <c r="AA7" s="6" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:26" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1279,30 +1304,30 @@
       <c r="B8" s="3">
         <v>6</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>39</v>
+      <c r="C8" s="3">
+        <v>0</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>21</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8" s="3">
-        <v>0</v>
+        <v>21</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="G8" s="3">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3">
         <v>1</v>
       </c>
-      <c r="H8" s="3">
-        <v>7</v>
-      </c>
       <c r="I8" s="3">
+        <v>7</v>
+      </c>
+      <c r="J8" s="3">
         <v>80</v>
       </c>
-      <c r="J8" s="3">
-        <v>0</v>
-      </c>
       <c r="K8" s="3">
         <v>0</v>
       </c>
@@ -1330,8 +1355,8 @@
       <c r="S8" s="3">
         <v>0</v>
       </c>
-      <c r="T8" s="5" t="s">
-        <v>7</v>
+      <c r="T8" s="3">
+        <v>0</v>
       </c>
       <c r="U8" s="5" t="s">
         <v>7</v>
@@ -1345,10 +1370,13 @@
       <c r="X8" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="Y8" s="7" t="s">
+      <c r="Y8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z8" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="Z8" s="4" t="s">
+      <c r="AA8" s="4" t="s">
         <v>22</v>
       </c>
     </row>

--- a/Assets/Excel_Data/Entity_QuestSetDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_QuestSetDataBase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EEC8F19-E0B3-40BB-BD57-067F50C80AE2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFAB8A59-4391-490C-A120-6485D0DEBF92}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3480" yWindow="2775" windowWidth="23475" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4425" yWindow="2700" windowWidth="23475" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01_QuestSetData" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -688,7 +690,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
+      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="27.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1311,10 +1313,10 @@
         <v>21</v>
       </c>
       <c r="E8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>7</v>
       </c>
       <c r="G8" s="3">
         <v>0</v>

--- a/Assets/Excel_Data/Entity_QuestSetDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_QuestSetDataBase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFAB8A59-4391-490C-A120-6485D0DEBF92}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{146FEF08-65A3-497C-8772-745A8757F3CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4425" yWindow="2700" windowWidth="23475" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3855" yWindow="2445" windowWidth="23505" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01_QuestSetData" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="50">
   <si>
     <t>desc</t>
   </si>
@@ -102,13 +102,6 @@
   </si>
   <si>
     <t>orange_neko_cookie</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>&lt;color=#FF78B4&gt;オレンジねこクッキー&lt;/color&gt;が食べたいなぁ。</t>
-    <rPh sb="34" eb="35">
-      <t>タ</t>
-    </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -281,6 +274,10 @@
   </si>
   <si>
     <t>QuestType</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Rusk</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -340,7 +337,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFCCCCCC"/>
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor rgb="FFCCCCCC"/>
       </patternFill>
     </fill>
@@ -360,7 +357,6 @@
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -368,6 +364,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -685,12 +682,12 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AA8"/>
+  <dimension ref="A1:AA7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="27.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -713,34 +710,34 @@
   <sheetData>
     <row r="1" spans="1:27" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>15</v>
@@ -760,16 +757,16 @@
       <c r="P1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="R1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="S1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="T1" s="7" t="s">
         <v>6</v>
       </c>
       <c r="U1" s="1" t="s">
@@ -788,598 +785,514 @@
         <v>12</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AA1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:27" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="3">
-        <f t="shared" ref="A2:A8" si="0">ROW()-2</f>
-        <v>0</v>
-      </c>
-      <c r="B2" s="3">
-        <v>0</v>
-      </c>
-      <c r="C2" s="3">
-        <v>0</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E2" s="3" t="s">
+      <c r="A2" s="2">
+        <f t="shared" ref="A2:A7" si="0">ROW()-2</f>
+        <v>0</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="3">
-        <v>0</v>
-      </c>
-      <c r="H2" s="3">
+      <c r="F2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0</v>
+      </c>
+      <c r="H2" s="2">
         <v>1</v>
       </c>
-      <c r="I2" s="3">
-        <v>7</v>
-      </c>
-      <c r="J2" s="3">
+      <c r="I2" s="2">
+        <v>7</v>
+      </c>
+      <c r="J2" s="2">
         <v>20</v>
       </c>
-      <c r="K2" s="3">
-        <v>0</v>
-      </c>
-      <c r="L2" s="3">
-        <v>0</v>
-      </c>
-      <c r="M2" s="3">
-        <v>0</v>
-      </c>
-      <c r="N2" s="3">
-        <v>0</v>
-      </c>
-      <c r="O2" s="3">
-        <v>0</v>
-      </c>
-      <c r="P2" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>0</v>
-      </c>
-      <c r="R2" s="3">
-        <v>0</v>
-      </c>
-      <c r="S2" s="3">
-        <v>0</v>
-      </c>
-      <c r="T2" s="3">
-        <v>0</v>
-      </c>
-      <c r="U2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="V2" s="5" t="s">
+      <c r="K2" s="2">
+        <v>0</v>
+      </c>
+      <c r="L2" s="2">
+        <v>0</v>
+      </c>
+      <c r="M2" s="2">
+        <v>0</v>
+      </c>
+      <c r="N2" s="2">
+        <v>0</v>
+      </c>
+      <c r="O2" s="2">
+        <v>0</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>0</v>
+      </c>
+      <c r="R2" s="2">
+        <v>0</v>
+      </c>
+      <c r="S2" s="2">
+        <v>0</v>
+      </c>
+      <c r="T2" s="2">
+        <v>0</v>
+      </c>
+      <c r="U2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="V2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="W2" s="5" t="s">
+      <c r="W2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="X2" s="5" t="s">
+      <c r="X2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="Y2" s="5" t="s">
+      <c r="Y2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="Z2" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="AA2" s="6" t="s">
-        <v>36</v>
+      <c r="Z2" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA2" s="5" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:27" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="3">
+      <c r="A3" s="2">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="2">
         <v>1</v>
       </c>
-      <c r="C3" s="3">
-        <v>0</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="3">
-        <v>0</v>
-      </c>
-      <c r="H3" s="3">
+      <c r="C3" s="2">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2">
         <v>1</v>
       </c>
-      <c r="I3" s="3">
-        <v>7</v>
-      </c>
-      <c r="J3" s="3">
-        <v>30</v>
-      </c>
-      <c r="K3" s="3">
-        <v>0</v>
-      </c>
-      <c r="L3" s="3">
-        <v>0</v>
-      </c>
-      <c r="M3" s="3">
-        <v>0</v>
-      </c>
-      <c r="N3" s="3">
-        <v>0</v>
-      </c>
-      <c r="O3" s="3">
+      <c r="I3" s="2">
+        <v>4</v>
+      </c>
+      <c r="J3" s="2">
+        <v>120</v>
+      </c>
+      <c r="K3" s="2">
+        <v>0</v>
+      </c>
+      <c r="L3" s="2">
+        <v>0</v>
+      </c>
+      <c r="M3" s="2">
+        <v>0</v>
+      </c>
+      <c r="N3" s="2">
+        <v>0</v>
+      </c>
+      <c r="O3" s="2">
         <v>20</v>
       </c>
-      <c r="P3" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="3">
-        <v>0</v>
-      </c>
-      <c r="R3" s="3">
-        <v>0</v>
-      </c>
-      <c r="S3" s="3">
-        <v>0</v>
-      </c>
-      <c r="T3" s="3">
-        <v>0</v>
-      </c>
-      <c r="U3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="V3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="W3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="X3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z3" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA3" s="4" t="s">
-        <v>23</v>
+      <c r="P3" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>0</v>
+      </c>
+      <c r="R3" s="2">
+        <v>0</v>
+      </c>
+      <c r="S3" s="2">
+        <v>0</v>
+      </c>
+      <c r="T3" s="2">
+        <v>0</v>
+      </c>
+      <c r="U3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="V3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="W3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="X3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z3" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA3" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:27" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="3">
+      <c r="A4" s="2">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <v>2</v>
       </c>
-      <c r="C4" s="3">
-        <v>0</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="3" t="s">
+      <c r="C4" s="2">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2">
+        <v>1</v>
+      </c>
+      <c r="I4" s="2">
+        <v>7</v>
+      </c>
+      <c r="J4" s="2">
+        <v>40</v>
+      </c>
+      <c r="K4" s="2">
+        <v>30</v>
+      </c>
+      <c r="L4" s="2">
+        <v>0</v>
+      </c>
+      <c r="M4" s="2">
+        <v>0</v>
+      </c>
+      <c r="N4" s="2">
+        <v>0</v>
+      </c>
+      <c r="O4" s="2">
+        <v>0</v>
+      </c>
+      <c r="P4" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>0</v>
+      </c>
+      <c r="R4" s="2">
+        <v>0</v>
+      </c>
+      <c r="S4" s="2">
+        <v>0</v>
+      </c>
+      <c r="T4" s="2">
+        <v>0</v>
+      </c>
+      <c r="U4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="V4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="W4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="X4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z4" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA4" s="3" t="s">
         <v>24</v>
-      </c>
-      <c r="G4" s="3">
-        <v>0</v>
-      </c>
-      <c r="H4" s="3">
-        <v>1</v>
-      </c>
-      <c r="I4" s="3">
-        <v>7</v>
-      </c>
-      <c r="J4" s="3">
-        <v>40</v>
-      </c>
-      <c r="K4" s="3">
-        <v>30</v>
-      </c>
-      <c r="L4" s="3">
-        <v>0</v>
-      </c>
-      <c r="M4" s="3">
-        <v>0</v>
-      </c>
-      <c r="N4" s="3">
-        <v>0</v>
-      </c>
-      <c r="O4" s="3">
-        <v>0</v>
-      </c>
-      <c r="P4" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="3">
-        <v>0</v>
-      </c>
-      <c r="R4" s="3">
-        <v>0</v>
-      </c>
-      <c r="S4" s="3">
-        <v>0</v>
-      </c>
-      <c r="T4" s="3">
-        <v>0</v>
-      </c>
-      <c r="U4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="V4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="W4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="X4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z4" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA4" s="4" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:27" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="3">
+      <c r="A5" s="2">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="2">
         <v>3</v>
       </c>
-      <c r="C5" s="3">
-        <v>0</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" s="3">
-        <v>0</v>
-      </c>
-      <c r="H5" s="3">
+      <c r="C5" s="2">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0</v>
+      </c>
+      <c r="H5" s="2">
         <v>1</v>
       </c>
-      <c r="I5" s="3">
-        <v>7</v>
-      </c>
-      <c r="J5" s="3">
+      <c r="I5" s="2">
+        <v>7</v>
+      </c>
+      <c r="J5" s="2">
         <v>50</v>
       </c>
-      <c r="K5" s="3">
-        <v>0</v>
-      </c>
-      <c r="L5" s="3">
-        <v>0</v>
-      </c>
-      <c r="M5" s="3">
-        <v>0</v>
-      </c>
-      <c r="N5" s="3">
-        <v>0</v>
-      </c>
-      <c r="O5" s="3">
-        <v>0</v>
-      </c>
-      <c r="P5" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="3">
-        <v>0</v>
-      </c>
-      <c r="R5" s="3">
-        <v>0</v>
-      </c>
-      <c r="S5" s="3">
-        <v>0</v>
-      </c>
-      <c r="T5" s="3">
-        <v>0</v>
-      </c>
-      <c r="U5" s="5" t="s">
+      <c r="K5" s="2">
+        <v>0</v>
+      </c>
+      <c r="L5" s="2">
+        <v>0</v>
+      </c>
+      <c r="M5" s="2">
+        <v>0</v>
+      </c>
+      <c r="N5" s="2">
+        <v>0</v>
+      </c>
+      <c r="O5" s="2">
+        <v>0</v>
+      </c>
+      <c r="P5" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>0</v>
+      </c>
+      <c r="R5" s="2">
+        <v>0</v>
+      </c>
+      <c r="S5" s="2">
+        <v>0</v>
+      </c>
+      <c r="T5" s="2">
+        <v>0</v>
+      </c>
+      <c r="U5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="V5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="W5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="X5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z5" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA5" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="V5" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="W5" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="X5" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y5" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z5" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="AA5" s="4" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:27" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="3">
+      <c r="A6" s="2">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="2">
         <v>4</v>
       </c>
-      <c r="C6" s="3">
-        <v>0</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G6" s="3">
-        <v>0</v>
-      </c>
-      <c r="H6" s="3">
+      <c r="C6" s="2">
         <v>1</v>
       </c>
-      <c r="I6" s="3">
-        <v>7</v>
-      </c>
-      <c r="J6" s="3">
-        <v>60</v>
-      </c>
-      <c r="K6" s="3">
-        <v>0</v>
-      </c>
-      <c r="L6" s="3">
-        <v>0</v>
-      </c>
-      <c r="M6" s="3">
-        <v>0</v>
-      </c>
-      <c r="N6" s="3">
-        <v>0</v>
-      </c>
-      <c r="O6" s="3">
-        <v>0</v>
-      </c>
-      <c r="P6" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="3">
-        <v>0</v>
-      </c>
-      <c r="R6" s="3">
-        <v>0</v>
-      </c>
-      <c r="S6" s="3">
-        <v>0</v>
-      </c>
-      <c r="T6" s="3">
-        <v>0</v>
-      </c>
-      <c r="U6" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="V6" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="W6" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="X6" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y6" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z6" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="AA6" s="4" t="s">
-        <v>20</v>
+      <c r="D6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2">
+        <v>1</v>
+      </c>
+      <c r="I6" s="2">
+        <v>7</v>
+      </c>
+      <c r="J6" s="2">
+        <v>70</v>
+      </c>
+      <c r="K6" s="2">
+        <v>0</v>
+      </c>
+      <c r="L6" s="2">
+        <v>0</v>
+      </c>
+      <c r="M6" s="2">
+        <v>0</v>
+      </c>
+      <c r="N6" s="2">
+        <v>0</v>
+      </c>
+      <c r="O6" s="2">
+        <v>0</v>
+      </c>
+      <c r="P6" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>0</v>
+      </c>
+      <c r="R6" s="2">
+        <v>0</v>
+      </c>
+      <c r="S6" s="2">
+        <v>0</v>
+      </c>
+      <c r="T6" s="2">
+        <v>0</v>
+      </c>
+      <c r="U6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="V6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="W6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="X6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z6" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA6" s="5" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:27" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="3">
+      <c r="A7" s="2">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="2">
         <v>5</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="2">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2">
         <v>1</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G7" s="3">
-        <v>0</v>
-      </c>
-      <c r="H7" s="3">
-        <v>1</v>
-      </c>
-      <c r="I7" s="3">
-        <v>7</v>
-      </c>
-      <c r="J7" s="3">
-        <v>70</v>
-      </c>
-      <c r="K7" s="3">
-        <v>0</v>
-      </c>
-      <c r="L7" s="3">
-        <v>0</v>
-      </c>
-      <c r="M7" s="3">
-        <v>0</v>
-      </c>
-      <c r="N7" s="3">
-        <v>0</v>
-      </c>
-      <c r="O7" s="3">
-        <v>0</v>
-      </c>
-      <c r="P7" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="3">
-        <v>0</v>
-      </c>
-      <c r="R7" s="3">
-        <v>0</v>
-      </c>
-      <c r="S7" s="3">
-        <v>0</v>
-      </c>
-      <c r="T7" s="3">
-        <v>0</v>
-      </c>
-      <c r="U7" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="V7" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="W7" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="X7" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y7" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z7" s="7" t="s">
+      <c r="I7" s="2">
+        <v>7</v>
+      </c>
+      <c r="J7" s="2">
+        <v>80</v>
+      </c>
+      <c r="K7" s="2">
+        <v>0</v>
+      </c>
+      <c r="L7" s="2">
+        <v>0</v>
+      </c>
+      <c r="M7" s="2">
+        <v>0</v>
+      </c>
+      <c r="N7" s="2">
+        <v>0</v>
+      </c>
+      <c r="O7" s="2">
+        <v>0</v>
+      </c>
+      <c r="P7" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>0</v>
+      </c>
+      <c r="R7" s="2">
+        <v>0</v>
+      </c>
+      <c r="S7" s="2">
+        <v>0</v>
+      </c>
+      <c r="T7" s="2">
+        <v>0</v>
+      </c>
+      <c r="U7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="V7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="W7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="X7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z7" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="AA7" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:27" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="3">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B8" s="3">
-        <v>6</v>
-      </c>
-      <c r="C8" s="3">
-        <v>0</v>
-      </c>
-      <c r="D8" s="3" t="s">
+      <c r="AA7" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8" s="3">
-        <v>0</v>
-      </c>
-      <c r="H8" s="3">
-        <v>1</v>
-      </c>
-      <c r="I8" s="3">
-        <v>7</v>
-      </c>
-      <c r="J8" s="3">
-        <v>80</v>
-      </c>
-      <c r="K8" s="3">
-        <v>0</v>
-      </c>
-      <c r="L8" s="3">
-        <v>0</v>
-      </c>
-      <c r="M8" s="3">
-        <v>0</v>
-      </c>
-      <c r="N8" s="3">
-        <v>0</v>
-      </c>
-      <c r="O8" s="3">
-        <v>0</v>
-      </c>
-      <c r="P8" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>0</v>
-      </c>
-      <c r="R8" s="3">
-        <v>0</v>
-      </c>
-      <c r="S8" s="3">
-        <v>0</v>
-      </c>
-      <c r="T8" s="3">
-        <v>0</v>
-      </c>
-      <c r="U8" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="V8" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="W8" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="X8" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y8" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z8" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="AA8" s="4" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel_Data/Entity_QuestSetDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_QuestSetDataBase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{146FEF08-65A3-497C-8772-745A8757F3CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B29563A-2D43-4CAC-9717-127FF6342CAC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3855" yWindow="2445" windowWidth="23505" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3255" yWindow="2670" windowWidth="23505" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01_QuestSetData" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="53">
   <si>
     <t>desc</t>
   </si>
@@ -278,6 +278,49 @@
   </si>
   <si>
     <t>Rusk</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>変な草の入手</t>
+    <rPh sb="0" eb="1">
+      <t>ヘン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>クサ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ニュウシュ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>strange_grass</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>近くの森に生えてる&lt;color=#FF78B4&gt;草&lt;/color&gt;があると助かるわね。
+採ってきてくれたらお駄賃をあげるわよ～。</t>
+    <rPh sb="0" eb="1">
+      <t>チカ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>モリ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ハ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>クサ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>タス</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>ダチン</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -682,12 +725,12 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AA7"/>
+  <dimension ref="A1:AA8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
+      <selection pane="bottomLeft" activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="27.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -793,7 +836,7 @@
     </row>
     <row r="2" spans="1:27" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
-        <f t="shared" ref="A2:A7" si="0">ROW()-2</f>
+        <f t="shared" ref="A2:A8" si="0">ROW()-2</f>
         <v>0</v>
       </c>
       <c r="B2" s="2">
@@ -821,7 +864,7 @@
         <v>7</v>
       </c>
       <c r="J2" s="2">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="K2" s="2">
         <v>0</v>
@@ -905,7 +948,7 @@
         <v>4</v>
       </c>
       <c r="J3" s="2">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="K3" s="2">
         <v>0</v>
@@ -920,7 +963,7 @@
         <v>0</v>
       </c>
       <c r="O3" s="2">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="P3" s="2">
         <v>0</v>
@@ -989,7 +1032,7 @@
         <v>7</v>
       </c>
       <c r="J4" s="2">
-        <v>40</v>
+        <v>320</v>
       </c>
       <c r="K4" s="2">
         <v>30</v>
@@ -1073,7 +1116,7 @@
         <v>7</v>
       </c>
       <c r="J5" s="2">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="K5" s="2">
         <v>0</v>
@@ -1220,16 +1263,16 @@
         <v>5</v>
       </c>
       <c r="C7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="G7" s="2">
         <v>0</v>
@@ -1241,7 +1284,7 @@
         <v>7</v>
       </c>
       <c r="J7" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="K7" s="2">
         <v>0</v>
@@ -1289,9 +1332,93 @@
         <v>7</v>
       </c>
       <c r="Z7" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA7" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B8" s="2">
+        <v>6</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0</v>
+      </c>
+      <c r="H8" s="2">
+        <v>1</v>
+      </c>
+      <c r="I8" s="2">
+        <v>7</v>
+      </c>
+      <c r="J8" s="2">
+        <v>150</v>
+      </c>
+      <c r="K8" s="2">
+        <v>0</v>
+      </c>
+      <c r="L8" s="2">
+        <v>0</v>
+      </c>
+      <c r="M8" s="2">
+        <v>0</v>
+      </c>
+      <c r="N8" s="2">
+        <v>0</v>
+      </c>
+      <c r="O8" s="2">
+        <v>0</v>
+      </c>
+      <c r="P8" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>0</v>
+      </c>
+      <c r="R8" s="2">
+        <v>0</v>
+      </c>
+      <c r="S8" s="2">
+        <v>0</v>
+      </c>
+      <c r="T8" s="2">
+        <v>0</v>
+      </c>
+      <c r="U8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="V8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="W8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="X8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z8" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="AA7" s="3" t="s">
+      <c r="AA8" s="3" t="s">
         <v>21</v>
       </c>
     </row>

--- a/Assets/Excel_Data/Entity_QuestSetDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_QuestSetDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B29563A-2D43-4CAC-9717-127FF6342CAC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04A1914E-3327-4B50-8D5A-277D6228665F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3255" yWindow="2670" windowWidth="23505" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1890" yWindow="1935" windowWidth="23505" windowHeight="12075" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01_QuestSetData" sheetId="1" r:id="rId1"/>
@@ -727,10 +727,10 @@
   </sheetPr>
   <dimension ref="A1:AA8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="O4" sqref="O4"/>
+      <selection pane="bottomLeft" activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="27.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="O2" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="P2" s="2">
         <v>0</v>
@@ -1131,7 +1131,7 @@
         <v>0</v>
       </c>
       <c r="O5" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="P5" s="2">
         <v>0</v>
@@ -1383,7 +1383,7 @@
         <v>0</v>
       </c>
       <c r="O8" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="P8" s="2">
         <v>0</v>

--- a/Assets/Excel_Data/Entity_QuestSetDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_QuestSetDataBase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04A1914E-3327-4B50-8D5A-277D6228665F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC994F61-DB95-4B12-8C48-7DACEA06F1C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1890" yWindow="1935" windowWidth="23505" windowHeight="12075" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2775" yWindow="2175" windowWidth="24090" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01_QuestSetData" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="73">
   <si>
     <t>desc</t>
   </si>
@@ -116,16 +116,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>&lt;color=#FF78B4&gt;さくさくしたお菓子&lt;/color&gt;が食べたいなぁ</t>
-    <rPh sb="22" eb="24">
-      <t>カシ</t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t>タ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Cookie</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -137,17 +127,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>Orange</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>&lt;color=#FF78B4&gt;オレンジのねこクッキー&lt;/color&gt;が食べたいなぁ。</t>
-    <rPh sb="35" eb="36">
-      <t>タ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>ID</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -177,23 +156,6 @@
   </si>
   <si>
     <t>buy_price</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>これは、&lt;color=#FF78B4&gt;大富豪&lt;/color&gt;からのご依頼ね。
-パーティーに彩りを添えたいとのことだわ。</t>
-    <rPh sb="19" eb="22">
-      <t>ダイフゴウ</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>イライ</t>
-    </rPh>
-    <rPh sb="45" eb="46">
-      <t>イロド</t>
-    </rPh>
-    <rPh sb="48" eb="49">
-      <t>ソ</t>
-    </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -234,13 +196,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>さくさくしたお菓子の納品</t>
-    <rPh sb="10" eb="12">
-      <t>ノウヒン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>コクのあるクッキーが食べたい</t>
     <rPh sb="10" eb="11">
       <t>タ</t>
@@ -320,6 +275,272 @@
     </rPh>
     <rPh sb="54" eb="56">
       <t>ダチン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;color=#FF78B4&gt;さくさくしたクッキー&lt;/color&gt;が食べたいなぁ</t>
+    <rPh sb="34" eb="35">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>さくさくしたクッキーの納品</t>
+    <rPh sb="11" eb="13">
+      <t>ノウヒン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>orange</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>オレンジの入手</t>
+    <rPh sb="5" eb="7">
+      <t>ニュウシュ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;color=#FF78B4&gt;オレンジ&lt;/color&gt;があると助かるわね。
+採ってきてくれたらお駄賃をあげるわよ～。</t>
+    <rPh sb="31" eb="32">
+      <t>タス</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>ダチン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>nuts</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ナッツの入手</t>
+    <rPh sb="4" eb="6">
+      <t>ニュウシュ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;color=#FF78B4&gt;ナッツ&lt;/color&gt;があると助かるわね。
+採ってきてくれたらお駄賃をあげるわよ～。</t>
+    <rPh sb="30" eb="31">
+      <t>タス</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>ダチン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>kirakira_stone1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>きれいな石の入手</t>
+    <rPh sb="4" eb="5">
+      <t>イシ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ニュウシュ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;color=#FF78B4&gt;きれいな石&lt;/color&gt;って、持ってない？
+コレクターの富豪に、高く売れるわよ。</t>
+    <rPh sb="19" eb="20">
+      <t>イシ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>フゴウ</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>タカ</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>ウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>emerald_suger</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>エメラルドシュガーの入手</t>
+    <rPh sb="10" eb="12">
+      <t>ニュウシュ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;color=#FF78B4&gt;エメラルド色のお砂糖&lt;/color&gt;、持ってない？
+貴重だけど、これが欲しい人がいるの。</t>
+    <rPh sb="20" eb="21">
+      <t>イロ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>サトウ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>キチョウ</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>ホ</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>ヒト</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>himawari_seed</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ひまわりの種の入手</t>
+    <rPh sb="5" eb="6">
+      <t>タネ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ニュウシュ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>himawari_Oil</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ひまわり油の入手</t>
+    <rPh sb="4" eb="5">
+      <t>アブラ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ニュウシュ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;color=#FF78B4&gt;ひまわり油&lt;/color&gt;って、持ってる？
+最近流行りの揚げお菓子を作るために、必要なのよ。</t>
+    <rPh sb="19" eb="20">
+      <t>アブラ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>サイキン</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ハヤ</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>カシ</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;color=#FF78B4&gt;ひまわりの種&lt;/color&gt;があると助かるわね。
+採ってきてくれたらお駄賃をあげるわよ～。</t>
+    <rPh sb="20" eb="21">
+      <t>タネ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>QuestHyouji</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>shishamo_cookie</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ししゃもクッキーの納品</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>これは、とあるお客様からのご依頼ね..。
+&lt;color=#FF78B4&gt;ししゃもクッキー&lt;/color&gt;を高値で買い取りたいとのことだわ。</t>
+    <rPh sb="8" eb="10">
+      <t>キャクサマ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>イライ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>タカネ</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>これは、&lt;color=#FF78B4&gt;大富豪&lt;/color&gt;からのご依頼ね。
+パーティー用に、おいしいクッキーが欲しいそうだわ。</t>
+    <rPh sb="19" eb="22">
+      <t>ダイフゴウ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>イライ</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>ホ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>これは、&lt;color=#FF78B4&gt;大富豪&lt;/color&gt;からのご依頼ね。
+パーティー用に、彩りがあるクッキーが欲しいとのことだわ。</t>
+    <rPh sb="19" eb="22">
+      <t>ダイフゴウ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>イライ</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>イロドリ</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>ホ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -365,7 +586,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -384,6 +605,12 @@
         <bgColor rgb="FFCCCCCC"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -397,7 +624,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -408,6 +635,14 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -725,233 +960,243 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AA8"/>
+  <dimension ref="A1:AB15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="O9" sqref="O9"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="27.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.85546875" customWidth="1"/>
-    <col min="2" max="3" width="9.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" customWidth="1"/>
-    <col min="5" max="5" width="22.42578125" customWidth="1"/>
-    <col min="6" max="6" width="17.7109375" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" customWidth="1"/>
-    <col min="8" max="8" width="9.5703125" customWidth="1"/>
-    <col min="9" max="10" width="10.28515625" customWidth="1"/>
-    <col min="11" max="17" width="6.7109375" customWidth="1"/>
-    <col min="18" max="18" width="8.42578125" customWidth="1"/>
-    <col min="19" max="20" width="6.7109375" customWidth="1"/>
-    <col min="21" max="21" width="11.5703125" customWidth="1"/>
-    <col min="26" max="26" width="21.140625" customWidth="1"/>
-    <col min="27" max="27" width="62" customWidth="1"/>
+    <col min="1" max="2" width="7.85546875" customWidth="1"/>
+    <col min="3" max="4" width="9.7109375" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" customWidth="1"/>
+    <col min="6" max="6" width="22.42578125" customWidth="1"/>
+    <col min="7" max="7" width="17.7109375" customWidth="1"/>
+    <col min="8" max="8" width="8" customWidth="1"/>
+    <col min="9" max="9" width="8.42578125" customWidth="1"/>
+    <col min="10" max="10" width="8.7109375" customWidth="1"/>
+    <col min="11" max="11" width="10.28515625" customWidth="1"/>
+    <col min="12" max="17" width="5" customWidth="1"/>
+    <col min="18" max="18" width="6.7109375" customWidth="1"/>
+    <col min="19" max="19" width="8.42578125" customWidth="1"/>
+    <col min="20" max="21" width="6.7109375" customWidth="1"/>
+    <col min="22" max="22" width="11.5703125" customWidth="1"/>
+    <col min="27" max="27" width="21.140625" customWidth="1"/>
+    <col min="28" max="28" width="62" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:28" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="I1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="L1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="R1" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="T1" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="U1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" s="12" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="8">
+        <f t="shared" ref="A2:A15" si="0">ROW()-2</f>
+        <v>0</v>
+      </c>
+      <c r="B2" s="8">
+        <f>(ROW()-2)*10</f>
+        <v>0</v>
+      </c>
+      <c r="C2" s="8">
+        <v>0</v>
+      </c>
+      <c r="D2" s="8">
+        <v>0</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="P1" s="1" t="s">
+      <c r="F2" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="8">
+        <v>0</v>
+      </c>
+      <c r="I2" s="8">
+        <v>1</v>
+      </c>
+      <c r="J2" s="8">
         <v>5</v>
       </c>
-      <c r="Q1" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="S1" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>0</v>
+      <c r="K2" s="8">
+        <v>200</v>
+      </c>
+      <c r="L2" s="8">
+        <v>0</v>
+      </c>
+      <c r="M2" s="8">
+        <v>0</v>
+      </c>
+      <c r="N2" s="8">
+        <v>0</v>
+      </c>
+      <c r="O2" s="8">
+        <v>0</v>
+      </c>
+      <c r="P2" s="8">
+        <v>20</v>
+      </c>
+      <c r="Q2" s="8">
+        <v>0</v>
+      </c>
+      <c r="R2" s="8">
+        <v>0</v>
+      </c>
+      <c r="S2" s="8">
+        <v>0</v>
+      </c>
+      <c r="T2" s="8">
+        <v>0</v>
+      </c>
+      <c r="U2" s="8">
+        <v>0</v>
+      </c>
+      <c r="V2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="W2" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="X2" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y2" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z2" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA2" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB2" s="13" t="s">
+        <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:27" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2">
-        <f t="shared" ref="A2:A8" si="0">ROW()-2</f>
-        <v>0</v>
-      </c>
-      <c r="B2" s="2">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2">
-        <v>0</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="2">
-        <v>0</v>
-      </c>
-      <c r="H2" s="2">
-        <v>1</v>
-      </c>
-      <c r="I2" s="2">
-        <v>7</v>
-      </c>
-      <c r="J2" s="2">
-        <v>200</v>
-      </c>
-      <c r="K2" s="2">
-        <v>0</v>
-      </c>
-      <c r="L2" s="2">
-        <v>0</v>
-      </c>
-      <c r="M2" s="2">
-        <v>0</v>
-      </c>
-      <c r="N2" s="2">
-        <v>0</v>
-      </c>
-      <c r="O2" s="2">
-        <v>20</v>
-      </c>
-      <c r="P2" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="2">
-        <v>0</v>
-      </c>
-      <c r="R2" s="2">
-        <v>0</v>
-      </c>
-      <c r="S2" s="2">
-        <v>0</v>
-      </c>
-      <c r="T2" s="2">
-        <v>0</v>
-      </c>
-      <c r="U2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="V2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="W2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="X2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z2" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA2" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:28" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>1</v>
+        <f>(ROW()-2)*10</f>
+        <v>10</v>
       </c>
       <c r="C3" s="2">
         <v>0</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>18</v>
+      <c r="D3" s="2">
+        <v>0</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" s="2">
-        <v>0</v>
+        <v>19</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="H3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J3" s="2">
-        <v>200</v>
+        <v>5</v>
       </c>
       <c r="K3" s="2">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="L3" s="2">
         <v>0</v>
@@ -963,10 +1208,10 @@
         <v>0</v>
       </c>
       <c r="O3" s="2">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="P3" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="Q3" s="2">
         <v>0</v>
@@ -980,8 +1225,8 @@
       <c r="T3" s="2">
         <v>0</v>
       </c>
-      <c r="U3" s="4" t="s">
-        <v>7</v>
+      <c r="U3" s="2">
+        <v>0</v>
       </c>
       <c r="V3" s="4" t="s">
         <v>7</v>
@@ -995,47 +1240,51 @@
       <c r="Y3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="Z3" s="6" t="s">
+      <c r="Z3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA3" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="AA3" s="3" t="s">
-        <v>22</v>
+      <c r="AB3" s="5" t="s">
+        <v>73</v>
       </c>
     </row>
-    <row r="4" spans="1:27" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:28" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="B4" s="2">
-        <v>2</v>
+        <f>(ROW()-2)*10</f>
+        <v>20</v>
       </c>
       <c r="C4" s="2">
-        <v>0</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>18</v>
+        <v>1</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" s="2">
-        <v>0</v>
+        <v>36</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="H4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" s="2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="J4" s="2">
-        <v>320</v>
+        <v>7</v>
       </c>
       <c r="K4" s="2">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="L4" s="2">
         <v>0</v>
@@ -1064,8 +1313,8 @@
       <c r="T4" s="2">
         <v>0</v>
       </c>
-      <c r="U4" s="4" t="s">
-        <v>7</v>
+      <c r="U4" s="2">
+        <v>0</v>
       </c>
       <c r="V4" s="4" t="s">
         <v>7</v>
@@ -1079,47 +1328,51 @@
       <c r="Y4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="Z4" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA4" s="3" t="s">
-        <v>24</v>
+      <c r="Z4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA4" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB4" s="5" t="s">
+        <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:27" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B5" s="2">
-        <v>3</v>
+        <f>(ROW()-2)*10</f>
+        <v>30</v>
       </c>
       <c r="C5" s="2">
-        <v>0</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>19</v>
+        <v>1</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" s="2">
-        <v>0</v>
+        <v>46</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="H5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" s="2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="J5" s="2">
-        <v>300</v>
+        <v>7</v>
       </c>
       <c r="K5" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L5" s="2">
         <v>0</v>
@@ -1131,7 +1384,7 @@
         <v>0</v>
       </c>
       <c r="O5" s="2">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="P5" s="2">
         <v>0</v>
@@ -1148,8 +1401,8 @@
       <c r="T5" s="2">
         <v>0</v>
       </c>
-      <c r="U5" s="4" t="s">
-        <v>25</v>
+      <c r="U5" s="2">
+        <v>0</v>
       </c>
       <c r="V5" s="4" t="s">
         <v>7</v>
@@ -1163,47 +1416,51 @@
       <c r="Y5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="Z5" s="6" t="s">
+      <c r="Z5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA5" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB5" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="AA5" s="3" t="s">
-        <v>26</v>
-      </c>
     </row>
-    <row r="6" spans="1:27" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B6" s="2">
-        <v>4</v>
+        <f>(ROW()-2)*10</f>
+        <v>40</v>
       </c>
       <c r="C6" s="2">
         <v>1</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>38</v>
+      <c r="D6" s="2">
+        <v>0</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G6" s="2">
-        <v>0</v>
+        <v>50</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="H6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" s="2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="J6" s="2">
-        <v>70</v>
+        <v>7</v>
       </c>
       <c r="K6" s="2">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L6" s="2">
         <v>0</v>
@@ -1232,8 +1489,8 @@
       <c r="T6" s="2">
         <v>0</v>
       </c>
-      <c r="U6" s="4" t="s">
-        <v>7</v>
+      <c r="U6" s="2">
+        <v>0</v>
       </c>
       <c r="V6" s="4" t="s">
         <v>7</v>
@@ -1247,47 +1504,51 @@
       <c r="Y6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="Z6" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="AA6" s="5" t="s">
-        <v>39</v>
+      <c r="Z6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA6" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB6" s="5" t="s">
+        <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:27" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B7" s="2">
-        <v>5</v>
+        <f>(ROW()-2)*10</f>
+        <v>50</v>
       </c>
       <c r="C7" s="2">
         <v>1</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>51</v>
+      <c r="D7" s="2">
+        <v>0</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G7" s="2">
-        <v>0</v>
+        <v>53</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="H7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" s="2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="J7" s="2">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="K7" s="2">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="L7" s="2">
         <v>0</v>
@@ -1316,8 +1577,8 @@
       <c r="T7" s="2">
         <v>0</v>
       </c>
-      <c r="U7" s="4" t="s">
-        <v>7</v>
+      <c r="U7" s="2">
+        <v>0</v>
       </c>
       <c r="V7" s="4" t="s">
         <v>7</v>
@@ -1331,94 +1592,716 @@
       <c r="Y7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="Z7" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="AA7" s="5" t="s">
-        <v>52</v>
+      <c r="Z7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA7" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB7" s="5" t="s">
+        <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:27" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B8" s="2">
-        <v>6</v>
+        <f>(ROW()-2)*10</f>
+        <v>60</v>
       </c>
       <c r="C8" s="2">
-        <v>0</v>
-      </c>
-      <c r="D8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0</v>
+      </c>
+      <c r="I8" s="2">
+        <v>1</v>
+      </c>
+      <c r="J8" s="2">
+        <v>1</v>
+      </c>
+      <c r="K8" s="2">
+        <v>300</v>
+      </c>
+      <c r="L8" s="2">
+        <v>0</v>
+      </c>
+      <c r="M8" s="2">
+        <v>0</v>
+      </c>
+      <c r="N8" s="2">
+        <v>0</v>
+      </c>
+      <c r="O8" s="2">
+        <v>0</v>
+      </c>
+      <c r="P8" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>0</v>
+      </c>
+      <c r="R8" s="2">
+        <v>0</v>
+      </c>
+      <c r="S8" s="2">
+        <v>0</v>
+      </c>
+      <c r="T8" s="2">
+        <v>0</v>
+      </c>
+      <c r="U8" s="2">
+        <v>0</v>
+      </c>
+      <c r="V8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="W8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="X8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA8" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB8" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B9" s="2">
+        <f>(ROW()-2)*10</f>
+        <v>70</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0</v>
+      </c>
+      <c r="I9" s="2">
+        <v>1</v>
+      </c>
+      <c r="J9" s="2">
+        <v>1</v>
+      </c>
+      <c r="K9" s="2">
+        <v>300</v>
+      </c>
+      <c r="L9" s="2">
+        <v>0</v>
+      </c>
+      <c r="M9" s="2">
+        <v>0</v>
+      </c>
+      <c r="N9" s="2">
+        <v>0</v>
+      </c>
+      <c r="O9" s="2">
+        <v>0</v>
+      </c>
+      <c r="P9" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>0</v>
+      </c>
+      <c r="R9" s="2">
+        <v>0</v>
+      </c>
+      <c r="S9" s="2">
+        <v>0</v>
+      </c>
+      <c r="T9" s="2">
+        <v>0</v>
+      </c>
+      <c r="U9" s="2">
+        <v>0</v>
+      </c>
+      <c r="V9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="W9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="X9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA9" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB9" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B10" s="2">
+        <f>(ROW()-2)*10</f>
+        <v>80</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0</v>
+      </c>
+      <c r="D10" s="2">
+        <v>2</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0</v>
+      </c>
+      <c r="I10" s="2">
+        <v>1</v>
+      </c>
+      <c r="J10" s="2">
+        <v>5</v>
+      </c>
+      <c r="K10" s="2">
+        <v>350</v>
+      </c>
+      <c r="L10" s="2">
+        <v>0</v>
+      </c>
+      <c r="M10" s="2">
+        <v>0</v>
+      </c>
+      <c r="N10" s="2">
+        <v>0</v>
+      </c>
+      <c r="O10" s="2">
+        <v>0</v>
+      </c>
+      <c r="P10" s="2">
         <v>20</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8" s="2" t="s">
+      <c r="Q10" s="2">
+        <v>0</v>
+      </c>
+      <c r="R10" s="2">
+        <v>0</v>
+      </c>
+      <c r="S10" s="2">
+        <v>0</v>
+      </c>
+      <c r="T10" s="2">
+        <v>0</v>
+      </c>
+      <c r="U10" s="2">
+        <v>0</v>
+      </c>
+      <c r="V10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="W10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="X10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA10" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB10" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B11" s="2">
+        <f>(ROW()-2)*10</f>
+        <v>90</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1</v>
+      </c>
+      <c r="D11" s="2">
+        <v>4</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0</v>
+      </c>
+      <c r="I11" s="2">
+        <v>1</v>
+      </c>
+      <c r="J11" s="2">
+        <v>7</v>
+      </c>
+      <c r="K11" s="2">
+        <v>15</v>
+      </c>
+      <c r="L11" s="2">
+        <v>0</v>
+      </c>
+      <c r="M11" s="2">
+        <v>0</v>
+      </c>
+      <c r="N11" s="2">
+        <v>0</v>
+      </c>
+      <c r="O11" s="2">
+        <v>0</v>
+      </c>
+      <c r="P11" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>0</v>
+      </c>
+      <c r="R11" s="2">
+        <v>0</v>
+      </c>
+      <c r="S11" s="2">
+        <v>0</v>
+      </c>
+      <c r="T11" s="2">
+        <v>0</v>
+      </c>
+      <c r="U11" s="2">
+        <v>0</v>
+      </c>
+      <c r="V11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="W11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="X11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA11" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB11" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B12" s="2">
+        <f>(ROW()-2)*10</f>
+        <v>100</v>
+      </c>
+      <c r="C12" s="2">
+        <v>1</v>
+      </c>
+      <c r="D12" s="2">
+        <v>4</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0</v>
+      </c>
+      <c r="I12" s="2">
+        <v>1</v>
+      </c>
+      <c r="J12" s="2">
+        <v>2</v>
+      </c>
+      <c r="K12" s="2">
+        <v>200</v>
+      </c>
+      <c r="L12" s="2">
+        <v>0</v>
+      </c>
+      <c r="M12" s="2">
+        <v>0</v>
+      </c>
+      <c r="N12" s="2">
+        <v>0</v>
+      </c>
+      <c r="O12" s="2">
+        <v>0</v>
+      </c>
+      <c r="P12" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>0</v>
+      </c>
+      <c r="R12" s="2">
+        <v>0</v>
+      </c>
+      <c r="S12" s="2">
+        <v>0</v>
+      </c>
+      <c r="T12" s="2">
+        <v>0</v>
+      </c>
+      <c r="U12" s="2">
+        <v>0</v>
+      </c>
+      <c r="V12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="W12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="X12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA12" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB12" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" s="12" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="8">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B13" s="8">
+        <v>1000</v>
+      </c>
+      <c r="C13" s="8">
+        <v>0</v>
+      </c>
+      <c r="D13" s="8">
+        <v>0</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H13" s="8">
+        <v>0</v>
+      </c>
+      <c r="I13" s="8">
+        <v>1</v>
+      </c>
+      <c r="J13" s="8">
+        <v>4</v>
+      </c>
+      <c r="K13" s="8">
+        <v>200</v>
+      </c>
+      <c r="L13" s="8">
+        <v>0</v>
+      </c>
+      <c r="M13" s="8">
+        <v>0</v>
+      </c>
+      <c r="N13" s="8">
+        <v>0</v>
+      </c>
+      <c r="O13" s="8">
+        <v>0</v>
+      </c>
+      <c r="P13" s="8">
+        <v>30</v>
+      </c>
+      <c r="Q13" s="8">
+        <v>0</v>
+      </c>
+      <c r="R13" s="8">
+        <v>0</v>
+      </c>
+      <c r="S13" s="8">
+        <v>0</v>
+      </c>
+      <c r="T13" s="8">
+        <v>0</v>
+      </c>
+      <c r="U13" s="8">
+        <v>0</v>
+      </c>
+      <c r="V13" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="W13" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="X13" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y13" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z13" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA13" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="G8" s="2">
-        <v>0</v>
-      </c>
-      <c r="H8" s="2">
-        <v>1</v>
-      </c>
-      <c r="I8" s="2">
-        <v>7</v>
-      </c>
-      <c r="J8" s="2">
+      <c r="AB13" s="11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B14" s="2">
+        <f>INDEX(B:B,MATCH(1000,B:B,0),1)+((ROW()-MATCH(1000,B:B,0))*10)</f>
+        <v>1010</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H14" s="2">
+        <v>0</v>
+      </c>
+      <c r="I14" s="2">
+        <v>1</v>
+      </c>
+      <c r="J14" s="2">
+        <v>4</v>
+      </c>
+      <c r="K14" s="2">
+        <v>320</v>
+      </c>
+      <c r="L14" s="2">
+        <v>30</v>
+      </c>
+      <c r="M14" s="2">
+        <v>0</v>
+      </c>
+      <c r="N14" s="2">
+        <v>0</v>
+      </c>
+      <c r="O14" s="2">
+        <v>0</v>
+      </c>
+      <c r="P14" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>0</v>
+      </c>
+      <c r="R14" s="2">
+        <v>0</v>
+      </c>
+      <c r="S14" s="2">
+        <v>0</v>
+      </c>
+      <c r="T14" s="2">
+        <v>0</v>
+      </c>
+      <c r="U14" s="2">
+        <v>0</v>
+      </c>
+      <c r="V14" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="W14" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="X14" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y14" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z14" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA14" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB14" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B15" s="2">
+        <f>INDEX(B:B,MATCH(1000,B:B,0),1)+((ROW()-MATCH(1000,B:B,0))*10)</f>
+        <v>1020</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0</v>
+      </c>
+      <c r="D15" s="2">
+        <v>1</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H15" s="2">
+        <v>0</v>
+      </c>
+      <c r="I15" s="2">
+        <v>1</v>
+      </c>
+      <c r="J15" s="2">
+        <v>4</v>
+      </c>
+      <c r="K15" s="2">
         <v>150</v>
       </c>
-      <c r="K8" s="2">
-        <v>0</v>
-      </c>
-      <c r="L8" s="2">
-        <v>0</v>
-      </c>
-      <c r="M8" s="2">
-        <v>0</v>
-      </c>
-      <c r="N8" s="2">
-        <v>0</v>
-      </c>
-      <c r="O8" s="2">
+      <c r="L15" s="2">
+        <v>0</v>
+      </c>
+      <c r="M15" s="2">
+        <v>0</v>
+      </c>
+      <c r="N15" s="2">
+        <v>0</v>
+      </c>
+      <c r="O15" s="2">
+        <v>0</v>
+      </c>
+      <c r="P15" s="2">
         <v>20</v>
       </c>
-      <c r="P8" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="2">
-        <v>0</v>
-      </c>
-      <c r="R8" s="2">
-        <v>0</v>
-      </c>
-      <c r="S8" s="2">
-        <v>0</v>
-      </c>
-      <c r="T8" s="2">
-        <v>0</v>
-      </c>
-      <c r="U8" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="V8" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="W8" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="X8" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y8" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z8" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="AA8" s="3" t="s">
+      <c r="Q15" s="2">
+        <v>0</v>
+      </c>
+      <c r="R15" s="2">
+        <v>0</v>
+      </c>
+      <c r="S15" s="2">
+        <v>0</v>
+      </c>
+      <c r="T15" s="2">
+        <v>0</v>
+      </c>
+      <c r="U15" s="2">
+        <v>0</v>
+      </c>
+      <c r="V15" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="W15" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="X15" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y15" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z15" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA15" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB15" s="3" t="s">
         <v>21</v>
       </c>
     </row>

--- a/Assets/Excel_Data/Entity_QuestSetDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_QuestSetDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC994F61-DB95-4B12-8C48-7DACEA06F1C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35D621F0-26B3-45A9-864E-AF661E68EC10}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2775" yWindow="2175" windowWidth="24090" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2100" yWindow="1440" windowWidth="24090" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01_QuestSetData" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="74">
   <si>
     <t>desc</t>
   </si>
@@ -965,7 +965,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
+      <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="27.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="8">
-        <f>(ROW()-2)*10</f>
+        <f t="shared" ref="B2:B12" si="1">(ROW()-2)*10</f>
         <v>0</v>
       </c>
       <c r="C2" s="8">
@@ -1093,10 +1093,10 @@
         <v>33</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="H2" s="8">
         <v>0</v>
@@ -1168,7 +1168,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2">
-        <f>(ROW()-2)*10</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="C3" s="2">
@@ -1256,7 +1256,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2">
-        <f>(ROW()-2)*10</f>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="C4" s="2">
@@ -1344,7 +1344,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="2">
-        <f>(ROW()-2)*10</f>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="C5" s="2">
@@ -1432,7 +1432,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="2">
-        <f>(ROW()-2)*10</f>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="C6" s="2">
@@ -1520,7 +1520,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="2">
-        <f>(ROW()-2)*10</f>
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="C7" s="2">
@@ -1608,7 +1608,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="2">
-        <f>(ROW()-2)*10</f>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="C8" s="2">
@@ -1696,7 +1696,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="2">
-        <f>(ROW()-2)*10</f>
+        <f t="shared" si="1"/>
         <v>70</v>
       </c>
       <c r="C9" s="2">
@@ -1784,7 +1784,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="2">
-        <f>(ROW()-2)*10</f>
+        <f t="shared" si="1"/>
         <v>80</v>
       </c>
       <c r="C10" s="2">
@@ -1872,7 +1872,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="2">
-        <f>(ROW()-2)*10</f>
+        <f t="shared" si="1"/>
         <v>90</v>
       </c>
       <c r="C11" s="2">
@@ -1960,7 +1960,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="2">
-        <f>(ROW()-2)*10</f>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="C12" s="2">

--- a/Assets/Excel_Data/Entity_QuestSetDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_QuestSetDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35D621F0-26B3-45A9-864E-AF661E68EC10}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4239E040-C962-4143-8157-392015A5C6F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2100" yWindow="1440" windowWidth="24090" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="2505" windowWidth="24075" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01_QuestSetData" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="79">
   <si>
     <t>desc</t>
   </si>
@@ -109,21 +109,7 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>&lt;color=#FF78B4&gt;ラスク&lt;/color&gt;が食べたいなぁ。</t>
-    <rPh sb="27" eb="28">
-      <t>タ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Cookie</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>&lt;color=#FF78B4&gt;コクのあるクッキー&lt;/color&gt;が食べたいなぁ</t>
-    <rPh sb="33" eb="34">
-      <t>タ</t>
-    </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -279,13 +265,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>&lt;color=#FF78B4&gt;さくさくしたクッキー&lt;/color&gt;が食べたいなぁ</t>
-    <rPh sb="34" eb="35">
-      <t>タ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>さくさくしたクッキーの納品</t>
     <rPh sb="11" eb="13">
       <t>ノウヒン</t>
@@ -541,6 +520,90 @@
     </rPh>
     <rPh sb="57" eb="58">
       <t>ホ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>honey_neko_cookie</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>lavender_tea</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>rich_tea</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ラベンダーティーの納品</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ある貴族の方から、パーティー用に紅茶がほしいそうよ。
+&lt;color=#FF78B4&gt;ラベンダーティー&lt;/color&gt;が、出来たらほしいんだって！</t>
+    <rPh sb="2" eb="4">
+      <t>キゾク</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>コウチャ</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>デキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;color=#FF78B4&gt;さくさくしたクッキー&lt;/color&gt;がほしいなぁ..　
+というお客さんがいるわ。クッキーがあれば、喜ばれるかも。</t>
+    <rPh sb="47" eb="48">
+      <t>キャク</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>ヨロコ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;color=#FF78B4&gt;コクのあるクッキー&lt;/color&gt;ががほしいなぁ..　
+というお客さんがいるわ。クッキーがあれば、喜ばれるかも。</t>
+    <rPh sb="47" eb="48">
+      <t>キャク</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>ヨロコ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ある貴族のお客様が、お茶会で食べるお菓子を探してるそうよ。
+&lt;color=#FF78B4&gt;ラスク&lt;/color&gt;があれば、喜ばれるかも..。</t>
+    <rPh sb="2" eb="4">
+      <t>キゾク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>キャクサマ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>チャカイ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>カシ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>サガ</t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t>ヨロコ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -624,11 +687,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -638,7 +700,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -960,12 +1021,12 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AB15"/>
+  <dimension ref="A1:AB16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
+      <selection pane="bottomLeft" activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="27.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -990,37 +1051,37 @@
   <sheetData>
     <row r="1" spans="1:28" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>15</v>
@@ -1040,16 +1101,16 @@
       <c r="Q1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="R1" s="7" t="s">
+      <c r="R1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="7" t="s">
+      <c r="S1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="T1" s="7" t="s">
+      <c r="T1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="U1" s="7" t="s">
+      <c r="U1" s="6" t="s">
         <v>6</v>
       </c>
       <c r="V1" s="1" t="s">
@@ -1068,98 +1129,98 @@
         <v>12</v>
       </c>
       <c r="AA1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" s="10" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="7">
+        <f t="shared" ref="A2:A16" si="0">ROW()-2</f>
+        <v>0</v>
+      </c>
+      <c r="B2" s="7">
+        <f t="shared" ref="B2:B13" si="1">(ROW()-2)*10</f>
+        <v>0</v>
+      </c>
+      <c r="C2" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2" s="7">
+        <v>0</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="7">
+        <v>0</v>
+      </c>
+      <c r="I2" s="7">
+        <v>1</v>
+      </c>
+      <c r="J2" s="7">
+        <v>5</v>
+      </c>
+      <c r="K2" s="7">
+        <v>200</v>
+      </c>
+      <c r="L2" s="7">
+        <v>0</v>
+      </c>
+      <c r="M2" s="7">
+        <v>0</v>
+      </c>
+      <c r="N2" s="7">
+        <v>0</v>
+      </c>
+      <c r="O2" s="7">
+        <v>0</v>
+      </c>
+      <c r="P2" s="7">
+        <v>20</v>
+      </c>
+      <c r="Q2" s="7">
+        <v>0</v>
+      </c>
+      <c r="R2" s="7">
+        <v>0</v>
+      </c>
+      <c r="S2" s="7">
+        <v>0</v>
+      </c>
+      <c r="T2" s="7">
+        <v>0</v>
+      </c>
+      <c r="U2" s="7">
+        <v>0</v>
+      </c>
+      <c r="V2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="W2" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="X2" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y2" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z2" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA2" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="AB1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:28" s="12" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="8">
-        <f t="shared" ref="A2:A15" si="0">ROW()-2</f>
-        <v>0</v>
-      </c>
-      <c r="B2" s="8">
-        <f t="shared" ref="B2:B12" si="1">(ROW()-2)*10</f>
-        <v>0</v>
-      </c>
-      <c r="C2" s="8">
-        <v>0</v>
-      </c>
-      <c r="D2" s="8">
-        <v>0</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2" s="8">
-        <v>0</v>
-      </c>
-      <c r="I2" s="8">
-        <v>1</v>
-      </c>
-      <c r="J2" s="8">
-        <v>5</v>
-      </c>
-      <c r="K2" s="8">
-        <v>200</v>
-      </c>
-      <c r="L2" s="8">
-        <v>0</v>
-      </c>
-      <c r="M2" s="8">
-        <v>0</v>
-      </c>
-      <c r="N2" s="8">
-        <v>0</v>
-      </c>
-      <c r="O2" s="8">
-        <v>0</v>
-      </c>
-      <c r="P2" s="8">
-        <v>20</v>
-      </c>
-      <c r="Q2" s="8">
-        <v>0</v>
-      </c>
-      <c r="R2" s="8">
-        <v>0</v>
-      </c>
-      <c r="S2" s="8">
-        <v>0</v>
-      </c>
-      <c r="T2" s="8">
-        <v>0</v>
-      </c>
-      <c r="U2" s="8">
-        <v>0</v>
-      </c>
-      <c r="V2" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="W2" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="X2" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y2" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z2" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA2" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="AB2" s="13" t="s">
-        <v>72</v>
+      <c r="AB2" s="11" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:28" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1228,26 +1289,26 @@
       <c r="U3" s="2">
         <v>0</v>
       </c>
-      <c r="V3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="W3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="X3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA3" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB3" s="5" t="s">
-        <v>73</v>
+      <c r="V3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="W3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="X3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA3" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB3" s="4" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:28" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1266,10 +1327,10 @@
         <v>0</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>36</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>7</v>
@@ -1316,26 +1377,26 @@
       <c r="U4" s="2">
         <v>0</v>
       </c>
-      <c r="V4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="W4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="X4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA4" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="AB4" s="5" t="s">
-        <v>35</v>
+      <c r="V4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="W4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="X4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA4" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB4" s="4" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:28" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1354,10 +1415,10 @@
         <v>0</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>7</v>
@@ -1404,26 +1465,26 @@
       <c r="U5" s="2">
         <v>0</v>
       </c>
-      <c r="V5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="W5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="X5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA5" s="6" t="s">
+      <c r="V5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="W5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="X5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA5" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB5" s="4" t="s">
         <v>45</v>
-      </c>
-      <c r="AB5" s="5" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:28" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1442,10 +1503,10 @@
         <v>0</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>7</v>
@@ -1492,26 +1553,26 @@
       <c r="U6" s="2">
         <v>0</v>
       </c>
-      <c r="V6" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="W6" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="X6" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y6" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z6" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA6" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="AB6" s="5" t="s">
-        <v>52</v>
+      <c r="V6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="W6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="X6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA6" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB6" s="4" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:28" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1530,10 +1591,10 @@
         <v>0</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>7</v>
@@ -1580,26 +1641,26 @@
       <c r="U7" s="2">
         <v>0</v>
       </c>
-      <c r="V7" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="W7" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="X7" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y7" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z7" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA7" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="AB7" s="5" t="s">
-        <v>55</v>
+      <c r="V7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="W7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="X7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA7" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB7" s="4" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:28" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1618,10 +1679,10 @@
         <v>0</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>7</v>
@@ -1668,26 +1729,26 @@
       <c r="U8" s="2">
         <v>0</v>
       </c>
-      <c r="V8" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="W8" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="X8" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y8" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z8" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA8" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="AB8" s="5" t="s">
-        <v>58</v>
+      <c r="V8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="W8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="X8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA8" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB8" s="4" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:28" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1706,10 +1767,10 @@
         <v>0</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>7</v>
@@ -1756,26 +1817,26 @@
       <c r="U9" s="2">
         <v>0</v>
       </c>
-      <c r="V9" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="W9" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="X9" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y9" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z9" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA9" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="AB9" s="5" t="s">
-        <v>61</v>
+      <c r="V9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="W9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="X9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA9" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB9" s="4" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:28" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1794,10 +1855,10 @@
         <v>2</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>7</v>
@@ -1809,7 +1870,7 @@
         <v>1</v>
       </c>
       <c r="J10" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K10" s="2">
         <v>350</v>
@@ -1844,26 +1905,26 @@
       <c r="U10" s="2">
         <v>0</v>
       </c>
-      <c r="V10" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="W10" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="X10" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y10" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z10" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA10" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="AB10" s="5" t="s">
-        <v>71</v>
+      <c r="V10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="W10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="X10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA10" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB10" s="4" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:28" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1876,16 +1937,16 @@
         <v>90</v>
       </c>
       <c r="C11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>7</v>
@@ -1897,10 +1958,10 @@
         <v>1</v>
       </c>
       <c r="J11" s="2">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="K11" s="2">
-        <v>15</v>
+        <v>300</v>
       </c>
       <c r="L11" s="2">
         <v>0</v>
@@ -1915,7 +1976,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Q11" s="2">
         <v>0</v>
@@ -1932,26 +1993,26 @@
       <c r="U11" s="2">
         <v>0</v>
       </c>
-      <c r="V11" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="W11" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="X11" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y11" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z11" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA11" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="AB11" s="5" t="s">
-        <v>67</v>
+      <c r="V11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="W11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="X11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA11" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB11" s="4" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:28" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1970,251 +2031,251 @@
         <v>4</v>
       </c>
       <c r="E12" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0</v>
+      </c>
+      <c r="I12" s="2">
+        <v>1</v>
+      </c>
+      <c r="J12" s="2">
+        <v>7</v>
+      </c>
+      <c r="K12" s="2">
+        <v>15</v>
+      </c>
+      <c r="L12" s="2">
+        <v>0</v>
+      </c>
+      <c r="M12" s="2">
+        <v>0</v>
+      </c>
+      <c r="N12" s="2">
+        <v>0</v>
+      </c>
+      <c r="O12" s="2">
+        <v>0</v>
+      </c>
+      <c r="P12" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>0</v>
+      </c>
+      <c r="R12" s="2">
+        <v>0</v>
+      </c>
+      <c r="S12" s="2">
+        <v>0</v>
+      </c>
+      <c r="T12" s="2">
+        <v>0</v>
+      </c>
+      <c r="U12" s="2">
+        <v>0</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="W12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="X12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA12" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB12" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="F12" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H12" s="2">
-        <v>0</v>
-      </c>
-      <c r="I12" s="2">
-        <v>1</v>
-      </c>
-      <c r="J12" s="2">
-        <v>2</v>
-      </c>
-      <c r="K12" s="2">
-        <v>200</v>
-      </c>
-      <c r="L12" s="2">
-        <v>0</v>
-      </c>
-      <c r="M12" s="2">
-        <v>0</v>
-      </c>
-      <c r="N12" s="2">
-        <v>0</v>
-      </c>
-      <c r="O12" s="2">
-        <v>0</v>
-      </c>
-      <c r="P12" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="2">
-        <v>0</v>
-      </c>
-      <c r="R12" s="2">
-        <v>0</v>
-      </c>
-      <c r="S12" s="2">
-        <v>0</v>
-      </c>
-      <c r="T12" s="2">
-        <v>0</v>
-      </c>
-      <c r="U12" s="2">
-        <v>0</v>
-      </c>
-      <c r="V12" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="W12" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="X12" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y12" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z12" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA12" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="AB12" s="5" t="s">
-        <v>66</v>
-      </c>
     </row>
-    <row r="13" spans="1:28" s="12" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="8">
+    <row r="13" spans="1:28" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B13" s="8">
-        <v>1000</v>
-      </c>
-      <c r="C13" s="8">
-        <v>0</v>
-      </c>
-      <c r="D13" s="8">
-        <v>0</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H13" s="8">
-        <v>0</v>
-      </c>
-      <c r="I13" s="8">
-        <v>1</v>
-      </c>
-      <c r="J13" s="8">
+      <c r="B13" s="2">
+        <f t="shared" si="1"/>
+        <v>110</v>
+      </c>
+      <c r="C13" s="2">
+        <v>1</v>
+      </c>
+      <c r="D13" s="2">
         <v>4</v>
       </c>
-      <c r="K13" s="8">
+      <c r="E13" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H13" s="2">
+        <v>0</v>
+      </c>
+      <c r="I13" s="2">
+        <v>1</v>
+      </c>
+      <c r="J13" s="2">
+        <v>2</v>
+      </c>
+      <c r="K13" s="2">
         <v>200</v>
       </c>
-      <c r="L13" s="8">
-        <v>0</v>
-      </c>
-      <c r="M13" s="8">
-        <v>0</v>
-      </c>
-      <c r="N13" s="8">
-        <v>0</v>
-      </c>
-      <c r="O13" s="8">
-        <v>0</v>
-      </c>
-      <c r="P13" s="8">
-        <v>30</v>
-      </c>
-      <c r="Q13" s="8">
-        <v>0</v>
-      </c>
-      <c r="R13" s="8">
-        <v>0</v>
-      </c>
-      <c r="S13" s="8">
-        <v>0</v>
-      </c>
-      <c r="T13" s="8">
-        <v>0</v>
-      </c>
-      <c r="U13" s="8">
-        <v>0</v>
-      </c>
-      <c r="V13" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="W13" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="X13" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y13" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z13" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA13" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="AB13" s="11" t="s">
-        <v>48</v>
+      <c r="L13" s="2">
+        <v>0</v>
+      </c>
+      <c r="M13" s="2">
+        <v>0</v>
+      </c>
+      <c r="N13" s="2">
+        <v>0</v>
+      </c>
+      <c r="O13" s="2">
+        <v>0</v>
+      </c>
+      <c r="P13" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>0</v>
+      </c>
+      <c r="R13" s="2">
+        <v>0</v>
+      </c>
+      <c r="S13" s="2">
+        <v>0</v>
+      </c>
+      <c r="T13" s="2">
+        <v>0</v>
+      </c>
+      <c r="U13" s="2">
+        <v>0</v>
+      </c>
+      <c r="V13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="W13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="X13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA13" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB13" s="4" t="s">
+        <v>63</v>
       </c>
     </row>
-    <row r="14" spans="1:28" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="2">
+    <row r="14" spans="1:28" s="10" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="7">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B14" s="2">
-        <f>INDEX(B:B,MATCH(1000,B:B,0),1)+((ROW()-MATCH(1000,B:B,0))*10)</f>
-        <v>1010</v>
-      </c>
-      <c r="C14" s="2">
-        <v>0</v>
-      </c>
-      <c r="D14" s="2">
-        <v>0</v>
-      </c>
-      <c r="E14" s="2" t="s">
+      <c r="B14" s="7">
+        <v>1000</v>
+      </c>
+      <c r="C14" s="7">
+        <v>0</v>
+      </c>
+      <c r="D14" s="7">
+        <v>0</v>
+      </c>
+      <c r="E14" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F14" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H14" s="2">
-        <v>0</v>
-      </c>
-      <c r="I14" s="2">
-        <v>1</v>
-      </c>
-      <c r="J14" s="2">
+      <c r="F14" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H14" s="7">
+        <v>0</v>
+      </c>
+      <c r="I14" s="7">
+        <v>1</v>
+      </c>
+      <c r="J14" s="7">
         <v>4</v>
       </c>
-      <c r="K14" s="2">
-        <v>320</v>
-      </c>
-      <c r="L14" s="2">
+      <c r="K14" s="7">
+        <v>200</v>
+      </c>
+      <c r="L14" s="7">
+        <v>0</v>
+      </c>
+      <c r="M14" s="7">
+        <v>0</v>
+      </c>
+      <c r="N14" s="7">
+        <v>0</v>
+      </c>
+      <c r="O14" s="7">
+        <v>0</v>
+      </c>
+      <c r="P14" s="7">
         <v>30</v>
       </c>
-      <c r="M14" s="2">
-        <v>0</v>
-      </c>
-      <c r="N14" s="2">
-        <v>0</v>
-      </c>
-      <c r="O14" s="2">
-        <v>0</v>
-      </c>
-      <c r="P14" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="2">
-        <v>0</v>
-      </c>
-      <c r="R14" s="2">
-        <v>0</v>
-      </c>
-      <c r="S14" s="2">
-        <v>0</v>
-      </c>
-      <c r="T14" s="2">
-        <v>0</v>
-      </c>
-      <c r="U14" s="2">
-        <v>0</v>
-      </c>
-      <c r="V14" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="W14" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="X14" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y14" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z14" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA14" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB14" s="3" t="s">
-        <v>23</v>
+      <c r="Q14" s="7">
+        <v>0</v>
+      </c>
+      <c r="R14" s="7">
+        <v>0</v>
+      </c>
+      <c r="S14" s="7">
+        <v>0</v>
+      </c>
+      <c r="T14" s="7">
+        <v>0</v>
+      </c>
+      <c r="U14" s="7">
+        <v>0</v>
+      </c>
+      <c r="V14" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="W14" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="X14" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y14" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z14" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA14" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB14" s="11" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:28" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2224,22 +2285,22 @@
       </c>
       <c r="B15" s="2">
         <f>INDEX(B:B,MATCH(1000,B:B,0),1)+((ROW()-MATCH(1000,B:B,0))*10)</f>
-        <v>1020</v>
+        <v>1010</v>
       </c>
       <c r="C15" s="2">
         <v>0</v>
       </c>
       <c r="D15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>7</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="H15" s="2">
         <v>0</v>
@@ -2251,58 +2312,146 @@
         <v>4</v>
       </c>
       <c r="K15" s="2">
+        <v>320</v>
+      </c>
+      <c r="L15" s="2">
+        <v>30</v>
+      </c>
+      <c r="M15" s="2">
+        <v>0</v>
+      </c>
+      <c r="N15" s="2">
+        <v>0</v>
+      </c>
+      <c r="O15" s="2">
+        <v>0</v>
+      </c>
+      <c r="P15" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>0</v>
+      </c>
+      <c r="R15" s="2">
+        <v>0</v>
+      </c>
+      <c r="S15" s="2">
+        <v>0</v>
+      </c>
+      <c r="T15" s="2">
+        <v>0</v>
+      </c>
+      <c r="U15" s="2">
+        <v>0</v>
+      </c>
+      <c r="V15" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="W15" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="X15" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y15" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z15" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA15" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB15" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B16" s="2">
+        <f>INDEX(B:B,MATCH(1000,B:B,0),1)+((ROW()-MATCH(1000,B:B,0))*10)</f>
+        <v>1020</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0</v>
+      </c>
+      <c r="D16" s="2">
+        <v>1</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H16" s="2">
+        <v>0</v>
+      </c>
+      <c r="I16" s="2">
+        <v>1</v>
+      </c>
+      <c r="J16" s="2">
+        <v>4</v>
+      </c>
+      <c r="K16" s="2">
         <v>150</v>
       </c>
-      <c r="L15" s="2">
-        <v>0</v>
-      </c>
-      <c r="M15" s="2">
-        <v>0</v>
-      </c>
-      <c r="N15" s="2">
-        <v>0</v>
-      </c>
-      <c r="O15" s="2">
-        <v>0</v>
-      </c>
-      <c r="P15" s="2">
+      <c r="L16" s="2">
+        <v>0</v>
+      </c>
+      <c r="M16" s="2">
+        <v>0</v>
+      </c>
+      <c r="N16" s="2">
+        <v>0</v>
+      </c>
+      <c r="O16" s="2">
+        <v>0</v>
+      </c>
+      <c r="P16" s="2">
         <v>20</v>
       </c>
-      <c r="Q15" s="2">
-        <v>0</v>
-      </c>
-      <c r="R15" s="2">
-        <v>0</v>
-      </c>
-      <c r="S15" s="2">
-        <v>0</v>
-      </c>
-      <c r="T15" s="2">
-        <v>0</v>
-      </c>
-      <c r="U15" s="2">
-        <v>0</v>
-      </c>
-      <c r="V15" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="W15" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="X15" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y15" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z15" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA15" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB15" s="3" t="s">
-        <v>21</v>
+      <c r="Q16" s="2">
+        <v>0</v>
+      </c>
+      <c r="R16" s="2">
+        <v>0</v>
+      </c>
+      <c r="S16" s="2">
+        <v>0</v>
+      </c>
+      <c r="T16" s="2">
+        <v>0</v>
+      </c>
+      <c r="U16" s="2">
+        <v>0</v>
+      </c>
+      <c r="V16" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="W16" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="X16" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y16" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z16" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA16" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB16" s="4" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel_Data/Entity_QuestSetDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_QuestSetDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4239E040-C962-4143-8157-392015A5C6F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DD89662-6F6D-4E84-A6AB-46989F62747E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="2505" windowWidth="24075" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="24075" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01_QuestSetData" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="83">
   <si>
     <t>desc</t>
   </si>
@@ -182,13 +182,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>コクのあるクッキーが食べたい</t>
-    <rPh sb="10" eb="11">
-      <t>タ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>ねこクッキーの納品</t>
     <rPh sb="7" eb="9">
       <t>ノウヒン</t>
@@ -571,17 +564,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>&lt;color=#FF78B4&gt;コクのあるクッキー&lt;/color&gt;ががほしいなぁ..　
-というお客さんがいるわ。クッキーがあれば、喜ばれるかも。</t>
-    <rPh sb="47" eb="48">
-      <t>キャク</t>
-    </rPh>
-    <rPh sb="64" eb="65">
-      <t>ヨロコ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>ある貴族のお客様が、お茶会で食べるお菓子を探してるそうよ。
 &lt;color=#FF78B4&gt;ラスク&lt;/color&gt;があれば、喜ばれるかも..。</t>
     <rPh sb="2" eb="4">
@@ -605,6 +587,52 @@
     <rPh sb="61" eb="62">
       <t>ヨロコ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>芳醇な味のクッキーが食べたい</t>
+    <rPh sb="0" eb="2">
+      <t>ホウジュン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>アジ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Grape</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>grape_neko_cookie</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Blueberry</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;color=#FF78B4&gt;芳醇な味のクッキー&lt;/color&gt;がほしいなぁ..　
+というお客さんがいるわ。芳醇.. フルーツかしら？</t>
+    <rPh sb="15" eb="17">
+      <t>ホウジュン</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>アジ</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>キャク</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>ホウジュン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Honey</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1023,10 +1051,10 @@
   </sheetPr>
   <dimension ref="A1:AB16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="P11" sqref="P11"/>
+      <selection pane="bottomLeft" activeCell="X16" sqref="X16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="27.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1057,10 +1085,10 @@
         <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>30</v>
@@ -1175,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="M2" s="7">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="N2" s="7">
         <v>0</v>
@@ -1217,10 +1245,10 @@
         <v>13</v>
       </c>
       <c r="AA2" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AB2" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:28" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1305,10 +1333,10 @@
         <v>7</v>
       </c>
       <c r="AA3" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AB3" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:28" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1393,7 +1421,7 @@
         <v>7</v>
       </c>
       <c r="AA4" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AB4" s="4" t="s">
         <v>33</v>
@@ -1415,10 +1443,10 @@
         <v>0</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>7</v>
@@ -1481,10 +1509,10 @@
         <v>7</v>
       </c>
       <c r="AA5" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AB5" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:28" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1503,10 +1531,10 @@
         <v>0</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>7</v>
@@ -1569,10 +1597,10 @@
         <v>7</v>
       </c>
       <c r="AA6" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB6" s="4" t="s">
         <v>48</v>
-      </c>
-      <c r="AB6" s="4" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:28" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1591,10 +1619,10 @@
         <v>0</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>7</v>
@@ -1657,10 +1685,10 @@
         <v>7</v>
       </c>
       <c r="AA7" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB7" s="4" t="s">
         <v>51</v>
-      </c>
-      <c r="AB7" s="4" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:28" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1679,10 +1707,10 @@
         <v>0</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>7</v>
@@ -1745,10 +1773,10 @@
         <v>7</v>
       </c>
       <c r="AA8" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB8" s="4" t="s">
         <v>54</v>
-      </c>
-      <c r="AB8" s="4" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:28" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1767,10 +1795,10 @@
         <v>0</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>7</v>
@@ -1833,10 +1861,10 @@
         <v>7</v>
       </c>
       <c r="AA9" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB9" s="4" t="s">
         <v>57</v>
-      </c>
-      <c r="AB9" s="4" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:28" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1855,10 +1883,10 @@
         <v>2</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>7</v>
@@ -1921,10 +1949,10 @@
         <v>7</v>
       </c>
       <c r="AA10" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB10" s="4" t="s">
         <v>67</v>
-      </c>
-      <c r="AB10" s="4" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:28" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1943,10 +1971,10 @@
         <v>2</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>7</v>
@@ -2009,10 +2037,10 @@
         <v>7</v>
       </c>
       <c r="AA11" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB11" s="4" t="s">
         <v>74</v>
-      </c>
-      <c r="AB11" s="4" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:28" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2031,10 +2059,10 @@
         <v>4</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>7</v>
@@ -2097,10 +2125,10 @@
         <v>7</v>
       </c>
       <c r="AA12" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AB12" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:28" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2119,10 +2147,10 @@
         <v>4</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>7</v>
@@ -2185,10 +2213,10 @@
         <v>7</v>
       </c>
       <c r="AA13" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB13" s="4" t="s">
         <v>62</v>
-      </c>
-      <c r="AB13" s="4" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:28" s="10" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2230,7 +2258,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="7">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="N14" s="7">
         <v>0</v>
@@ -2272,10 +2300,10 @@
         <v>7</v>
       </c>
       <c r="AA14" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB14" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:28" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2294,7 +2322,7 @@
         <v>0</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>18</v>
+        <v>79</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>7</v>
@@ -2315,19 +2343,19 @@
         <v>320</v>
       </c>
       <c r="L15" s="2">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="M15" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="N15" s="2">
         <v>0</v>
       </c>
       <c r="O15" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="P15" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="Q15" s="2">
         <v>0</v>
@@ -2345,13 +2373,13 @@
         <v>0</v>
       </c>
       <c r="V15" s="3" t="s">
-        <v>7</v>
+        <v>78</v>
       </c>
       <c r="W15" s="3" t="s">
-        <v>7</v>
+        <v>80</v>
       </c>
       <c r="X15" s="3" t="s">
-        <v>7</v>
+        <v>82</v>
       </c>
       <c r="Y15" s="3" t="s">
         <v>7</v>
@@ -2360,10 +2388,10 @@
         <v>7</v>
       </c>
       <c r="AA15" s="5" t="s">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="AB15" s="4" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16" spans="1:28" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2388,7 +2416,7 @@
         <v>7</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H16" s="2">
         <v>0</v>
@@ -2406,7 +2434,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="N16" s="2">
         <v>0</v>
@@ -2448,10 +2476,10 @@
         <v>7</v>
       </c>
       <c r="AA16" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AB16" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel_Data/Entity_QuestSetDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_QuestSetDataBase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DD89662-6F6D-4E84-A6AB-46989F62747E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05F4C83B-FDFF-4D0D-83F5-482D53698371}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="24075" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2250" yWindow="2250" windowWidth="24075" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01_QuestSetData" sheetId="1" r:id="rId1"/>
@@ -1051,10 +1051,10 @@
   </sheetPr>
   <dimension ref="A1:AB16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="X16" sqref="X16"/>
+      <selection pane="bottomLeft" activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="27.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1194,10 +1194,10 @@
         <v>1</v>
       </c>
       <c r="J2" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K2" s="7">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="L2" s="7">
         <v>0</v>
@@ -1282,10 +1282,10 @@
         <v>1</v>
       </c>
       <c r="J3" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K3" s="2">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="L3" s="2">
         <v>0</v>
@@ -1901,7 +1901,7 @@
         <v>3</v>
       </c>
       <c r="K10" s="2">
-        <v>350</v>
+        <v>750</v>
       </c>
       <c r="L10" s="2">
         <v>0</v>
@@ -2249,10 +2249,10 @@
         <v>1</v>
       </c>
       <c r="J14" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K14" s="7">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="L14" s="7">
         <v>0</v>
@@ -2337,10 +2337,10 @@
         <v>1</v>
       </c>
       <c r="J15" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K15" s="2">
-        <v>320</v>
+        <v>640</v>
       </c>
       <c r="L15" s="2">
         <v>0</v>
@@ -2428,7 +2428,7 @@
         <v>4</v>
       </c>
       <c r="K16" s="2">
-        <v>150</v>
+        <v>550</v>
       </c>
       <c r="L16" s="2">
         <v>0</v>

--- a/Assets/Excel_Data/Entity_QuestSetDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_QuestSetDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05F4C83B-FDFF-4D0D-83F5-482D53698371}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{275DBE5D-F249-448F-9DAC-6782CB2F1A62}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2250" yWindow="2250" windowWidth="24075" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="24075" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01_QuestSetData" sheetId="1" r:id="rId1"/>
@@ -1054,7 +1054,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="K17" sqref="K17"/>
+      <selection pane="bottomLeft" activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="27.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1352,7 +1352,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="2">
-        <v>0</v>
+        <v>9999</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>32</v>
@@ -1528,7 +1528,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="2">
-        <v>0</v>
+        <v>9999</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>46</v>
@@ -1616,7 +1616,7 @@
         <v>1</v>
       </c>
       <c r="D7" s="2">
-        <v>0</v>
+        <v>9999</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>49</v>
@@ -1704,7 +1704,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="2">
-        <v>0</v>
+        <v>9999</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>52</v>
@@ -1792,7 +1792,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="2">
-        <v>0</v>
+        <v>9999</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>55</v>
@@ -1883,10 +1883,10 @@
         <v>2</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>7</v>
@@ -1901,7 +1901,7 @@
         <v>3</v>
       </c>
       <c r="K10" s="2">
-        <v>750</v>
+        <v>300</v>
       </c>
       <c r="L10" s="2">
         <v>0</v>
@@ -1916,7 +1916,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="2">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="Q10" s="2">
         <v>0</v>
@@ -1949,10 +1949,10 @@
         <v>7</v>
       </c>
       <c r="AA10" s="5" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AB10" s="4" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:28" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1961,20 +1961,20 @@
         <v>9</v>
       </c>
       <c r="B11" s="2">
-        <f t="shared" si="1"/>
+        <f>(ROW()-2)*10</f>
         <v>90</v>
       </c>
       <c r="C11" s="2">
         <v>0</v>
       </c>
       <c r="D11" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>7</v>
@@ -1989,7 +1989,7 @@
         <v>3</v>
       </c>
       <c r="K11" s="2">
-        <v>300</v>
+        <v>750</v>
       </c>
       <c r="L11" s="2">
         <v>0</v>
@@ -2004,7 +2004,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="2">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="Q11" s="2">
         <v>0</v>
@@ -2037,10 +2037,10 @@
         <v>7</v>
       </c>
       <c r="AA11" s="5" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="AB11" s="4" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:28" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2056,7 +2056,7 @@
         <v>1</v>
       </c>
       <c r="D12" s="2">
-        <v>4</v>
+        <v>9999</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>43</v>

--- a/Assets/Excel_Data/Entity_QuestSetDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_QuestSetDataBase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{275DBE5D-F249-448F-9DAC-6782CB2F1A62}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F8D2820-EFE3-4F47-A4D0-92960C64D33C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="24075" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1905" yWindow="1905" windowWidth="24075" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01_QuestSetData" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="82">
   <si>
     <t>desc</t>
   </si>
@@ -150,31 +150,6 @@
   </si>
   <si>
     <t>neko_cookie</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>grape</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>&lt;color=#FF78B4&gt;ぶどう&lt;/color&gt;があると買取るわよ。
-今足りなくて困っているの。</t>
-    <rPh sb="30" eb="32">
-      <t>カイト</t>
-    </rPh>
-    <rPh sb="37" eb="38">
-      <t>イマ</t>
-    </rPh>
-    <rPh sb="38" eb="39">
-      <t>タ</t>
-    </rPh>
-    <rPh sb="43" eb="44">
-      <t>コマ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>grape</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -185,13 +160,6 @@
     <t>ねこクッキーの納品</t>
     <rPh sb="7" eb="9">
       <t>ノウヒン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ぶどうの入手</t>
-    <rPh sb="4" eb="6">
-      <t>ニュウシュ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -633,6 +601,31 @@
   </si>
   <si>
     <t>Honey</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>orange_juice</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>オレンジジュースが飲みたい</t>
+    <rPh sb="9" eb="10">
+      <t>ノ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>これは、&lt;color=#FF78B4&gt;学校&lt;/color&gt;からのご依頼ね。
+フレッシュなジュースで、栄養をつけたいそうよ。</t>
+    <rPh sb="19" eb="21">
+      <t>ガッコウ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>イライ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>エイヨウ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1054,7 +1047,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="I10" sqref="I10"/>
+      <selection pane="bottomLeft" activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="27.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1085,10 +1078,10 @@
         <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>30</v>
@@ -1157,7 +1150,7 @@
         <v>12</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AB1" s="1" t="s">
         <v>0</v>
@@ -1245,10 +1238,10 @@
         <v>13</v>
       </c>
       <c r="AA2" s="9" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="AB2" s="11" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:28" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1333,10 +1326,10 @@
         <v>7</v>
       </c>
       <c r="AA3" s="5" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="AB3" s="4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:28" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1352,13 +1345,13 @@
         <v>1</v>
       </c>
       <c r="D4" s="2">
-        <v>9999</v>
+        <v>0</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>7</v>
@@ -1373,7 +1366,7 @@
         <v>7</v>
       </c>
       <c r="K4" s="2">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="L4" s="2">
         <v>0</v>
@@ -1421,10 +1414,10 @@
         <v>7</v>
       </c>
       <c r="AA4" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AB4" s="4" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:28" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1437,16 +1430,16 @@
         <v>30</v>
       </c>
       <c r="C5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>7</v>
@@ -1458,16 +1451,16 @@
         <v>1</v>
       </c>
       <c r="J5" s="2">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="K5" s="2">
-        <v>20</v>
+        <v>350</v>
       </c>
       <c r="L5" s="2">
         <v>0</v>
       </c>
       <c r="M5" s="2">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="N5" s="2">
         <v>0</v>
@@ -1509,10 +1502,10 @@
         <v>7</v>
       </c>
       <c r="AA5" s="5" t="s">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="AB5" s="4" t="s">
-        <v>44</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:28" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1531,10 +1524,10 @@
         <v>9999</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>7</v>
@@ -1597,10 +1590,10 @@
         <v>7</v>
       </c>
       <c r="AA6" s="5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="AB6" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:28" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1619,10 +1612,10 @@
         <v>9999</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>7</v>
@@ -1685,10 +1678,10 @@
         <v>7</v>
       </c>
       <c r="AA7" s="5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AB7" s="4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:28" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1707,10 +1700,10 @@
         <v>9999</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>7</v>
@@ -1773,10 +1766,10 @@
         <v>7</v>
       </c>
       <c r="AA8" s="5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="AB8" s="4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:28" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1795,10 +1788,10 @@
         <v>9999</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>7</v>
@@ -1861,10 +1854,10 @@
         <v>7</v>
       </c>
       <c r="AA9" s="5" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="AB9" s="4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:28" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1883,10 +1876,10 @@
         <v>2</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>7</v>
@@ -1949,10 +1942,10 @@
         <v>7</v>
       </c>
       <c r="AA10" s="5" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="AB10" s="4" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:28" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1971,10 +1964,10 @@
         <v>4</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>7</v>
@@ -2037,10 +2030,10 @@
         <v>7</v>
       </c>
       <c r="AA11" s="5" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="AB11" s="4" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:28" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2059,10 +2052,10 @@
         <v>9999</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>7</v>
@@ -2125,10 +2118,10 @@
         <v>7</v>
       </c>
       <c r="AA12" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB12" s="4" t="s">
         <v>59</v>
-      </c>
-      <c r="AB12" s="4" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:28" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2147,10 +2140,10 @@
         <v>4</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>7</v>
@@ -2213,10 +2206,10 @@
         <v>7</v>
       </c>
       <c r="AA13" s="5" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="AB13" s="4" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:28" s="10" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2300,10 +2293,10 @@
         <v>7</v>
       </c>
       <c r="AA14" s="9" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AB14" s="11" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:28" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2322,7 +2315,7 @@
         <v>0</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>7</v>
@@ -2373,14 +2366,14 @@
         <v>0</v>
       </c>
       <c r="V15" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="W15" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="X15" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="W15" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="X15" s="3" t="s">
-        <v>82</v>
-      </c>
       <c r="Y15" s="3" t="s">
         <v>7</v>
       </c>
@@ -2388,10 +2381,10 @@
         <v>7</v>
       </c>
       <c r="AA15" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB15" s="4" t="s">
         <v>77</v>
-      </c>
-      <c r="AB15" s="4" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="16" spans="1:28" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2416,7 +2409,7 @@
         <v>7</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H16" s="2">
         <v>0</v>
@@ -2476,10 +2469,10 @@
         <v>7</v>
       </c>
       <c r="AA16" s="5" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AB16" s="4" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel_Data/Entity_QuestSetDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_QuestSetDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F8D2820-EFE3-4F47-A4D0-92960C64D33C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E29F2B3-31D4-4A24-A5C8-A2FEDC58850F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1905" yWindow="1905" windowWidth="24075" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="24075" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01_QuestSetData" sheetId="1" r:id="rId1"/>
@@ -1047,25 +1047,27 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="K6" sqref="K6"/>
+      <selection pane="bottomLeft" activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="27.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="7.85546875" customWidth="1"/>
+    <col min="1" max="1" width="6.28515625" customWidth="1"/>
+    <col min="2" max="2" width="7.85546875" customWidth="1"/>
     <col min="3" max="4" width="9.7109375" customWidth="1"/>
     <col min="5" max="5" width="10.140625" customWidth="1"/>
     <col min="6" max="6" width="22.42578125" customWidth="1"/>
-    <col min="7" max="7" width="17.7109375" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" customWidth="1"/>
     <col min="8" max="8" width="8" customWidth="1"/>
     <col min="9" max="9" width="8.42578125" customWidth="1"/>
     <col min="10" max="10" width="8.7109375" customWidth="1"/>
-    <col min="11" max="11" width="10.28515625" customWidth="1"/>
+    <col min="11" max="11" width="7.85546875" customWidth="1"/>
     <col min="12" max="17" width="5" customWidth="1"/>
-    <col min="18" max="18" width="6.7109375" customWidth="1"/>
-    <col min="19" max="19" width="8.42578125" customWidth="1"/>
-    <col min="20" max="21" width="6.7109375" customWidth="1"/>
-    <col min="22" max="22" width="11.5703125" customWidth="1"/>
+    <col min="18" max="18" width="4.85546875" customWidth="1"/>
+    <col min="19" max="19" width="4.7109375" customWidth="1"/>
+    <col min="20" max="20" width="4.28515625" customWidth="1"/>
+    <col min="21" max="21" width="4" customWidth="1"/>
+    <col min="22" max="26" width="8.7109375" customWidth="1"/>
     <col min="27" max="27" width="21.140625" customWidth="1"/>
     <col min="28" max="28" width="62" customWidth="1"/>
   </cols>
@@ -1190,7 +1192,7 @@
         <v>2</v>
       </c>
       <c r="K2" s="7">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="L2" s="7">
         <v>0</v>
@@ -1205,7 +1207,7 @@
         <v>0</v>
       </c>
       <c r="P2" s="7">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="Q2" s="7">
         <v>0</v>
@@ -1278,7 +1280,7 @@
         <v>2</v>
       </c>
       <c r="K3" s="2">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="L3" s="2">
         <v>0</v>
@@ -1293,7 +1295,7 @@
         <v>0</v>
       </c>
       <c r="P3" s="2">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="Q3" s="2">
         <v>0</v>
@@ -1909,7 +1911,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="Q10" s="2">
         <v>0</v>
@@ -1997,7 +1999,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="2">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="Q11" s="2">
         <v>0</v>
@@ -2245,7 +2247,7 @@
         <v>2</v>
       </c>
       <c r="K14" s="7">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="L14" s="7">
         <v>0</v>
@@ -2260,7 +2262,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="7">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="Q14" s="7">
         <v>0</v>
@@ -2345,10 +2347,10 @@
         <v>0</v>
       </c>
       <c r="O15" s="2">
+        <v>1</v>
+      </c>
+      <c r="P15" s="2">
         <v>10</v>
-      </c>
-      <c r="P15" s="2">
-        <v>20</v>
       </c>
       <c r="Q15" s="2">
         <v>0</v>
@@ -2421,7 +2423,7 @@
         <v>4</v>
       </c>
       <c r="K16" s="2">
-        <v>550</v>
+        <v>300</v>
       </c>
       <c r="L16" s="2">
         <v>0</v>
@@ -2436,7 +2438,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="2">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="Q16" s="2">
         <v>0</v>

--- a/Assets/Excel_Data/Entity_QuestSetDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_QuestSetDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E29F2B3-31D4-4A24-A5C8-A2FEDC58850F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83584E01-4A79-408F-A1C1-7DB808313263}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="24075" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3015" yWindow="2565" windowWidth="24075" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01_QuestSetData" sheetId="1" r:id="rId1"/>
@@ -1047,7 +1047,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="M6" sqref="M6"/>
+      <selection pane="bottomLeft" activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="27.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1699,7 +1699,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="2">
-        <v>9999</v>
+        <v>0</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>48</v>
@@ -1720,7 +1720,7 @@
         <v>1</v>
       </c>
       <c r="K8" s="2">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="L8" s="2">
         <v>0</v>

--- a/Assets/Excel_Data/Entity_QuestSetDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_QuestSetDataBase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83584E01-4A79-408F-A1C1-7DB808313263}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBB50936-8292-4627-B929-A372D91FF20D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3015" yWindow="2565" windowWidth="24075" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1047,7 +1047,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="P8" sqref="P8"/>
+      <selection pane="bottomLeft" activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="27.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1720,7 +1720,7 @@
         <v>1</v>
       </c>
       <c r="K8" s="2">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="L8" s="2">
         <v>0</v>
@@ -2480,6 +2480,6 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Assets/Excel_Data/Entity_QuestSetDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_QuestSetDataBase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBB50936-8292-4627-B929-A372D91FF20D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4666DFF5-FA6B-4FD0-9D43-30C58A2D30FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3015" yWindow="2565" windowWidth="24075" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3855" yWindow="1920" windowWidth="24075" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01_QuestSetData" sheetId="1" r:id="rId1"/>
@@ -1047,7 +1047,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="K7" sqref="K7"/>
+      <selection pane="bottomLeft" activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="27.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1207,7 +1207,7 @@
         <v>0</v>
       </c>
       <c r="P2" s="7">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="Q2" s="7">
         <v>0</v>
@@ -1295,7 +1295,7 @@
         <v>0</v>
       </c>
       <c r="P3" s="2">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="Q3" s="2">
         <v>0</v>
@@ -2262,7 +2262,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="7">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="Q14" s="7">
         <v>0</v>
@@ -2350,7 +2350,7 @@
         <v>1</v>
       </c>
       <c r="P15" s="2">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="Q15" s="2">
         <v>0</v>
@@ -2438,7 +2438,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="2">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="Q16" s="2">
         <v>0</v>

--- a/Assets/Excel_Data/Entity_QuestSetDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_QuestSetDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4666DFF5-FA6B-4FD0-9D43-30C58A2D30FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20DFD09F-1C47-442D-9221-7061B1CCA36C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3855" yWindow="1920" windowWidth="24075" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3780" yWindow="2370" windowWidth="24075" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01_QuestSetData" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="83">
   <si>
     <t>desc</t>
   </si>
@@ -608,24 +608,28 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>オレンジジュースが飲みたい</t>
-    <rPh sb="9" eb="10">
-      <t>ノ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>これは、&lt;color=#FF78B4&gt;学校&lt;/color&gt;からのご依頼ね。
-フレッシュなジュースで、栄養をつけたいそうよ。</t>
-    <rPh sb="19" eb="21">
+    <t>これは、&lt;color=#FF78B4&gt;お菓子学校&lt;/color&gt;からのご依頼ね。
+ピクニックのおともに、ジュースが欲しいそうね。</t>
+    <rPh sb="20" eb="22">
+      <t>カシ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
       <t>ガッコウ</t>
     </rPh>
-    <rPh sb="33" eb="35">
+    <rPh sb="36" eb="38">
       <t>イライ</t>
     </rPh>
-    <rPh sb="50" eb="52">
-      <t>エイヨウ</t>
-    </rPh>
+    <rPh sb="57" eb="58">
+      <t>ホ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>オレンジジュースがほしい</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>juice</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1042,12 +1046,12 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AB16"/>
+  <dimension ref="A1:AC16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="P4" sqref="P4"/>
+      <selection pane="bottomLeft" activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="27.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1066,13 +1070,13 @@
     <col min="18" max="18" width="4.85546875" customWidth="1"/>
     <col min="19" max="19" width="4.7109375" customWidth="1"/>
     <col min="20" max="20" width="4.28515625" customWidth="1"/>
-    <col min="21" max="21" width="4" customWidth="1"/>
-    <col min="22" max="26" width="8.7109375" customWidth="1"/>
-    <col min="27" max="27" width="21.140625" customWidth="1"/>
-    <col min="28" max="28" width="62" customWidth="1"/>
+    <col min="21" max="22" width="4" customWidth="1"/>
+    <col min="23" max="27" width="8.7109375" customWidth="1"/>
+    <col min="28" max="28" width="21.140625" customWidth="1"/>
+    <col min="29" max="29" width="62" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:29" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
@@ -1136,29 +1140,32 @@
       <c r="U1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="V1" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="W1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:28" s="10" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:29" s="10" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7">
         <f t="shared" ref="A2:A16" si="0">ROW()-2</f>
         <v>0</v>
@@ -1224,11 +1231,11 @@
       <c r="U2" s="7">
         <v>0</v>
       </c>
-      <c r="V2" s="8" t="s">
-        <v>7</v>
+      <c r="V2" s="7">
+        <v>0</v>
       </c>
       <c r="W2" s="8" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="X2" s="8" t="s">
         <v>13</v>
@@ -1239,14 +1246,17 @@
       <c r="Z2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="AA2" s="9" t="s">
+      <c r="AA2" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB2" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="AB2" s="11" t="s">
+      <c r="AC2" s="11" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:28" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:29" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1286,7 +1296,7 @@
         <v>0</v>
       </c>
       <c r="M3" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="N3" s="2">
         <v>0</v>
@@ -1312,8 +1322,8 @@
       <c r="U3" s="2">
         <v>0</v>
       </c>
-      <c r="V3" s="3" t="s">
-        <v>7</v>
+      <c r="V3" s="2">
+        <v>0</v>
       </c>
       <c r="W3" s="3" t="s">
         <v>7</v>
@@ -1327,14 +1337,17 @@
       <c r="Z3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="AA3" s="5" t="s">
+      <c r="AA3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB3" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="AB3" s="4" t="s">
+      <c r="AC3" s="4" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:28" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:29" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -1400,8 +1413,8 @@
       <c r="U4" s="2">
         <v>0</v>
       </c>
-      <c r="V4" s="3" t="s">
-        <v>7</v>
+      <c r="V4" s="2">
+        <v>0</v>
       </c>
       <c r="W4" s="3" t="s">
         <v>7</v>
@@ -1415,14 +1428,17 @@
       <c r="Z4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="AA4" s="5" t="s">
+      <c r="AA4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB4" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="AB4" s="4" t="s">
+      <c r="AC4" s="4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:28" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1462,7 +1478,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="2">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="N5" s="2">
         <v>0</v>
@@ -1488,8 +1504,8 @@
       <c r="U5" s="2">
         <v>0</v>
       </c>
-      <c r="V5" s="3" t="s">
-        <v>7</v>
+      <c r="V5" s="2">
+        <v>50</v>
       </c>
       <c r="W5" s="3" t="s">
         <v>7</v>
@@ -1503,14 +1519,17 @@
       <c r="Z5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="AA5" s="5" t="s">
+      <c r="AA5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB5" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="AC5" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="AB5" s="4" t="s">
-        <v>81</v>
-      </c>
     </row>
-    <row r="6" spans="1:28" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1576,8 +1595,8 @@
       <c r="U6" s="2">
         <v>0</v>
       </c>
-      <c r="V6" s="3" t="s">
-        <v>7</v>
+      <c r="V6" s="2">
+        <v>0</v>
       </c>
       <c r="W6" s="3" t="s">
         <v>7</v>
@@ -1591,14 +1610,17 @@
       <c r="Z6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="AA6" s="5" t="s">
+      <c r="AA6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB6" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="AB6" s="4" t="s">
+      <c r="AC6" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:28" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1664,8 +1686,8 @@
       <c r="U7" s="2">
         <v>0</v>
       </c>
-      <c r="V7" s="3" t="s">
-        <v>7</v>
+      <c r="V7" s="2">
+        <v>0</v>
       </c>
       <c r="W7" s="3" t="s">
         <v>7</v>
@@ -1679,14 +1701,17 @@
       <c r="Z7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="AA7" s="5" t="s">
+      <c r="AA7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB7" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="AB7" s="4" t="s">
+      <c r="AC7" s="4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:28" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1752,8 +1777,8 @@
       <c r="U8" s="2">
         <v>0</v>
       </c>
-      <c r="V8" s="3" t="s">
-        <v>7</v>
+      <c r="V8" s="2">
+        <v>0</v>
       </c>
       <c r="W8" s="3" t="s">
         <v>7</v>
@@ -1767,14 +1792,17 @@
       <c r="Z8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="AA8" s="5" t="s">
+      <c r="AA8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB8" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="AB8" s="4" t="s">
+      <c r="AC8" s="4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:28" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1840,8 +1868,8 @@
       <c r="U9" s="2">
         <v>0</v>
       </c>
-      <c r="V9" s="3" t="s">
-        <v>7</v>
+      <c r="V9" s="2">
+        <v>0</v>
       </c>
       <c r="W9" s="3" t="s">
         <v>7</v>
@@ -1855,14 +1883,17 @@
       <c r="Z9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="AA9" s="5" t="s">
+      <c r="AA9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB9" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="AB9" s="4" t="s">
+      <c r="AC9" s="4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:28" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1928,8 +1959,8 @@
       <c r="U10" s="2">
         <v>0</v>
       </c>
-      <c r="V10" s="3" t="s">
-        <v>7</v>
+      <c r="V10" s="2">
+        <v>0</v>
       </c>
       <c r="W10" s="3" t="s">
         <v>7</v>
@@ -1943,14 +1974,17 @@
       <c r="Z10" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="AA10" s="5" t="s">
+      <c r="AA10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB10" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="AB10" s="4" t="s">
+      <c r="AC10" s="4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:28" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -2016,8 +2050,8 @@
       <c r="U11" s="2">
         <v>0</v>
       </c>
-      <c r="V11" s="3" t="s">
-        <v>7</v>
+      <c r="V11" s="2">
+        <v>0</v>
       </c>
       <c r="W11" s="3" t="s">
         <v>7</v>
@@ -2031,14 +2065,17 @@
       <c r="Z11" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="AA11" s="5" t="s">
+      <c r="AA11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB11" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="AB11" s="4" t="s">
+      <c r="AC11" s="4" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="12" spans="1:28" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:29" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -2104,8 +2141,8 @@
       <c r="U12" s="2">
         <v>0</v>
       </c>
-      <c r="V12" s="3" t="s">
-        <v>7</v>
+      <c r="V12" s="2">
+        <v>0</v>
       </c>
       <c r="W12" s="3" t="s">
         <v>7</v>
@@ -2119,14 +2156,17 @@
       <c r="Z12" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="AA12" s="5" t="s">
+      <c r="AA12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB12" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="AB12" s="4" t="s">
+      <c r="AC12" s="4" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:28" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:29" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -2192,8 +2232,8 @@
       <c r="U13" s="2">
         <v>0</v>
       </c>
-      <c r="V13" s="3" t="s">
-        <v>7</v>
+      <c r="V13" s="2">
+        <v>0</v>
       </c>
       <c r="W13" s="3" t="s">
         <v>7</v>
@@ -2207,14 +2247,17 @@
       <c r="Z13" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="AA13" s="5" t="s">
+      <c r="AA13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB13" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="AB13" s="4" t="s">
+      <c r="AC13" s="4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="14" spans="1:28" s="10" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:29" s="10" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="7">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -2279,8 +2322,8 @@
       <c r="U14" s="7">
         <v>0</v>
       </c>
-      <c r="V14" s="8" t="s">
-        <v>7</v>
+      <c r="V14" s="7">
+        <v>0</v>
       </c>
       <c r="W14" s="8" t="s">
         <v>7</v>
@@ -2294,14 +2337,17 @@
       <c r="Z14" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="AA14" s="9" t="s">
+      <c r="AA14" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB14" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="AB14" s="11" t="s">
+      <c r="AC14" s="11" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="15" spans="1:28" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:29" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -2367,29 +2413,32 @@
       <c r="U15" s="2">
         <v>0</v>
       </c>
-      <c r="V15" s="3" t="s">
+      <c r="V15" s="2">
+        <v>0</v>
+      </c>
+      <c r="W15" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="W15" s="3" t="s">
+      <c r="X15" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="X15" s="3" t="s">
+      <c r="Y15" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="Y15" s="3" t="s">
-        <v>7</v>
-      </c>
       <c r="Z15" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="AA15" s="5" t="s">
+      <c r="AA15" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB15" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="AB15" s="4" t="s">
+      <c r="AC15" s="4" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="16" spans="1:28" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:29" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -2455,8 +2504,8 @@
       <c r="U16" s="2">
         <v>0</v>
       </c>
-      <c r="V16" s="3" t="s">
-        <v>7</v>
+      <c r="V16" s="2">
+        <v>0</v>
       </c>
       <c r="W16" s="3" t="s">
         <v>7</v>
@@ -2470,10 +2519,13 @@
       <c r="Z16" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="AA16" s="5" t="s">
+      <c r="AA16" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB16" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="AB16" s="4" t="s">
+      <c r="AC16" s="4" t="s">
         <v>72</v>
       </c>
     </row>

--- a/Assets/Excel_Data/Entity_QuestSetDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_QuestSetDataBase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20DFD09F-1C47-442D-9221-7061B1CCA36C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2973F048-4E1D-42DF-BE78-F5EEEAB4AE23}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3780" yWindow="2370" windowWidth="24075" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2670" yWindow="1950" windowWidth="24075" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01_QuestSetData" sheetId="1" r:id="rId1"/>
@@ -164,13 +164,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ラスクの納品</t>
-    <rPh sb="4" eb="6">
-      <t>ノウヒン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>オレンジねこクッキーの納品</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -226,13 +219,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>さくさくしたクッキーの納品</t>
-    <rPh sb="11" eb="13">
-      <t>ノウヒン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>orange</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -485,10 +471,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>honey_neko_cookie</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>lavender_tea</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -498,37 +480,6 @@
   </si>
   <si>
     <t>ラベンダーティーの納品</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ある貴族の方から、パーティー用に紅茶がほしいそうよ。
-&lt;color=#FF78B4&gt;ラベンダーティー&lt;/color&gt;が、出来たらほしいんだって！</t>
-    <rPh sb="2" eb="4">
-      <t>キゾク</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>カタ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>ヨウ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>コウチャ</t>
-    </rPh>
-    <rPh sb="60" eb="62">
-      <t>デキ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>&lt;color=#FF78B4&gt;さくさくしたクッキー&lt;/color&gt;がほしいなぁ..　
-というお客さんがいるわ。クッキーがあれば、喜ばれるかも。</t>
-    <rPh sb="47" eb="48">
-      <t>キャク</t>
-    </rPh>
-    <rPh sb="64" eb="65">
-      <t>ヨロコ</t>
-    </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -558,19 +509,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>芳醇な味のクッキーが食べたい</t>
-    <rPh sb="0" eb="2">
-      <t>ホウジュン</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>アジ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>タ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Grape</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -630,6 +568,92 @@
   </si>
   <si>
     <t>juice</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>neko_cookie_shishamo</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>さくさくしたクッキーの納品&lt;高品質&gt;</t>
+    <rPh sb="11" eb="13">
+      <t>ノウヒン</t>
+    </rPh>
+    <rPh sb="14" eb="17">
+      <t>コウヒンシツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>芳醇な味のクッキーが食べたい&lt;高品質&gt;</t>
+    <rPh sb="0" eb="2">
+      <t>ホウジュン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>アジ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ラスクの納品&lt;高品質&gt;</t>
+    <rPh sb="4" eb="6">
+      <t>ノウヒン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ある貴族の方のお茶会に、&lt;color=#FF78B4&gt;クッキー&lt;/color&gt;がほしいそうよ。
+味にうるさいお客様だけど.. 報酬は高いみたい。</t>
+    <rPh sb="2" eb="4">
+      <t>キゾク</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>チャカイ</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>アジ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>キャクサマ</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>ホウシュウ</t>
+    </rPh>
+    <rPh sb="66" eb="67">
+      <t>タカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ある貴族の方から、パーティー用に紅茶がほしいそうよ。
+&lt;color=#FF78B4&gt;ラベンダーティー&lt;/color&gt;のような、少し香りが強めのものがいいみたい。</t>
+    <rPh sb="2" eb="4">
+      <t>キゾク</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>コウチャ</t>
+    </rPh>
+    <rPh sb="63" eb="64">
+      <t>スコ</t>
+    </rPh>
+    <rPh sb="65" eb="66">
+      <t>カオ</t>
+    </rPh>
+    <rPh sb="68" eb="69">
+      <t>ツヨ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1051,7 +1075,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="R6" sqref="R6"/>
+      <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="27.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1084,10 +1108,10 @@
         <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>30</v>
@@ -1141,7 +1165,7 @@
         <v>6</v>
       </c>
       <c r="V1" s="6" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="W1" s="1" t="s">
         <v>8</v>
@@ -1199,7 +1223,7 @@
         <v>2</v>
       </c>
       <c r="K2" s="7">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="L2" s="7">
         <v>0</v>
@@ -1214,7 +1238,7 @@
         <v>0</v>
       </c>
       <c r="P2" s="7">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="Q2" s="7">
         <v>0</v>
@@ -1253,7 +1277,7 @@
         <v>33</v>
       </c>
       <c r="AC2" s="11" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:29" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1305,7 +1329,7 @@
         <v>0</v>
       </c>
       <c r="P3" s="2">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="Q3" s="2">
         <v>0</v>
@@ -1341,10 +1365,10 @@
         <v>7</v>
       </c>
       <c r="AB3" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AC3" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:29" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1363,10 +1387,10 @@
         <v>0</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>7</v>
@@ -1432,10 +1456,10 @@
         <v>7</v>
       </c>
       <c r="AB4" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AC4" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:29" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1451,13 +1475,13 @@
         <v>0</v>
       </c>
       <c r="D5" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>7</v>
@@ -1469,10 +1493,10 @@
         <v>1</v>
       </c>
       <c r="J5" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K5" s="2">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="L5" s="2">
         <v>0</v>
@@ -1523,10 +1547,10 @@
         <v>7</v>
       </c>
       <c r="AB5" s="5" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AC5" s="4" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:29" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1535,20 +1559,20 @@
         <v>4</v>
       </c>
       <c r="B6" s="2">
-        <f t="shared" si="1"/>
+        <f>(ROW()-2)*10</f>
         <v>40</v>
       </c>
       <c r="C6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" s="2">
-        <v>9999</v>
+        <v>10</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>7</v>
@@ -1560,10 +1584,10 @@
         <v>1</v>
       </c>
       <c r="J6" s="2">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="K6" s="2">
-        <v>30</v>
+        <v>750</v>
       </c>
       <c r="L6" s="2">
         <v>0</v>
@@ -1578,7 +1602,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q6" s="2">
         <v>0</v>
@@ -1614,10 +1638,10 @@
         <v>7</v>
       </c>
       <c r="AB6" s="5" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="AC6" s="4" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:29" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1636,10 +1660,10 @@
         <v>9999</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>7</v>
@@ -1654,7 +1678,7 @@
         <v>7</v>
       </c>
       <c r="K7" s="2">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="L7" s="2">
         <v>0</v>
@@ -1705,10 +1729,10 @@
         <v>7</v>
       </c>
       <c r="AB7" s="5" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="AC7" s="4" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:29" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1724,13 +1748,13 @@
         <v>1</v>
       </c>
       <c r="D8" s="2">
-        <v>0</v>
+        <v>9999</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>7</v>
@@ -1742,10 +1766,10 @@
         <v>1</v>
       </c>
       <c r="J8" s="2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="K8" s="2">
-        <v>300</v>
+        <v>40</v>
       </c>
       <c r="L8" s="2">
         <v>0</v>
@@ -1796,10 +1820,10 @@
         <v>7</v>
       </c>
       <c r="AB8" s="5" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="AC8" s="4" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:29" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1815,13 +1839,13 @@
         <v>1</v>
       </c>
       <c r="D9" s="2">
-        <v>9999</v>
+        <v>0</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>7</v>
@@ -1887,10 +1911,10 @@
         <v>7</v>
       </c>
       <c r="AB9" s="5" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="AC9" s="4" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:29" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1903,16 +1927,16 @@
         <v>80</v>
       </c>
       <c r="C10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" s="2">
-        <v>2</v>
+        <v>9999</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>7</v>
@@ -1924,7 +1948,7 @@
         <v>1</v>
       </c>
       <c r="J10" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K10" s="2">
         <v>300</v>
@@ -1942,7 +1966,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q10" s="2">
         <v>0</v>
@@ -1978,10 +2002,10 @@
         <v>7</v>
       </c>
       <c r="AB10" s="5" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="AC10" s="4" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:29" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1990,20 +2014,20 @@
         <v>9</v>
       </c>
       <c r="B11" s="2">
-        <f>(ROW()-2)*10</f>
+        <f t="shared" si="1"/>
         <v>90</v>
       </c>
       <c r="C11" s="2">
         <v>0</v>
       </c>
       <c r="D11" s="2">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>7</v>
@@ -2018,7 +2042,7 @@
         <v>3</v>
       </c>
       <c r="K11" s="2">
-        <v>750</v>
+        <v>300</v>
       </c>
       <c r="L11" s="2">
         <v>0</v>
@@ -2069,10 +2093,10 @@
         <v>7</v>
       </c>
       <c r="AB11" s="5" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="AC11" s="4" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:29" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2091,10 +2115,10 @@
         <v>9999</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>7</v>
@@ -2160,10 +2184,10 @@
         <v>7</v>
       </c>
       <c r="AB12" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="AC12" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:29" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2179,13 +2203,13 @@
         <v>1</v>
       </c>
       <c r="D13" s="2">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>7</v>
@@ -2251,10 +2275,10 @@
         <v>7</v>
       </c>
       <c r="AB13" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="AC13" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:29" s="10" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2287,10 +2311,10 @@
         <v>1</v>
       </c>
       <c r="J14" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K14" s="7">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="L14" s="7">
         <v>0</v>
@@ -2341,10 +2365,10 @@
         <v>7</v>
       </c>
       <c r="AB14" s="9" t="s">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="AC14" s="11" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:29" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2363,7 +2387,7 @@
         <v>0</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>7</v>
@@ -2378,10 +2402,10 @@
         <v>1</v>
       </c>
       <c r="J15" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K15" s="2">
-        <v>640</v>
+        <v>650</v>
       </c>
       <c r="L15" s="2">
         <v>0</v>
@@ -2417,13 +2441,13 @@
         <v>0</v>
       </c>
       <c r="W15" s="3" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="X15" s="3" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="Y15" s="3" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="Z15" s="3" t="s">
         <v>7</v>
@@ -2432,10 +2456,10 @@
         <v>7</v>
       </c>
       <c r="AB15" s="5" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="AC15" s="4" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:29" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2451,7 +2475,7 @@
         <v>0</v>
       </c>
       <c r="D16" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>20</v>
@@ -2460,7 +2484,7 @@
         <v>7</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H16" s="2">
         <v>0</v>
@@ -2523,10 +2547,10 @@
         <v>7</v>
       </c>
       <c r="AB16" s="5" t="s">
-        <v>34</v>
+        <v>80</v>
       </c>
       <c r="AC16" s="4" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel_Data/Entity_QuestSetDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_QuestSetDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2973F048-4E1D-42DF-BE78-F5EEEAB4AE23}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{913A8538-490F-4ADA-9412-68C45156B6AF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2670" yWindow="1950" windowWidth="24075" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3345" yWindow="1575" windowWidth="24075" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01_QuestSetData" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="87">
   <si>
     <t>desc</t>
   </si>
@@ -161,10 +161,6 @@
     <rPh sb="7" eb="9">
       <t>ノウヒン</t>
     </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>オレンジねこクッキーの納品</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -479,10 +475,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ラベンダーティーの納品</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>ある貴族のお客様が、お茶会で食べるお菓子を探してるそうよ。
 &lt;color=#FF78B4&gt;ラスク&lt;/color&gt;があれば、喜ばれるかも..。</t>
     <rPh sb="2" eb="4">
@@ -631,27 +623,76 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ある貴族の方から、パーティー用に紅茶がほしいそうよ。
+    <t>Biscotti</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>biscouti</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ビスコッティはないのかい？</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>これは、とある&lt;color=#FF78B4&gt;貴族&lt;/color&gt;の方からのご依頼ね。
+来客用に、品が良いお菓子がほしいそうね。</t>
+    <rPh sb="22" eb="24">
+      <t>キゾク</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>イライ</t>
+    </rPh>
+    <rPh sb="43" eb="46">
+      <t>ライキャクヨウ</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>シナ</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>カシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>オレンジねこクッキーが食べたい！</t>
+    <rPh sb="11" eb="12">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ラベンダーティーはありません？</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>あるご婦人の方から、パーティー用に紅茶がほしいそうよ。
 &lt;color=#FF78B4&gt;ラベンダーティー&lt;/color&gt;のような、少し香りが強めのものがいいみたい。</t>
-    <rPh sb="2" eb="4">
-      <t>キゾク</t>
-    </rPh>
-    <rPh sb="5" eb="6">
+    <rPh sb="3" eb="5">
+      <t>フジン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
       <t>カタ</t>
     </rPh>
-    <rPh sb="14" eb="15">
+    <rPh sb="15" eb="16">
       <t>ヨウ</t>
     </rPh>
-    <rPh sb="16" eb="18">
+    <rPh sb="17" eb="19">
       <t>コウチャ</t>
     </rPh>
-    <rPh sb="63" eb="64">
+    <rPh sb="64" eb="65">
       <t>スコ</t>
     </rPh>
-    <rPh sb="65" eb="66">
+    <rPh sb="66" eb="67">
       <t>カオ</t>
     </rPh>
-    <rPh sb="68" eb="69">
+    <rPh sb="69" eb="70">
       <t>ツヨ</t>
     </rPh>
     <phoneticPr fontId="2"/>
@@ -1070,12 +1111,12 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AC16"/>
+  <dimension ref="A1:AC17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
+      <selection pane="bottomLeft" activeCell="AC8" sqref="AC8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="27.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1108,10 +1149,10 @@
         <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>30</v>
@@ -1165,7 +1206,7 @@
         <v>6</v>
       </c>
       <c r="V1" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="W1" s="1" t="s">
         <v>8</v>
@@ -1191,11 +1232,11 @@
     </row>
     <row r="2" spans="1:29" s="10" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7">
-        <f t="shared" ref="A2:A16" si="0">ROW()-2</f>
+        <f t="shared" ref="A2:A17" si="0">ROW()-2</f>
         <v>0</v>
       </c>
       <c r="B2" s="7">
-        <f t="shared" ref="B2:B13" si="1">(ROW()-2)*10</f>
+        <f t="shared" ref="B2:B14" si="1">(ROW()-2)*10</f>
         <v>0</v>
       </c>
       <c r="C2" s="7">
@@ -1223,7 +1264,7 @@
         <v>2</v>
       </c>
       <c r="K2" s="7">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="L2" s="7">
         <v>0</v>
@@ -1277,7 +1318,7 @@
         <v>33</v>
       </c>
       <c r="AC2" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:29" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1365,10 +1406,10 @@
         <v>7</v>
       </c>
       <c r="AB3" s="5" t="s">
-        <v>34</v>
+        <v>84</v>
       </c>
       <c r="AC3" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:29" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1387,10 +1428,10 @@
         <v>0</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>7</v>
@@ -1456,10 +1497,10 @@
         <v>7</v>
       </c>
       <c r="AB4" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AC4" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:29" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1472,16 +1513,16 @@
         <v>30</v>
       </c>
       <c r="C5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>73</v>
+        <v>39</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>73</v>
+        <v>39</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>7</v>
@@ -1493,10 +1534,10 @@
         <v>1</v>
       </c>
       <c r="J5" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K5" s="2">
-        <v>400</v>
+        <v>30</v>
       </c>
       <c r="L5" s="2">
         <v>0</v>
@@ -1529,7 +1570,7 @@
         <v>0</v>
       </c>
       <c r="V5" s="2">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="W5" s="3" t="s">
         <v>7</v>
@@ -1547,10 +1588,10 @@
         <v>7</v>
       </c>
       <c r="AB5" s="5" t="s">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="AC5" s="4" t="s">
-        <v>74</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:29" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1559,20 +1600,20 @@
         <v>4</v>
       </c>
       <c r="B6" s="2">
-        <f>(ROW()-2)*10</f>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="C6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" s="2">
-        <v>10</v>
+        <v>9999</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>7</v>
@@ -1584,10 +1625,10 @@
         <v>1</v>
       </c>
       <c r="J6" s="2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="K6" s="2">
-        <v>750</v>
+        <v>40</v>
       </c>
       <c r="L6" s="2">
         <v>0</v>
@@ -1602,7 +1643,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q6" s="2">
         <v>0</v>
@@ -1638,10 +1679,10 @@
         <v>7</v>
       </c>
       <c r="AB6" s="5" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="AC6" s="4" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:29" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1657,13 +1698,13 @@
         <v>1</v>
       </c>
       <c r="D7" s="2">
-        <v>9999</v>
+        <v>0</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>7</v>
@@ -1675,10 +1716,10 @@
         <v>1</v>
       </c>
       <c r="J7" s="2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="K7" s="2">
-        <v>30</v>
+        <v>500</v>
       </c>
       <c r="L7" s="2">
         <v>0</v>
@@ -1729,10 +1770,10 @@
         <v>7</v>
       </c>
       <c r="AB7" s="5" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="AC7" s="4" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:29" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1748,13 +1789,13 @@
         <v>1</v>
       </c>
       <c r="D8" s="2">
-        <v>9999</v>
+        <v>0</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>7</v>
@@ -1766,10 +1807,10 @@
         <v>1</v>
       </c>
       <c r="J8" s="2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="K8" s="2">
-        <v>40</v>
+        <v>300</v>
       </c>
       <c r="L8" s="2">
         <v>0</v>
@@ -1820,10 +1861,10 @@
         <v>7</v>
       </c>
       <c r="AB8" s="5" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="AC8" s="4" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:29" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1836,16 +1877,16 @@
         <v>70</v>
       </c>
       <c r="C9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>46</v>
+        <v>71</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>46</v>
+        <v>71</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>7</v>
@@ -1857,10 +1898,10 @@
         <v>1</v>
       </c>
       <c r="J9" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="K9" s="2">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L9" s="2">
         <v>0</v>
@@ -1893,7 +1934,7 @@
         <v>0</v>
       </c>
       <c r="V9" s="2">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="W9" s="3" t="s">
         <v>7</v>
@@ -1911,10 +1952,10 @@
         <v>7</v>
       </c>
       <c r="AB9" s="5" t="s">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="AC9" s="4" t="s">
-        <v>48</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:29" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1923,20 +1964,20 @@
         <v>8</v>
       </c>
       <c r="B10" s="2">
-        <f t="shared" si="1"/>
+        <f>(ROW()-2)*10</f>
         <v>80</v>
       </c>
       <c r="C10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" s="2">
-        <v>9999</v>
+        <v>10</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>49</v>
+        <v>75</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>7</v>
@@ -1948,10 +1989,10 @@
         <v>1</v>
       </c>
       <c r="J10" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K10" s="2">
-        <v>300</v>
+        <v>750</v>
       </c>
       <c r="L10" s="2">
         <v>0</v>
@@ -1966,7 +2007,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q10" s="2">
         <v>0</v>
@@ -2002,10 +2043,10 @@
         <v>7</v>
       </c>
       <c r="AB10" s="5" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="AC10" s="4" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:29" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2024,10 +2065,10 @@
         <v>20</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>7</v>
@@ -2093,10 +2134,10 @@
         <v>7</v>
       </c>
       <c r="AB11" s="5" t="s">
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="AC11" s="4" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:29" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2105,23 +2146,23 @@
         <v>10</v>
       </c>
       <c r="B12" s="2">
-        <f t="shared" si="1"/>
+        <f>(ROW()-2)*10</f>
         <v>100</v>
       </c>
       <c r="C12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" s="2">
-        <v>9999</v>
+        <v>30</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>7</v>
+        <v>80</v>
       </c>
       <c r="H12" s="2">
         <v>0</v>
@@ -2130,25 +2171,25 @@
         <v>1</v>
       </c>
       <c r="J12" s="2">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="K12" s="2">
-        <v>15</v>
+        <v>1100</v>
       </c>
       <c r="L12" s="2">
         <v>0</v>
       </c>
       <c r="M12" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="N12" s="2">
         <v>0</v>
       </c>
       <c r="O12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P12" s="2">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="2">
         <v>0</v>
@@ -2184,10 +2225,10 @@
         <v>7</v>
       </c>
       <c r="AB12" s="5" t="s">
-        <v>53</v>
+        <v>82</v>
       </c>
       <c r="AC12" s="4" t="s">
-        <v>57</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:29" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2203,13 +2244,13 @@
         <v>1</v>
       </c>
       <c r="D13" s="2">
-        <v>40</v>
+        <v>9999</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>7</v>
@@ -2221,10 +2262,10 @@
         <v>1</v>
       </c>
       <c r="J13" s="2">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="K13" s="2">
-        <v>200</v>
+        <v>15</v>
       </c>
       <c r="L13" s="2">
         <v>0</v>
@@ -2275,191 +2316,191 @@
         <v>7</v>
       </c>
       <c r="AB13" s="5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="AC13" s="4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="1:29" s="10" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="7">
+    <row r="14" spans="1:29" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B14" s="7">
-        <v>1000</v>
-      </c>
-      <c r="C14" s="7">
-        <v>0</v>
-      </c>
-      <c r="D14" s="7">
-        <v>0</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H14" s="7">
-        <v>0</v>
-      </c>
-      <c r="I14" s="7">
-        <v>1</v>
-      </c>
-      <c r="J14" s="7">
-        <v>5</v>
-      </c>
-      <c r="K14" s="7">
-        <v>500</v>
-      </c>
-      <c r="L14" s="7">
-        <v>0</v>
-      </c>
-      <c r="M14" s="7">
-        <v>20</v>
-      </c>
-      <c r="N14" s="7">
-        <v>0</v>
-      </c>
-      <c r="O14" s="7">
-        <v>0</v>
-      </c>
-      <c r="P14" s="7">
-        <v>50</v>
-      </c>
-      <c r="Q14" s="7">
-        <v>0</v>
-      </c>
-      <c r="R14" s="7">
-        <v>0</v>
-      </c>
-      <c r="S14" s="7">
-        <v>0</v>
-      </c>
-      <c r="T14" s="7">
-        <v>0</v>
-      </c>
-      <c r="U14" s="7">
-        <v>0</v>
-      </c>
-      <c r="V14" s="7">
-        <v>0</v>
-      </c>
-      <c r="W14" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="X14" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y14" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z14" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA14" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="AB14" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="AC14" s="11" t="s">
-        <v>81</v>
+      <c r="B14" s="2">
+        <f t="shared" si="1"/>
+        <v>120</v>
+      </c>
+      <c r="C14" s="2">
+        <v>1</v>
+      </c>
+      <c r="D14" s="2">
+        <v>40</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H14" s="2">
+        <v>0</v>
+      </c>
+      <c r="I14" s="2">
+        <v>1</v>
+      </c>
+      <c r="J14" s="2">
+        <v>2</v>
+      </c>
+      <c r="K14" s="2">
+        <v>200</v>
+      </c>
+      <c r="L14" s="2">
+        <v>0</v>
+      </c>
+      <c r="M14" s="2">
+        <v>0</v>
+      </c>
+      <c r="N14" s="2">
+        <v>0</v>
+      </c>
+      <c r="O14" s="2">
+        <v>0</v>
+      </c>
+      <c r="P14" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>0</v>
+      </c>
+      <c r="R14" s="2">
+        <v>0</v>
+      </c>
+      <c r="S14" s="2">
+        <v>0</v>
+      </c>
+      <c r="T14" s="2">
+        <v>0</v>
+      </c>
+      <c r="U14" s="2">
+        <v>0</v>
+      </c>
+      <c r="V14" s="2">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="X14" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y14" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z14" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA14" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB14" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC14" s="4" t="s">
+        <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:29" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="2">
+    <row r="15" spans="1:29" s="10" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="7">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B15" s="2">
-        <f>INDEX(B:B,MATCH(1000,B:B,0),1)+((ROW()-MATCH(1000,B:B,0))*10)</f>
-        <v>1010</v>
-      </c>
-      <c r="C15" s="2">
-        <v>0</v>
-      </c>
-      <c r="D15" s="2">
-        <v>0</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G15" s="2" t="s">
+      <c r="B15" s="7">
+        <v>1000</v>
+      </c>
+      <c r="C15" s="7">
+        <v>0</v>
+      </c>
+      <c r="D15" s="7">
+        <v>0</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G15" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H15" s="2">
-        <v>0</v>
-      </c>
-      <c r="I15" s="2">
-        <v>1</v>
-      </c>
-      <c r="J15" s="2">
+      <c r="H15" s="7">
+        <v>0</v>
+      </c>
+      <c r="I15" s="7">
+        <v>1</v>
+      </c>
+      <c r="J15" s="7">
         <v>5</v>
       </c>
-      <c r="K15" s="2">
-        <v>650</v>
-      </c>
-      <c r="L15" s="2">
-        <v>0</v>
-      </c>
-      <c r="M15" s="2">
+      <c r="K15" s="7">
+        <v>300</v>
+      </c>
+      <c r="L15" s="7">
+        <v>0</v>
+      </c>
+      <c r="M15" s="7">
         <v>20</v>
       </c>
-      <c r="N15" s="2">
-        <v>0</v>
-      </c>
-      <c r="O15" s="2">
-        <v>1</v>
-      </c>
-      <c r="P15" s="2">
+      <c r="N15" s="7">
+        <v>0</v>
+      </c>
+      <c r="O15" s="7">
+        <v>0</v>
+      </c>
+      <c r="P15" s="7">
         <v>50</v>
       </c>
-      <c r="Q15" s="2">
-        <v>0</v>
-      </c>
-      <c r="R15" s="2">
-        <v>0</v>
-      </c>
-      <c r="S15" s="2">
-        <v>0</v>
-      </c>
-      <c r="T15" s="2">
-        <v>0</v>
-      </c>
-      <c r="U15" s="2">
-        <v>0</v>
-      </c>
-      <c r="V15" s="2">
-        <v>0</v>
-      </c>
-      <c r="W15" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="X15" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="Y15" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="Z15" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA15" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="AB15" s="5" t="s">
+      <c r="Q15" s="7">
+        <v>0</v>
+      </c>
+      <c r="R15" s="7">
+        <v>0</v>
+      </c>
+      <c r="S15" s="7">
+        <v>0</v>
+      </c>
+      <c r="T15" s="7">
+        <v>0</v>
+      </c>
+      <c r="U15" s="7">
+        <v>0</v>
+      </c>
+      <c r="V15" s="7">
+        <v>0</v>
+      </c>
+      <c r="W15" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="X15" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y15" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z15" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA15" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB15" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC15" s="11" t="s">
         <v>79</v>
-      </c>
-      <c r="AC15" s="4" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:29" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2469,22 +2510,22 @@
       </c>
       <c r="B16" s="2">
         <f>INDEX(B:B,MATCH(1000,B:B,0),1)+((ROW()-MATCH(1000,B:B,0))*10)</f>
-        <v>1020</v>
+        <v>1010</v>
       </c>
       <c r="C16" s="2">
         <v>0</v>
       </c>
       <c r="D16" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>20</v>
+        <v>67</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>7</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="H16" s="2">
         <v>0</v>
@@ -2493,10 +2534,10 @@
         <v>1</v>
       </c>
       <c r="J16" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K16" s="2">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L16" s="2">
         <v>0</v>
@@ -2508,7 +2549,7 @@
         <v>0</v>
       </c>
       <c r="O16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P16" s="2">
         <v>50</v>
@@ -2532,13 +2573,13 @@
         <v>0</v>
       </c>
       <c r="W16" s="3" t="s">
-        <v>7</v>
+        <v>66</v>
       </c>
       <c r="X16" s="3" t="s">
-        <v>7</v>
+        <v>68</v>
       </c>
       <c r="Y16" s="3" t="s">
-        <v>7</v>
+        <v>70</v>
       </c>
       <c r="Z16" s="3" t="s">
         <v>7</v>
@@ -2547,10 +2588,101 @@
         <v>7</v>
       </c>
       <c r="AB16" s="5" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="AC16" s="4" t="s">
-        <v>67</v>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="2">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B17" s="2">
+        <f>INDEX(B:B,MATCH(1000,B:B,0),1)+((ROW()-MATCH(1000,B:B,0))*10)</f>
+        <v>1020</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0</v>
+      </c>
+      <c r="D17" s="2">
+        <v>10</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H17" s="2">
+        <v>0</v>
+      </c>
+      <c r="I17" s="2">
+        <v>1</v>
+      </c>
+      <c r="J17" s="2">
+        <v>4</v>
+      </c>
+      <c r="K17" s="2">
+        <v>300</v>
+      </c>
+      <c r="L17" s="2">
+        <v>0</v>
+      </c>
+      <c r="M17" s="2">
+        <v>20</v>
+      </c>
+      <c r="N17" s="2">
+        <v>0</v>
+      </c>
+      <c r="O17" s="2">
+        <v>0</v>
+      </c>
+      <c r="P17" s="2">
+        <v>50</v>
+      </c>
+      <c r="Q17" s="2">
+        <v>0</v>
+      </c>
+      <c r="R17" s="2">
+        <v>0</v>
+      </c>
+      <c r="S17" s="2">
+        <v>0</v>
+      </c>
+      <c r="T17" s="2">
+        <v>0</v>
+      </c>
+      <c r="U17" s="2">
+        <v>0</v>
+      </c>
+      <c r="V17" s="2">
+        <v>0</v>
+      </c>
+      <c r="W17" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="X17" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y17" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z17" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA17" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB17" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC17" s="4" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel_Data/Entity_QuestSetDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_QuestSetDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{913A8538-490F-4ADA-9412-68C45156B6AF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECBEAE09-9BF4-4BD3-9180-79C86E2C2842}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3345" yWindow="1575" windowWidth="24075" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4035" yWindow="2265" windowWidth="24075" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01_QuestSetData" sheetId="1" r:id="rId1"/>
@@ -1113,10 +1113,10 @@
   </sheetPr>
   <dimension ref="A1:AC17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="AC8" sqref="AC8"/>
+      <selection pane="bottomLeft" activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="27.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1719,7 +1719,7 @@
         <v>1</v>
       </c>
       <c r="K7" s="2">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="L7" s="2">
         <v>0</v>
@@ -1901,7 +1901,7 @@
         <v>6</v>
       </c>
       <c r="K9" s="2">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="L9" s="2">
         <v>0</v>
@@ -2174,7 +2174,7 @@
         <v>2</v>
       </c>
       <c r="K12" s="2">
-        <v>1100</v>
+        <v>700</v>
       </c>
       <c r="L12" s="2">
         <v>0</v>

--- a/Assets/Excel_Data/Entity_QuestSetDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_QuestSetDataBase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECBEAE09-9BF4-4BD3-9180-79C86E2C2842}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDA03704-7D08-41E6-9266-660774EF421D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4035" yWindow="2265" windowWidth="24075" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3420" yWindow="1920" windowWidth="24075" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01_QuestSetData" sheetId="1" r:id="rId1"/>
@@ -1114,9 +1114,9 @@
   <dimension ref="A1:AC17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="K10" sqref="K10"/>
+      <selection pane="bottomLeft" activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="27.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1261,7 +1261,7 @@
         <v>1</v>
       </c>
       <c r="J2" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K2" s="7">
         <v>250</v>
@@ -1352,7 +1352,7 @@
         <v>1</v>
       </c>
       <c r="J3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K3" s="2">
         <v>400</v>
@@ -1898,7 +1898,7 @@
         <v>1</v>
       </c>
       <c r="J9" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="K9" s="2">
         <v>200</v>
@@ -1989,7 +1989,7 @@
         <v>1</v>
       </c>
       <c r="J10" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K10" s="2">
         <v>750</v>
@@ -2080,7 +2080,7 @@
         <v>1</v>
       </c>
       <c r="J11" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K11" s="2">
         <v>300</v>
@@ -2171,7 +2171,7 @@
         <v>1</v>
       </c>
       <c r="J12" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K12" s="2">
         <v>700</v>
@@ -2443,7 +2443,7 @@
         <v>1</v>
       </c>
       <c r="J15" s="7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K15" s="7">
         <v>300</v>
@@ -2534,7 +2534,7 @@
         <v>1</v>
       </c>
       <c r="J16" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K16" s="2">
         <v>400</v>
@@ -2625,7 +2625,7 @@
         <v>1</v>
       </c>
       <c r="J17" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K17" s="2">
         <v>300</v>

--- a/Assets/Excel_Data/Entity_QuestSetDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_QuestSetDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDA03704-7D08-41E6-9266-660774EF421D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{852469B2-3A9F-4413-9212-8FF3E2E22972}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3420" yWindow="1920" windowWidth="24075" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5235" yWindow="2745" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01_QuestSetData" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="92">
   <si>
     <t>desc</t>
   </si>
@@ -695,6 +695,48 @@
     <rPh sb="69" eb="70">
       <t>ツヨ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>bugget</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Bread</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>バゲットが食べたい！</t>
+    <rPh sb="5" eb="6">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>これは、&lt;color=#FF78B4&gt;わたし&lt;/color&gt;からのご依頼ね。
+お店でだすパン作りを手伝ってほしいの！もちろん、お礼は出すわよ～。</t>
+    <rPh sb="34" eb="36">
+      <t>イライ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>ミセ</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>テツダ</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="66" eb="67">
+      <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Juice</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1111,12 +1153,12 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AC17"/>
+  <dimension ref="A1:AC18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="J13" sqref="J13"/>
+      <selection pane="bottomLeft" activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="27.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1232,11 +1274,11 @@
     </row>
     <row r="2" spans="1:29" s="10" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7">
-        <f t="shared" ref="A2:A17" si="0">ROW()-2</f>
+        <f t="shared" ref="A2:A18" si="0">ROW()-2</f>
         <v>0</v>
       </c>
       <c r="B2" s="7">
-        <f t="shared" ref="B2:B14" si="1">(ROW()-2)*10</f>
+        <f t="shared" ref="B2:B15" si="1">(ROW()-2)*10</f>
         <v>0</v>
       </c>
       <c r="C2" s="7">
@@ -1422,19 +1464,19 @@
         <v>20</v>
       </c>
       <c r="C4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" s="2">
-        <v>0</v>
+        <v>9999</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>7</v>
+        <v>88</v>
       </c>
       <c r="H4" s="2">
         <v>0</v>
@@ -1443,10 +1485,10 @@
         <v>1</v>
       </c>
       <c r="J4" s="2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="K4" s="2">
-        <v>20</v>
+        <v>180</v>
       </c>
       <c r="L4" s="2">
         <v>0</v>
@@ -1461,7 +1503,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="2">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="Q4" s="2">
         <v>0</v>
@@ -1497,10 +1539,10 @@
         <v>7</v>
       </c>
       <c r="AB4" s="5" t="s">
-        <v>36</v>
+        <v>89</v>
       </c>
       <c r="AC4" s="4" t="s">
-        <v>38</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:29" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1519,10 +1561,10 @@
         <v>0</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>7</v>
@@ -1537,7 +1579,7 @@
         <v>7</v>
       </c>
       <c r="K5" s="2">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="L5" s="2">
         <v>0</v>
@@ -1588,10 +1630,10 @@
         <v>7</v>
       </c>
       <c r="AB5" s="5" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AC5" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:29" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1607,13 +1649,13 @@
         <v>1</v>
       </c>
       <c r="D6" s="2">
-        <v>9999</v>
+        <v>0</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>7</v>
@@ -1628,61 +1670,61 @@
         <v>7</v>
       </c>
       <c r="K6" s="2">
+        <v>30</v>
+      </c>
+      <c r="L6" s="2">
+        <v>0</v>
+      </c>
+      <c r="M6" s="2">
+        <v>0</v>
+      </c>
+      <c r="N6" s="2">
+        <v>0</v>
+      </c>
+      <c r="O6" s="2">
+        <v>0</v>
+      </c>
+      <c r="P6" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>0</v>
+      </c>
+      <c r="R6" s="2">
+        <v>0</v>
+      </c>
+      <c r="S6" s="2">
+        <v>0</v>
+      </c>
+      <c r="T6" s="2">
+        <v>0</v>
+      </c>
+      <c r="U6" s="2">
+        <v>0</v>
+      </c>
+      <c r="V6" s="2">
+        <v>0</v>
+      </c>
+      <c r="W6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="X6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB6" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="L6" s="2">
-        <v>0</v>
-      </c>
-      <c r="M6" s="2">
-        <v>0</v>
-      </c>
-      <c r="N6" s="2">
-        <v>0</v>
-      </c>
-      <c r="O6" s="2">
-        <v>0</v>
-      </c>
-      <c r="P6" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="2">
-        <v>0</v>
-      </c>
-      <c r="R6" s="2">
-        <v>0</v>
-      </c>
-      <c r="S6" s="2">
-        <v>0</v>
-      </c>
-      <c r="T6" s="2">
-        <v>0</v>
-      </c>
-      <c r="U6" s="2">
-        <v>0</v>
-      </c>
-      <c r="V6" s="2">
-        <v>0</v>
-      </c>
-      <c r="W6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="X6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="AB6" s="5" t="s">
-        <v>43</v>
-      </c>
       <c r="AC6" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:29" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1698,13 +1740,13 @@
         <v>1</v>
       </c>
       <c r="D7" s="2">
-        <v>0</v>
+        <v>9999</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>7</v>
@@ -1716,10 +1758,10 @@
         <v>1</v>
       </c>
       <c r="J7" s="2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="K7" s="2">
-        <v>300</v>
+        <v>40</v>
       </c>
       <c r="L7" s="2">
         <v>0</v>
@@ -1770,10 +1812,10 @@
         <v>7</v>
       </c>
       <c r="AB7" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="AC7" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:29" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1792,10 +1834,10 @@
         <v>0</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>7</v>
@@ -1861,10 +1903,10 @@
         <v>7</v>
       </c>
       <c r="AB8" s="5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="AC8" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:29" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1877,16 +1919,16 @@
         <v>70</v>
       </c>
       <c r="C9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>7</v>
@@ -1901,7 +1943,7 @@
         <v>1</v>
       </c>
       <c r="K9" s="2">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="L9" s="2">
         <v>0</v>
@@ -1934,28 +1976,28 @@
         <v>0</v>
       </c>
       <c r="V9" s="2">
+        <v>0</v>
+      </c>
+      <c r="W9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="X9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB9" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC9" s="4" t="s">
         <v>50</v>
-      </c>
-      <c r="W9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="X9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="AB9" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="AC9" s="4" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:29" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1964,7 +2006,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="2">
-        <f>(ROW()-2)*10</f>
+        <f t="shared" si="1"/>
         <v>80</v>
       </c>
       <c r="C10" s="2">
@@ -1974,13 +2016,13 @@
         <v>10</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>58</v>
+        <v>7</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>7</v>
+        <v>91</v>
       </c>
       <c r="H10" s="2">
         <v>0</v>
@@ -1992,7 +2034,7 @@
         <v>1</v>
       </c>
       <c r="K10" s="2">
-        <v>750</v>
+        <v>200</v>
       </c>
       <c r="L10" s="2">
         <v>0</v>
@@ -2007,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q10" s="2">
         <v>0</v>
@@ -2025,7 +2067,7 @@
         <v>0</v>
       </c>
       <c r="V10" s="2">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="W10" s="3" t="s">
         <v>7</v>
@@ -2043,10 +2085,10 @@
         <v>7</v>
       </c>
       <c r="AB10" s="5" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="AC10" s="4" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:29" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2055,20 +2097,20 @@
         <v>9</v>
       </c>
       <c r="B11" s="2">
-        <f t="shared" si="1"/>
+        <f>(ROW()-2)*10</f>
         <v>90</v>
       </c>
       <c r="C11" s="2">
         <v>0</v>
       </c>
       <c r="D11" s="2">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>7</v>
@@ -2083,7 +2125,7 @@
         <v>1</v>
       </c>
       <c r="K11" s="2">
-        <v>300</v>
+        <v>750</v>
       </c>
       <c r="L11" s="2">
         <v>0</v>
@@ -2092,13 +2134,13 @@
         <v>0</v>
       </c>
       <c r="N11" s="2">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="O11" s="2">
         <v>0</v>
       </c>
       <c r="P11" s="2">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="Q11" s="2">
         <v>0</v>
@@ -2134,10 +2176,10 @@
         <v>7</v>
       </c>
       <c r="AB11" s="5" t="s">
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="AC11" s="4" t="s">
-        <v>86</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:29" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2146,23 +2188,23 @@
         <v>10</v>
       </c>
       <c r="B12" s="2">
-        <f>(ROW()-2)*10</f>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="C12" s="2">
         <v>0</v>
       </c>
       <c r="D12" s="2">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>7</v>
+        <v>63</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>80</v>
+        <v>7</v>
       </c>
       <c r="H12" s="2">
         <v>0</v>
@@ -2174,22 +2216,22 @@
         <v>1</v>
       </c>
       <c r="K12" s="2">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="L12" s="2">
         <v>0</v>
       </c>
       <c r="M12" s="2">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="N12" s="2">
         <v>0</v>
       </c>
       <c r="O12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P12" s="2">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="Q12" s="2">
         <v>0</v>
@@ -2225,10 +2267,10 @@
         <v>7</v>
       </c>
       <c r="AB12" s="5" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="AC12" s="4" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:29" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2237,23 +2279,23 @@
         <v>11</v>
       </c>
       <c r="B13" s="2">
-        <f t="shared" si="1"/>
+        <f>(ROW()-2)*10</f>
         <v>110</v>
       </c>
       <c r="C13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" s="2">
-        <v>9999</v>
+        <v>30</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>51</v>
+        <v>7</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>7</v>
+        <v>80</v>
       </c>
       <c r="H13" s="2">
         <v>0</v>
@@ -2262,25 +2304,25 @@
         <v>1</v>
       </c>
       <c r="J13" s="2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="K13" s="2">
-        <v>15</v>
+        <v>700</v>
       </c>
       <c r="L13" s="2">
         <v>0</v>
       </c>
       <c r="M13" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="N13" s="2">
         <v>0</v>
       </c>
       <c r="O13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P13" s="2">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="Q13" s="2">
         <v>0</v>
@@ -2316,10 +2358,10 @@
         <v>7</v>
       </c>
       <c r="AB13" s="5" t="s">
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="AC13" s="4" t="s">
-        <v>56</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:29" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2335,13 +2377,13 @@
         <v>1</v>
       </c>
       <c r="D14" s="2">
-        <v>40</v>
+        <v>9999</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>7</v>
@@ -2353,10 +2395,10 @@
         <v>1</v>
       </c>
       <c r="J14" s="2">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="K14" s="2">
-        <v>200</v>
+        <v>15</v>
       </c>
       <c r="L14" s="2">
         <v>0</v>
@@ -2407,191 +2449,191 @@
         <v>7</v>
       </c>
       <c r="AB14" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="AC14" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:29" s="10" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="7">
+    <row r="15" spans="1:29" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B15" s="7">
-        <v>1000</v>
-      </c>
-      <c r="C15" s="7">
-        <v>0</v>
-      </c>
-      <c r="D15" s="7">
-        <v>0</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H15" s="7">
-        <v>0</v>
-      </c>
-      <c r="I15" s="7">
-        <v>1</v>
-      </c>
-      <c r="J15" s="7">
-        <v>1</v>
-      </c>
-      <c r="K15" s="7">
-        <v>300</v>
-      </c>
-      <c r="L15" s="7">
-        <v>0</v>
-      </c>
-      <c r="M15" s="7">
-        <v>20</v>
-      </c>
-      <c r="N15" s="7">
-        <v>0</v>
-      </c>
-      <c r="O15" s="7">
-        <v>0</v>
-      </c>
-      <c r="P15" s="7">
-        <v>50</v>
-      </c>
-      <c r="Q15" s="7">
-        <v>0</v>
-      </c>
-      <c r="R15" s="7">
-        <v>0</v>
-      </c>
-      <c r="S15" s="7">
-        <v>0</v>
-      </c>
-      <c r="T15" s="7">
-        <v>0</v>
-      </c>
-      <c r="U15" s="7">
-        <v>0</v>
-      </c>
-      <c r="V15" s="7">
-        <v>0</v>
-      </c>
-      <c r="W15" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="X15" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y15" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z15" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA15" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="AB15" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="AC15" s="11" t="s">
-        <v>79</v>
+      <c r="B15" s="2">
+        <f t="shared" si="1"/>
+        <v>130</v>
+      </c>
+      <c r="C15" s="2">
+        <v>1</v>
+      </c>
+      <c r="D15" s="2">
+        <v>40</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H15" s="2">
+        <v>0</v>
+      </c>
+      <c r="I15" s="2">
+        <v>1</v>
+      </c>
+      <c r="J15" s="2">
+        <v>2</v>
+      </c>
+      <c r="K15" s="2">
+        <v>200</v>
+      </c>
+      <c r="L15" s="2">
+        <v>0</v>
+      </c>
+      <c r="M15" s="2">
+        <v>0</v>
+      </c>
+      <c r="N15" s="2">
+        <v>0</v>
+      </c>
+      <c r="O15" s="2">
+        <v>0</v>
+      </c>
+      <c r="P15" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>0</v>
+      </c>
+      <c r="R15" s="2">
+        <v>0</v>
+      </c>
+      <c r="S15" s="2">
+        <v>0</v>
+      </c>
+      <c r="T15" s="2">
+        <v>0</v>
+      </c>
+      <c r="U15" s="2">
+        <v>0</v>
+      </c>
+      <c r="V15" s="2">
+        <v>0</v>
+      </c>
+      <c r="W15" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="X15" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y15" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z15" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA15" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB15" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC15" s="4" t="s">
+        <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:29" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="2">
+    <row r="16" spans="1:29" s="10" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="7">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B16" s="2">
-        <f>INDEX(B:B,MATCH(1000,B:B,0),1)+((ROW()-MATCH(1000,B:B,0))*10)</f>
-        <v>1010</v>
-      </c>
-      <c r="C16" s="2">
-        <v>0</v>
-      </c>
-      <c r="D16" s="2">
-        <v>0</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G16" s="2" t="s">
+      <c r="B16" s="7">
+        <v>1000</v>
+      </c>
+      <c r="C16" s="7">
+        <v>0</v>
+      </c>
+      <c r="D16" s="7">
+        <v>0</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H16" s="2">
-        <v>0</v>
-      </c>
-      <c r="I16" s="2">
-        <v>1</v>
-      </c>
-      <c r="J16" s="2">
-        <v>1</v>
-      </c>
-      <c r="K16" s="2">
-        <v>400</v>
-      </c>
-      <c r="L16" s="2">
-        <v>0</v>
-      </c>
-      <c r="M16" s="2">
+      <c r="H16" s="7">
+        <v>0</v>
+      </c>
+      <c r="I16" s="7">
+        <v>1</v>
+      </c>
+      <c r="J16" s="7">
+        <v>1</v>
+      </c>
+      <c r="K16" s="7">
+        <v>300</v>
+      </c>
+      <c r="L16" s="7">
+        <v>0</v>
+      </c>
+      <c r="M16" s="7">
         <v>20</v>
       </c>
-      <c r="N16" s="2">
-        <v>0</v>
-      </c>
-      <c r="O16" s="2">
-        <v>1</v>
-      </c>
-      <c r="P16" s="2">
+      <c r="N16" s="7">
+        <v>0</v>
+      </c>
+      <c r="O16" s="7">
+        <v>0</v>
+      </c>
+      <c r="P16" s="7">
         <v>50</v>
       </c>
-      <c r="Q16" s="2">
-        <v>0</v>
-      </c>
-      <c r="R16" s="2">
-        <v>0</v>
-      </c>
-      <c r="S16" s="2">
-        <v>0</v>
-      </c>
-      <c r="T16" s="2">
-        <v>0</v>
-      </c>
-      <c r="U16" s="2">
-        <v>0</v>
-      </c>
-      <c r="V16" s="2">
-        <v>0</v>
-      </c>
-      <c r="W16" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="X16" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="Y16" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="Z16" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA16" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="AB16" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="AC16" s="4" t="s">
-        <v>69</v>
+      <c r="Q16" s="7">
+        <v>0</v>
+      </c>
+      <c r="R16" s="7">
+        <v>0</v>
+      </c>
+      <c r="S16" s="7">
+        <v>0</v>
+      </c>
+      <c r="T16" s="7">
+        <v>0</v>
+      </c>
+      <c r="U16" s="7">
+        <v>0</v>
+      </c>
+      <c r="V16" s="7">
+        <v>0</v>
+      </c>
+      <c r="W16" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="X16" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y16" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z16" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA16" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB16" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC16" s="11" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:29" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2601,22 +2643,22 @@
       </c>
       <c r="B17" s="2">
         <f>INDEX(B:B,MATCH(1000,B:B,0),1)+((ROW()-MATCH(1000,B:B,0))*10)</f>
-        <v>1020</v>
+        <v>1010</v>
       </c>
       <c r="C17" s="2">
         <v>0</v>
       </c>
       <c r="D17" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>20</v>
+        <v>67</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>7</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="H17" s="2">
         <v>0</v>
@@ -2628,7 +2670,7 @@
         <v>1</v>
       </c>
       <c r="K17" s="2">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L17" s="2">
         <v>0</v>
@@ -2640,7 +2682,7 @@
         <v>0</v>
       </c>
       <c r="O17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P17" s="2">
         <v>50</v>
@@ -2664,13 +2706,13 @@
         <v>0</v>
       </c>
       <c r="W17" s="3" t="s">
-        <v>7</v>
+        <v>66</v>
       </c>
       <c r="X17" s="3" t="s">
-        <v>7</v>
+        <v>68</v>
       </c>
       <c r="Y17" s="3" t="s">
-        <v>7</v>
+        <v>70</v>
       </c>
       <c r="Z17" s="3" t="s">
         <v>7</v>
@@ -2679,9 +2721,100 @@
         <v>7</v>
       </c>
       <c r="AB17" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC17" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="2">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B18" s="2">
+        <f>INDEX(B:B,MATCH(1000,B:B,0),1)+((ROW()-MATCH(1000,B:B,0))*10)</f>
+        <v>1020</v>
+      </c>
+      <c r="C18" s="2">
+        <v>0</v>
+      </c>
+      <c r="D18" s="2">
+        <v>10</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H18" s="2">
+        <v>0</v>
+      </c>
+      <c r="I18" s="2">
+        <v>1</v>
+      </c>
+      <c r="J18" s="2">
+        <v>1</v>
+      </c>
+      <c r="K18" s="2">
+        <v>300</v>
+      </c>
+      <c r="L18" s="2">
+        <v>0</v>
+      </c>
+      <c r="M18" s="2">
+        <v>20</v>
+      </c>
+      <c r="N18" s="2">
+        <v>0</v>
+      </c>
+      <c r="O18" s="2">
+        <v>0</v>
+      </c>
+      <c r="P18" s="2">
+        <v>50</v>
+      </c>
+      <c r="Q18" s="2">
+        <v>0</v>
+      </c>
+      <c r="R18" s="2">
+        <v>0</v>
+      </c>
+      <c r="S18" s="2">
+        <v>0</v>
+      </c>
+      <c r="T18" s="2">
+        <v>0</v>
+      </c>
+      <c r="U18" s="2">
+        <v>0</v>
+      </c>
+      <c r="V18" s="2">
+        <v>0</v>
+      </c>
+      <c r="W18" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="X18" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y18" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z18" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA18" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB18" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="AC17" s="4" t="s">
+      <c r="AC18" s="4" t="s">
         <v>65</v>
       </c>
     </row>

--- a/Assets/Excel_Data/Entity_QuestSetDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_QuestSetDataBase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{852469B2-3A9F-4413-9212-8FF3E2E22972}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5D6FBF4-32B5-4921-9B52-E21F9715C38E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5235" yWindow="2745" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="95">
   <si>
     <t>desc</t>
   </si>
@@ -737,6 +737,43 @@
   </si>
   <si>
     <t>Juice</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>water</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>水の入手</t>
+    <rPh sb="0" eb="1">
+      <t>ミズ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ニュウシュ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>お店の料理用に&lt;color=#FF78B4&gt;水&lt;/color&gt;を持ってきてくれないかしら？
+採ってきてくれたらお駄賃をあげるわよ～。</t>
+    <rPh sb="1" eb="2">
+      <t>ミセ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>リョウリヨウ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ミズ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>ダチン</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1153,12 +1190,12 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AC18"/>
+  <dimension ref="A1:AC19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="N12" sqref="N12"/>
+      <selection pane="bottomLeft" activeCell="AC6" sqref="AC6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="27.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1274,11 +1311,11 @@
     </row>
     <row r="2" spans="1:29" s="10" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7">
-        <f t="shared" ref="A2:A18" si="0">ROW()-2</f>
+        <f t="shared" ref="A2:A19" si="0">ROW()-2</f>
         <v>0</v>
       </c>
       <c r="B2" s="7">
-        <f t="shared" ref="B2:B15" si="1">(ROW()-2)*10</f>
+        <f t="shared" ref="B2:B16" si="1">(ROW()-2)*10</f>
         <v>0</v>
       </c>
       <c r="C2" s="7">
@@ -1652,10 +1689,10 @@
         <v>0</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>39</v>
+        <v>92</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>39</v>
+        <v>92</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>7</v>
@@ -1670,7 +1707,7 @@
         <v>7</v>
       </c>
       <c r="K6" s="2">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="L6" s="2">
         <v>0</v>
@@ -1721,10 +1758,10 @@
         <v>7</v>
       </c>
       <c r="AB6" s="5" t="s">
-        <v>40</v>
+        <v>93</v>
       </c>
       <c r="AC6" s="4" t="s">
-        <v>41</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:29" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1740,13 +1777,13 @@
         <v>1</v>
       </c>
       <c r="D7" s="2">
-        <v>9999</v>
+        <v>0</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>7</v>
@@ -1761,61 +1798,61 @@
         <v>7</v>
       </c>
       <c r="K7" s="2">
+        <v>30</v>
+      </c>
+      <c r="L7" s="2">
+        <v>0</v>
+      </c>
+      <c r="M7" s="2">
+        <v>0</v>
+      </c>
+      <c r="N7" s="2">
+        <v>0</v>
+      </c>
+      <c r="O7" s="2">
+        <v>0</v>
+      </c>
+      <c r="P7" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>0</v>
+      </c>
+      <c r="R7" s="2">
+        <v>0</v>
+      </c>
+      <c r="S7" s="2">
+        <v>0</v>
+      </c>
+      <c r="T7" s="2">
+        <v>0</v>
+      </c>
+      <c r="U7" s="2">
+        <v>0</v>
+      </c>
+      <c r="V7" s="2">
+        <v>0</v>
+      </c>
+      <c r="W7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="X7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB7" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="L7" s="2">
-        <v>0</v>
-      </c>
-      <c r="M7" s="2">
-        <v>0</v>
-      </c>
-      <c r="N7" s="2">
-        <v>0</v>
-      </c>
-      <c r="O7" s="2">
-        <v>0</v>
-      </c>
-      <c r="P7" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="2">
-        <v>0</v>
-      </c>
-      <c r="R7" s="2">
-        <v>0</v>
-      </c>
-      <c r="S7" s="2">
-        <v>0</v>
-      </c>
-      <c r="T7" s="2">
-        <v>0</v>
-      </c>
-      <c r="U7" s="2">
-        <v>0</v>
-      </c>
-      <c r="V7" s="2">
-        <v>0</v>
-      </c>
-      <c r="W7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="X7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="AB7" s="5" t="s">
-        <v>43</v>
-      </c>
       <c r="AC7" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:29" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1831,13 +1868,13 @@
         <v>1</v>
       </c>
       <c r="D8" s="2">
-        <v>0</v>
+        <v>9999</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>7</v>
@@ -1849,10 +1886,10 @@
         <v>1</v>
       </c>
       <c r="J8" s="2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="K8" s="2">
-        <v>300</v>
+        <v>40</v>
       </c>
       <c r="L8" s="2">
         <v>0</v>
@@ -1903,10 +1940,10 @@
         <v>7</v>
       </c>
       <c r="AB8" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="AC8" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:29" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1925,10 +1962,10 @@
         <v>0</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>7</v>
@@ -1994,10 +2031,10 @@
         <v>7</v>
       </c>
       <c r="AB9" s="5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="AC9" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:29" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2010,19 +2047,19 @@
         <v>80</v>
       </c>
       <c r="C10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>7</v>
+        <v>48</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>91</v>
+        <v>7</v>
       </c>
       <c r="H10" s="2">
         <v>0</v>
@@ -2034,7 +2071,7 @@
         <v>1</v>
       </c>
       <c r="K10" s="2">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="L10" s="2">
         <v>0</v>
@@ -2067,28 +2104,28 @@
         <v>0</v>
       </c>
       <c r="V10" s="2">
+        <v>0</v>
+      </c>
+      <c r="W10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="X10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB10" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC10" s="4" t="s">
         <v>50</v>
-      </c>
-      <c r="W10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="X10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="AB10" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="AC10" s="4" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:29" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2097,7 +2134,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="2">
-        <f>(ROW()-2)*10</f>
+        <f t="shared" si="1"/>
         <v>90</v>
       </c>
       <c r="C11" s="2">
@@ -2107,13 +2144,13 @@
         <v>10</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>58</v>
+        <v>7</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>7</v>
+        <v>91</v>
       </c>
       <c r="H11" s="2">
         <v>0</v>
@@ -2125,7 +2162,7 @@
         <v>1</v>
       </c>
       <c r="K11" s="2">
-        <v>750</v>
+        <v>200</v>
       </c>
       <c r="L11" s="2">
         <v>0</v>
@@ -2134,13 +2171,13 @@
         <v>0</v>
       </c>
       <c r="N11" s="2">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="O11" s="2">
         <v>0</v>
       </c>
       <c r="P11" s="2">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="Q11" s="2">
         <v>0</v>
@@ -2158,7 +2195,7 @@
         <v>0</v>
       </c>
       <c r="V11" s="2">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="W11" s="3" t="s">
         <v>7</v>
@@ -2176,10 +2213,10 @@
         <v>7</v>
       </c>
       <c r="AB11" s="5" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="AC11" s="4" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:29" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2188,20 +2225,20 @@
         <v>10</v>
       </c>
       <c r="B12" s="2">
-        <f t="shared" si="1"/>
+        <f>(ROW()-2)*10</f>
         <v>100</v>
       </c>
       <c r="C12" s="2">
         <v>0</v>
       </c>
       <c r="D12" s="2">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>7</v>
@@ -2216,7 +2253,7 @@
         <v>1</v>
       </c>
       <c r="K12" s="2">
-        <v>300</v>
+        <v>750</v>
       </c>
       <c r="L12" s="2">
         <v>0</v>
@@ -2225,13 +2262,13 @@
         <v>0</v>
       </c>
       <c r="N12" s="2">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="O12" s="2">
         <v>0</v>
       </c>
       <c r="P12" s="2">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="2">
         <v>0</v>
@@ -2267,10 +2304,10 @@
         <v>7</v>
       </c>
       <c r="AB12" s="5" t="s">
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="AC12" s="4" t="s">
-        <v>86</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:29" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2279,23 +2316,23 @@
         <v>11</v>
       </c>
       <c r="B13" s="2">
-        <f>(ROW()-2)*10</f>
+        <f t="shared" si="1"/>
         <v>110</v>
       </c>
       <c r="C13" s="2">
         <v>0</v>
       </c>
       <c r="D13" s="2">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>7</v>
+        <v>63</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>80</v>
+        <v>7</v>
       </c>
       <c r="H13" s="2">
         <v>0</v>
@@ -2307,22 +2344,22 @@
         <v>1</v>
       </c>
       <c r="K13" s="2">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="L13" s="2">
         <v>0</v>
       </c>
       <c r="M13" s="2">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="N13" s="2">
         <v>0</v>
       </c>
       <c r="O13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P13" s="2">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="Q13" s="2">
         <v>0</v>
@@ -2358,10 +2395,10 @@
         <v>7</v>
       </c>
       <c r="AB13" s="5" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="AC13" s="4" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:29" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2370,23 +2407,23 @@
         <v>12</v>
       </c>
       <c r="B14" s="2">
-        <f t="shared" si="1"/>
+        <f>(ROW()-2)*10</f>
         <v>120</v>
       </c>
       <c r="C14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" s="2">
-        <v>9999</v>
+        <v>30</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>51</v>
+        <v>7</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>7</v>
+        <v>80</v>
       </c>
       <c r="H14" s="2">
         <v>0</v>
@@ -2395,25 +2432,25 @@
         <v>1</v>
       </c>
       <c r="J14" s="2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="K14" s="2">
-        <v>15</v>
+        <v>700</v>
       </c>
       <c r="L14" s="2">
         <v>0</v>
       </c>
       <c r="M14" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="N14" s="2">
         <v>0</v>
       </c>
       <c r="O14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P14" s="2">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="Q14" s="2">
         <v>0</v>
@@ -2449,10 +2486,10 @@
         <v>7</v>
       </c>
       <c r="AB14" s="5" t="s">
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="AC14" s="4" t="s">
-        <v>56</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:29" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2468,13 +2505,13 @@
         <v>1</v>
       </c>
       <c r="D15" s="2">
-        <v>40</v>
+        <v>9999</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>7</v>
@@ -2486,10 +2523,10 @@
         <v>1</v>
       </c>
       <c r="J15" s="2">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="K15" s="2">
-        <v>200</v>
+        <v>15</v>
       </c>
       <c r="L15" s="2">
         <v>0</v>
@@ -2540,191 +2577,191 @@
         <v>7</v>
       </c>
       <c r="AB15" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="AC15" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
-    <row r="16" spans="1:29" s="10" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="7">
+    <row r="16" spans="1:29" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B16" s="7">
-        <v>1000</v>
-      </c>
-      <c r="C16" s="7">
-        <v>0</v>
-      </c>
-      <c r="D16" s="7">
-        <v>0</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H16" s="7">
-        <v>0</v>
-      </c>
-      <c r="I16" s="7">
-        <v>1</v>
-      </c>
-      <c r="J16" s="7">
-        <v>1</v>
-      </c>
-      <c r="K16" s="7">
-        <v>300</v>
-      </c>
-      <c r="L16" s="7">
-        <v>0</v>
-      </c>
-      <c r="M16" s="7">
-        <v>20</v>
-      </c>
-      <c r="N16" s="7">
-        <v>0</v>
-      </c>
-      <c r="O16" s="7">
-        <v>0</v>
-      </c>
-      <c r="P16" s="7">
-        <v>50</v>
-      </c>
-      <c r="Q16" s="7">
-        <v>0</v>
-      </c>
-      <c r="R16" s="7">
-        <v>0</v>
-      </c>
-      <c r="S16" s="7">
-        <v>0</v>
-      </c>
-      <c r="T16" s="7">
-        <v>0</v>
-      </c>
-      <c r="U16" s="7">
-        <v>0</v>
-      </c>
-      <c r="V16" s="7">
-        <v>0</v>
-      </c>
-      <c r="W16" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="X16" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y16" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z16" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA16" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="AB16" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="AC16" s="11" t="s">
-        <v>79</v>
+      <c r="B16" s="2">
+        <f t="shared" si="1"/>
+        <v>140</v>
+      </c>
+      <c r="C16" s="2">
+        <v>1</v>
+      </c>
+      <c r="D16" s="2">
+        <v>40</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H16" s="2">
+        <v>0</v>
+      </c>
+      <c r="I16" s="2">
+        <v>1</v>
+      </c>
+      <c r="J16" s="2">
+        <v>2</v>
+      </c>
+      <c r="K16" s="2">
+        <v>200</v>
+      </c>
+      <c r="L16" s="2">
+        <v>0</v>
+      </c>
+      <c r="M16" s="2">
+        <v>0</v>
+      </c>
+      <c r="N16" s="2">
+        <v>0</v>
+      </c>
+      <c r="O16" s="2">
+        <v>0</v>
+      </c>
+      <c r="P16" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>0</v>
+      </c>
+      <c r="R16" s="2">
+        <v>0</v>
+      </c>
+      <c r="S16" s="2">
+        <v>0</v>
+      </c>
+      <c r="T16" s="2">
+        <v>0</v>
+      </c>
+      <c r="U16" s="2">
+        <v>0</v>
+      </c>
+      <c r="V16" s="2">
+        <v>0</v>
+      </c>
+      <c r="W16" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="X16" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y16" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z16" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA16" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB16" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC16" s="4" t="s">
+        <v>55</v>
       </c>
     </row>
-    <row r="17" spans="1:29" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="2">
+    <row r="17" spans="1:29" s="10" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="7">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B17" s="2">
-        <f>INDEX(B:B,MATCH(1000,B:B,0),1)+((ROW()-MATCH(1000,B:B,0))*10)</f>
-        <v>1010</v>
-      </c>
-      <c r="C17" s="2">
-        <v>0</v>
-      </c>
-      <c r="D17" s="2">
-        <v>0</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G17" s="2" t="s">
+      <c r="B17" s="7">
+        <v>1000</v>
+      </c>
+      <c r="C17" s="7">
+        <v>0</v>
+      </c>
+      <c r="D17" s="7">
+        <v>0</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H17" s="2">
-        <v>0</v>
-      </c>
-      <c r="I17" s="2">
-        <v>1</v>
-      </c>
-      <c r="J17" s="2">
-        <v>1</v>
-      </c>
-      <c r="K17" s="2">
-        <v>400</v>
-      </c>
-      <c r="L17" s="2">
-        <v>0</v>
-      </c>
-      <c r="M17" s="2">
+      <c r="H17" s="7">
+        <v>0</v>
+      </c>
+      <c r="I17" s="7">
+        <v>1</v>
+      </c>
+      <c r="J17" s="7">
+        <v>1</v>
+      </c>
+      <c r="K17" s="7">
+        <v>300</v>
+      </c>
+      <c r="L17" s="7">
+        <v>0</v>
+      </c>
+      <c r="M17" s="7">
         <v>20</v>
       </c>
-      <c r="N17" s="2">
-        <v>0</v>
-      </c>
-      <c r="O17" s="2">
-        <v>1</v>
-      </c>
-      <c r="P17" s="2">
+      <c r="N17" s="7">
+        <v>0</v>
+      </c>
+      <c r="O17" s="7">
+        <v>0</v>
+      </c>
+      <c r="P17" s="7">
         <v>50</v>
       </c>
-      <c r="Q17" s="2">
-        <v>0</v>
-      </c>
-      <c r="R17" s="2">
-        <v>0</v>
-      </c>
-      <c r="S17" s="2">
-        <v>0</v>
-      </c>
-      <c r="T17" s="2">
-        <v>0</v>
-      </c>
-      <c r="U17" s="2">
-        <v>0</v>
-      </c>
-      <c r="V17" s="2">
-        <v>0</v>
-      </c>
-      <c r="W17" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="X17" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="Y17" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="Z17" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA17" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="AB17" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="AC17" s="4" t="s">
-        <v>69</v>
+      <c r="Q17" s="7">
+        <v>0</v>
+      </c>
+      <c r="R17" s="7">
+        <v>0</v>
+      </c>
+      <c r="S17" s="7">
+        <v>0</v>
+      </c>
+      <c r="T17" s="7">
+        <v>0</v>
+      </c>
+      <c r="U17" s="7">
+        <v>0</v>
+      </c>
+      <c r="V17" s="7">
+        <v>0</v>
+      </c>
+      <c r="W17" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="X17" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y17" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z17" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA17" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB17" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC17" s="11" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="18" spans="1:29" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2734,22 +2771,22 @@
       </c>
       <c r="B18" s="2">
         <f>INDEX(B:B,MATCH(1000,B:B,0),1)+((ROW()-MATCH(1000,B:B,0))*10)</f>
-        <v>1020</v>
+        <v>1010</v>
       </c>
       <c r="C18" s="2">
         <v>0</v>
       </c>
       <c r="D18" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>20</v>
+        <v>67</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>7</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="H18" s="2">
         <v>0</v>
@@ -2761,7 +2798,7 @@
         <v>1</v>
       </c>
       <c r="K18" s="2">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L18" s="2">
         <v>0</v>
@@ -2773,7 +2810,7 @@
         <v>0</v>
       </c>
       <c r="O18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P18" s="2">
         <v>50</v>
@@ -2797,13 +2834,13 @@
         <v>0</v>
       </c>
       <c r="W18" s="3" t="s">
-        <v>7</v>
+        <v>66</v>
       </c>
       <c r="X18" s="3" t="s">
-        <v>7</v>
+        <v>68</v>
       </c>
       <c r="Y18" s="3" t="s">
-        <v>7</v>
+        <v>70</v>
       </c>
       <c r="Z18" s="3" t="s">
         <v>7</v>
@@ -2812,9 +2849,100 @@
         <v>7</v>
       </c>
       <c r="AB18" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC18" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="2">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B19" s="2">
+        <f>INDEX(B:B,MATCH(1000,B:B,0),1)+((ROW()-MATCH(1000,B:B,0))*10)</f>
+        <v>1020</v>
+      </c>
+      <c r="C19" s="2">
+        <v>0</v>
+      </c>
+      <c r="D19" s="2">
+        <v>10</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H19" s="2">
+        <v>0</v>
+      </c>
+      <c r="I19" s="2">
+        <v>1</v>
+      </c>
+      <c r="J19" s="2">
+        <v>1</v>
+      </c>
+      <c r="K19" s="2">
+        <v>300</v>
+      </c>
+      <c r="L19" s="2">
+        <v>0</v>
+      </c>
+      <c r="M19" s="2">
+        <v>20</v>
+      </c>
+      <c r="N19" s="2">
+        <v>0</v>
+      </c>
+      <c r="O19" s="2">
+        <v>0</v>
+      </c>
+      <c r="P19" s="2">
+        <v>50</v>
+      </c>
+      <c r="Q19" s="2">
+        <v>0</v>
+      </c>
+      <c r="R19" s="2">
+        <v>0</v>
+      </c>
+      <c r="S19" s="2">
+        <v>0</v>
+      </c>
+      <c r="T19" s="2">
+        <v>0</v>
+      </c>
+      <c r="U19" s="2">
+        <v>0</v>
+      </c>
+      <c r="V19" s="2">
+        <v>0</v>
+      </c>
+      <c r="W19" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="X19" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y19" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z19" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA19" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB19" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="AC18" s="4" t="s">
+      <c r="AC19" s="4" t="s">
         <v>65</v>
       </c>
     </row>

--- a/Assets/Excel_Data/Entity_QuestSetDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_QuestSetDataBase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5D6FBF4-32B5-4921-9B52-E21F9715C38E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97200D87-31FC-4842-B5E4-0DAF182B6C6F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5235" yWindow="2745" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4050" yWindow="2865" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01_QuestSetData" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="107">
   <si>
     <t>desc</t>
   </si>
@@ -773,6 +773,107 @@
     </rPh>
     <rPh sb="56" eb="58">
       <t>ダチン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>crepe</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Crepe</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Strawberry</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Raspberry</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Blackcurrant</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Blackberry</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>甘酸っぱいクレープが食べたい</t>
+    <rPh sb="0" eb="2">
+      <t>アマズ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>himawari_seeds</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>sugerbutter_cookie</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>森のシュガーバターが食いたいな</t>
+    <rPh sb="0" eb="1">
+      <t>モリ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>これは、&lt;color=#FF78B4&gt;メイド学校のメイド先生&lt;/color&gt;の方からのご依頼ね。
+ベリーがのったクレープを食べて元気を出したいそうよ。</t>
+    <rPh sb="22" eb="24">
+      <t>ガッコウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>センセイ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>イライ</t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t>ゲンキ</t>
+    </rPh>
+    <rPh sb="67" eb="68">
+      <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>これは、とある&lt;color=#FF78B4&gt;貿易商&lt;/color&gt;の方からのご依頼ね。
+コーヒーに合うお菓子を探してるみたい。</t>
+    <rPh sb="22" eb="25">
+      <t>ボウエキショウ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>イライ</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>カシ</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>サガ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1190,12 +1291,12 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AC19"/>
+  <dimension ref="A1:AC21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="AC6" sqref="AC6"/>
+      <selection pane="bottomLeft" activeCell="AC17" sqref="AC17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="27.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1311,11 +1412,11 @@
     </row>
     <row r="2" spans="1:29" s="10" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7">
-        <f t="shared" ref="A2:A19" si="0">ROW()-2</f>
+        <f t="shared" ref="A2:A21" si="0">ROW()-2</f>
         <v>0</v>
       </c>
       <c r="B2" s="7">
-        <f t="shared" ref="B2:B16" si="1">(ROW()-2)*10</f>
+        <f t="shared" ref="B2:B18" si="1">(ROW()-2)*10</f>
         <v>0</v>
       </c>
       <c r="C2" s="7">
@@ -2417,13 +2518,13 @@
         <v>30</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>7</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="H14" s="2">
         <v>0</v>
@@ -2435,13 +2536,13 @@
         <v>1</v>
       </c>
       <c r="K14" s="2">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="L14" s="2">
         <v>0</v>
       </c>
       <c r="M14" s="2">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="N14" s="2">
         <v>0</v>
@@ -2450,10 +2551,10 @@
         <v>1</v>
       </c>
       <c r="P14" s="2">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="Q14" s="2">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="R14" s="2">
         <v>0</v>
@@ -2471,25 +2572,25 @@
         <v>0</v>
       </c>
       <c r="W14" s="3" t="s">
-        <v>7</v>
+        <v>97</v>
       </c>
       <c r="X14" s="3" t="s">
-        <v>7</v>
+        <v>68</v>
       </c>
       <c r="Y14" s="3" t="s">
-        <v>7</v>
+        <v>98</v>
       </c>
       <c r="Z14" s="3" t="s">
-        <v>7</v>
+        <v>99</v>
       </c>
       <c r="AA14" s="3" t="s">
-        <v>7</v>
+        <v>100</v>
       </c>
       <c r="AB14" s="5" t="s">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="AC14" s="4" t="s">
-        <v>83</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:29" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2498,23 +2599,23 @@
         <v>13</v>
       </c>
       <c r="B15" s="2">
-        <f t="shared" si="1"/>
+        <f>(ROW()-2)*10</f>
         <v>130</v>
       </c>
       <c r="C15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" s="2">
-        <v>9999</v>
+        <v>30</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>51</v>
+        <v>7</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>7</v>
+        <v>80</v>
       </c>
       <c r="H15" s="2">
         <v>0</v>
@@ -2523,22 +2624,22 @@
         <v>1</v>
       </c>
       <c r="J15" s="2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="K15" s="2">
-        <v>15</v>
+        <v>700</v>
       </c>
       <c r="L15" s="2">
         <v>0</v>
       </c>
       <c r="M15" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="N15" s="2">
         <v>0</v>
       </c>
       <c r="O15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P15" s="2">
         <v>0</v>
@@ -2550,7 +2651,7 @@
         <v>0</v>
       </c>
       <c r="S15" s="2">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T15" s="2">
         <v>0</v>
@@ -2577,10 +2678,10 @@
         <v>7</v>
       </c>
       <c r="AB15" s="5" t="s">
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="AC15" s="4" t="s">
-        <v>56</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16" spans="1:29" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2589,20 +2690,20 @@
         <v>14</v>
       </c>
       <c r="B16" s="2">
-        <f t="shared" si="1"/>
+        <f>(ROW()-2)*10</f>
         <v>140</v>
       </c>
       <c r="C16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" s="2">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>53</v>
+        <v>103</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>7</v>
@@ -2614,25 +2715,25 @@
         <v>1</v>
       </c>
       <c r="J16" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K16" s="2">
-        <v>200</v>
+        <v>550</v>
       </c>
       <c r="L16" s="2">
         <v>0</v>
       </c>
       <c r="M16" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="N16" s="2">
         <v>0</v>
       </c>
       <c r="O16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P16" s="2">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="Q16" s="2">
         <v>0</v>
@@ -2668,100 +2769,101 @@
         <v>7</v>
       </c>
       <c r="AB16" s="5" t="s">
-        <v>54</v>
+        <v>104</v>
       </c>
       <c r="AC16" s="4" t="s">
-        <v>55</v>
+        <v>106</v>
       </c>
     </row>
-    <row r="17" spans="1:29" s="10" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="7">
+    <row r="17" spans="1:29" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="2">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B17" s="7">
-        <v>1000</v>
-      </c>
-      <c r="C17" s="7">
-        <v>0</v>
-      </c>
-      <c r="D17" s="7">
-        <v>0</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H17" s="7">
-        <v>0</v>
-      </c>
-      <c r="I17" s="7">
-        <v>1</v>
-      </c>
-      <c r="J17" s="7">
-        <v>1</v>
-      </c>
-      <c r="K17" s="7">
-        <v>300</v>
-      </c>
-      <c r="L17" s="7">
-        <v>0</v>
-      </c>
-      <c r="M17" s="7">
-        <v>20</v>
-      </c>
-      <c r="N17" s="7">
-        <v>0</v>
-      </c>
-      <c r="O17" s="7">
-        <v>0</v>
-      </c>
-      <c r="P17" s="7">
-        <v>50</v>
-      </c>
-      <c r="Q17" s="7">
-        <v>0</v>
-      </c>
-      <c r="R17" s="7">
-        <v>0</v>
-      </c>
-      <c r="S17" s="7">
-        <v>0</v>
-      </c>
-      <c r="T17" s="7">
-        <v>0</v>
-      </c>
-      <c r="U17" s="7">
-        <v>0</v>
-      </c>
-      <c r="V17" s="7">
-        <v>0</v>
-      </c>
-      <c r="W17" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="X17" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y17" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z17" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA17" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="AB17" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="AC17" s="11" t="s">
-        <v>79</v>
+      <c r="B17" s="2">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
+      <c r="C17" s="2">
+        <v>1</v>
+      </c>
+      <c r="D17" s="2">
+        <v>40</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H17" s="2">
+        <v>0</v>
+      </c>
+      <c r="I17" s="2">
+        <v>1</v>
+      </c>
+      <c r="J17" s="2">
+        <v>7</v>
+      </c>
+      <c r="K17" s="2">
+        <v>15</v>
+      </c>
+      <c r="L17" s="2">
+        <v>0</v>
+      </c>
+      <c r="M17" s="2">
+        <v>0</v>
+      </c>
+      <c r="N17" s="2">
+        <v>0</v>
+      </c>
+      <c r="O17" s="2">
+        <v>0</v>
+      </c>
+      <c r="P17" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="2">
+        <v>0</v>
+      </c>
+      <c r="R17" s="2">
+        <v>0</v>
+      </c>
+      <c r="S17" s="2">
+        <v>0</v>
+      </c>
+      <c r="T17" s="2">
+        <v>0</v>
+      </c>
+      <c r="U17" s="2">
+        <v>0</v>
+      </c>
+      <c r="V17" s="2">
+        <v>0</v>
+      </c>
+      <c r="W17" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="X17" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y17" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z17" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA17" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB17" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC17" s="4" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:29" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2770,179 +2872,360 @@
         <v>16</v>
       </c>
       <c r="B18" s="2">
+        <f t="shared" si="1"/>
+        <v>160</v>
+      </c>
+      <c r="C18" s="2">
+        <v>1</v>
+      </c>
+      <c r="D18" s="2">
+        <v>40</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H18" s="2">
+        <v>0</v>
+      </c>
+      <c r="I18" s="2">
+        <v>1</v>
+      </c>
+      <c r="J18" s="2">
+        <v>2</v>
+      </c>
+      <c r="K18" s="2">
+        <v>200</v>
+      </c>
+      <c r="L18" s="2">
+        <v>0</v>
+      </c>
+      <c r="M18" s="2">
+        <v>0</v>
+      </c>
+      <c r="N18" s="2">
+        <v>0</v>
+      </c>
+      <c r="O18" s="2">
+        <v>0</v>
+      </c>
+      <c r="P18" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="2">
+        <v>0</v>
+      </c>
+      <c r="R18" s="2">
+        <v>0</v>
+      </c>
+      <c r="S18" s="2">
+        <v>0</v>
+      </c>
+      <c r="T18" s="2">
+        <v>0</v>
+      </c>
+      <c r="U18" s="2">
+        <v>0</v>
+      </c>
+      <c r="V18" s="2">
+        <v>0</v>
+      </c>
+      <c r="W18" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="X18" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y18" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z18" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA18" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB18" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC18" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29" s="10" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="7">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B19" s="7">
+        <v>1000</v>
+      </c>
+      <c r="C19" s="7">
+        <v>0</v>
+      </c>
+      <c r="D19" s="7">
+        <v>0</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H19" s="7">
+        <v>0</v>
+      </c>
+      <c r="I19" s="7">
+        <v>1</v>
+      </c>
+      <c r="J19" s="7">
+        <v>1</v>
+      </c>
+      <c r="K19" s="7">
+        <v>300</v>
+      </c>
+      <c r="L19" s="7">
+        <v>0</v>
+      </c>
+      <c r="M19" s="7">
+        <v>20</v>
+      </c>
+      <c r="N19" s="7">
+        <v>0</v>
+      </c>
+      <c r="O19" s="7">
+        <v>0</v>
+      </c>
+      <c r="P19" s="7">
+        <v>50</v>
+      </c>
+      <c r="Q19" s="7">
+        <v>0</v>
+      </c>
+      <c r="R19" s="7">
+        <v>0</v>
+      </c>
+      <c r="S19" s="7">
+        <v>0</v>
+      </c>
+      <c r="T19" s="7">
+        <v>0</v>
+      </c>
+      <c r="U19" s="7">
+        <v>0</v>
+      </c>
+      <c r="V19" s="7">
+        <v>0</v>
+      </c>
+      <c r="W19" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="X19" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y19" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z19" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA19" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB19" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC19" s="11" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="2">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B20" s="2">
         <f>INDEX(B:B,MATCH(1000,B:B,0),1)+((ROW()-MATCH(1000,B:B,0))*10)</f>
         <v>1010</v>
       </c>
-      <c r="C18" s="2">
-        <v>0</v>
-      </c>
-      <c r="D18" s="2">
-        <v>0</v>
-      </c>
-      <c r="E18" s="2" t="s">
+      <c r="C20" s="2">
+        <v>0</v>
+      </c>
+      <c r="D20" s="2">
+        <v>0</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F18" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G18" s="2" t="s">
+      <c r="F20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G20" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H18" s="2">
-        <v>0</v>
-      </c>
-      <c r="I18" s="2">
-        <v>1</v>
-      </c>
-      <c r="J18" s="2">
-        <v>1</v>
-      </c>
-      <c r="K18" s="2">
+      <c r="H20" s="2">
+        <v>0</v>
+      </c>
+      <c r="I20" s="2">
+        <v>1</v>
+      </c>
+      <c r="J20" s="2">
+        <v>1</v>
+      </c>
+      <c r="K20" s="2">
         <v>400</v>
       </c>
-      <c r="L18" s="2">
-        <v>0</v>
-      </c>
-      <c r="M18" s="2">
+      <c r="L20" s="2">
+        <v>0</v>
+      </c>
+      <c r="M20" s="2">
         <v>20</v>
       </c>
-      <c r="N18" s="2">
-        <v>0</v>
-      </c>
-      <c r="O18" s="2">
-        <v>1</v>
-      </c>
-      <c r="P18" s="2">
+      <c r="N20" s="2">
+        <v>0</v>
+      </c>
+      <c r="O20" s="2">
+        <v>1</v>
+      </c>
+      <c r="P20" s="2">
         <v>50</v>
       </c>
-      <c r="Q18" s="2">
-        <v>0</v>
-      </c>
-      <c r="R18" s="2">
-        <v>0</v>
-      </c>
-      <c r="S18" s="2">
-        <v>0</v>
-      </c>
-      <c r="T18" s="2">
-        <v>0</v>
-      </c>
-      <c r="U18" s="2">
-        <v>0</v>
-      </c>
-      <c r="V18" s="2">
-        <v>0</v>
-      </c>
-      <c r="W18" s="3" t="s">
+      <c r="Q20" s="2">
+        <v>0</v>
+      </c>
+      <c r="R20" s="2">
+        <v>0</v>
+      </c>
+      <c r="S20" s="2">
+        <v>0</v>
+      </c>
+      <c r="T20" s="2">
+        <v>0</v>
+      </c>
+      <c r="U20" s="2">
+        <v>0</v>
+      </c>
+      <c r="V20" s="2">
+        <v>0</v>
+      </c>
+      <c r="W20" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="X18" s="3" t="s">
+      <c r="X20" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="Y18" s="3" t="s">
+      <c r="Y20" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="Z18" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA18" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="AB18" s="5" t="s">
+      <c r="Z20" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA20" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB20" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="AC18" s="4" t="s">
+      <c r="AC20" s="4" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="19" spans="1:29" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="2">
+    <row r="21" spans="1:29" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="2">
         <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="B19" s="2">
+        <v>19</v>
+      </c>
+      <c r="B21" s="2">
         <f>INDEX(B:B,MATCH(1000,B:B,0),1)+((ROW()-MATCH(1000,B:B,0))*10)</f>
         <v>1020</v>
       </c>
-      <c r="C19" s="2">
-        <v>0</v>
-      </c>
-      <c r="D19" s="2">
+      <c r="C21" s="2">
+        <v>0</v>
+      </c>
+      <c r="D21" s="2">
         <v>10</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E21" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F19" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G19" s="2" t="s">
+      <c r="F21" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G21" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H19" s="2">
-        <v>0</v>
-      </c>
-      <c r="I19" s="2">
-        <v>1</v>
-      </c>
-      <c r="J19" s="2">
-        <v>1</v>
-      </c>
-      <c r="K19" s="2">
+      <c r="H21" s="2">
+        <v>0</v>
+      </c>
+      <c r="I21" s="2">
+        <v>1</v>
+      </c>
+      <c r="J21" s="2">
+        <v>1</v>
+      </c>
+      <c r="K21" s="2">
         <v>300</v>
       </c>
-      <c r="L19" s="2">
-        <v>0</v>
-      </c>
-      <c r="M19" s="2">
+      <c r="L21" s="2">
+        <v>0</v>
+      </c>
+      <c r="M21" s="2">
         <v>20</v>
       </c>
-      <c r="N19" s="2">
-        <v>0</v>
-      </c>
-      <c r="O19" s="2">
-        <v>0</v>
-      </c>
-      <c r="P19" s="2">
+      <c r="N21" s="2">
+        <v>0</v>
+      </c>
+      <c r="O21" s="2">
+        <v>0</v>
+      </c>
+      <c r="P21" s="2">
         <v>50</v>
       </c>
-      <c r="Q19" s="2">
-        <v>0</v>
-      </c>
-      <c r="R19" s="2">
-        <v>0</v>
-      </c>
-      <c r="S19" s="2">
-        <v>0</v>
-      </c>
-      <c r="T19" s="2">
-        <v>0</v>
-      </c>
-      <c r="U19" s="2">
-        <v>0</v>
-      </c>
-      <c r="V19" s="2">
-        <v>0</v>
-      </c>
-      <c r="W19" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="X19" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y19" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z19" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA19" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="AB19" s="5" t="s">
+      <c r="Q21" s="2">
+        <v>0</v>
+      </c>
+      <c r="R21" s="2">
+        <v>0</v>
+      </c>
+      <c r="S21" s="2">
+        <v>0</v>
+      </c>
+      <c r="T21" s="2">
+        <v>0</v>
+      </c>
+      <c r="U21" s="2">
+        <v>0</v>
+      </c>
+      <c r="V21" s="2">
+        <v>0</v>
+      </c>
+      <c r="W21" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="X21" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y21" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z21" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA21" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB21" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="AC19" s="4" t="s">
+      <c r="AC21" s="4" t="s">
         <v>65</v>
       </c>
     </row>

--- a/Assets/Excel_Data/Entity_QuestSetDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_QuestSetDataBase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97200D87-31FC-4842-B5E4-0DAF182B6C6F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2926C969-7878-43F6-BE96-7E8A92137E3A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4050" yWindow="2865" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2235" yWindow="3930" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01_QuestSetData" sheetId="1" r:id="rId1"/>
@@ -1293,10 +1293,10 @@
   </sheetPr>
   <dimension ref="A1:AC21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="AC17" sqref="AC17"/>
+      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="27.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2263,7 +2263,7 @@
         <v>1</v>
       </c>
       <c r="K11" s="2">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="L11" s="2">
         <v>0</v>
@@ -2536,7 +2536,7 @@
         <v>1</v>
       </c>
       <c r="K14" s="2">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="L14" s="2">
         <v>0</v>
@@ -2788,7 +2788,7 @@
         <v>1</v>
       </c>
       <c r="D17" s="2">
-        <v>40</v>
+        <v>9999</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>102</v>

--- a/Assets/Excel_Data/Entity_QuestSetDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_QuestSetDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2926C969-7878-43F6-BE96-7E8A92137E3A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89D7D6ED-F6B2-4294-83CE-50B1B7548F8E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2235" yWindow="3930" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3810" yWindow="3810" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01_QuestSetData" sheetId="1" r:id="rId1"/>
@@ -471,10 +471,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>rich_tea</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>ある貴族のお客様が、お茶会で食べるお菓子を探してるそうよ。
 &lt;color=#FF78B4&gt;ラスク&lt;/color&gt;があれば、喜ばれるかも..。</t>
     <rPh sb="2" eb="4">
@@ -875,6 +871,10 @@
     <rPh sb="55" eb="56">
       <t>サガ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>tea_lavender</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1293,10 +1293,10 @@
   </sheetPr>
   <dimension ref="A1:AC21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
+      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="27.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1386,7 +1386,7 @@
         <v>6</v>
       </c>
       <c r="V1" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="W1" s="1" t="s">
         <v>8</v>
@@ -1586,7 +1586,7 @@
         <v>7</v>
       </c>
       <c r="AB3" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AC3" s="4" t="s">
         <v>62</v>
@@ -1608,13 +1608,13 @@
         <v>9999</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>87</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>88</v>
       </c>
       <c r="H4" s="2">
         <v>0</v>
@@ -1677,10 +1677,10 @@
         <v>7</v>
       </c>
       <c r="AB4" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="AC4" s="4" t="s">
         <v>89</v>
-      </c>
-      <c r="AC4" s="4" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:29" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1790,10 +1790,10 @@
         <v>0</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>7</v>
@@ -1859,10 +1859,10 @@
         <v>7</v>
       </c>
       <c r="AB6" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="AC6" s="4" t="s">
         <v>93</v>
-      </c>
-      <c r="AC6" s="4" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:29" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2245,13 +2245,13 @@
         <v>10</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>7</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H11" s="2">
         <v>0</v>
@@ -2296,7 +2296,7 @@
         <v>0</v>
       </c>
       <c r="V11" s="2">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="W11" s="3" t="s">
         <v>7</v>
@@ -2314,10 +2314,10 @@
         <v>7</v>
       </c>
       <c r="AB11" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AC11" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:29" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2336,7 +2336,7 @@
         <v>10</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>58</v>
@@ -2427,7 +2427,7 @@
         <v>20</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>64</v>
+        <v>106</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>63</v>
@@ -2445,7 +2445,7 @@
         <v>1</v>
       </c>
       <c r="K13" s="2">
-        <v>300</v>
+        <v>550</v>
       </c>
       <c r="L13" s="2">
         <v>0</v>
@@ -2496,10 +2496,10 @@
         <v>7</v>
       </c>
       <c r="AB13" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC13" s="4" t="s">
         <v>85</v>
-      </c>
-      <c r="AC13" s="4" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:29" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2518,13 +2518,13 @@
         <v>30</v>
       </c>
       <c r="E14" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G14" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>96</v>
       </c>
       <c r="H14" s="2">
         <v>0</v>
@@ -2572,25 +2572,25 @@
         <v>0</v>
       </c>
       <c r="W14" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="X14" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y14" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="X14" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="Y14" s="3" t="s">
+      <c r="Z14" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="Z14" s="3" t="s">
+      <c r="AA14" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="AA14" s="3" t="s">
+      <c r="AB14" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="AB14" s="5" t="s">
-        <v>101</v>
-      </c>
       <c r="AC14" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:29" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2609,13 +2609,13 @@
         <v>30</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>7</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H15" s="2">
         <v>0</v>
@@ -2678,10 +2678,10 @@
         <v>7</v>
       </c>
       <c r="AB15" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="AC15" s="4" t="s">
         <v>82</v>
-      </c>
-      <c r="AC15" s="4" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="16" spans="1:29" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2700,10 +2700,10 @@
         <v>30</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>18</v>
+        <v>102</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>7</v>
@@ -2769,10 +2769,10 @@
         <v>7</v>
       </c>
       <c r="AB16" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AC16" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17" spans="1:29" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2791,7 +2791,7 @@
         <v>9999</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>51</v>
@@ -2900,7 +2900,7 @@
         <v>2</v>
       </c>
       <c r="K18" s="2">
-        <v>200</v>
+        <v>330</v>
       </c>
       <c r="L18" s="2">
         <v>0</v>
@@ -3041,10 +3041,10 @@
         <v>7</v>
       </c>
       <c r="AB19" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AC19" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20" spans="1:29" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3063,7 +3063,7 @@
         <v>0</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>7</v>
@@ -3117,25 +3117,25 @@
         <v>0</v>
       </c>
       <c r="W20" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="X20" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y20" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z20" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA20" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB20" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC20" s="4" t="s">
         <v>68</v>
-      </c>
-      <c r="Y20" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="Z20" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA20" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="AB20" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="AC20" s="4" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="21" spans="1:29" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3223,10 +3223,10 @@
         <v>7</v>
       </c>
       <c r="AB21" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AC21" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel_Data/Entity_QuestSetDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_QuestSetDataBase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89D7D6ED-F6B2-4294-83CE-50B1B7548F8E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE16D273-D02E-4EDA-A03C-17176EAF0F18}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3810" yWindow="3810" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3195" yWindow="3195" windowWidth="22740" windowHeight="11535" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01_QuestSetData" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="108">
   <si>
     <t>desc</t>
   </si>
@@ -825,32 +825,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>これは、&lt;color=#FF78B4&gt;メイド学校のメイド先生&lt;/color&gt;の方からのご依頼ね。
-ベリーがのったクレープを食べて元気を出したいそうよ。</t>
-    <rPh sb="22" eb="24">
-      <t>ガッコウ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>センセイ</t>
-    </rPh>
-    <rPh sb="39" eb="40">
-      <t>カタ</t>
-    </rPh>
-    <rPh sb="44" eb="46">
-      <t>イライ</t>
-    </rPh>
-    <rPh sb="61" eb="62">
-      <t>タ</t>
-    </rPh>
-    <rPh sb="64" eb="66">
-      <t>ゲンキ</t>
-    </rPh>
-    <rPh sb="67" eb="68">
-      <t>ダ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>これは、とある&lt;color=#FF78B4&gt;貿易商&lt;/color&gt;の方からのご依頼ね。
 コーヒーに合うお菓子を探してるみたい。</t>
     <rPh sb="22" eb="25">
@@ -875,6 +849,36 @@
   </si>
   <si>
     <t>tea_lavender</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>これは、&lt;color=#FF78B4&gt;メイド学校の先生&lt;/color&gt;の方からのご依頼ね。
+ベリーがのったクレープを食べて元気を出したいそうよ。</t>
+    <rPh sb="22" eb="24">
+      <t>ガッコウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>センセイ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>イライ</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>ゲンキ</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>beauty</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1291,12 +1295,12 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AC21"/>
+  <dimension ref="A1:AD21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
+      <selection pane="bottomLeft" activeCell="W12" sqref="W12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="27.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1315,13 +1319,13 @@
     <col min="18" max="18" width="4.85546875" customWidth="1"/>
     <col min="19" max="19" width="4.7109375" customWidth="1"/>
     <col min="20" max="20" width="4.28515625" customWidth="1"/>
-    <col min="21" max="22" width="4" customWidth="1"/>
-    <col min="23" max="27" width="8.7109375" customWidth="1"/>
-    <col min="28" max="28" width="21.140625" customWidth="1"/>
-    <col min="29" max="29" width="62" customWidth="1"/>
+    <col min="21" max="23" width="4" customWidth="1"/>
+    <col min="24" max="28" width="8.7109375" customWidth="1"/>
+    <col min="29" max="29" width="21.140625" customWidth="1"/>
+    <col min="30" max="30" width="62" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
@@ -1388,29 +1392,32 @@
       <c r="V1" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="W1" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="X1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:29" s="10" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:30" s="10" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7">
         <f t="shared" ref="A2:A21" si="0">ROW()-2</f>
         <v>0</v>
@@ -1479,11 +1486,11 @@
       <c r="V2" s="7">
         <v>0</v>
       </c>
-      <c r="W2" s="8" t="s">
-        <v>7</v>
+      <c r="W2" s="7">
+        <v>50</v>
       </c>
       <c r="X2" s="8" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="Y2" s="8" t="s">
         <v>13</v>
@@ -1494,14 +1501,17 @@
       <c r="AA2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="AB2" s="9" t="s">
+      <c r="AB2" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC2" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="AC2" s="11" t="s">
+      <c r="AD2" s="11" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:30" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1570,8 +1580,8 @@
       <c r="V3" s="2">
         <v>0</v>
       </c>
-      <c r="W3" s="3" t="s">
-        <v>7</v>
+      <c r="W3" s="2">
+        <v>50</v>
       </c>
       <c r="X3" s="3" t="s">
         <v>7</v>
@@ -1585,14 +1595,17 @@
       <c r="AA3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="AB3" s="5" t="s">
+      <c r="AB3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC3" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="AC3" s="4" t="s">
+      <c r="AD3" s="4" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:30" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -1661,8 +1674,8 @@
       <c r="V4" s="2">
         <v>0</v>
       </c>
-      <c r="W4" s="3" t="s">
-        <v>7</v>
+      <c r="W4" s="2">
+        <v>50</v>
       </c>
       <c r="X4" s="3" t="s">
         <v>7</v>
@@ -1676,14 +1689,17 @@
       <c r="AA4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="AB4" s="5" t="s">
+      <c r="AB4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC4" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="AC4" s="4" t="s">
+      <c r="AD4" s="4" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1752,8 +1768,8 @@
       <c r="V5" s="2">
         <v>0</v>
       </c>
-      <c r="W5" s="3" t="s">
-        <v>7</v>
+      <c r="W5" s="2">
+        <v>50</v>
       </c>
       <c r="X5" s="3" t="s">
         <v>7</v>
@@ -1767,14 +1783,17 @@
       <c r="AA5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="AB5" s="5" t="s">
+      <c r="AB5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC5" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="AC5" s="4" t="s">
+      <c r="AD5" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1843,8 +1862,8 @@
       <c r="V6" s="2">
         <v>0</v>
       </c>
-      <c r="W6" s="3" t="s">
-        <v>7</v>
+      <c r="W6" s="2">
+        <v>50</v>
       </c>
       <c r="X6" s="3" t="s">
         <v>7</v>
@@ -1858,14 +1877,17 @@
       <c r="AA6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="AB6" s="5" t="s">
+      <c r="AB6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC6" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="AC6" s="4" t="s">
+      <c r="AD6" s="4" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1934,8 +1956,8 @@
       <c r="V7" s="2">
         <v>0</v>
       </c>
-      <c r="W7" s="3" t="s">
-        <v>7</v>
+      <c r="W7" s="2">
+        <v>50</v>
       </c>
       <c r="X7" s="3" t="s">
         <v>7</v>
@@ -1949,14 +1971,17 @@
       <c r="AA7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="AB7" s="5" t="s">
+      <c r="AB7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC7" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="AC7" s="4" t="s">
+      <c r="AD7" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -2025,8 +2050,8 @@
       <c r="V8" s="2">
         <v>0</v>
       </c>
-      <c r="W8" s="3" t="s">
-        <v>7</v>
+      <c r="W8" s="2">
+        <v>50</v>
       </c>
       <c r="X8" s="3" t="s">
         <v>7</v>
@@ -2040,14 +2065,17 @@
       <c r="AA8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="AB8" s="5" t="s">
+      <c r="AB8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC8" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="AC8" s="4" t="s">
+      <c r="AD8" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:29" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -2116,8 +2144,8 @@
       <c r="V9" s="2">
         <v>0</v>
       </c>
-      <c r="W9" s="3" t="s">
-        <v>7</v>
+      <c r="W9" s="2">
+        <v>50</v>
       </c>
       <c r="X9" s="3" t="s">
         <v>7</v>
@@ -2131,14 +2159,17 @@
       <c r="AA9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="AB9" s="5" t="s">
+      <c r="AB9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC9" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="AC9" s="4" t="s">
+      <c r="AD9" s="4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:29" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -2207,8 +2238,8 @@
       <c r="V10" s="2">
         <v>0</v>
       </c>
-      <c r="W10" s="3" t="s">
-        <v>7</v>
+      <c r="W10" s="2">
+        <v>50</v>
       </c>
       <c r="X10" s="3" t="s">
         <v>7</v>
@@ -2222,14 +2253,17 @@
       <c r="AA10" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="AB10" s="5" t="s">
+      <c r="AB10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC10" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="AC10" s="4" t="s">
+      <c r="AD10" s="4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:29" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -2298,8 +2332,8 @@
       <c r="V11" s="2">
         <v>35</v>
       </c>
-      <c r="W11" s="3" t="s">
-        <v>7</v>
+      <c r="W11" s="2">
+        <v>50</v>
       </c>
       <c r="X11" s="3" t="s">
         <v>7</v>
@@ -2313,14 +2347,17 @@
       <c r="AA11" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="AB11" s="5" t="s">
+      <c r="AB11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC11" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="AC11" s="4" t="s">
+      <c r="AD11" s="4" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="12" spans="1:29" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:30" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -2389,8 +2426,8 @@
       <c r="V12" s="2">
         <v>0</v>
       </c>
-      <c r="W12" s="3" t="s">
-        <v>7</v>
+      <c r="W12" s="2">
+        <v>0</v>
       </c>
       <c r="X12" s="3" t="s">
         <v>7</v>
@@ -2404,14 +2441,17 @@
       <c r="AA12" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="AB12" s="5" t="s">
+      <c r="AB12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC12" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="AC12" s="4" t="s">
+      <c r="AD12" s="4" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:29" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -2427,7 +2467,7 @@
         <v>20</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>63</v>
@@ -2480,8 +2520,8 @@
       <c r="V13" s="2">
         <v>0</v>
       </c>
-      <c r="W13" s="3" t="s">
-        <v>7</v>
+      <c r="W13" s="2">
+        <v>50</v>
       </c>
       <c r="X13" s="3" t="s">
         <v>7</v>
@@ -2495,14 +2535,17 @@
       <c r="AA13" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="AB13" s="5" t="s">
+      <c r="AB13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC13" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="AC13" s="4" t="s">
+      <c r="AD13" s="4" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="14" spans="1:29" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:30" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -2571,29 +2614,32 @@
       <c r="V14" s="2">
         <v>0</v>
       </c>
-      <c r="W14" s="3" t="s">
+      <c r="W14" s="2">
+        <v>50</v>
+      </c>
+      <c r="X14" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="X14" s="3" t="s">
+      <c r="Y14" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="Y14" s="3" t="s">
+      <c r="Z14" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="Z14" s="3" t="s">
+      <c r="AA14" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="AA14" s="3" t="s">
+      <c r="AB14" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="AB14" s="5" t="s">
+      <c r="AC14" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="AC14" s="4" t="s">
-        <v>104</v>
+      <c r="AD14" s="4" t="s">
+        <v>106</v>
       </c>
     </row>
-    <row r="15" spans="1:29" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -2662,8 +2708,8 @@
       <c r="V15" s="2">
         <v>0</v>
       </c>
-      <c r="W15" s="3" t="s">
-        <v>7</v>
+      <c r="W15" s="2">
+        <v>50</v>
       </c>
       <c r="X15" s="3" t="s">
         <v>7</v>
@@ -2677,14 +2723,17 @@
       <c r="AA15" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="AB15" s="5" t="s">
+      <c r="AB15" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC15" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="AC15" s="4" t="s">
+      <c r="AD15" s="4" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="16" spans="1:29" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -2753,8 +2802,8 @@
       <c r="V16" s="2">
         <v>0</v>
       </c>
-      <c r="W16" s="3" t="s">
-        <v>7</v>
+      <c r="W16" s="2">
+        <v>50</v>
       </c>
       <c r="X16" s="3" t="s">
         <v>7</v>
@@ -2768,14 +2817,17 @@
       <c r="AA16" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="AB16" s="5" t="s">
+      <c r="AB16" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC16" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="AC16" s="4" t="s">
-        <v>105</v>
+      <c r="AD16" s="4" t="s">
+        <v>104</v>
       </c>
     </row>
-    <row r="17" spans="1:29" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:30" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -2844,8 +2896,8 @@
       <c r="V17" s="2">
         <v>0</v>
       </c>
-      <c r="W17" s="3" t="s">
-        <v>7</v>
+      <c r="W17" s="2">
+        <v>50</v>
       </c>
       <c r="X17" s="3" t="s">
         <v>7</v>
@@ -2859,14 +2911,17 @@
       <c r="AA17" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="AB17" s="5" t="s">
+      <c r="AB17" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC17" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="AC17" s="4" t="s">
+      <c r="AD17" s="4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="18" spans="1:29" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:30" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -2935,8 +2990,8 @@
       <c r="V18" s="2">
         <v>0</v>
       </c>
-      <c r="W18" s="3" t="s">
-        <v>7</v>
+      <c r="W18" s="2">
+        <v>50</v>
       </c>
       <c r="X18" s="3" t="s">
         <v>7</v>
@@ -2950,14 +3005,17 @@
       <c r="AA18" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="AB18" s="5" t="s">
+      <c r="AB18" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC18" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="AC18" s="4" t="s">
+      <c r="AD18" s="4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="19" spans="1:29" s="10" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:30" s="10" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="7">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -3025,8 +3083,8 @@
       <c r="V19" s="7">
         <v>0</v>
       </c>
-      <c r="W19" s="8" t="s">
-        <v>7</v>
+      <c r="W19" s="7">
+        <v>50</v>
       </c>
       <c r="X19" s="8" t="s">
         <v>7</v>
@@ -3040,14 +3098,17 @@
       <c r="AA19" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="AB19" s="9" t="s">
+      <c r="AB19" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC19" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="AC19" s="11" t="s">
+      <c r="AD19" s="11" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="20" spans="1:29" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:30" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -3116,29 +3177,32 @@
       <c r="V20" s="2">
         <v>0</v>
       </c>
-      <c r="W20" s="3" t="s">
+      <c r="W20" s="2">
+        <v>50</v>
+      </c>
+      <c r="X20" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="X20" s="3" t="s">
+      <c r="Y20" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="Y20" s="3" t="s">
+      <c r="Z20" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="Z20" s="3" t="s">
-        <v>7</v>
-      </c>
       <c r="AA20" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="AB20" s="5" t="s">
+      <c r="AB20" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC20" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="AC20" s="4" t="s">
+      <c r="AD20" s="4" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="21" spans="1:29" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:30" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -3207,8 +3271,8 @@
       <c r="V21" s="2">
         <v>0</v>
       </c>
-      <c r="W21" s="3" t="s">
-        <v>7</v>
+      <c r="W21" s="2">
+        <v>50</v>
       </c>
       <c r="X21" s="3" t="s">
         <v>7</v>
@@ -3222,10 +3286,13 @@
       <c r="AA21" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="AB21" s="5" t="s">
+      <c r="AB21" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC21" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="AC21" s="4" t="s">
+      <c r="AD21" s="4" t="s">
         <v>64</v>
       </c>
     </row>

--- a/Assets/Excel_Data/Entity_QuestSetDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_QuestSetDataBase.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE16D273-D02E-4EDA-A03C-17176EAF0F18}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{339B3824-D479-4DD6-8270-667C3B809121}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3195" yWindow="3195" windowWidth="22740" windowHeight="11535" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3345" yWindow="2415" windowWidth="22740" windowHeight="11535" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01_QuestSetData" sheetId="1" r:id="rId1"/>
+    <sheet name="02_QuestSetData2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="131">
   <si>
     <t>desc</t>
   </si>
@@ -879,6 +880,212 @@
   </si>
   <si>
     <t>beauty</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アイスクリームが食べたい！</t>
+    <rPh sb="8" eb="9">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>これは、&lt;color=#FF78B4&gt;大富豪&lt;/color&gt;からのご依頼ね。
+最近流行のアイスクリームが欲しいとのことだわ。</t>
+    <rPh sb="19" eb="22">
+      <t>ダイフゴウ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>イライ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>サイキン</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>リュウコウ</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>ホ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>IceCream</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>icecream</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Castella</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>castella</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>カステラが食べたい！</t>
+    <rPh sb="5" eb="6">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>これは、&lt;color=#FF78B4&gt;おじいさん&lt;/color&gt;からのご依頼ね。
+歯が弱ってるから、柔らかいカステラが食べたいとのことだわ。</t>
+    <rPh sb="36" eb="38">
+      <t>イライ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>ハ</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>ヨワ</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>ヤワ</t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Maffin</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>maffin_pink</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>これは、&lt;color=#FF78B4&gt;クララおばさん&lt;/color&gt;からのご依頼ね。
+若さ溢れる、かわいいマフィンが食べたいとのことだわ。</t>
+    <rPh sb="38" eb="40">
+      <t>イライ</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>ワカ</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>アフ</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>さくらんぼのピンクマフィンが食べたい！</t>
+    <rPh sb="14" eb="15">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>mint</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ミントの入手</t>
+    <rPh sb="4" eb="6">
+      <t>ニュウシュ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;color=#FF78B4&gt;ミント&lt;/color&gt;を持ってない？
+お菓子のアクセントに欠かせないのよ～。</t>
+    <rPh sb="27" eb="28">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>カシ</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>blackberry</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ブラックベリーの入手</t>
+    <rPh sb="8" eb="10">
+      <t>ニュウシュ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>王様のベリーと呼ばれる&lt;color=#FF78B4&gt;ブラックベリー&lt;/color&gt;を持ってない？
+皇室向けのお菓子作りには欠かせないのよ。</t>
+    <rPh sb="0" eb="2">
+      <t>オウサマ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>コウシツ</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>ム</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>カシ</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Non</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>orange_crepe</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>crepe_orange</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>オレンジクレープが食べたい！</t>
+    <rPh sb="9" eb="10">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>これは、とある&lt;color=#FF78B4&gt;ご婦人&lt;/color&gt;からのご依頼ね。
+オレンジが大好きで、オレンジ入りのクレープが食べたいそうよ。</t>
+    <rPh sb="23" eb="25">
+      <t>フジン</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>イライ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>ダイス</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>タ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1297,10 +1504,10 @@
   </sheetPr>
   <dimension ref="A1:AD21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="W12" sqref="W12"/>
+      <selection pane="bottomLeft" activeCell="AD17" sqref="AD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="27.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3301,4 +3508,1171 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F7DA455-53D4-410E-9CBB-32B5DAA163AC}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:AD12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="AD5" sqref="AD5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="27.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="6.28515625" customWidth="1"/>
+    <col min="2" max="2" width="7.85546875" customWidth="1"/>
+    <col min="3" max="4" width="9.7109375" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" customWidth="1"/>
+    <col min="6" max="6" width="22.42578125" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" customWidth="1"/>
+    <col min="8" max="8" width="8" customWidth="1"/>
+    <col min="9" max="9" width="8.42578125" customWidth="1"/>
+    <col min="10" max="10" width="8.7109375" customWidth="1"/>
+    <col min="11" max="11" width="7.85546875" customWidth="1"/>
+    <col min="12" max="17" width="5" customWidth="1"/>
+    <col min="18" max="18" width="4.85546875" customWidth="1"/>
+    <col min="19" max="19" width="4.7109375" customWidth="1"/>
+    <col min="20" max="20" width="4.28515625" customWidth="1"/>
+    <col min="21" max="23" width="4" customWidth="1"/>
+    <col min="24" max="28" width="8.7109375" customWidth="1"/>
+    <col min="29" max="29" width="21.140625" customWidth="1"/>
+    <col min="30" max="30" width="62" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:30" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="T1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="U1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="V1" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="W1" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" s="10" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="7">
+        <f t="shared" ref="A2:A12" si="0">ROW()-2</f>
+        <v>0</v>
+      </c>
+      <c r="B2" s="7">
+        <f>(ROW()-2)*10+2000</f>
+        <v>2000</v>
+      </c>
+      <c r="C2" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2" s="7">
+        <v>9999</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="7">
+        <v>0</v>
+      </c>
+      <c r="I2" s="7">
+        <v>1</v>
+      </c>
+      <c r="J2" s="7">
+        <v>1</v>
+      </c>
+      <c r="K2" s="7">
+        <v>250</v>
+      </c>
+      <c r="L2" s="7">
+        <v>0</v>
+      </c>
+      <c r="M2" s="7">
+        <v>20</v>
+      </c>
+      <c r="N2" s="7">
+        <v>0</v>
+      </c>
+      <c r="O2" s="7">
+        <v>0</v>
+      </c>
+      <c r="P2" s="7">
+        <v>30</v>
+      </c>
+      <c r="Q2" s="7">
+        <v>0</v>
+      </c>
+      <c r="R2" s="7">
+        <v>0</v>
+      </c>
+      <c r="S2" s="7">
+        <v>0</v>
+      </c>
+      <c r="T2" s="7">
+        <v>0</v>
+      </c>
+      <c r="U2" s="7">
+        <v>0</v>
+      </c>
+      <c r="V2" s="7">
+        <v>0</v>
+      </c>
+      <c r="W2" s="7">
+        <v>50</v>
+      </c>
+      <c r="X2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC2" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD2" s="11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B3" s="2">
+        <f>(ROW()-2)*10+2000</f>
+        <v>2010</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2">
+        <v>2</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2">
+        <v>1</v>
+      </c>
+      <c r="J3" s="2">
+        <v>5</v>
+      </c>
+      <c r="K3" s="2">
+        <v>150</v>
+      </c>
+      <c r="L3" s="2">
+        <v>0</v>
+      </c>
+      <c r="M3" s="2">
+        <v>20</v>
+      </c>
+      <c r="N3" s="2">
+        <v>0</v>
+      </c>
+      <c r="O3" s="2">
+        <v>0</v>
+      </c>
+      <c r="P3" s="2">
+        <v>30</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>0</v>
+      </c>
+      <c r="R3" s="2">
+        <v>0</v>
+      </c>
+      <c r="S3" s="2">
+        <v>0</v>
+      </c>
+      <c r="T3" s="2">
+        <v>0</v>
+      </c>
+      <c r="U3" s="2">
+        <v>0</v>
+      </c>
+      <c r="V3" s="2">
+        <v>0</v>
+      </c>
+      <c r="W3" s="2">
+        <v>50</v>
+      </c>
+      <c r="X3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC3" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="AD3" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B4" s="2">
+        <f>(ROW()-2)*10+2000</f>
+        <v>2020</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2">
+        <v>4</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0</v>
+      </c>
+      <c r="I4" s="2">
+        <v>1</v>
+      </c>
+      <c r="J4" s="2">
+        <v>1</v>
+      </c>
+      <c r="K4" s="2">
+        <v>800</v>
+      </c>
+      <c r="L4" s="2">
+        <v>0</v>
+      </c>
+      <c r="M4" s="2">
+        <v>85</v>
+      </c>
+      <c r="N4" s="2">
+        <v>0</v>
+      </c>
+      <c r="O4" s="2">
+        <v>0</v>
+      </c>
+      <c r="P4" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>60</v>
+      </c>
+      <c r="R4" s="2">
+        <v>0</v>
+      </c>
+      <c r="S4" s="2">
+        <v>0</v>
+      </c>
+      <c r="T4" s="2">
+        <v>0</v>
+      </c>
+      <c r="U4" s="2">
+        <v>0</v>
+      </c>
+      <c r="V4" s="2">
+        <v>0</v>
+      </c>
+      <c r="W4" s="2">
+        <v>50</v>
+      </c>
+      <c r="X4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC4" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="AD4" s="4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B5" s="2">
+        <f>(ROW()-2)*10+2000</f>
+        <v>2030</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2">
+        <v>4</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0</v>
+      </c>
+      <c r="I5" s="2">
+        <v>1</v>
+      </c>
+      <c r="J5" s="2">
+        <v>1</v>
+      </c>
+      <c r="K5" s="2">
+        <v>1000</v>
+      </c>
+      <c r="L5" s="2">
+        <v>0</v>
+      </c>
+      <c r="M5" s="2">
+        <v>20</v>
+      </c>
+      <c r="N5" s="2">
+        <v>0</v>
+      </c>
+      <c r="O5" s="2">
+        <v>0</v>
+      </c>
+      <c r="P5" s="2">
+        <v>30</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>0</v>
+      </c>
+      <c r="R5" s="2">
+        <v>0</v>
+      </c>
+      <c r="S5" s="2">
+        <v>0</v>
+      </c>
+      <c r="T5" s="2">
+        <v>0</v>
+      </c>
+      <c r="U5" s="2">
+        <v>0</v>
+      </c>
+      <c r="V5" s="2">
+        <v>0</v>
+      </c>
+      <c r="W5" s="2">
+        <v>50</v>
+      </c>
+      <c r="X5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC5" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD5" s="4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B6" s="2">
+        <f>(ROW()-2)*10+2000</f>
+        <v>2040</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1</v>
+      </c>
+      <c r="D6" s="2">
+        <v>5</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0</v>
+      </c>
+      <c r="I6" s="2">
+        <v>1</v>
+      </c>
+      <c r="J6" s="2">
+        <v>1</v>
+      </c>
+      <c r="K6" s="2">
+        <v>5000</v>
+      </c>
+      <c r="L6" s="2">
+        <v>0</v>
+      </c>
+      <c r="M6" s="2">
+        <v>20</v>
+      </c>
+      <c r="N6" s="2">
+        <v>0</v>
+      </c>
+      <c r="O6" s="2">
+        <v>0</v>
+      </c>
+      <c r="P6" s="2">
+        <v>30</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>0</v>
+      </c>
+      <c r="R6" s="2">
+        <v>0</v>
+      </c>
+      <c r="S6" s="2">
+        <v>0</v>
+      </c>
+      <c r="T6" s="2">
+        <v>0</v>
+      </c>
+      <c r="U6" s="2">
+        <v>0</v>
+      </c>
+      <c r="V6" s="2">
+        <v>0</v>
+      </c>
+      <c r="W6" s="2">
+        <v>50</v>
+      </c>
+      <c r="X6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC6" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="AD6" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B7" s="2">
+        <f>(ROW()-2)*10+2000</f>
+        <v>2050</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2">
+        <v>6</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0</v>
+      </c>
+      <c r="I7" s="2">
+        <v>1</v>
+      </c>
+      <c r="J7" s="2">
+        <v>1</v>
+      </c>
+      <c r="K7" s="2">
+        <v>1200</v>
+      </c>
+      <c r="L7" s="2">
+        <v>0</v>
+      </c>
+      <c r="M7" s="2">
+        <v>20</v>
+      </c>
+      <c r="N7" s="2">
+        <v>0</v>
+      </c>
+      <c r="O7" s="2">
+        <v>0</v>
+      </c>
+      <c r="P7" s="2">
+        <v>30</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>0</v>
+      </c>
+      <c r="R7" s="2">
+        <v>0</v>
+      </c>
+      <c r="S7" s="2">
+        <v>0</v>
+      </c>
+      <c r="T7" s="2">
+        <v>0</v>
+      </c>
+      <c r="U7" s="2">
+        <v>0</v>
+      </c>
+      <c r="V7" s="2">
+        <v>0</v>
+      </c>
+      <c r="W7" s="2">
+        <v>50</v>
+      </c>
+      <c r="X7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC7" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD7" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B8" s="2">
+        <f>(ROW()-2)*10+2000</f>
+        <v>2060</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0</v>
+      </c>
+      <c r="D8" s="2">
+        <v>6</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0</v>
+      </c>
+      <c r="I8" s="2">
+        <v>1</v>
+      </c>
+      <c r="J8" s="2">
+        <v>1</v>
+      </c>
+      <c r="K8" s="2">
+        <v>1500</v>
+      </c>
+      <c r="L8" s="2">
+        <v>0</v>
+      </c>
+      <c r="M8" s="2">
+        <v>20</v>
+      </c>
+      <c r="N8" s="2">
+        <v>0</v>
+      </c>
+      <c r="O8" s="2">
+        <v>0</v>
+      </c>
+      <c r="P8" s="2">
+        <v>30</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>0</v>
+      </c>
+      <c r="R8" s="2">
+        <v>0</v>
+      </c>
+      <c r="S8" s="2">
+        <v>0</v>
+      </c>
+      <c r="T8" s="2">
+        <v>0</v>
+      </c>
+      <c r="U8" s="2">
+        <v>0</v>
+      </c>
+      <c r="V8" s="2">
+        <v>0</v>
+      </c>
+      <c r="W8" s="2">
+        <v>50</v>
+      </c>
+      <c r="X8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC8" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="AD8" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B9" s="2">
+        <f t="shared" ref="B9" si="1">(ROW()-2)*10+2000</f>
+        <v>2070</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0</v>
+      </c>
+      <c r="D9" s="2">
+        <v>9999</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0</v>
+      </c>
+      <c r="I9" s="2">
+        <v>1</v>
+      </c>
+      <c r="J9" s="2">
+        <v>1</v>
+      </c>
+      <c r="K9" s="2">
+        <v>180</v>
+      </c>
+      <c r="L9" s="2">
+        <v>0</v>
+      </c>
+      <c r="M9" s="2">
+        <v>0</v>
+      </c>
+      <c r="N9" s="2">
+        <v>0</v>
+      </c>
+      <c r="O9" s="2">
+        <v>0</v>
+      </c>
+      <c r="P9" s="2">
+        <v>30</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>0</v>
+      </c>
+      <c r="R9" s="2">
+        <v>0</v>
+      </c>
+      <c r="S9" s="2">
+        <v>0</v>
+      </c>
+      <c r="T9" s="2">
+        <v>0</v>
+      </c>
+      <c r="U9" s="2">
+        <v>0</v>
+      </c>
+      <c r="V9" s="2">
+        <v>0</v>
+      </c>
+      <c r="W9" s="2">
+        <v>50</v>
+      </c>
+      <c r="X9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC9" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="AD9" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" s="10" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="7">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B10" s="7">
+        <v>3000</v>
+      </c>
+      <c r="C10" s="7">
+        <v>0</v>
+      </c>
+      <c r="D10" s="7">
+        <v>9999</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H10" s="7">
+        <v>0</v>
+      </c>
+      <c r="I10" s="7">
+        <v>1</v>
+      </c>
+      <c r="J10" s="7">
+        <v>1</v>
+      </c>
+      <c r="K10" s="7">
+        <v>300</v>
+      </c>
+      <c r="L10" s="7">
+        <v>0</v>
+      </c>
+      <c r="M10" s="7">
+        <v>20</v>
+      </c>
+      <c r="N10" s="7">
+        <v>0</v>
+      </c>
+      <c r="O10" s="7">
+        <v>0</v>
+      </c>
+      <c r="P10" s="7">
+        <v>50</v>
+      </c>
+      <c r="Q10" s="7">
+        <v>0</v>
+      </c>
+      <c r="R10" s="7">
+        <v>0</v>
+      </c>
+      <c r="S10" s="7">
+        <v>0</v>
+      </c>
+      <c r="T10" s="7">
+        <v>0</v>
+      </c>
+      <c r="U10" s="7">
+        <v>0</v>
+      </c>
+      <c r="V10" s="7">
+        <v>0</v>
+      </c>
+      <c r="W10" s="7">
+        <v>50</v>
+      </c>
+      <c r="X10" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="Y10" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z10" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA10" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB10" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC10" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD10" s="11" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B11" s="2">
+        <f>INDEX(B:B,MATCH(3000,B:B,0),1)+((ROW()-MATCH(3000,B:B,0))*10)</f>
+        <v>3010</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0</v>
+      </c>
+      <c r="D11" s="2">
+        <v>9999</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0</v>
+      </c>
+      <c r="I11" s="2">
+        <v>1</v>
+      </c>
+      <c r="J11" s="2">
+        <v>1</v>
+      </c>
+      <c r="K11" s="2">
+        <v>400</v>
+      </c>
+      <c r="L11" s="2">
+        <v>0</v>
+      </c>
+      <c r="M11" s="2">
+        <v>20</v>
+      </c>
+      <c r="N11" s="2">
+        <v>0</v>
+      </c>
+      <c r="O11" s="2">
+        <v>1</v>
+      </c>
+      <c r="P11" s="2">
+        <v>50</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>0</v>
+      </c>
+      <c r="R11" s="2">
+        <v>0</v>
+      </c>
+      <c r="S11" s="2">
+        <v>0</v>
+      </c>
+      <c r="T11" s="2">
+        <v>0</v>
+      </c>
+      <c r="U11" s="2">
+        <v>0</v>
+      </c>
+      <c r="V11" s="2">
+        <v>0</v>
+      </c>
+      <c r="W11" s="2">
+        <v>50</v>
+      </c>
+      <c r="X11" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y11" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z11" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC11" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD11" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B12" s="2">
+        <f>INDEX(B:B,MATCH(3000,B:B,0),1)+((ROW()-MATCH(3000,B:B,0))*10)</f>
+        <v>3020</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0</v>
+      </c>
+      <c r="D12" s="2">
+        <v>9999</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0</v>
+      </c>
+      <c r="I12" s="2">
+        <v>1</v>
+      </c>
+      <c r="J12" s="2">
+        <v>1</v>
+      </c>
+      <c r="K12" s="2">
+        <v>300</v>
+      </c>
+      <c r="L12" s="2">
+        <v>0</v>
+      </c>
+      <c r="M12" s="2">
+        <v>20</v>
+      </c>
+      <c r="N12" s="2">
+        <v>0</v>
+      </c>
+      <c r="O12" s="2">
+        <v>0</v>
+      </c>
+      <c r="P12" s="2">
+        <v>50</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>0</v>
+      </c>
+      <c r="R12" s="2">
+        <v>0</v>
+      </c>
+      <c r="S12" s="2">
+        <v>0</v>
+      </c>
+      <c r="T12" s="2">
+        <v>0</v>
+      </c>
+      <c r="U12" s="2">
+        <v>0</v>
+      </c>
+      <c r="V12" s="2">
+        <v>0</v>
+      </c>
+      <c r="W12" s="2">
+        <v>50</v>
+      </c>
+      <c r="X12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC12" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="AD12" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Assets/Excel_Data/Entity_QuestSetDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_QuestSetDataBase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mator\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{339B3824-D479-4DD6-8270-667C3B809121}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC3F5BC7-4AD4-4BDD-9A31-482BC088C02B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3345" yWindow="2415" windowWidth="22740" windowHeight="11535" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4350" yWindow="1740" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01_QuestSetData" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="136">
   <si>
     <t>desc</t>
   </si>
@@ -790,10 +790,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>Blackcurrant</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Blackberry</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1086,6 +1082,86 @@
     <rPh sb="64" eb="65">
       <t>タ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>cookie_nonsuger</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>neko_cookie_drop</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ノンシュガークッキーが食べたい</t>
+    <rPh sb="11" eb="12">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>これは、とある&lt;color=#FF78B4&gt;男性貿易商&lt;/color&gt;の方からのご依頼ね。
+朝お腹が空くから、腹持ちのよいお菓子が食べたいそうよ。</t>
+    <rPh sb="22" eb="24">
+      <t>ダンセイ</t>
+    </rPh>
+    <rPh sb="24" eb="27">
+      <t>ボウエキショウ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>イライ</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>アサ</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>ス</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>ハラモ</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>カシ</t>
+    </rPh>
+    <rPh sb="65" eb="66">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ある貴族の方のお茶会に、&lt;color=#FF78B4&gt;クッキー&lt;/color&gt;がほしいそうよ。
+さくさく感にうるさいお客様だけど.. 報酬は高いみたい。</t>
+    <rPh sb="2" eb="4">
+      <t>キゾク</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>チャカイ</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>キャクサマ</t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t>ホウシュウ</t>
+    </rPh>
+    <rPh sb="70" eb="71">
+      <t>タカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Cranberry</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1504,10 +1580,2022 @@
   </sheetPr>
   <dimension ref="A1:AD21"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="AD17" sqref="AD17"/>
+      <selection pane="bottomLeft" activeCell="AC10" sqref="AC10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="27.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="6.28515625" customWidth="1"/>
+    <col min="2" max="2" width="7.85546875" customWidth="1"/>
+    <col min="3" max="3" width="6.7109375" customWidth="1"/>
+    <col min="4" max="4" width="8.28515625" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" customWidth="1"/>
+    <col min="6" max="6" width="22.42578125" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" customWidth="1"/>
+    <col min="8" max="10" width="4.85546875" customWidth="1"/>
+    <col min="11" max="11" width="7.85546875" customWidth="1"/>
+    <col min="12" max="17" width="5" customWidth="1"/>
+    <col min="18" max="18" width="4.85546875" customWidth="1"/>
+    <col min="19" max="19" width="4.7109375" customWidth="1"/>
+    <col min="20" max="20" width="4.28515625" customWidth="1"/>
+    <col min="21" max="23" width="4" customWidth="1"/>
+    <col min="24" max="28" width="10.28515625" customWidth="1"/>
+    <col min="29" max="29" width="21.140625" customWidth="1"/>
+    <col min="30" max="30" width="62" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:30" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="T1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="U1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="V1" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="W1" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" s="10" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="7">
+        <f t="shared" ref="A2:A21" si="0">ROW()-2</f>
+        <v>0</v>
+      </c>
+      <c r="B2" s="7">
+        <f t="shared" ref="B2:B18" si="1">(ROW()-2)*10</f>
+        <v>0</v>
+      </c>
+      <c r="C2" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2" s="7">
+        <v>0</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="7">
+        <v>0</v>
+      </c>
+      <c r="I2" s="7">
+        <v>1</v>
+      </c>
+      <c r="J2" s="7">
+        <v>1</v>
+      </c>
+      <c r="K2" s="7">
+        <v>250</v>
+      </c>
+      <c r="L2" s="7">
+        <v>0</v>
+      </c>
+      <c r="M2" s="7">
+        <v>32</v>
+      </c>
+      <c r="N2" s="7">
+        <v>0</v>
+      </c>
+      <c r="O2" s="7">
+        <v>0</v>
+      </c>
+      <c r="P2" s="7">
+        <v>60</v>
+      </c>
+      <c r="Q2" s="7">
+        <v>0</v>
+      </c>
+      <c r="R2" s="7">
+        <v>0</v>
+      </c>
+      <c r="S2" s="7">
+        <v>0</v>
+      </c>
+      <c r="T2" s="7">
+        <v>0</v>
+      </c>
+      <c r="U2" s="7">
+        <v>0</v>
+      </c>
+      <c r="V2" s="7">
+        <v>0</v>
+      </c>
+      <c r="W2" s="7">
+        <v>50</v>
+      </c>
+      <c r="X2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y2" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z2" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA2" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB2" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC2" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD2" s="11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B3" s="2">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2">
+        <v>1</v>
+      </c>
+      <c r="J3" s="2">
+        <v>1</v>
+      </c>
+      <c r="K3" s="2">
+        <v>400</v>
+      </c>
+      <c r="L3" s="2">
+        <v>0</v>
+      </c>
+      <c r="M3" s="2">
+        <v>32</v>
+      </c>
+      <c r="N3" s="2">
+        <v>0</v>
+      </c>
+      <c r="O3" s="2">
+        <v>1</v>
+      </c>
+      <c r="P3" s="2">
+        <v>60</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>0</v>
+      </c>
+      <c r="R3" s="2">
+        <v>0</v>
+      </c>
+      <c r="S3" s="2">
+        <v>0</v>
+      </c>
+      <c r="T3" s="2">
+        <v>0</v>
+      </c>
+      <c r="U3" s="2">
+        <v>0</v>
+      </c>
+      <c r="V3" s="2">
+        <v>0</v>
+      </c>
+      <c r="W3" s="2">
+        <v>50</v>
+      </c>
+      <c r="X3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC3" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="AD3" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B4" s="2">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2">
+        <v>9999</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0</v>
+      </c>
+      <c r="I4" s="2">
+        <v>1</v>
+      </c>
+      <c r="J4" s="2">
+        <v>1</v>
+      </c>
+      <c r="K4" s="2">
+        <v>180</v>
+      </c>
+      <c r="L4" s="2">
+        <v>0</v>
+      </c>
+      <c r="M4" s="2">
+        <v>0</v>
+      </c>
+      <c r="N4" s="2">
+        <v>0</v>
+      </c>
+      <c r="O4" s="2">
+        <v>0</v>
+      </c>
+      <c r="P4" s="2">
+        <v>30</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>0</v>
+      </c>
+      <c r="R4" s="2">
+        <v>0</v>
+      </c>
+      <c r="S4" s="2">
+        <v>0</v>
+      </c>
+      <c r="T4" s="2">
+        <v>0</v>
+      </c>
+      <c r="U4" s="2">
+        <v>0</v>
+      </c>
+      <c r="V4" s="2">
+        <v>0</v>
+      </c>
+      <c r="W4" s="2">
+        <v>50</v>
+      </c>
+      <c r="X4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC4" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="AD4" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B5" s="2">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0</v>
+      </c>
+      <c r="I5" s="2">
+        <v>1</v>
+      </c>
+      <c r="J5" s="2">
+        <v>7</v>
+      </c>
+      <c r="K5" s="2">
+        <v>20</v>
+      </c>
+      <c r="L5" s="2">
+        <v>0</v>
+      </c>
+      <c r="M5" s="2">
+        <v>0</v>
+      </c>
+      <c r="N5" s="2">
+        <v>0</v>
+      </c>
+      <c r="O5" s="2">
+        <v>0</v>
+      </c>
+      <c r="P5" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>0</v>
+      </c>
+      <c r="R5" s="2">
+        <v>0</v>
+      </c>
+      <c r="S5" s="2">
+        <v>0</v>
+      </c>
+      <c r="T5" s="2">
+        <v>0</v>
+      </c>
+      <c r="U5" s="2">
+        <v>0</v>
+      </c>
+      <c r="V5" s="2">
+        <v>0</v>
+      </c>
+      <c r="W5" s="2">
+        <v>50</v>
+      </c>
+      <c r="X5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC5" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD5" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B6" s="2">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0</v>
+      </c>
+      <c r="I6" s="2">
+        <v>1</v>
+      </c>
+      <c r="J6" s="2">
+        <v>7</v>
+      </c>
+      <c r="K6" s="2">
+        <v>10</v>
+      </c>
+      <c r="L6" s="2">
+        <v>0</v>
+      </c>
+      <c r="M6" s="2">
+        <v>0</v>
+      </c>
+      <c r="N6" s="2">
+        <v>0</v>
+      </c>
+      <c r="O6" s="2">
+        <v>0</v>
+      </c>
+      <c r="P6" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>0</v>
+      </c>
+      <c r="R6" s="2">
+        <v>0</v>
+      </c>
+      <c r="S6" s="2">
+        <v>0</v>
+      </c>
+      <c r="T6" s="2">
+        <v>0</v>
+      </c>
+      <c r="U6" s="2">
+        <v>0</v>
+      </c>
+      <c r="V6" s="2">
+        <v>0</v>
+      </c>
+      <c r="W6" s="2">
+        <v>50</v>
+      </c>
+      <c r="X6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC6" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="AD6" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B7" s="2">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0</v>
+      </c>
+      <c r="I7" s="2">
+        <v>1</v>
+      </c>
+      <c r="J7" s="2">
+        <v>7</v>
+      </c>
+      <c r="K7" s="2">
+        <v>30</v>
+      </c>
+      <c r="L7" s="2">
+        <v>0</v>
+      </c>
+      <c r="M7" s="2">
+        <v>0</v>
+      </c>
+      <c r="N7" s="2">
+        <v>0</v>
+      </c>
+      <c r="O7" s="2">
+        <v>0</v>
+      </c>
+      <c r="P7" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>0</v>
+      </c>
+      <c r="R7" s="2">
+        <v>0</v>
+      </c>
+      <c r="S7" s="2">
+        <v>0</v>
+      </c>
+      <c r="T7" s="2">
+        <v>0</v>
+      </c>
+      <c r="U7" s="2">
+        <v>0</v>
+      </c>
+      <c r="V7" s="2">
+        <v>0</v>
+      </c>
+      <c r="W7" s="2">
+        <v>50</v>
+      </c>
+      <c r="X7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC7" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD7" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B8" s="2">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2">
+        <v>9999</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0</v>
+      </c>
+      <c r="I8" s="2">
+        <v>1</v>
+      </c>
+      <c r="J8" s="2">
+        <v>7</v>
+      </c>
+      <c r="K8" s="2">
+        <v>40</v>
+      </c>
+      <c r="L8" s="2">
+        <v>0</v>
+      </c>
+      <c r="M8" s="2">
+        <v>0</v>
+      </c>
+      <c r="N8" s="2">
+        <v>0</v>
+      </c>
+      <c r="O8" s="2">
+        <v>0</v>
+      </c>
+      <c r="P8" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>0</v>
+      </c>
+      <c r="R8" s="2">
+        <v>0</v>
+      </c>
+      <c r="S8" s="2">
+        <v>0</v>
+      </c>
+      <c r="T8" s="2">
+        <v>0</v>
+      </c>
+      <c r="U8" s="2">
+        <v>0</v>
+      </c>
+      <c r="V8" s="2">
+        <v>0</v>
+      </c>
+      <c r="W8" s="2">
+        <v>50</v>
+      </c>
+      <c r="X8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC8" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD8" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B9" s="2">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0</v>
+      </c>
+      <c r="I9" s="2">
+        <v>1</v>
+      </c>
+      <c r="J9" s="2">
+        <v>1</v>
+      </c>
+      <c r="K9" s="2">
+        <v>300</v>
+      </c>
+      <c r="L9" s="2">
+        <v>0</v>
+      </c>
+      <c r="M9" s="2">
+        <v>0</v>
+      </c>
+      <c r="N9" s="2">
+        <v>0</v>
+      </c>
+      <c r="O9" s="2">
+        <v>0</v>
+      </c>
+      <c r="P9" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>0</v>
+      </c>
+      <c r="R9" s="2">
+        <v>0</v>
+      </c>
+      <c r="S9" s="2">
+        <v>0</v>
+      </c>
+      <c r="T9" s="2">
+        <v>0</v>
+      </c>
+      <c r="U9" s="2">
+        <v>0</v>
+      </c>
+      <c r="V9" s="2">
+        <v>0</v>
+      </c>
+      <c r="W9" s="2">
+        <v>50</v>
+      </c>
+      <c r="X9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC9" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD9" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B10" s="2">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0</v>
+      </c>
+      <c r="I10" s="2">
+        <v>1</v>
+      </c>
+      <c r="J10" s="2">
+        <v>1</v>
+      </c>
+      <c r="K10" s="2">
+        <v>300</v>
+      </c>
+      <c r="L10" s="2">
+        <v>0</v>
+      </c>
+      <c r="M10" s="2">
+        <v>0</v>
+      </c>
+      <c r="N10" s="2">
+        <v>0</v>
+      </c>
+      <c r="O10" s="2">
+        <v>0</v>
+      </c>
+      <c r="P10" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>0</v>
+      </c>
+      <c r="R10" s="2">
+        <v>0</v>
+      </c>
+      <c r="S10" s="2">
+        <v>0</v>
+      </c>
+      <c r="T10" s="2">
+        <v>0</v>
+      </c>
+      <c r="U10" s="2">
+        <v>0</v>
+      </c>
+      <c r="V10" s="2">
+        <v>0</v>
+      </c>
+      <c r="W10" s="2">
+        <v>50</v>
+      </c>
+      <c r="X10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC10" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD10" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B11" s="2">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0</v>
+      </c>
+      <c r="D11" s="2">
+        <v>10</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0</v>
+      </c>
+      <c r="I11" s="2">
+        <v>1</v>
+      </c>
+      <c r="J11" s="2">
+        <v>1</v>
+      </c>
+      <c r="K11" s="2">
+        <v>400</v>
+      </c>
+      <c r="L11" s="2">
+        <v>0</v>
+      </c>
+      <c r="M11" s="2">
+        <v>0</v>
+      </c>
+      <c r="N11" s="2">
+        <v>0</v>
+      </c>
+      <c r="O11" s="2">
+        <v>0</v>
+      </c>
+      <c r="P11" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>0</v>
+      </c>
+      <c r="R11" s="2">
+        <v>0</v>
+      </c>
+      <c r="S11" s="2">
+        <v>0</v>
+      </c>
+      <c r="T11" s="2">
+        <v>0</v>
+      </c>
+      <c r="U11" s="2">
+        <v>0</v>
+      </c>
+      <c r="V11" s="2">
+        <v>35</v>
+      </c>
+      <c r="W11" s="2">
+        <v>50</v>
+      </c>
+      <c r="X11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC11" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD11" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B12" s="2">
+        <f>(ROW()-2)*10</f>
+        <v>100</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0</v>
+      </c>
+      <c r="D12" s="2">
+        <v>10</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0</v>
+      </c>
+      <c r="I12" s="2">
+        <v>1</v>
+      </c>
+      <c r="J12" s="2">
+        <v>1</v>
+      </c>
+      <c r="K12" s="2">
+        <v>750</v>
+      </c>
+      <c r="L12" s="2">
+        <v>0</v>
+      </c>
+      <c r="M12" s="2">
+        <v>0</v>
+      </c>
+      <c r="N12" s="2">
+        <v>30</v>
+      </c>
+      <c r="O12" s="2">
+        <v>0</v>
+      </c>
+      <c r="P12" s="2">
+        <v>60</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>0</v>
+      </c>
+      <c r="R12" s="2">
+        <v>0</v>
+      </c>
+      <c r="S12" s="2">
+        <v>0</v>
+      </c>
+      <c r="T12" s="2">
+        <v>0</v>
+      </c>
+      <c r="U12" s="2">
+        <v>0</v>
+      </c>
+      <c r="V12" s="2">
+        <v>0</v>
+      </c>
+      <c r="W12" s="2">
+        <v>0</v>
+      </c>
+      <c r="X12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC12" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD12" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B13" s="2">
+        <f t="shared" si="1"/>
+        <v>110</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0</v>
+      </c>
+      <c r="D13" s="2">
+        <v>20</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H13" s="2">
+        <v>0</v>
+      </c>
+      <c r="I13" s="2">
+        <v>1</v>
+      </c>
+      <c r="J13" s="2">
+        <v>1</v>
+      </c>
+      <c r="K13" s="2">
+        <v>550</v>
+      </c>
+      <c r="L13" s="2">
+        <v>0</v>
+      </c>
+      <c r="M13" s="2">
+        <v>0</v>
+      </c>
+      <c r="N13" s="2">
+        <v>0</v>
+      </c>
+      <c r="O13" s="2">
+        <v>0</v>
+      </c>
+      <c r="P13" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>0</v>
+      </c>
+      <c r="R13" s="2">
+        <v>0</v>
+      </c>
+      <c r="S13" s="2">
+        <v>0</v>
+      </c>
+      <c r="T13" s="2">
+        <v>0</v>
+      </c>
+      <c r="U13" s="2">
+        <v>0</v>
+      </c>
+      <c r="V13" s="2">
+        <v>0</v>
+      </c>
+      <c r="W13" s="2">
+        <v>50</v>
+      </c>
+      <c r="X13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC13" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD13" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B14" s="2">
+        <f>(ROW()-2)*10</f>
+        <v>120</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0</v>
+      </c>
+      <c r="D14" s="2">
+        <v>30</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H14" s="2">
+        <v>0</v>
+      </c>
+      <c r="I14" s="2">
+        <v>1</v>
+      </c>
+      <c r="J14" s="2">
+        <v>1</v>
+      </c>
+      <c r="K14" s="2">
+        <v>1000</v>
+      </c>
+      <c r="L14" s="2">
+        <v>0</v>
+      </c>
+      <c r="M14" s="2">
+        <v>88</v>
+      </c>
+      <c r="N14" s="2">
+        <v>0</v>
+      </c>
+      <c r="O14" s="2">
+        <v>1</v>
+      </c>
+      <c r="P14" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>85</v>
+      </c>
+      <c r="R14" s="2">
+        <v>0</v>
+      </c>
+      <c r="S14" s="2">
+        <v>0</v>
+      </c>
+      <c r="T14" s="2">
+        <v>0</v>
+      </c>
+      <c r="U14" s="2">
+        <v>0</v>
+      </c>
+      <c r="V14" s="2">
+        <v>0</v>
+      </c>
+      <c r="W14" s="2">
+        <v>70</v>
+      </c>
+      <c r="X14" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y14" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z14" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA14" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="AB14" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="AC14" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="AD14" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B15" s="2">
+        <f>(ROW()-2)*10</f>
+        <v>130</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0</v>
+      </c>
+      <c r="D15" s="2">
+        <v>30</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="H15" s="2">
+        <v>0</v>
+      </c>
+      <c r="I15" s="2">
+        <v>1</v>
+      </c>
+      <c r="J15" s="2">
+        <v>1</v>
+      </c>
+      <c r="K15" s="2">
+        <v>700</v>
+      </c>
+      <c r="L15" s="2">
+        <v>0</v>
+      </c>
+      <c r="M15" s="2">
+        <v>15</v>
+      </c>
+      <c r="N15" s="2">
+        <v>0</v>
+      </c>
+      <c r="O15" s="2">
+        <v>1</v>
+      </c>
+      <c r="P15" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>0</v>
+      </c>
+      <c r="R15" s="2">
+        <v>0</v>
+      </c>
+      <c r="S15" s="2">
+        <v>40</v>
+      </c>
+      <c r="T15" s="2">
+        <v>0</v>
+      </c>
+      <c r="U15" s="2">
+        <v>0</v>
+      </c>
+      <c r="V15" s="2">
+        <v>0</v>
+      </c>
+      <c r="W15" s="2">
+        <v>50</v>
+      </c>
+      <c r="X15" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y15" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z15" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA15" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB15" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC15" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="AD15" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B16" s="2">
+        <f>(ROW()-2)*10</f>
+        <v>140</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0</v>
+      </c>
+      <c r="D16" s="2">
+        <v>30</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H16" s="2">
+        <v>0</v>
+      </c>
+      <c r="I16" s="2">
+        <v>1</v>
+      </c>
+      <c r="J16" s="2">
+        <v>1</v>
+      </c>
+      <c r="K16" s="2">
+        <v>550</v>
+      </c>
+      <c r="L16" s="2">
+        <v>0</v>
+      </c>
+      <c r="M16" s="2">
+        <v>32</v>
+      </c>
+      <c r="N16" s="2">
+        <v>0</v>
+      </c>
+      <c r="O16" s="2">
+        <v>1</v>
+      </c>
+      <c r="P16" s="2">
+        <v>60</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>0</v>
+      </c>
+      <c r="R16" s="2">
+        <v>0</v>
+      </c>
+      <c r="S16" s="2">
+        <v>0</v>
+      </c>
+      <c r="T16" s="2">
+        <v>0</v>
+      </c>
+      <c r="U16" s="2">
+        <v>0</v>
+      </c>
+      <c r="V16" s="2">
+        <v>0</v>
+      </c>
+      <c r="W16" s="2">
+        <v>50</v>
+      </c>
+      <c r="X16" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y16" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z16" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA16" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB16" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC16" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD16" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="2">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B17" s="2">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
+      <c r="C17" s="2">
+        <v>1</v>
+      </c>
+      <c r="D17" s="2">
+        <v>9999</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H17" s="2">
+        <v>0</v>
+      </c>
+      <c r="I17" s="2">
+        <v>1</v>
+      </c>
+      <c r="J17" s="2">
+        <v>7</v>
+      </c>
+      <c r="K17" s="2">
+        <v>15</v>
+      </c>
+      <c r="L17" s="2">
+        <v>0</v>
+      </c>
+      <c r="M17" s="2">
+        <v>0</v>
+      </c>
+      <c r="N17" s="2">
+        <v>0</v>
+      </c>
+      <c r="O17" s="2">
+        <v>0</v>
+      </c>
+      <c r="P17" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="2">
+        <v>0</v>
+      </c>
+      <c r="R17" s="2">
+        <v>0</v>
+      </c>
+      <c r="S17" s="2">
+        <v>0</v>
+      </c>
+      <c r="T17" s="2">
+        <v>0</v>
+      </c>
+      <c r="U17" s="2">
+        <v>0</v>
+      </c>
+      <c r="V17" s="2">
+        <v>0</v>
+      </c>
+      <c r="W17" s="2">
+        <v>50</v>
+      </c>
+      <c r="X17" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y17" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z17" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA17" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB17" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC17" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD17" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="2">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B18" s="2">
+        <f t="shared" si="1"/>
+        <v>160</v>
+      </c>
+      <c r="C18" s="2">
+        <v>1</v>
+      </c>
+      <c r="D18" s="2">
+        <v>40</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H18" s="2">
+        <v>0</v>
+      </c>
+      <c r="I18" s="2">
+        <v>1</v>
+      </c>
+      <c r="J18" s="2">
+        <v>2</v>
+      </c>
+      <c r="K18" s="2">
+        <v>330</v>
+      </c>
+      <c r="L18" s="2">
+        <v>0</v>
+      </c>
+      <c r="M18" s="2">
+        <v>0</v>
+      </c>
+      <c r="N18" s="2">
+        <v>0</v>
+      </c>
+      <c r="O18" s="2">
+        <v>0</v>
+      </c>
+      <c r="P18" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="2">
+        <v>0</v>
+      </c>
+      <c r="R18" s="2">
+        <v>0</v>
+      </c>
+      <c r="S18" s="2">
+        <v>0</v>
+      </c>
+      <c r="T18" s="2">
+        <v>0</v>
+      </c>
+      <c r="U18" s="2">
+        <v>0</v>
+      </c>
+      <c r="V18" s="2">
+        <v>0</v>
+      </c>
+      <c r="W18" s="2">
+        <v>50</v>
+      </c>
+      <c r="X18" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y18" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z18" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA18" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB18" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC18" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD18" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30" s="10" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="7">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B19" s="7">
+        <v>1000</v>
+      </c>
+      <c r="C19" s="7">
+        <v>0</v>
+      </c>
+      <c r="D19" s="7">
+        <v>0</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H19" s="7">
+        <v>0</v>
+      </c>
+      <c r="I19" s="7">
+        <v>1</v>
+      </c>
+      <c r="J19" s="7">
+        <v>1</v>
+      </c>
+      <c r="K19" s="7">
+        <v>350</v>
+      </c>
+      <c r="L19" s="7">
+        <v>0</v>
+      </c>
+      <c r="M19" s="7">
+        <v>32</v>
+      </c>
+      <c r="N19" s="7">
+        <v>0</v>
+      </c>
+      <c r="O19" s="7">
+        <v>0</v>
+      </c>
+      <c r="P19" s="7">
+        <v>90</v>
+      </c>
+      <c r="Q19" s="7">
+        <v>0</v>
+      </c>
+      <c r="R19" s="7">
+        <v>0</v>
+      </c>
+      <c r="S19" s="7">
+        <v>0</v>
+      </c>
+      <c r="T19" s="7">
+        <v>0</v>
+      </c>
+      <c r="U19" s="7">
+        <v>0</v>
+      </c>
+      <c r="V19" s="7">
+        <v>0</v>
+      </c>
+      <c r="W19" s="7">
+        <v>50</v>
+      </c>
+      <c r="X19" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y19" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z19" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA19" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB19" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC19" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD19" s="11" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="2">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B20" s="2">
+        <f>INDEX(B:B,MATCH(1000,B:B,0),1)+((ROW()-MATCH(1000,B:B,0))*10)</f>
+        <v>1010</v>
+      </c>
+      <c r="C20" s="2">
+        <v>0</v>
+      </c>
+      <c r="D20" s="2">
+        <v>0</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H20" s="2">
+        <v>0</v>
+      </c>
+      <c r="I20" s="2">
+        <v>1</v>
+      </c>
+      <c r="J20" s="2">
+        <v>1</v>
+      </c>
+      <c r="K20" s="2">
+        <v>600</v>
+      </c>
+      <c r="L20" s="2">
+        <v>0</v>
+      </c>
+      <c r="M20" s="2">
+        <v>54</v>
+      </c>
+      <c r="N20" s="2">
+        <v>0</v>
+      </c>
+      <c r="O20" s="2">
+        <v>1</v>
+      </c>
+      <c r="P20" s="2">
+        <v>70</v>
+      </c>
+      <c r="Q20" s="2">
+        <v>0</v>
+      </c>
+      <c r="R20" s="2">
+        <v>0</v>
+      </c>
+      <c r="S20" s="2">
+        <v>0</v>
+      </c>
+      <c r="T20" s="2">
+        <v>0</v>
+      </c>
+      <c r="U20" s="2">
+        <v>0</v>
+      </c>
+      <c r="V20" s="2">
+        <v>0</v>
+      </c>
+      <c r="W20" s="2">
+        <v>50</v>
+      </c>
+      <c r="X20" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y20" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z20" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA20" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB20" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC20" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD20" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="2">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B21" s="2">
+        <f>INDEX(B:B,MATCH(1000,B:B,0),1)+((ROW()-MATCH(1000,B:B,0))*10)</f>
+        <v>1020</v>
+      </c>
+      <c r="C21" s="2">
+        <v>0</v>
+      </c>
+      <c r="D21" s="2">
+        <v>10</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H21" s="2">
+        <v>0</v>
+      </c>
+      <c r="I21" s="2">
+        <v>1</v>
+      </c>
+      <c r="J21" s="2">
+        <v>1</v>
+      </c>
+      <c r="K21" s="2">
+        <v>300</v>
+      </c>
+      <c r="L21" s="2">
+        <v>0</v>
+      </c>
+      <c r="M21" s="2">
+        <v>54</v>
+      </c>
+      <c r="N21" s="2">
+        <v>0</v>
+      </c>
+      <c r="O21" s="2">
+        <v>0</v>
+      </c>
+      <c r="P21" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q21" s="2">
+        <v>0</v>
+      </c>
+      <c r="R21" s="2">
+        <v>0</v>
+      </c>
+      <c r="S21" s="2">
+        <v>0</v>
+      </c>
+      <c r="T21" s="2">
+        <v>0</v>
+      </c>
+      <c r="U21" s="2">
+        <v>0</v>
+      </c>
+      <c r="V21" s="2">
+        <v>0</v>
+      </c>
+      <c r="W21" s="2">
+        <v>50</v>
+      </c>
+      <c r="X21" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y21" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z21" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA21" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB21" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC21" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="AD21" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F7DA455-53D4-410E-9CBB-32B5DAA163AC}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:AD13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="27.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1518,9 +3606,7 @@
     <col min="5" max="5" width="10.140625" customWidth="1"/>
     <col min="6" max="6" width="22.42578125" customWidth="1"/>
     <col min="7" max="7" width="13.85546875" customWidth="1"/>
-    <col min="8" max="8" width="8" customWidth="1"/>
-    <col min="9" max="9" width="8.42578125" customWidth="1"/>
-    <col min="10" max="10" width="8.7109375" customWidth="1"/>
+    <col min="8" max="10" width="4.7109375" customWidth="1"/>
     <col min="11" max="11" width="7.85546875" customWidth="1"/>
     <col min="12" max="17" width="5" customWidth="1"/>
     <col min="18" max="18" width="4.85546875" customWidth="1"/>
@@ -1600,7 +3686,7 @@
         <v>73</v>
       </c>
       <c r="W1" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="X1" s="1" t="s">
         <v>8</v>
@@ -1626,21 +3712,21 @@
     </row>
     <row r="2" spans="1:30" s="10" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7">
-        <f t="shared" ref="A2:A21" si="0">ROW()-2</f>
+        <f t="shared" ref="A2:A13" si="0">ROW()-2</f>
         <v>0</v>
       </c>
       <c r="B2" s="7">
-        <f t="shared" ref="B2:B18" si="1">(ROW()-2)*10</f>
-        <v>0</v>
+        <f t="shared" ref="B2:B9" si="1">(ROW()-2)*10+2000</f>
+        <v>2000</v>
       </c>
       <c r="C2" s="7">
         <v>0</v>
       </c>
       <c r="D2" s="7">
-        <v>0</v>
+        <v>9999</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="F2" s="7" t="s">
         <v>7</v>
@@ -1700,16 +3786,16 @@
         <v>7</v>
       </c>
       <c r="Y2" s="8" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="Z2" s="8" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="AA2" s="8" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="AB2" s="8" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="AC2" s="9" t="s">
         <v>33</v>
@@ -1725,19 +3811,19 @@
       </c>
       <c r="B3" s="2">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>2010</v>
       </c>
       <c r="C3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>19</v>
+        <v>119</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>19</v>
+        <v>119</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>7</v>
@@ -1749,10 +3835,10 @@
         <v>1</v>
       </c>
       <c r="J3" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K3" s="2">
-        <v>400</v>
+        <v>150</v>
       </c>
       <c r="L3" s="2">
         <v>0</v>
@@ -1806,10 +3892,10 @@
         <v>7</v>
       </c>
       <c r="AC3" s="5" t="s">
-        <v>83</v>
+        <v>120</v>
       </c>
       <c r="AD3" s="4" t="s">
-        <v>62</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:30" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1819,22 +3905,22 @@
       </c>
       <c r="B4" s="2">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>2020</v>
       </c>
       <c r="C4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" s="2">
-        <v>9999</v>
+        <v>2</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>86</v>
+        <v>131</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>7</v>
+        <v>130</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>87</v>
+        <v>7</v>
       </c>
       <c r="H4" s="2">
         <v>0</v>
@@ -1846,7 +3932,7 @@
         <v>1</v>
       </c>
       <c r="K4" s="2">
-        <v>180</v>
+        <v>450</v>
       </c>
       <c r="L4" s="2">
         <v>0</v>
@@ -1861,7 +3947,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="2">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="Q4" s="2">
         <v>0</v>
@@ -1900,10 +3986,10 @@
         <v>7</v>
       </c>
       <c r="AC4" s="5" t="s">
-        <v>88</v>
+        <v>132</v>
       </c>
       <c r="AD4" s="4" t="s">
-        <v>89</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:30" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1913,19 +3999,19 @@
       </c>
       <c r="B5" s="2">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>2030</v>
       </c>
       <c r="C5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>37</v>
+        <v>127</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>37</v>
+        <v>126</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>7</v>
@@ -1937,16 +4023,16 @@
         <v>1</v>
       </c>
       <c r="J5" s="2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="K5" s="2">
-        <v>20</v>
+        <v>800</v>
       </c>
       <c r="L5" s="2">
         <v>0</v>
       </c>
       <c r="M5" s="2">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="N5" s="2">
         <v>0</v>
@@ -1958,7 +4044,7 @@
         <v>0</v>
       </c>
       <c r="Q5" s="2">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="R5" s="2">
         <v>0</v>
@@ -1994,10 +4080,10 @@
         <v>7</v>
       </c>
       <c r="AC5" s="5" t="s">
-        <v>36</v>
+        <v>128</v>
       </c>
       <c r="AD5" s="4" t="s">
-        <v>38</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:30" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2007,22 +4093,22 @@
       </c>
       <c r="B6" s="2">
         <f t="shared" si="1"/>
-        <v>40</v>
+        <v>2040</v>
       </c>
       <c r="C6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>91</v>
+        <v>7</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>7</v>
+        <v>111</v>
       </c>
       <c r="H6" s="2">
         <v>0</v>
@@ -2031,16 +4117,16 @@
         <v>1</v>
       </c>
       <c r="J6" s="2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="K6" s="2">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="L6" s="2">
         <v>0</v>
       </c>
       <c r="M6" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="N6" s="2">
         <v>0</v>
@@ -2049,7 +4135,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="2">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="2">
         <v>0</v>
@@ -2088,10 +4174,10 @@
         <v>7</v>
       </c>
       <c r="AC6" s="5" t="s">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="AD6" s="4" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7" spans="1:30" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2101,19 +4187,19 @@
       </c>
       <c r="B7" s="2">
         <f t="shared" si="1"/>
-        <v>50</v>
+        <v>2050</v>
       </c>
       <c r="C7" s="2">
         <v>1</v>
       </c>
       <c r="D7" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>39</v>
+        <v>122</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>39</v>
+        <v>122</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>7</v>
@@ -2125,25 +4211,25 @@
         <v>1</v>
       </c>
       <c r="J7" s="2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="K7" s="2">
+        <v>5000</v>
+      </c>
+      <c r="L7" s="2">
+        <v>0</v>
+      </c>
+      <c r="M7" s="2">
+        <v>20</v>
+      </c>
+      <c r="N7" s="2">
+        <v>0</v>
+      </c>
+      <c r="O7" s="2">
+        <v>0</v>
+      </c>
+      <c r="P7" s="2">
         <v>30</v>
-      </c>
-      <c r="L7" s="2">
-        <v>0</v>
-      </c>
-      <c r="M7" s="2">
-        <v>0</v>
-      </c>
-      <c r="N7" s="2">
-        <v>0</v>
-      </c>
-      <c r="O7" s="2">
-        <v>0</v>
-      </c>
-      <c r="P7" s="2">
-        <v>0</v>
       </c>
       <c r="Q7" s="2">
         <v>0</v>
@@ -2182,10 +4268,10 @@
         <v>7</v>
       </c>
       <c r="AC7" s="5" t="s">
-        <v>40</v>
+        <v>123</v>
       </c>
       <c r="AD7" s="4" t="s">
-        <v>41</v>
+        <v>124</v>
       </c>
     </row>
     <row r="8" spans="1:30" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2195,22 +4281,22 @@
       </c>
       <c r="B8" s="2">
         <f t="shared" si="1"/>
-        <v>60</v>
+        <v>2060</v>
       </c>
       <c r="C8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" s="2">
-        <v>9999</v>
+        <v>6</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>42</v>
+        <v>110</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>7</v>
+        <v>109</v>
       </c>
       <c r="H8" s="2">
         <v>0</v>
@@ -2219,16 +4305,16 @@
         <v>1</v>
       </c>
       <c r="J8" s="2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="K8" s="2">
-        <v>40</v>
+        <v>1200</v>
       </c>
       <c r="L8" s="2">
         <v>0</v>
       </c>
       <c r="M8" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="N8" s="2">
         <v>0</v>
@@ -2237,7 +4323,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="2">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="Q8" s="2">
         <v>0</v>
@@ -2276,10 +4362,10 @@
         <v>7</v>
       </c>
       <c r="AC8" s="5" t="s">
-        <v>43</v>
+        <v>107</v>
       </c>
       <c r="AD8" s="4" t="s">
-        <v>44</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9" spans="1:30" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2289,22 +4375,22 @@
       </c>
       <c r="B9" s="2">
         <f t="shared" si="1"/>
-        <v>70</v>
+        <v>2070</v>
       </c>
       <c r="C9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>45</v>
+        <v>116</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>45</v>
+        <v>7</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>7</v>
+        <v>115</v>
       </c>
       <c r="H9" s="2">
         <v>0</v>
@@ -2316,13 +4402,13 @@
         <v>1</v>
       </c>
       <c r="K9" s="2">
-        <v>300</v>
+        <v>1500</v>
       </c>
       <c r="L9" s="2">
         <v>0</v>
       </c>
       <c r="M9" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="N9" s="2">
         <v>0</v>
@@ -2331,7 +4417,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="2">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="2">
         <v>0</v>
@@ -2370,10 +4456,10 @@
         <v>7</v>
       </c>
       <c r="AC9" s="5" t="s">
-        <v>46</v>
+        <v>118</v>
       </c>
       <c r="AD9" s="4" t="s">
-        <v>47</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10" spans="1:30" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2382,23 +4468,23 @@
         <v>8</v>
       </c>
       <c r="B10" s="2">
-        <f t="shared" si="1"/>
-        <v>80</v>
+        <f t="shared" ref="B10" si="2">(ROW()-2)*10+2000</f>
+        <v>2080</v>
       </c>
       <c r="C10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" s="2">
-        <v>0</v>
+        <v>9999</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>48</v>
+        <v>86</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>7</v>
+        <v>87</v>
       </c>
       <c r="H10" s="2">
         <v>0</v>
@@ -2410,7 +4496,7 @@
         <v>1</v>
       </c>
       <c r="K10" s="2">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="L10" s="2">
         <v>0</v>
@@ -2425,7 +4511,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="2">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="Q10" s="2">
         <v>0</v>
@@ -2464,104 +4550,103 @@
         <v>7</v>
       </c>
       <c r="AC10" s="5" t="s">
-        <v>49</v>
+        <v>88</v>
       </c>
       <c r="AD10" s="4" t="s">
-        <v>50</v>
+        <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:30" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="2">
+    <row r="11" spans="1:30" s="10" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="7">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B11" s="2">
-        <f t="shared" si="1"/>
-        <v>90</v>
-      </c>
-      <c r="C11" s="2">
-        <v>0</v>
-      </c>
-      <c r="D11" s="2">
-        <v>10</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="H11" s="2">
-        <v>0</v>
-      </c>
-      <c r="I11" s="2">
-        <v>1</v>
-      </c>
-      <c r="J11" s="2">
-        <v>1</v>
-      </c>
-      <c r="K11" s="2">
-        <v>400</v>
-      </c>
-      <c r="L11" s="2">
-        <v>0</v>
-      </c>
-      <c r="M11" s="2">
-        <v>0</v>
-      </c>
-      <c r="N11" s="2">
-        <v>0</v>
-      </c>
-      <c r="O11" s="2">
-        <v>0</v>
-      </c>
-      <c r="P11" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="2">
-        <v>0</v>
-      </c>
-      <c r="R11" s="2">
-        <v>0</v>
-      </c>
-      <c r="S11" s="2">
-        <v>0</v>
-      </c>
-      <c r="T11" s="2">
-        <v>0</v>
-      </c>
-      <c r="U11" s="2">
-        <v>0</v>
-      </c>
-      <c r="V11" s="2">
-        <v>35</v>
-      </c>
-      <c r="W11" s="2">
+      <c r="B11" s="7">
+        <v>3000</v>
+      </c>
+      <c r="C11" s="7">
+        <v>0</v>
+      </c>
+      <c r="D11" s="7">
+        <v>9999</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" s="7">
+        <v>0</v>
+      </c>
+      <c r="I11" s="7">
+        <v>1</v>
+      </c>
+      <c r="J11" s="7">
+        <v>1</v>
+      </c>
+      <c r="K11" s="7">
+        <v>300</v>
+      </c>
+      <c r="L11" s="7">
+        <v>0</v>
+      </c>
+      <c r="M11" s="7">
+        <v>20</v>
+      </c>
+      <c r="N11" s="7">
+        <v>0</v>
+      </c>
+      <c r="O11" s="7">
+        <v>0</v>
+      </c>
+      <c r="P11" s="7">
         <v>50</v>
       </c>
-      <c r="X11" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y11" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z11" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA11" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="AB11" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="AC11" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="AD11" s="4" t="s">
-        <v>71</v>
+      <c r="Q11" s="7">
+        <v>0</v>
+      </c>
+      <c r="R11" s="7">
+        <v>0</v>
+      </c>
+      <c r="S11" s="7">
+        <v>0</v>
+      </c>
+      <c r="T11" s="7">
+        <v>0</v>
+      </c>
+      <c r="U11" s="7">
+        <v>0</v>
+      </c>
+      <c r="V11" s="7">
+        <v>0</v>
+      </c>
+      <c r="W11" s="7">
+        <v>50</v>
+      </c>
+      <c r="X11" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="Y11" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z11" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA11" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB11" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC11" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD11" s="11" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:30" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2570,23 +4655,23 @@
         <v>10</v>
       </c>
       <c r="B12" s="2">
-        <f>(ROW()-2)*10</f>
-        <v>100</v>
+        <f>INDEX(B:B,MATCH(3000,B:B,0),1)+((ROW()-MATCH(3000,B:B,0))*10)</f>
+        <v>3010</v>
       </c>
       <c r="C12" s="2">
         <v>0</v>
       </c>
       <c r="D12" s="2">
-        <v>10</v>
+        <v>9999</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>58</v>
+        <v>7</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="H12" s="2">
         <v>0</v>
@@ -2598,22 +4683,22 @@
         <v>1</v>
       </c>
       <c r="K12" s="2">
-        <v>750</v>
+        <v>400</v>
       </c>
       <c r="L12" s="2">
         <v>0</v>
       </c>
       <c r="M12" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="N12" s="2">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="O12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P12" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="Q12" s="2">
         <v>0</v>
@@ -2634,16 +4719,16 @@
         <v>0</v>
       </c>
       <c r="W12" s="2">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="X12" s="3" t="s">
-        <v>7</v>
+        <v>65</v>
       </c>
       <c r="Y12" s="3" t="s">
-        <v>7</v>
+        <v>67</v>
       </c>
       <c r="Z12" s="3" t="s">
-        <v>7</v>
+        <v>69</v>
       </c>
       <c r="AA12" s="3" t="s">
         <v>7</v>
@@ -2652,10 +4737,10 @@
         <v>7</v>
       </c>
       <c r="AC12" s="5" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="AD12" s="4" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:30" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2664,23 +4749,23 @@
         <v>11</v>
       </c>
       <c r="B13" s="2">
-        <f t="shared" si="1"/>
-        <v>110</v>
+        <f>INDEX(B:B,MATCH(3000,B:B,0),1)+((ROW()-MATCH(3000,B:B,0))*10)</f>
+        <v>3020</v>
       </c>
       <c r="C13" s="2">
         <v>0</v>
       </c>
       <c r="D13" s="2">
+        <v>9999</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="F13" s="2" t="s">
-        <v>63</v>
+        <v>7</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="H13" s="2">
         <v>0</v>
@@ -2692,13 +4777,13 @@
         <v>1</v>
       </c>
       <c r="K13" s="2">
-        <v>550</v>
+        <v>300</v>
       </c>
       <c r="L13" s="2">
         <v>0</v>
       </c>
       <c r="M13" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="N13" s="2">
         <v>0</v>
@@ -2707,7 +4792,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="2">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="Q13" s="2">
         <v>0</v>
@@ -2746,1927 +4831,9 @@
         <v>7</v>
       </c>
       <c r="AC13" s="5" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AD13" s="4" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="14" spans="1:30" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="2">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="B14" s="2">
-        <f>(ROW()-2)*10</f>
-        <v>120</v>
-      </c>
-      <c r="C14" s="2">
-        <v>0</v>
-      </c>
-      <c r="D14" s="2">
-        <v>30</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="H14" s="2">
-        <v>0</v>
-      </c>
-      <c r="I14" s="2">
-        <v>1</v>
-      </c>
-      <c r="J14" s="2">
-        <v>1</v>
-      </c>
-      <c r="K14" s="2">
-        <v>1000</v>
-      </c>
-      <c r="L14" s="2">
-        <v>0</v>
-      </c>
-      <c r="M14" s="2">
-        <v>40</v>
-      </c>
-      <c r="N14" s="2">
-        <v>0</v>
-      </c>
-      <c r="O14" s="2">
-        <v>1</v>
-      </c>
-      <c r="P14" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="2">
-        <v>50</v>
-      </c>
-      <c r="R14" s="2">
-        <v>0</v>
-      </c>
-      <c r="S14" s="2">
-        <v>0</v>
-      </c>
-      <c r="T14" s="2">
-        <v>0</v>
-      </c>
-      <c r="U14" s="2">
-        <v>0</v>
-      </c>
-      <c r="V14" s="2">
-        <v>0</v>
-      </c>
-      <c r="W14" s="2">
-        <v>50</v>
-      </c>
-      <c r="X14" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="Y14" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="Z14" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="AA14" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="AB14" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="AC14" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="AD14" s="4" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="2">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="B15" s="2">
-        <f>(ROW()-2)*10</f>
-        <v>130</v>
-      </c>
-      <c r="C15" s="2">
-        <v>0</v>
-      </c>
-      <c r="D15" s="2">
-        <v>30</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="H15" s="2">
-        <v>0</v>
-      </c>
-      <c r="I15" s="2">
-        <v>1</v>
-      </c>
-      <c r="J15" s="2">
-        <v>1</v>
-      </c>
-      <c r="K15" s="2">
-        <v>700</v>
-      </c>
-      <c r="L15" s="2">
-        <v>0</v>
-      </c>
-      <c r="M15" s="2">
-        <v>20</v>
-      </c>
-      <c r="N15" s="2">
-        <v>0</v>
-      </c>
-      <c r="O15" s="2">
-        <v>1</v>
-      </c>
-      <c r="P15" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="2">
-        <v>0</v>
-      </c>
-      <c r="R15" s="2">
-        <v>0</v>
-      </c>
-      <c r="S15" s="2">
-        <v>30</v>
-      </c>
-      <c r="T15" s="2">
-        <v>0</v>
-      </c>
-      <c r="U15" s="2">
-        <v>0</v>
-      </c>
-      <c r="V15" s="2">
-        <v>0</v>
-      </c>
-      <c r="W15" s="2">
-        <v>50</v>
-      </c>
-      <c r="X15" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y15" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z15" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA15" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="AB15" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="AC15" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="AD15" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="16" spans="1:30" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="2">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="B16" s="2">
-        <f>(ROW()-2)*10</f>
-        <v>140</v>
-      </c>
-      <c r="C16" s="2">
-        <v>0</v>
-      </c>
-      <c r="D16" s="2">
-        <v>30</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H16" s="2">
-        <v>0</v>
-      </c>
-      <c r="I16" s="2">
-        <v>1</v>
-      </c>
-      <c r="J16" s="2">
-        <v>1</v>
-      </c>
-      <c r="K16" s="2">
-        <v>550</v>
-      </c>
-      <c r="L16" s="2">
-        <v>0</v>
-      </c>
-      <c r="M16" s="2">
-        <v>20</v>
-      </c>
-      <c r="N16" s="2">
-        <v>0</v>
-      </c>
-      <c r="O16" s="2">
-        <v>1</v>
-      </c>
-      <c r="P16" s="2">
-        <v>30</v>
-      </c>
-      <c r="Q16" s="2">
-        <v>0</v>
-      </c>
-      <c r="R16" s="2">
-        <v>0</v>
-      </c>
-      <c r="S16" s="2">
-        <v>0</v>
-      </c>
-      <c r="T16" s="2">
-        <v>0</v>
-      </c>
-      <c r="U16" s="2">
-        <v>0</v>
-      </c>
-      <c r="V16" s="2">
-        <v>0</v>
-      </c>
-      <c r="W16" s="2">
-        <v>50</v>
-      </c>
-      <c r="X16" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y16" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z16" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA16" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="AB16" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="AC16" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="AD16" s="4" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="17" spans="1:30" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="2">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="B17" s="2">
-        <f t="shared" si="1"/>
-        <v>150</v>
-      </c>
-      <c r="C17" s="2">
-        <v>1</v>
-      </c>
-      <c r="D17" s="2">
-        <v>9999</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H17" s="2">
-        <v>0</v>
-      </c>
-      <c r="I17" s="2">
-        <v>1</v>
-      </c>
-      <c r="J17" s="2">
-        <v>7</v>
-      </c>
-      <c r="K17" s="2">
-        <v>15</v>
-      </c>
-      <c r="L17" s="2">
-        <v>0</v>
-      </c>
-      <c r="M17" s="2">
-        <v>0</v>
-      </c>
-      <c r="N17" s="2">
-        <v>0</v>
-      </c>
-      <c r="O17" s="2">
-        <v>0</v>
-      </c>
-      <c r="P17" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="2">
-        <v>0</v>
-      </c>
-      <c r="R17" s="2">
-        <v>0</v>
-      </c>
-      <c r="S17" s="2">
-        <v>0</v>
-      </c>
-      <c r="T17" s="2">
-        <v>0</v>
-      </c>
-      <c r="U17" s="2">
-        <v>0</v>
-      </c>
-      <c r="V17" s="2">
-        <v>0</v>
-      </c>
-      <c r="W17" s="2">
-        <v>50</v>
-      </c>
-      <c r="X17" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y17" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z17" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA17" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="AB17" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="AC17" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="AD17" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="18" spans="1:30" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="2">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="B18" s="2">
-        <f t="shared" si="1"/>
-        <v>160</v>
-      </c>
-      <c r="C18" s="2">
-        <v>1</v>
-      </c>
-      <c r="D18" s="2">
-        <v>40</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H18" s="2">
-        <v>0</v>
-      </c>
-      <c r="I18" s="2">
-        <v>1</v>
-      </c>
-      <c r="J18" s="2">
-        <v>2</v>
-      </c>
-      <c r="K18" s="2">
-        <v>330</v>
-      </c>
-      <c r="L18" s="2">
-        <v>0</v>
-      </c>
-      <c r="M18" s="2">
-        <v>0</v>
-      </c>
-      <c r="N18" s="2">
-        <v>0</v>
-      </c>
-      <c r="O18" s="2">
-        <v>0</v>
-      </c>
-      <c r="P18" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="2">
-        <v>0</v>
-      </c>
-      <c r="R18" s="2">
-        <v>0</v>
-      </c>
-      <c r="S18" s="2">
-        <v>0</v>
-      </c>
-      <c r="T18" s="2">
-        <v>0</v>
-      </c>
-      <c r="U18" s="2">
-        <v>0</v>
-      </c>
-      <c r="V18" s="2">
-        <v>0</v>
-      </c>
-      <c r="W18" s="2">
-        <v>50</v>
-      </c>
-      <c r="X18" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y18" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z18" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA18" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="AB18" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="AC18" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="AD18" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="19" spans="1:30" s="10" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="7">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="B19" s="7">
-        <v>1000</v>
-      </c>
-      <c r="C19" s="7">
-        <v>0</v>
-      </c>
-      <c r="D19" s="7">
-        <v>0</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H19" s="7">
-        <v>0</v>
-      </c>
-      <c r="I19" s="7">
-        <v>1</v>
-      </c>
-      <c r="J19" s="7">
-        <v>1</v>
-      </c>
-      <c r="K19" s="7">
-        <v>300</v>
-      </c>
-      <c r="L19" s="7">
-        <v>0</v>
-      </c>
-      <c r="M19" s="7">
-        <v>20</v>
-      </c>
-      <c r="N19" s="7">
-        <v>0</v>
-      </c>
-      <c r="O19" s="7">
-        <v>0</v>
-      </c>
-      <c r="P19" s="7">
-        <v>50</v>
-      </c>
-      <c r="Q19" s="7">
-        <v>0</v>
-      </c>
-      <c r="R19" s="7">
-        <v>0</v>
-      </c>
-      <c r="S19" s="7">
-        <v>0</v>
-      </c>
-      <c r="T19" s="7">
-        <v>0</v>
-      </c>
-      <c r="U19" s="7">
-        <v>0</v>
-      </c>
-      <c r="V19" s="7">
-        <v>0</v>
-      </c>
-      <c r="W19" s="7">
-        <v>50</v>
-      </c>
-      <c r="X19" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y19" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z19" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA19" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="AB19" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="AC19" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="AD19" s="11" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="20" spans="1:30" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="2">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="B20" s="2">
-        <f>INDEX(B:B,MATCH(1000,B:B,0),1)+((ROW()-MATCH(1000,B:B,0))*10)</f>
-        <v>1010</v>
-      </c>
-      <c r="C20" s="2">
-        <v>0</v>
-      </c>
-      <c r="D20" s="2">
-        <v>0</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H20" s="2">
-        <v>0</v>
-      </c>
-      <c r="I20" s="2">
-        <v>1</v>
-      </c>
-      <c r="J20" s="2">
-        <v>1</v>
-      </c>
-      <c r="K20" s="2">
-        <v>400</v>
-      </c>
-      <c r="L20" s="2">
-        <v>0</v>
-      </c>
-      <c r="M20" s="2">
-        <v>20</v>
-      </c>
-      <c r="N20" s="2">
-        <v>0</v>
-      </c>
-      <c r="O20" s="2">
-        <v>1</v>
-      </c>
-      <c r="P20" s="2">
-        <v>50</v>
-      </c>
-      <c r="Q20" s="2">
-        <v>0</v>
-      </c>
-      <c r="R20" s="2">
-        <v>0</v>
-      </c>
-      <c r="S20" s="2">
-        <v>0</v>
-      </c>
-      <c r="T20" s="2">
-        <v>0</v>
-      </c>
-      <c r="U20" s="2">
-        <v>0</v>
-      </c>
-      <c r="V20" s="2">
-        <v>0</v>
-      </c>
-      <c r="W20" s="2">
-        <v>50</v>
-      </c>
-      <c r="X20" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y20" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="Z20" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="AA20" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="AB20" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="AC20" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="AD20" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="21" spans="1:30" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="2">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="B21" s="2">
-        <f>INDEX(B:B,MATCH(1000,B:B,0),1)+((ROW()-MATCH(1000,B:B,0))*10)</f>
-        <v>1020</v>
-      </c>
-      <c r="C21" s="2">
-        <v>0</v>
-      </c>
-      <c r="D21" s="2">
-        <v>10</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H21" s="2">
-        <v>0</v>
-      </c>
-      <c r="I21" s="2">
-        <v>1</v>
-      </c>
-      <c r="J21" s="2">
-        <v>1</v>
-      </c>
-      <c r="K21" s="2">
-        <v>300</v>
-      </c>
-      <c r="L21" s="2">
-        <v>0</v>
-      </c>
-      <c r="M21" s="2">
-        <v>20</v>
-      </c>
-      <c r="N21" s="2">
-        <v>0</v>
-      </c>
-      <c r="O21" s="2">
-        <v>0</v>
-      </c>
-      <c r="P21" s="2">
-        <v>50</v>
-      </c>
-      <c r="Q21" s="2">
-        <v>0</v>
-      </c>
-      <c r="R21" s="2">
-        <v>0</v>
-      </c>
-      <c r="S21" s="2">
-        <v>0</v>
-      </c>
-      <c r="T21" s="2">
-        <v>0</v>
-      </c>
-      <c r="U21" s="2">
-        <v>0</v>
-      </c>
-      <c r="V21" s="2">
-        <v>0</v>
-      </c>
-      <c r="W21" s="2">
-        <v>50</v>
-      </c>
-      <c r="X21" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y21" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z21" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA21" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="AB21" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="AC21" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="AD21" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F7DA455-53D4-410E-9CBB-32B5DAA163AC}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:AD12"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="AD5" sqref="AD5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="27.75" customHeight="1" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="6.28515625" customWidth="1"/>
-    <col min="2" max="2" width="7.85546875" customWidth="1"/>
-    <col min="3" max="4" width="9.7109375" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" customWidth="1"/>
-    <col min="6" max="6" width="22.42578125" customWidth="1"/>
-    <col min="7" max="7" width="13.85546875" customWidth="1"/>
-    <col min="8" max="8" width="8" customWidth="1"/>
-    <col min="9" max="9" width="8.42578125" customWidth="1"/>
-    <col min="10" max="10" width="8.7109375" customWidth="1"/>
-    <col min="11" max="11" width="7.85546875" customWidth="1"/>
-    <col min="12" max="17" width="5" customWidth="1"/>
-    <col min="18" max="18" width="4.85546875" customWidth="1"/>
-    <col min="19" max="19" width="4.7109375" customWidth="1"/>
-    <col min="20" max="20" width="4.28515625" customWidth="1"/>
-    <col min="21" max="23" width="4" customWidth="1"/>
-    <col min="24" max="28" width="8.7109375" customWidth="1"/>
-    <col min="29" max="29" width="21.140625" customWidth="1"/>
-    <col min="30" max="30" width="62" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:30" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="R1" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="T1" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="U1" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="V1" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="W1" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30" s="10" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="7">
-        <f t="shared" ref="A2:A12" si="0">ROW()-2</f>
-        <v>0</v>
-      </c>
-      <c r="B2" s="7">
-        <f>(ROW()-2)*10+2000</f>
-        <v>2000</v>
-      </c>
-      <c r="C2" s="7">
-        <v>0</v>
-      </c>
-      <c r="D2" s="7">
-        <v>9999</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2" s="7">
-        <v>0</v>
-      </c>
-      <c r="I2" s="7">
-        <v>1</v>
-      </c>
-      <c r="J2" s="7">
-        <v>1</v>
-      </c>
-      <c r="K2" s="7">
-        <v>250</v>
-      </c>
-      <c r="L2" s="7">
-        <v>0</v>
-      </c>
-      <c r="M2" s="7">
-        <v>20</v>
-      </c>
-      <c r="N2" s="7">
-        <v>0</v>
-      </c>
-      <c r="O2" s="7">
-        <v>0</v>
-      </c>
-      <c r="P2" s="7">
-        <v>30</v>
-      </c>
-      <c r="Q2" s="7">
-        <v>0</v>
-      </c>
-      <c r="R2" s="7">
-        <v>0</v>
-      </c>
-      <c r="S2" s="7">
-        <v>0</v>
-      </c>
-      <c r="T2" s="7">
-        <v>0</v>
-      </c>
-      <c r="U2" s="7">
-        <v>0</v>
-      </c>
-      <c r="V2" s="7">
-        <v>0</v>
-      </c>
-      <c r="W2" s="7">
-        <v>50</v>
-      </c>
-      <c r="X2" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y2" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z2" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA2" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="AB2" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="AC2" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="AD2" s="11" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="2">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="B3" s="2">
-        <f>(ROW()-2)*10+2000</f>
-        <v>2010</v>
-      </c>
-      <c r="C3" s="2">
-        <v>1</v>
-      </c>
-      <c r="D3" s="2">
-        <v>2</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H3" s="2">
-        <v>0</v>
-      </c>
-      <c r="I3" s="2">
-        <v>1</v>
-      </c>
-      <c r="J3" s="2">
-        <v>5</v>
-      </c>
-      <c r="K3" s="2">
-        <v>150</v>
-      </c>
-      <c r="L3" s="2">
-        <v>0</v>
-      </c>
-      <c r="M3" s="2">
-        <v>20</v>
-      </c>
-      <c r="N3" s="2">
-        <v>0</v>
-      </c>
-      <c r="O3" s="2">
-        <v>0</v>
-      </c>
-      <c r="P3" s="2">
-        <v>30</v>
-      </c>
-      <c r="Q3" s="2">
-        <v>0</v>
-      </c>
-      <c r="R3" s="2">
-        <v>0</v>
-      </c>
-      <c r="S3" s="2">
-        <v>0</v>
-      </c>
-      <c r="T3" s="2">
-        <v>0</v>
-      </c>
-      <c r="U3" s="2">
-        <v>0</v>
-      </c>
-      <c r="V3" s="2">
-        <v>0</v>
-      </c>
-      <c r="W3" s="2">
-        <v>50</v>
-      </c>
-      <c r="X3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="AB3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="AC3" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="AD3" s="4" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="B4" s="2">
-        <f>(ROW()-2)*10+2000</f>
-        <v>2020</v>
-      </c>
-      <c r="C4" s="2">
-        <v>0</v>
-      </c>
-      <c r="D4" s="2">
-        <v>4</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H4" s="2">
-        <v>0</v>
-      </c>
-      <c r="I4" s="2">
-        <v>1</v>
-      </c>
-      <c r="J4" s="2">
-        <v>1</v>
-      </c>
-      <c r="K4" s="2">
-        <v>800</v>
-      </c>
-      <c r="L4" s="2">
-        <v>0</v>
-      </c>
-      <c r="M4" s="2">
-        <v>85</v>
-      </c>
-      <c r="N4" s="2">
-        <v>0</v>
-      </c>
-      <c r="O4" s="2">
-        <v>0</v>
-      </c>
-      <c r="P4" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="2">
-        <v>60</v>
-      </c>
-      <c r="R4" s="2">
-        <v>0</v>
-      </c>
-      <c r="S4" s="2">
-        <v>0</v>
-      </c>
-      <c r="T4" s="2">
-        <v>0</v>
-      </c>
-      <c r="U4" s="2">
-        <v>0</v>
-      </c>
-      <c r="V4" s="2">
-        <v>0</v>
-      </c>
-      <c r="W4" s="2">
-        <v>50</v>
-      </c>
-      <c r="X4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="AB4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="AC4" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="AD4" s="4" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="B5" s="2">
-        <f>(ROW()-2)*10+2000</f>
-        <v>2030</v>
-      </c>
-      <c r="C5" s="2">
-        <v>0</v>
-      </c>
-      <c r="D5" s="2">
-        <v>4</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="H5" s="2">
-        <v>0</v>
-      </c>
-      <c r="I5" s="2">
-        <v>1</v>
-      </c>
-      <c r="J5" s="2">
-        <v>1</v>
-      </c>
-      <c r="K5" s="2">
-        <v>1000</v>
-      </c>
-      <c r="L5" s="2">
-        <v>0</v>
-      </c>
-      <c r="M5" s="2">
-        <v>20</v>
-      </c>
-      <c r="N5" s="2">
-        <v>0</v>
-      </c>
-      <c r="O5" s="2">
-        <v>0</v>
-      </c>
-      <c r="P5" s="2">
-        <v>30</v>
-      </c>
-      <c r="Q5" s="2">
-        <v>0</v>
-      </c>
-      <c r="R5" s="2">
-        <v>0</v>
-      </c>
-      <c r="S5" s="2">
-        <v>0</v>
-      </c>
-      <c r="T5" s="2">
-        <v>0</v>
-      </c>
-      <c r="U5" s="2">
-        <v>0</v>
-      </c>
-      <c r="V5" s="2">
-        <v>0</v>
-      </c>
-      <c r="W5" s="2">
-        <v>50</v>
-      </c>
-      <c r="X5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="AB5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="AC5" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="AD5" s="4" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="6" spans="1:30" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="2">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B6" s="2">
-        <f>(ROW()-2)*10+2000</f>
-        <v>2040</v>
-      </c>
-      <c r="C6" s="2">
-        <v>1</v>
-      </c>
-      <c r="D6" s="2">
-        <v>5</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H6" s="2">
-        <v>0</v>
-      </c>
-      <c r="I6" s="2">
-        <v>1</v>
-      </c>
-      <c r="J6" s="2">
-        <v>1</v>
-      </c>
-      <c r="K6" s="2">
-        <v>5000</v>
-      </c>
-      <c r="L6" s="2">
-        <v>0</v>
-      </c>
-      <c r="M6" s="2">
-        <v>20</v>
-      </c>
-      <c r="N6" s="2">
-        <v>0</v>
-      </c>
-      <c r="O6" s="2">
-        <v>0</v>
-      </c>
-      <c r="P6" s="2">
-        <v>30</v>
-      </c>
-      <c r="Q6" s="2">
-        <v>0</v>
-      </c>
-      <c r="R6" s="2">
-        <v>0</v>
-      </c>
-      <c r="S6" s="2">
-        <v>0</v>
-      </c>
-      <c r="T6" s="2">
-        <v>0</v>
-      </c>
-      <c r="U6" s="2">
-        <v>0</v>
-      </c>
-      <c r="V6" s="2">
-        <v>0</v>
-      </c>
-      <c r="W6" s="2">
-        <v>50</v>
-      </c>
-      <c r="X6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="AB6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="AC6" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="AD6" s="4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="7" spans="1:30" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="2">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B7" s="2">
-        <f>(ROW()-2)*10+2000</f>
-        <v>2050</v>
-      </c>
-      <c r="C7" s="2">
-        <v>0</v>
-      </c>
-      <c r="D7" s="2">
-        <v>6</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="H7" s="2">
-        <v>0</v>
-      </c>
-      <c r="I7" s="2">
-        <v>1</v>
-      </c>
-      <c r="J7" s="2">
-        <v>1</v>
-      </c>
-      <c r="K7" s="2">
-        <v>1200</v>
-      </c>
-      <c r="L7" s="2">
-        <v>0</v>
-      </c>
-      <c r="M7" s="2">
-        <v>20</v>
-      </c>
-      <c r="N7" s="2">
-        <v>0</v>
-      </c>
-      <c r="O7" s="2">
-        <v>0</v>
-      </c>
-      <c r="P7" s="2">
-        <v>30</v>
-      </c>
-      <c r="Q7" s="2">
-        <v>0</v>
-      </c>
-      <c r="R7" s="2">
-        <v>0</v>
-      </c>
-      <c r="S7" s="2">
-        <v>0</v>
-      </c>
-      <c r="T7" s="2">
-        <v>0</v>
-      </c>
-      <c r="U7" s="2">
-        <v>0</v>
-      </c>
-      <c r="V7" s="2">
-        <v>0</v>
-      </c>
-      <c r="W7" s="2">
-        <v>50</v>
-      </c>
-      <c r="X7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="AB7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="AC7" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="AD7" s="4" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="2">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B8" s="2">
-        <f>(ROW()-2)*10+2000</f>
-        <v>2060</v>
-      </c>
-      <c r="C8" s="2">
-        <v>0</v>
-      </c>
-      <c r="D8" s="2">
-        <v>6</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="H8" s="2">
-        <v>0</v>
-      </c>
-      <c r="I8" s="2">
-        <v>1</v>
-      </c>
-      <c r="J8" s="2">
-        <v>1</v>
-      </c>
-      <c r="K8" s="2">
-        <v>1500</v>
-      </c>
-      <c r="L8" s="2">
-        <v>0</v>
-      </c>
-      <c r="M8" s="2">
-        <v>20</v>
-      </c>
-      <c r="N8" s="2">
-        <v>0</v>
-      </c>
-      <c r="O8" s="2">
-        <v>0</v>
-      </c>
-      <c r="P8" s="2">
-        <v>30</v>
-      </c>
-      <c r="Q8" s="2">
-        <v>0</v>
-      </c>
-      <c r="R8" s="2">
-        <v>0</v>
-      </c>
-      <c r="S8" s="2">
-        <v>0</v>
-      </c>
-      <c r="T8" s="2">
-        <v>0</v>
-      </c>
-      <c r="U8" s="2">
-        <v>0</v>
-      </c>
-      <c r="V8" s="2">
-        <v>0</v>
-      </c>
-      <c r="W8" s="2">
-        <v>50</v>
-      </c>
-      <c r="X8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="AB8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="AC8" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="AD8" s="4" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="2">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B9" s="2">
-        <f t="shared" ref="B9" si="1">(ROW()-2)*10+2000</f>
-        <v>2070</v>
-      </c>
-      <c r="C9" s="2">
-        <v>0</v>
-      </c>
-      <c r="D9" s="2">
-        <v>9999</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="H9" s="2">
-        <v>0</v>
-      </c>
-      <c r="I9" s="2">
-        <v>1</v>
-      </c>
-      <c r="J9" s="2">
-        <v>1</v>
-      </c>
-      <c r="K9" s="2">
-        <v>180</v>
-      </c>
-      <c r="L9" s="2">
-        <v>0</v>
-      </c>
-      <c r="M9" s="2">
-        <v>0</v>
-      </c>
-      <c r="N9" s="2">
-        <v>0</v>
-      </c>
-      <c r="O9" s="2">
-        <v>0</v>
-      </c>
-      <c r="P9" s="2">
-        <v>30</v>
-      </c>
-      <c r="Q9" s="2">
-        <v>0</v>
-      </c>
-      <c r="R9" s="2">
-        <v>0</v>
-      </c>
-      <c r="S9" s="2">
-        <v>0</v>
-      </c>
-      <c r="T9" s="2">
-        <v>0</v>
-      </c>
-      <c r="U9" s="2">
-        <v>0</v>
-      </c>
-      <c r="V9" s="2">
-        <v>0</v>
-      </c>
-      <c r="W9" s="2">
-        <v>50</v>
-      </c>
-      <c r="X9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="AB9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="AC9" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="AD9" s="4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="10" spans="1:30" s="10" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="7">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="B10" s="7">
-        <v>3000</v>
-      </c>
-      <c r="C10" s="7">
-        <v>0</v>
-      </c>
-      <c r="D10" s="7">
-        <v>9999</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H10" s="7">
-        <v>0</v>
-      </c>
-      <c r="I10" s="7">
-        <v>1</v>
-      </c>
-      <c r="J10" s="7">
-        <v>1</v>
-      </c>
-      <c r="K10" s="7">
-        <v>300</v>
-      </c>
-      <c r="L10" s="7">
-        <v>0</v>
-      </c>
-      <c r="M10" s="7">
-        <v>20</v>
-      </c>
-      <c r="N10" s="7">
-        <v>0</v>
-      </c>
-      <c r="O10" s="7">
-        <v>0</v>
-      </c>
-      <c r="P10" s="7">
-        <v>50</v>
-      </c>
-      <c r="Q10" s="7">
-        <v>0</v>
-      </c>
-      <c r="R10" s="7">
-        <v>0</v>
-      </c>
-      <c r="S10" s="7">
-        <v>0</v>
-      </c>
-      <c r="T10" s="7">
-        <v>0</v>
-      </c>
-      <c r="U10" s="7">
-        <v>0</v>
-      </c>
-      <c r="V10" s="7">
-        <v>0</v>
-      </c>
-      <c r="W10" s="7">
-        <v>50</v>
-      </c>
-      <c r="X10" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="Y10" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z10" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA10" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="AB10" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="AC10" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="AD10" s="11" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="11" spans="1:30" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="2">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="B11" s="2">
-        <f>INDEX(B:B,MATCH(3000,B:B,0),1)+((ROW()-MATCH(3000,B:B,0))*10)</f>
-        <v>3010</v>
-      </c>
-      <c r="C11" s="2">
-        <v>0</v>
-      </c>
-      <c r="D11" s="2">
-        <v>9999</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H11" s="2">
-        <v>0</v>
-      </c>
-      <c r="I11" s="2">
-        <v>1</v>
-      </c>
-      <c r="J11" s="2">
-        <v>1</v>
-      </c>
-      <c r="K11" s="2">
-        <v>400</v>
-      </c>
-      <c r="L11" s="2">
-        <v>0</v>
-      </c>
-      <c r="M11" s="2">
-        <v>20</v>
-      </c>
-      <c r="N11" s="2">
-        <v>0</v>
-      </c>
-      <c r="O11" s="2">
-        <v>1</v>
-      </c>
-      <c r="P11" s="2">
-        <v>50</v>
-      </c>
-      <c r="Q11" s="2">
-        <v>0</v>
-      </c>
-      <c r="R11" s="2">
-        <v>0</v>
-      </c>
-      <c r="S11" s="2">
-        <v>0</v>
-      </c>
-      <c r="T11" s="2">
-        <v>0</v>
-      </c>
-      <c r="U11" s="2">
-        <v>0</v>
-      </c>
-      <c r="V11" s="2">
-        <v>0</v>
-      </c>
-      <c r="W11" s="2">
-        <v>50</v>
-      </c>
-      <c r="X11" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y11" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="Z11" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="AA11" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="AB11" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="AC11" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="AD11" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="12" spans="1:30" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="2">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B12" s="2">
-        <f>INDEX(B:B,MATCH(3000,B:B,0),1)+((ROW()-MATCH(3000,B:B,0))*10)</f>
-        <v>3020</v>
-      </c>
-      <c r="C12" s="2">
-        <v>0</v>
-      </c>
-      <c r="D12" s="2">
-        <v>9999</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H12" s="2">
-        <v>0</v>
-      </c>
-      <c r="I12" s="2">
-        <v>1</v>
-      </c>
-      <c r="J12" s="2">
-        <v>1</v>
-      </c>
-      <c r="K12" s="2">
-        <v>300</v>
-      </c>
-      <c r="L12" s="2">
-        <v>0</v>
-      </c>
-      <c r="M12" s="2">
-        <v>20</v>
-      </c>
-      <c r="N12" s="2">
-        <v>0</v>
-      </c>
-      <c r="O12" s="2">
-        <v>0</v>
-      </c>
-      <c r="P12" s="2">
-        <v>50</v>
-      </c>
-      <c r="Q12" s="2">
-        <v>0</v>
-      </c>
-      <c r="R12" s="2">
-        <v>0</v>
-      </c>
-      <c r="S12" s="2">
-        <v>0</v>
-      </c>
-      <c r="T12" s="2">
-        <v>0</v>
-      </c>
-      <c r="U12" s="2">
-        <v>0</v>
-      </c>
-      <c r="V12" s="2">
-        <v>0</v>
-      </c>
-      <c r="W12" s="2">
-        <v>50</v>
-      </c>
-      <c r="X12" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y12" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z12" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA12" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="AB12" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="AC12" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="AD12" s="4" t="s">
         <v>64</v>
       </c>
     </row>

--- a/Assets/Excel_Data/Entity_QuestSetDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_QuestSetDataBase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mator\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC3F5BC7-4AD4-4BDD-9A31-482BC088C02B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25C4E205-CE4C-4872-B1BD-ABA7AAF5F8E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4350" yWindow="1740" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2565" yWindow="1125" windowWidth="24240" windowHeight="13770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01_QuestSetData" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="137">
   <si>
     <t>desc</t>
   </si>
@@ -1162,6 +1162,13 @@
   </si>
   <si>
     <t>Cranberry</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ラスクの納品</t>
+    <rPh sb="4" eb="6">
+      <t>ノウヒン</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1578,12 +1585,12 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AD21"/>
+  <dimension ref="A1:AD22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="AC10" sqref="AC10"/>
+      <selection pane="bottomLeft" activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="27.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1701,11 +1708,11 @@
     </row>
     <row r="2" spans="1:30" s="10" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7">
-        <f t="shared" ref="A2:A21" si="0">ROW()-2</f>
+        <f t="shared" ref="A2:A22" si="0">ROW()-2</f>
         <v>0</v>
       </c>
       <c r="B2" s="7">
-        <f t="shared" ref="B2:B18" si="1">(ROW()-2)*10</f>
+        <f t="shared" ref="B2:B19" si="1">(ROW()-2)*10</f>
         <v>0</v>
       </c>
       <c r="C2" s="7">
@@ -2645,7 +2652,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="2">
-        <f>(ROW()-2)*10</f>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="C12" s="2">
@@ -2655,13 +2662,13 @@
         <v>10</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>58</v>
+        <v>7</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="H12" s="2">
         <v>0</v>
@@ -2673,16 +2680,16 @@
         <v>1</v>
       </c>
       <c r="K12" s="2">
-        <v>750</v>
+        <v>300</v>
       </c>
       <c r="L12" s="2">
         <v>0</v>
       </c>
       <c r="M12" s="2">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="N12" s="2">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="O12" s="2">
         <v>0</v>
@@ -2709,7 +2716,7 @@
         <v>0</v>
       </c>
       <c r="W12" s="2">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="X12" s="3" t="s">
         <v>7</v>
@@ -2727,10 +2734,10 @@
         <v>7</v>
       </c>
       <c r="AC12" s="5" t="s">
-        <v>59</v>
+        <v>136</v>
       </c>
       <c r="AD12" s="4" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:30" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2739,20 +2746,20 @@
         <v>11</v>
       </c>
       <c r="B13" s="2">
-        <f t="shared" si="1"/>
+        <f>(ROW()-2)*10</f>
         <v>110</v>
       </c>
       <c r="C13" s="2">
         <v>0</v>
       </c>
       <c r="D13" s="2">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>7</v>
@@ -2767,7 +2774,7 @@
         <v>1</v>
       </c>
       <c r="K13" s="2">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="L13" s="2">
         <v>0</v>
@@ -2776,13 +2783,13 @@
         <v>0</v>
       </c>
       <c r="N13" s="2">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="O13" s="2">
         <v>0</v>
       </c>
       <c r="P13" s="2">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="Q13" s="2">
         <v>0</v>
@@ -2803,7 +2810,7 @@
         <v>0</v>
       </c>
       <c r="W13" s="2">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="X13" s="3" t="s">
         <v>7</v>
@@ -2821,10 +2828,10 @@
         <v>7</v>
       </c>
       <c r="AC13" s="5" t="s">
-        <v>84</v>
+        <v>59</v>
       </c>
       <c r="AD13" s="4" t="s">
-        <v>85</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:30" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2833,23 +2840,23 @@
         <v>12</v>
       </c>
       <c r="B14" s="2">
-        <f>(ROW()-2)*10</f>
+        <f t="shared" si="1"/>
         <v>120</v>
       </c>
       <c r="C14" s="2">
         <v>0</v>
       </c>
       <c r="D14" s="2">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>7</v>
+        <v>63</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>95</v>
+        <v>7</v>
       </c>
       <c r="H14" s="2">
         <v>0</v>
@@ -2861,64 +2868,64 @@
         <v>1</v>
       </c>
       <c r="K14" s="2">
-        <v>1000</v>
+        <v>550</v>
       </c>
       <c r="L14" s="2">
         <v>0</v>
       </c>
       <c r="M14" s="2">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="N14" s="2">
         <v>0</v>
       </c>
       <c r="O14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P14" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="Q14" s="2">
+        <v>0</v>
+      </c>
+      <c r="R14" s="2">
+        <v>0</v>
+      </c>
+      <c r="S14" s="2">
+        <v>0</v>
+      </c>
+      <c r="T14" s="2">
+        <v>0</v>
+      </c>
+      <c r="U14" s="2">
+        <v>0</v>
+      </c>
+      <c r="V14" s="2">
+        <v>0</v>
+      </c>
+      <c r="W14" s="2">
+        <v>50</v>
+      </c>
+      <c r="X14" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y14" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z14" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA14" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB14" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC14" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD14" s="4" t="s">
         <v>85</v>
-      </c>
-      <c r="R14" s="2">
-        <v>0</v>
-      </c>
-      <c r="S14" s="2">
-        <v>0</v>
-      </c>
-      <c r="T14" s="2">
-        <v>0</v>
-      </c>
-      <c r="U14" s="2">
-        <v>0</v>
-      </c>
-      <c r="V14" s="2">
-        <v>0</v>
-      </c>
-      <c r="W14" s="2">
-        <v>70</v>
-      </c>
-      <c r="X14" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="Y14" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="Z14" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="AA14" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="AB14" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="AC14" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="AD14" s="4" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:30" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2937,13 +2944,13 @@
         <v>30</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>7</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="H15" s="2">
         <v>0</v>
@@ -2955,13 +2962,13 @@
         <v>1</v>
       </c>
       <c r="K15" s="2">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="L15" s="2">
         <v>0</v>
       </c>
       <c r="M15" s="2">
-        <v>15</v>
+        <v>88</v>
       </c>
       <c r="N15" s="2">
         <v>0</v>
@@ -2973,13 +2980,13 @@
         <v>0</v>
       </c>
       <c r="Q15" s="2">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="R15" s="2">
         <v>0</v>
       </c>
       <c r="S15" s="2">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="T15" s="2">
         <v>0</v>
@@ -2991,28 +2998,28 @@
         <v>0</v>
       </c>
       <c r="W15" s="2">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="X15" s="3" t="s">
-        <v>7</v>
+        <v>96</v>
       </c>
       <c r="Y15" s="3" t="s">
-        <v>7</v>
+        <v>67</v>
       </c>
       <c r="Z15" s="3" t="s">
-        <v>7</v>
+        <v>97</v>
       </c>
       <c r="AA15" s="3" t="s">
-        <v>7</v>
+        <v>135</v>
       </c>
       <c r="AB15" s="3" t="s">
-        <v>7</v>
+        <v>98</v>
       </c>
       <c r="AC15" s="5" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="AD15" s="4" t="s">
-        <v>82</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:30" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3031,13 +3038,13 @@
         <v>30</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>101</v>
+        <v>7</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>7</v>
+        <v>79</v>
       </c>
       <c r="H16" s="2">
         <v>0</v>
@@ -3049,13 +3056,13 @@
         <v>1</v>
       </c>
       <c r="K16" s="2">
-        <v>550</v>
+        <v>700</v>
       </c>
       <c r="L16" s="2">
         <v>0</v>
       </c>
       <c r="M16" s="2">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="N16" s="2">
         <v>0</v>
@@ -3064,7 +3071,7 @@
         <v>1</v>
       </c>
       <c r="P16" s="2">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="Q16" s="2">
         <v>0</v>
@@ -3073,7 +3080,7 @@
         <v>0</v>
       </c>
       <c r="S16" s="2">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="T16" s="2">
         <v>0</v>
@@ -3103,10 +3110,10 @@
         <v>7</v>
       </c>
       <c r="AC16" s="5" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="AD16" s="4" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:30" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3115,20 +3122,20 @@
         <v>15</v>
       </c>
       <c r="B17" s="2">
-        <f t="shared" si="1"/>
+        <f>(ROW()-2)*10</f>
         <v>150</v>
       </c>
       <c r="C17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" s="2">
-        <v>9999</v>
+        <v>30</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>7</v>
@@ -3140,25 +3147,25 @@
         <v>1</v>
       </c>
       <c r="J17" s="2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="K17" s="2">
-        <v>15</v>
+        <v>550</v>
       </c>
       <c r="L17" s="2">
         <v>0</v>
       </c>
       <c r="M17" s="2">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="N17" s="2">
         <v>0</v>
       </c>
       <c r="O17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P17" s="2">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="Q17" s="2">
         <v>0</v>
@@ -3197,10 +3204,10 @@
         <v>7</v>
       </c>
       <c r="AC17" s="5" t="s">
-        <v>52</v>
+        <v>102</v>
       </c>
       <c r="AD17" s="4" t="s">
-        <v>56</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:30" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3216,13 +3223,13 @@
         <v>1</v>
       </c>
       <c r="D18" s="2">
-        <v>40</v>
+        <v>9999</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>53</v>
+        <v>100</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>7</v>
@@ -3234,10 +3241,10 @@
         <v>1</v>
       </c>
       <c r="J18" s="2">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="K18" s="2">
-        <v>330</v>
+        <v>15</v>
       </c>
       <c r="L18" s="2">
         <v>0</v>
@@ -3291,197 +3298,197 @@
         <v>7</v>
       </c>
       <c r="AC18" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="AD18" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
-    <row r="19" spans="1:30" s="10" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="7">
+    <row r="19" spans="1:30" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="2">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B19" s="7">
-        <v>1000</v>
-      </c>
-      <c r="C19" s="7">
-        <v>0</v>
-      </c>
-      <c r="D19" s="7">
-        <v>0</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H19" s="7">
-        <v>0</v>
-      </c>
-      <c r="I19" s="7">
-        <v>1</v>
-      </c>
-      <c r="J19" s="7">
-        <v>1</v>
-      </c>
-      <c r="K19" s="7">
-        <v>350</v>
-      </c>
-      <c r="L19" s="7">
-        <v>0</v>
-      </c>
-      <c r="M19" s="7">
-        <v>32</v>
-      </c>
-      <c r="N19" s="7">
-        <v>0</v>
-      </c>
-      <c r="O19" s="7">
-        <v>0</v>
-      </c>
-      <c r="P19" s="7">
-        <v>90</v>
-      </c>
-      <c r="Q19" s="7">
-        <v>0</v>
-      </c>
-      <c r="R19" s="7">
-        <v>0</v>
-      </c>
-      <c r="S19" s="7">
-        <v>0</v>
-      </c>
-      <c r="T19" s="7">
-        <v>0</v>
-      </c>
-      <c r="U19" s="7">
-        <v>0</v>
-      </c>
-      <c r="V19" s="7">
-        <v>0</v>
-      </c>
-      <c r="W19" s="7">
+      <c r="B19" s="2">
+        <f t="shared" si="1"/>
+        <v>170</v>
+      </c>
+      <c r="C19" s="2">
+        <v>1</v>
+      </c>
+      <c r="D19" s="2">
+        <v>40</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H19" s="2">
+        <v>0</v>
+      </c>
+      <c r="I19" s="2">
+        <v>1</v>
+      </c>
+      <c r="J19" s="2">
+        <v>2</v>
+      </c>
+      <c r="K19" s="2">
+        <v>330</v>
+      </c>
+      <c r="L19" s="2">
+        <v>0</v>
+      </c>
+      <c r="M19" s="2">
+        <v>0</v>
+      </c>
+      <c r="N19" s="2">
+        <v>0</v>
+      </c>
+      <c r="O19" s="2">
+        <v>0</v>
+      </c>
+      <c r="P19" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="2">
+        <v>0</v>
+      </c>
+      <c r="R19" s="2">
+        <v>0</v>
+      </c>
+      <c r="S19" s="2">
+        <v>0</v>
+      </c>
+      <c r="T19" s="2">
+        <v>0</v>
+      </c>
+      <c r="U19" s="2">
+        <v>0</v>
+      </c>
+      <c r="V19" s="2">
+        <v>0</v>
+      </c>
+      <c r="W19" s="2">
         <v>50</v>
       </c>
-      <c r="X19" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y19" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z19" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA19" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="AB19" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="AC19" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="AD19" s="11" t="s">
-        <v>134</v>
+      <c r="X19" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y19" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z19" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA19" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB19" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC19" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD19" s="4" t="s">
+        <v>55</v>
       </c>
     </row>
-    <row r="20" spans="1:30" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="2">
+    <row r="20" spans="1:30" s="10" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="7">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B20" s="2">
-        <f>INDEX(B:B,MATCH(1000,B:B,0),1)+((ROW()-MATCH(1000,B:B,0))*10)</f>
-        <v>1010</v>
-      </c>
-      <c r="C20" s="2">
-        <v>0</v>
-      </c>
-      <c r="D20" s="2">
-        <v>0</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G20" s="2" t="s">
+      <c r="B20" s="7">
+        <v>1000</v>
+      </c>
+      <c r="C20" s="7">
+        <v>0</v>
+      </c>
+      <c r="D20" s="7">
+        <v>0</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H20" s="2">
-        <v>0</v>
-      </c>
-      <c r="I20" s="2">
-        <v>1</v>
-      </c>
-      <c r="J20" s="2">
-        <v>1</v>
-      </c>
-      <c r="K20" s="2">
-        <v>600</v>
-      </c>
-      <c r="L20" s="2">
-        <v>0</v>
-      </c>
-      <c r="M20" s="2">
-        <v>54</v>
-      </c>
-      <c r="N20" s="2">
-        <v>0</v>
-      </c>
-      <c r="O20" s="2">
-        <v>1</v>
-      </c>
-      <c r="P20" s="2">
-        <v>70</v>
-      </c>
-      <c r="Q20" s="2">
-        <v>0</v>
-      </c>
-      <c r="R20" s="2">
-        <v>0</v>
-      </c>
-      <c r="S20" s="2">
-        <v>0</v>
-      </c>
-      <c r="T20" s="2">
-        <v>0</v>
-      </c>
-      <c r="U20" s="2">
-        <v>0</v>
-      </c>
-      <c r="V20" s="2">
-        <v>0</v>
-      </c>
-      <c r="W20" s="2">
+      <c r="H20" s="7">
+        <v>0</v>
+      </c>
+      <c r="I20" s="7">
+        <v>1</v>
+      </c>
+      <c r="J20" s="7">
+        <v>1</v>
+      </c>
+      <c r="K20" s="7">
+        <v>350</v>
+      </c>
+      <c r="L20" s="7">
+        <v>0</v>
+      </c>
+      <c r="M20" s="7">
+        <v>32</v>
+      </c>
+      <c r="N20" s="7">
+        <v>0</v>
+      </c>
+      <c r="O20" s="7">
+        <v>0</v>
+      </c>
+      <c r="P20" s="7">
+        <v>90</v>
+      </c>
+      <c r="Q20" s="7">
+        <v>0</v>
+      </c>
+      <c r="R20" s="7">
+        <v>0</v>
+      </c>
+      <c r="S20" s="7">
+        <v>0</v>
+      </c>
+      <c r="T20" s="7">
+        <v>0</v>
+      </c>
+      <c r="U20" s="7">
+        <v>0</v>
+      </c>
+      <c r="V20" s="7">
+        <v>0</v>
+      </c>
+      <c r="W20" s="7">
         <v>50</v>
       </c>
-      <c r="X20" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y20" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="Z20" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="AA20" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="AB20" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="AC20" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="AD20" s="4" t="s">
-        <v>68</v>
+      <c r="X20" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y20" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z20" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA20" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB20" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC20" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD20" s="11" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="21" spans="1:30" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3491,22 +3498,22 @@
       </c>
       <c r="B21" s="2">
         <f>INDEX(B:B,MATCH(1000,B:B,0),1)+((ROW()-MATCH(1000,B:B,0))*10)</f>
-        <v>1020</v>
+        <v>1010</v>
       </c>
       <c r="C21" s="2">
         <v>0</v>
       </c>
       <c r="D21" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>7</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="H21" s="2">
         <v>0</v>
@@ -3518,22 +3525,22 @@
         <v>1</v>
       </c>
       <c r="K21" s="2">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="L21" s="2">
         <v>0</v>
       </c>
       <c r="M21" s="2">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="N21" s="2">
         <v>0</v>
       </c>
       <c r="O21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P21" s="2">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="Q21" s="2">
         <v>0</v>
@@ -3557,13 +3564,13 @@
         <v>50</v>
       </c>
       <c r="X21" s="3" t="s">
-        <v>7</v>
+        <v>65</v>
       </c>
       <c r="Y21" s="3" t="s">
-        <v>7</v>
+        <v>67</v>
       </c>
       <c r="Z21" s="3" t="s">
-        <v>7</v>
+        <v>69</v>
       </c>
       <c r="AA21" s="3" t="s">
         <v>7</v>
@@ -3572,9 +3579,103 @@
         <v>7</v>
       </c>
       <c r="AC21" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD21" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="2">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B22" s="2">
+        <f>INDEX(B:B,MATCH(1000,B:B,0),1)+((ROW()-MATCH(1000,B:B,0))*10)</f>
+        <v>1020</v>
+      </c>
+      <c r="C22" s="2">
+        <v>0</v>
+      </c>
+      <c r="D22" s="2">
+        <v>9999</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H22" s="2">
+        <v>0</v>
+      </c>
+      <c r="I22" s="2">
+        <v>1</v>
+      </c>
+      <c r="J22" s="2">
+        <v>1</v>
+      </c>
+      <c r="K22" s="2">
+        <v>300</v>
+      </c>
+      <c r="L22" s="2">
+        <v>0</v>
+      </c>
+      <c r="M22" s="2">
+        <v>54</v>
+      </c>
+      <c r="N22" s="2">
+        <v>0</v>
+      </c>
+      <c r="O22" s="2">
+        <v>0</v>
+      </c>
+      <c r="P22" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q22" s="2">
+        <v>0</v>
+      </c>
+      <c r="R22" s="2">
+        <v>0</v>
+      </c>
+      <c r="S22" s="2">
+        <v>0</v>
+      </c>
+      <c r="T22" s="2">
+        <v>0</v>
+      </c>
+      <c r="U22" s="2">
+        <v>0</v>
+      </c>
+      <c r="V22" s="2">
+        <v>0</v>
+      </c>
+      <c r="W22" s="2">
+        <v>50</v>
+      </c>
+      <c r="X22" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y22" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z22" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA22" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB22" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC22" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="AD21" s="4" t="s">
+      <c r="AD22" s="4" t="s">
         <v>64</v>
       </c>
     </row>

--- a/Assets/Excel_Data/Entity_QuestSetDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_QuestSetDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25C4E205-CE4C-4872-B1BD-ABA7AAF5F8E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8AD8002-5D45-4586-8E8D-0486ABBC30EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2565" yWindow="1125" windowWidth="24240" windowHeight="13770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3405" yWindow="1200" windowWidth="24240" windowHeight="13770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01_QuestSetData" sheetId="1" r:id="rId1"/>
@@ -1590,7 +1590,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="M22" sqref="M22"/>
+      <selection pane="bottomLeft" activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="27.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1755,7 +1755,7 @@
         <v>0</v>
       </c>
       <c r="P2" s="7">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="Q2" s="7">
         <v>0</v>
@@ -1846,10 +1846,10 @@
         <v>0</v>
       </c>
       <c r="O3" s="2">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="P3" s="2">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="Q3" s="2">
         <v>0</v>
@@ -2789,7 +2789,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="2">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="Q13" s="2">
         <v>0</v>
@@ -2974,7 +2974,7 @@
         <v>0</v>
       </c>
       <c r="O15" s="2">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="P15" s="2">
         <v>0</v>
@@ -3068,7 +3068,7 @@
         <v>0</v>
       </c>
       <c r="O16" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="P16" s="2">
         <v>0</v>
@@ -3162,7 +3162,7 @@
         <v>0</v>
       </c>
       <c r="O17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P17" s="2">
         <v>60</v>
@@ -3431,7 +3431,7 @@
         <v>1</v>
       </c>
       <c r="K20" s="7">
-        <v>350</v>
+        <v>600</v>
       </c>
       <c r="L20" s="7">
         <v>0</v>
@@ -3446,7 +3446,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="7">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="Q20" s="7">
         <v>0</v>
@@ -3525,7 +3525,7 @@
         <v>1</v>
       </c>
       <c r="K21" s="2">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="L21" s="2">
         <v>0</v>
@@ -3537,10 +3537,10 @@
         <v>0</v>
       </c>
       <c r="O21" s="2">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="P21" s="2">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="Q21" s="2">
         <v>0</v>

--- a/Assets/Excel_Data/Entity_QuestSetDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_QuestSetDataBase.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mator\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8AD8002-5D45-4586-8E8D-0486ABBC30EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E6B56B9-96F6-4DC5-8F1F-1EB5BB22E319}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3405" yWindow="1200" windowWidth="24240" windowHeight="13770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4215" yWindow="1095" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01_QuestSetData" sheetId="1" r:id="rId1"/>
@@ -1590,7 +1590,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="K22" sqref="K22"/>
+      <selection pane="bottomLeft" activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="27.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2783,7 +2783,7 @@
         <v>0</v>
       </c>
       <c r="N13" s="2">
-        <v>30</v>
+        <v>110</v>
       </c>
       <c r="O13" s="2">
         <v>0</v>

--- a/Assets/Excel_Data/Entity_QuestSetDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_QuestSetDataBase.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mator\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E6B56B9-96F6-4DC5-8F1F-1EB5BB22E319}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BC48BD5-735A-47FA-9B85-62CEBFDF5547}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4215" yWindow="1095" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3060" yWindow="855" windowWidth="24240" windowHeight="13770" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01_QuestSetData" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="143">
   <si>
     <t>desc</t>
   </si>
@@ -1169,6 +1169,30 @@
     <rPh sb="4" eb="6">
       <t>ノウヒン</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>tp_score1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>tp_score2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>tp_score3</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>tp_score4</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>tp_score5</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Shishamo</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1585,12 +1609,12 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AD22"/>
+  <dimension ref="A1:AI22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="N14" sqref="N14"/>
+      <selection pane="bottomLeft" activeCell="AH12" sqref="AH12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="27.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1609,12 +1633,12 @@
     <col min="19" max="19" width="4.7109375" customWidth="1"/>
     <col min="20" max="20" width="4.28515625" customWidth="1"/>
     <col min="21" max="23" width="4" customWidth="1"/>
-    <col min="24" max="28" width="10.28515625" customWidth="1"/>
-    <col min="29" max="29" width="21.140625" customWidth="1"/>
-    <col min="30" max="30" width="62" customWidth="1"/>
+    <col min="24" max="33" width="10.28515625" customWidth="1"/>
+    <col min="34" max="34" width="21.140625" customWidth="1"/>
+    <col min="35" max="35" width="62" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:35" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
@@ -1700,13 +1724,28 @@
         <v>12</v>
       </c>
       <c r="AC1" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="AH1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:30" s="10" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:35" s="10" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7">
         <f t="shared" ref="A2:A22" si="0">ROW()-2</f>
         <v>0</v>
@@ -1793,14 +1832,29 @@
       <c r="AB2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="AC2" s="9" t="s">
+      <c r="AC2" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD2" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE2" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF2" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG2" s="7">
+        <v>0</v>
+      </c>
+      <c r="AH2" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="AD2" s="11" t="s">
+      <c r="AI2" s="11" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:30" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:35" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1887,14 +1941,29 @@
       <c r="AB3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="AC3" s="5" t="s">
+      <c r="AC3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH3" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="AD3" s="4" t="s">
+      <c r="AI3" s="4" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:30" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:35" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -1981,14 +2050,29 @@
       <c r="AB4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="AC4" s="5" t="s">
+      <c r="AC4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH4" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="AD4" s="4" t="s">
+      <c r="AI4" s="4" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="5" spans="1:30" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:35" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -2075,14 +2159,29 @@
       <c r="AB5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="AC5" s="5" t="s">
+      <c r="AC5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH5" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="AD5" s="4" t="s">
+      <c r="AI5" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:30" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:35" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -2169,14 +2268,29 @@
       <c r="AB6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="AC6" s="5" t="s">
+      <c r="AC6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH6" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="AD6" s="4" t="s">
+      <c r="AI6" s="4" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="7" spans="1:30" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:35" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -2263,14 +2377,29 @@
       <c r="AB7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="AC7" s="5" t="s">
+      <c r="AC7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH7" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="AD7" s="4" t="s">
+      <c r="AI7" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:30" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:35" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -2357,14 +2486,29 @@
       <c r="AB8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="AC8" s="5" t="s">
+      <c r="AC8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH8" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="AD8" s="4" t="s">
+      <c r="AI8" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:30" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:35" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -2451,14 +2595,29 @@
       <c r="AB9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="AC9" s="5" t="s">
+      <c r="AC9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH9" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="AD9" s="4" t="s">
+      <c r="AI9" s="4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:30" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:35" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -2545,14 +2704,29 @@
       <c r="AB10" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="AC10" s="5" t="s">
+      <c r="AC10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH10" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="AD10" s="4" t="s">
+      <c r="AI10" s="4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:30" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:35" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -2639,14 +2813,29 @@
       <c r="AB11" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="AC11" s="5" t="s">
+      <c r="AC11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH11" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="AD11" s="4" t="s">
+      <c r="AI11" s="4" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="12" spans="1:30" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:35" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -2733,14 +2922,29 @@
       <c r="AB12" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="AC12" s="5" t="s">
+      <c r="AC12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH12" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="AD12" s="4" t="s">
+      <c r="AI12" s="4" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="13" spans="1:30" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:35" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -2813,7 +3017,7 @@
         <v>0</v>
       </c>
       <c r="X13" s="3" t="s">
-        <v>7</v>
+        <v>142</v>
       </c>
       <c r="Y13" s="3" t="s">
         <v>7</v>
@@ -2827,14 +3031,29 @@
       <c r="AB13" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="AC13" s="5" t="s">
+      <c r="AC13" s="2">
+        <v>30</v>
+      </c>
+      <c r="AD13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH13" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="AD13" s="4" t="s">
+      <c r="AI13" s="4" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:30" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:35" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -2921,14 +3140,29 @@
       <c r="AB14" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="AC14" s="5" t="s">
+      <c r="AC14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH14" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="AD14" s="4" t="s">
+      <c r="AI14" s="4" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="15" spans="1:30" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:35" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -3015,14 +3249,29 @@
       <c r="AB15" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="AC15" s="5" t="s">
+      <c r="AC15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH15" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="AD15" s="4" t="s">
+      <c r="AI15" s="4" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="16" spans="1:30" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:35" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -3109,14 +3358,29 @@
       <c r="AB16" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="AC16" s="5" t="s">
+      <c r="AC16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH16" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="AD16" s="4" t="s">
+      <c r="AI16" s="4" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="17" spans="1:30" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:35" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -3203,14 +3467,29 @@
       <c r="AB17" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="AC17" s="5" t="s">
+      <c r="AC17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH17" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="AD17" s="4" t="s">
+      <c r="AI17" s="4" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="18" spans="1:30" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:35" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -3297,14 +3576,29 @@
       <c r="AB18" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="AC18" s="5" t="s">
+      <c r="AC18" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD18" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE18" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF18" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG18" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH18" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="AD18" s="4" t="s">
+      <c r="AI18" s="4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="19" spans="1:30" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:35" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -3391,14 +3685,29 @@
       <c r="AB19" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="AC19" s="5" t="s">
+      <c r="AC19" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD19" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE19" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF19" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG19" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH19" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="AD19" s="4" t="s">
+      <c r="AI19" s="4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="1:30" s="10" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:35" s="10" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="7">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -3484,14 +3793,29 @@
       <c r="AB20" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="AC20" s="9" t="s">
+      <c r="AC20" s="8">
+        <v>0</v>
+      </c>
+      <c r="AD20" s="8">
+        <v>0</v>
+      </c>
+      <c r="AE20" s="8">
+        <v>0</v>
+      </c>
+      <c r="AF20" s="8">
+        <v>0</v>
+      </c>
+      <c r="AG20" s="8">
+        <v>0</v>
+      </c>
+      <c r="AH20" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="AD20" s="11" t="s">
+      <c r="AI20" s="11" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="21" spans="1:30" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:35" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -3578,14 +3902,29 @@
       <c r="AB21" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="AC21" s="5" t="s">
+      <c r="AC21" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD21" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE21" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF21" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG21" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH21" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="AD21" s="4" t="s">
+      <c r="AI21" s="4" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="22" spans="1:30" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:35" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -3672,10 +4011,25 @@
       <c r="AB22" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="AC22" s="5" t="s">
+      <c r="AC22" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD22" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE22" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF22" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG22" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH22" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="AD22" s="4" t="s">
+      <c r="AI22" s="4" t="s">
         <v>64</v>
       </c>
     </row>
@@ -3691,12 +4045,12 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AD13"/>
+  <dimension ref="A1:AI13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="K2" sqref="K2"/>
+      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="27.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3714,12 +4068,12 @@
     <col min="19" max="19" width="4.7109375" customWidth="1"/>
     <col min="20" max="20" width="4.28515625" customWidth="1"/>
     <col min="21" max="23" width="4" customWidth="1"/>
-    <col min="24" max="28" width="8.7109375" customWidth="1"/>
-    <col min="29" max="29" width="21.140625" customWidth="1"/>
-    <col min="30" max="30" width="62" customWidth="1"/>
+    <col min="24" max="33" width="8.7109375" customWidth="1"/>
+    <col min="34" max="34" width="21.140625" customWidth="1"/>
+    <col min="35" max="35" width="62" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:35" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
@@ -3805,13 +4159,28 @@
         <v>12</v>
       </c>
       <c r="AC1" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="AH1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:30" s="10" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:35" s="10" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7">
         <f t="shared" ref="A2:A13" si="0">ROW()-2</f>
         <v>0</v>
@@ -3898,14 +4267,29 @@
       <c r="AB2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="AC2" s="9" t="s">
+      <c r="AC2" s="8">
+        <v>0</v>
+      </c>
+      <c r="AD2" s="8">
+        <v>0</v>
+      </c>
+      <c r="AE2" s="8">
+        <v>0</v>
+      </c>
+      <c r="AF2" s="8">
+        <v>0</v>
+      </c>
+      <c r="AG2" s="8">
+        <v>0</v>
+      </c>
+      <c r="AH2" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="AD2" s="11" t="s">
+      <c r="AI2" s="11" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:30" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:35" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -3992,14 +4376,29 @@
       <c r="AB3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="AC3" s="5" t="s">
+      <c r="AC3" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD3" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE3" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF3" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG3" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH3" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AD3" s="4" t="s">
+      <c r="AI3" s="4" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="4" spans="1:30" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:35" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -4009,7 +4408,7 @@
         <v>2020</v>
       </c>
       <c r="C4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" s="2">
         <v>2</v>
@@ -4086,14 +4485,29 @@
       <c r="AB4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="AC4" s="5" t="s">
+      <c r="AC4" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF4" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG4" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH4" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="AD4" s="4" t="s">
+      <c r="AI4" s="4" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="5" spans="1:30" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:35" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -4180,14 +4594,29 @@
       <c r="AB5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="AC5" s="5" t="s">
+      <c r="AC5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH5" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="AD5" s="4" t="s">
+      <c r="AI5" s="4" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="6" spans="1:30" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:35" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -4274,14 +4703,29 @@
       <c r="AB6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="AC6" s="5" t="s">
+      <c r="AC6" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH6" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="AD6" s="4" t="s">
+      <c r="AI6" s="4" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="7" spans="1:30" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:35" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -4368,14 +4812,29 @@
       <c r="AB7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="AC7" s="5" t="s">
+      <c r="AC7" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH7" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="AD7" s="4" t="s">
+      <c r="AI7" s="4" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="8" spans="1:30" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:35" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -4462,14 +4921,29 @@
       <c r="AB8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="AC8" s="5" t="s">
+      <c r="AC8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH8" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="AD8" s="4" t="s">
+      <c r="AI8" s="4" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="9" spans="1:30" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:35" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -4556,14 +5030,29 @@
       <c r="AB9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="AC9" s="5" t="s">
+      <c r="AC9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH9" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="AD9" s="4" t="s">
+      <c r="AI9" s="4" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="10" spans="1:30" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:35" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -4650,14 +5139,29 @@
       <c r="AB10" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="AC10" s="5" t="s">
+      <c r="AC10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH10" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="AD10" s="4" t="s">
+      <c r="AI10" s="4" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:30" s="10" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:35" s="10" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="7">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -4743,14 +5247,29 @@
       <c r="AB11" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="AC11" s="9" t="s">
+      <c r="AC11" s="8">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="8">
+        <v>0</v>
+      </c>
+      <c r="AE11" s="8">
+        <v>0</v>
+      </c>
+      <c r="AF11" s="8">
+        <v>0</v>
+      </c>
+      <c r="AG11" s="8">
+        <v>0</v>
+      </c>
+      <c r="AH11" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="AD11" s="11" t="s">
+      <c r="AI11" s="11" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="12" spans="1:30" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:35" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -4837,14 +5356,29 @@
       <c r="AB12" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="AC12" s="5" t="s">
+      <c r="AC12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH12" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="AD12" s="4" t="s">
+      <c r="AI12" s="4" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="13" spans="1:30" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:35" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -4931,10 +5465,25 @@
       <c r="AB13" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="AC13" s="5" t="s">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH13" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="AD13" s="4" t="s">
+      <c r="AI13" s="4" t="s">
         <v>64</v>
       </c>
     </row>

--- a/Assets/Excel_Data/Entity_QuestSetDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_QuestSetDataBase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BC48BD5-735A-47FA-9B85-62CEBFDF5547}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3239B76D-F2A8-4E09-B01D-126213BC0202}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3060" yWindow="855" windowWidth="24240" windowHeight="13770" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="24240" windowHeight="13770" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01_QuestSetData" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="149">
   <si>
     <t>desc</t>
   </si>
@@ -1193,6 +1193,74 @@
   </si>
   <si>
     <t>Shishamo</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>kirakira_stone2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>てかてか石の入手</t>
+    <rPh sb="4" eb="5">
+      <t>イシ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ニュウシュ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;color=#FF78B4&gt;てかてか石&lt;/color&gt;って、持ってない？
+すっごいてかてかしたものを集めている富豪の方が、欲しいそうよ。</t>
+    <rPh sb="19" eb="20">
+      <t>イシ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>アツ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>フゴウ</t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="62" eb="63">
+      <t>ホ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>kirakira_stone3</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>くるくる石の入手</t>
+    <rPh sb="4" eb="5">
+      <t>イシ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ニュウシュ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;color=#FF78B4&gt;くるくる石&lt;/color&gt;を持ってない？
+くるくるしたものをひたすら集めているおじいさんが欲しいそうよ。</t>
+    <rPh sb="19" eb="20">
+      <t>イシ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>アツ</t>
+    </rPh>
+    <rPh sb="60" eb="61">
+      <t>ホ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1609,12 +1677,12 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AI22"/>
+  <dimension ref="A1:AI23"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="AH12" sqref="AH12"/>
+      <selection pane="bottomLeft" activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="27.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1747,11 +1815,11 @@
     </row>
     <row r="2" spans="1:35" s="10" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7">
-        <f t="shared" ref="A2:A22" si="0">ROW()-2</f>
+        <f t="shared" ref="A2:A23" si="0">ROW()-2</f>
         <v>0</v>
       </c>
       <c r="B2" s="7">
-        <f t="shared" ref="B2:B19" si="1">(ROW()-2)*10</f>
+        <f t="shared" ref="B2:B20" si="1">(ROW()-2)*10</f>
         <v>0</v>
       </c>
       <c r="C2" s="7">
@@ -3614,10 +3682,10 @@
         <v>40</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>53</v>
+        <v>143</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>53</v>
+        <v>143</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>7</v>
@@ -3629,10 +3697,10 @@
         <v>1</v>
       </c>
       <c r="J19" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K19" s="2">
-        <v>330</v>
+        <v>1500</v>
       </c>
       <c r="L19" s="2">
         <v>0</v>
@@ -3701,227 +3769,227 @@
         <v>0</v>
       </c>
       <c r="AH19" s="5" t="s">
-        <v>54</v>
+        <v>144</v>
       </c>
       <c r="AI19" s="4" t="s">
-        <v>55</v>
+        <v>145</v>
       </c>
     </row>
-    <row r="20" spans="1:35" s="10" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="7">
+    <row r="20" spans="1:35" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="2">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B20" s="7">
-        <v>1000</v>
-      </c>
-      <c r="C20" s="7">
-        <v>0</v>
-      </c>
-      <c r="D20" s="7">
-        <v>0</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H20" s="7">
-        <v>0</v>
-      </c>
-      <c r="I20" s="7">
-        <v>1</v>
-      </c>
-      <c r="J20" s="7">
-        <v>1</v>
-      </c>
-      <c r="K20" s="7">
-        <v>600</v>
-      </c>
-      <c r="L20" s="7">
-        <v>0</v>
-      </c>
-      <c r="M20" s="7">
-        <v>32</v>
-      </c>
-      <c r="N20" s="7">
-        <v>0</v>
-      </c>
-      <c r="O20" s="7">
-        <v>0</v>
-      </c>
-      <c r="P20" s="7">
-        <v>60</v>
-      </c>
-      <c r="Q20" s="7">
-        <v>0</v>
-      </c>
-      <c r="R20" s="7">
-        <v>0</v>
-      </c>
-      <c r="S20" s="7">
-        <v>0</v>
-      </c>
-      <c r="T20" s="7">
-        <v>0</v>
-      </c>
-      <c r="U20" s="7">
-        <v>0</v>
-      </c>
-      <c r="V20" s="7">
-        <v>0</v>
-      </c>
-      <c r="W20" s="7">
+      <c r="B20" s="2">
+        <f t="shared" si="1"/>
+        <v>180</v>
+      </c>
+      <c r="C20" s="2">
+        <v>1</v>
+      </c>
+      <c r="D20" s="2">
+        <v>40</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H20" s="2">
+        <v>0</v>
+      </c>
+      <c r="I20" s="2">
+        <v>1</v>
+      </c>
+      <c r="J20" s="2">
+        <v>2</v>
+      </c>
+      <c r="K20" s="2">
+        <v>330</v>
+      </c>
+      <c r="L20" s="2">
+        <v>0</v>
+      </c>
+      <c r="M20" s="2">
+        <v>0</v>
+      </c>
+      <c r="N20" s="2">
+        <v>0</v>
+      </c>
+      <c r="O20" s="2">
+        <v>0</v>
+      </c>
+      <c r="P20" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="2">
+        <v>0</v>
+      </c>
+      <c r="R20" s="2">
+        <v>0</v>
+      </c>
+      <c r="S20" s="2">
+        <v>0</v>
+      </c>
+      <c r="T20" s="2">
+        <v>0</v>
+      </c>
+      <c r="U20" s="2">
+        <v>0</v>
+      </c>
+      <c r="V20" s="2">
+        <v>0</v>
+      </c>
+      <c r="W20" s="2">
         <v>50</v>
       </c>
-      <c r="X20" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y20" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z20" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA20" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="AB20" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="AC20" s="8">
-        <v>0</v>
-      </c>
-      <c r="AD20" s="8">
-        <v>0</v>
-      </c>
-      <c r="AE20" s="8">
-        <v>0</v>
-      </c>
-      <c r="AF20" s="8">
-        <v>0</v>
-      </c>
-      <c r="AG20" s="8">
-        <v>0</v>
-      </c>
-      <c r="AH20" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="AI20" s="11" t="s">
-        <v>134</v>
+      <c r="X20" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y20" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z20" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA20" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB20" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC20" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD20" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE20" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF20" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG20" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH20" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI20" s="4" t="s">
+        <v>55</v>
       </c>
     </row>
-    <row r="21" spans="1:35" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="2">
+    <row r="21" spans="1:35" s="10" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="7">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B21" s="2">
-        <f>INDEX(B:B,MATCH(1000,B:B,0),1)+((ROW()-MATCH(1000,B:B,0))*10)</f>
-        <v>1010</v>
-      </c>
-      <c r="C21" s="2">
-        <v>0</v>
-      </c>
-      <c r="D21" s="2">
-        <v>0</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G21" s="2" t="s">
+      <c r="B21" s="7">
+        <v>1000</v>
+      </c>
+      <c r="C21" s="7">
+        <v>0</v>
+      </c>
+      <c r="D21" s="7">
+        <v>0</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H21" s="2">
-        <v>0</v>
-      </c>
-      <c r="I21" s="2">
-        <v>1</v>
-      </c>
-      <c r="J21" s="2">
-        <v>1</v>
-      </c>
-      <c r="K21" s="2">
-        <v>800</v>
-      </c>
-      <c r="L21" s="2">
-        <v>0</v>
-      </c>
-      <c r="M21" s="2">
+      <c r="H21" s="7">
+        <v>0</v>
+      </c>
+      <c r="I21" s="7">
+        <v>1</v>
+      </c>
+      <c r="J21" s="7">
+        <v>1</v>
+      </c>
+      <c r="K21" s="7">
+        <v>600</v>
+      </c>
+      <c r="L21" s="7">
+        <v>0</v>
+      </c>
+      <c r="M21" s="7">
         <v>32</v>
       </c>
-      <c r="N21" s="2">
-        <v>0</v>
-      </c>
-      <c r="O21" s="2">
-        <v>20</v>
-      </c>
-      <c r="P21" s="2">
+      <c r="N21" s="7">
+        <v>0</v>
+      </c>
+      <c r="O21" s="7">
+        <v>0</v>
+      </c>
+      <c r="P21" s="7">
         <v>60</v>
       </c>
-      <c r="Q21" s="2">
-        <v>0</v>
-      </c>
-      <c r="R21" s="2">
-        <v>0</v>
-      </c>
-      <c r="S21" s="2">
-        <v>0</v>
-      </c>
-      <c r="T21" s="2">
-        <v>0</v>
-      </c>
-      <c r="U21" s="2">
-        <v>0</v>
-      </c>
-      <c r="V21" s="2">
-        <v>0</v>
-      </c>
-      <c r="W21" s="2">
+      <c r="Q21" s="7">
+        <v>0</v>
+      </c>
+      <c r="R21" s="7">
+        <v>0</v>
+      </c>
+      <c r="S21" s="7">
+        <v>0</v>
+      </c>
+      <c r="T21" s="7">
+        <v>0</v>
+      </c>
+      <c r="U21" s="7">
+        <v>0</v>
+      </c>
+      <c r="V21" s="7">
+        <v>0</v>
+      </c>
+      <c r="W21" s="7">
         <v>50</v>
       </c>
-      <c r="X21" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y21" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="Z21" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="AA21" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="AB21" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="AC21" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD21" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE21" s="2">
-        <v>0</v>
-      </c>
-      <c r="AF21" s="2">
-        <v>0</v>
-      </c>
-      <c r="AG21" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH21" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="AI21" s="4" t="s">
-        <v>68</v>
+      <c r="X21" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y21" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z21" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA21" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB21" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC21" s="8">
+        <v>0</v>
+      </c>
+      <c r="AD21" s="8">
+        <v>0</v>
+      </c>
+      <c r="AE21" s="8">
+        <v>0</v>
+      </c>
+      <c r="AF21" s="8">
+        <v>0</v>
+      </c>
+      <c r="AG21" s="8">
+        <v>0</v>
+      </c>
+      <c r="AH21" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI21" s="11" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="22" spans="1:35" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3931,49 +3999,49 @@
       </c>
       <c r="B22" s="2">
         <f>INDEX(B:B,MATCH(1000,B:B,0),1)+((ROW()-MATCH(1000,B:B,0))*10)</f>
-        <v>1020</v>
+        <v>1010</v>
       </c>
       <c r="C22" s="2">
         <v>0</v>
       </c>
       <c r="D22" s="2">
-        <v>9999</v>
+        <v>0</v>
       </c>
       <c r="E22" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H22" s="2">
+        <v>0</v>
+      </c>
+      <c r="I22" s="2">
+        <v>1</v>
+      </c>
+      <c r="J22" s="2">
+        <v>1</v>
+      </c>
+      <c r="K22" s="2">
+        <v>800</v>
+      </c>
+      <c r="L22" s="2">
+        <v>0</v>
+      </c>
+      <c r="M22" s="2">
+        <v>32</v>
+      </c>
+      <c r="N22" s="2">
+        <v>0</v>
+      </c>
+      <c r="O22" s="2">
         <v>20</v>
       </c>
-      <c r="F22" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H22" s="2">
-        <v>0</v>
-      </c>
-      <c r="I22" s="2">
-        <v>1</v>
-      </c>
-      <c r="J22" s="2">
-        <v>1</v>
-      </c>
-      <c r="K22" s="2">
-        <v>300</v>
-      </c>
-      <c r="L22" s="2">
-        <v>0</v>
-      </c>
-      <c r="M22" s="2">
-        <v>54</v>
-      </c>
-      <c r="N22" s="2">
-        <v>0</v>
-      </c>
-      <c r="O22" s="2">
-        <v>0</v>
-      </c>
       <c r="P22" s="2">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="Q22" s="2">
         <v>0</v>
@@ -3997,13 +4065,13 @@
         <v>50</v>
       </c>
       <c r="X22" s="3" t="s">
-        <v>7</v>
+        <v>65</v>
       </c>
       <c r="Y22" s="3" t="s">
-        <v>7</v>
+        <v>67</v>
       </c>
       <c r="Z22" s="3" t="s">
-        <v>7</v>
+        <v>69</v>
       </c>
       <c r="AA22" s="3" t="s">
         <v>7</v>
@@ -4027,9 +4095,118 @@
         <v>0</v>
       </c>
       <c r="AH22" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI22" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" spans="1:35" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="2">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B23" s="2">
+        <f>INDEX(B:B,MATCH(1000,B:B,0),1)+((ROW()-MATCH(1000,B:B,0))*10)</f>
+        <v>1020</v>
+      </c>
+      <c r="C23" s="2">
+        <v>0</v>
+      </c>
+      <c r="D23" s="2">
+        <v>9999</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H23" s="2">
+        <v>0</v>
+      </c>
+      <c r="I23" s="2">
+        <v>1</v>
+      </c>
+      <c r="J23" s="2">
+        <v>1</v>
+      </c>
+      <c r="K23" s="2">
+        <v>300</v>
+      </c>
+      <c r="L23" s="2">
+        <v>0</v>
+      </c>
+      <c r="M23" s="2">
+        <v>54</v>
+      </c>
+      <c r="N23" s="2">
+        <v>0</v>
+      </c>
+      <c r="O23" s="2">
+        <v>0</v>
+      </c>
+      <c r="P23" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q23" s="2">
+        <v>0</v>
+      </c>
+      <c r="R23" s="2">
+        <v>0</v>
+      </c>
+      <c r="S23" s="2">
+        <v>0</v>
+      </c>
+      <c r="T23" s="2">
+        <v>0</v>
+      </c>
+      <c r="U23" s="2">
+        <v>0</v>
+      </c>
+      <c r="V23" s="2">
+        <v>0</v>
+      </c>
+      <c r="W23" s="2">
+        <v>50</v>
+      </c>
+      <c r="X23" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y23" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z23" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA23" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB23" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC23" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD23" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE23" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF23" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG23" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH23" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="AI22" s="4" t="s">
+      <c r="AI23" s="4" t="s">
         <v>64</v>
       </c>
     </row>
@@ -4045,12 +4222,12 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AI13"/>
+  <dimension ref="A1:AI14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
+      <selection pane="bottomLeft" activeCell="AI11" sqref="AI11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="27.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4182,11 +4359,11 @@
     </row>
     <row r="2" spans="1:35" s="10" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7">
-        <f t="shared" ref="A2:A13" si="0">ROW()-2</f>
+        <f t="shared" ref="A2:A14" si="0">ROW()-2</f>
         <v>0</v>
       </c>
       <c r="B2" s="7">
-        <f t="shared" ref="B2:B9" si="1">(ROW()-2)*10+2000</f>
+        <f t="shared" ref="B2:B10" si="1">(ROW()-2)*10+2000</f>
         <v>2000</v>
       </c>
       <c r="C2" s="7">
@@ -5058,23 +5235,23 @@
         <v>8</v>
       </c>
       <c r="B10" s="2">
-        <f t="shared" ref="B10" si="2">(ROW()-2)*10+2000</f>
+        <f t="shared" si="1"/>
         <v>2080</v>
       </c>
       <c r="C10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" s="2">
-        <v>9999</v>
+        <v>8</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>86</v>
+        <v>146</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>7</v>
+        <v>146</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>87</v>
+        <v>7</v>
       </c>
       <c r="H10" s="2">
         <v>0</v>
@@ -5086,13 +5263,13 @@
         <v>1</v>
       </c>
       <c r="K10" s="2">
-        <v>180</v>
+        <v>3000</v>
       </c>
       <c r="L10" s="2">
         <v>0</v>
       </c>
       <c r="M10" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="N10" s="2">
         <v>0</v>
@@ -5155,227 +5332,227 @@
         <v>0</v>
       </c>
       <c r="AH10" s="5" t="s">
-        <v>88</v>
+        <v>147</v>
       </c>
       <c r="AI10" s="4" t="s">
-        <v>89</v>
+        <v>148</v>
       </c>
     </row>
-    <row r="11" spans="1:35" s="10" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="7">
+    <row r="11" spans="1:35" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B11" s="7">
-        <v>3000</v>
-      </c>
-      <c r="C11" s="7">
-        <v>0</v>
-      </c>
-      <c r="D11" s="7">
+      <c r="B11" s="2">
+        <f t="shared" ref="B11" si="2">(ROW()-2)*10+2000</f>
+        <v>2090</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0</v>
+      </c>
+      <c r="D11" s="2">
         <v>9999</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H11" s="7">
-        <v>0</v>
-      </c>
-      <c r="I11" s="7">
-        <v>1</v>
-      </c>
-      <c r="J11" s="7">
-        <v>1</v>
-      </c>
-      <c r="K11" s="7">
-        <v>300</v>
-      </c>
-      <c r="L11" s="7">
-        <v>0</v>
-      </c>
-      <c r="M11" s="7">
-        <v>20</v>
-      </c>
-      <c r="N11" s="7">
-        <v>0</v>
-      </c>
-      <c r="O11" s="7">
-        <v>0</v>
-      </c>
-      <c r="P11" s="7">
+      <c r="E11" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0</v>
+      </c>
+      <c r="I11" s="2">
+        <v>1</v>
+      </c>
+      <c r="J11" s="2">
+        <v>1</v>
+      </c>
+      <c r="K11" s="2">
+        <v>180</v>
+      </c>
+      <c r="L11" s="2">
+        <v>0</v>
+      </c>
+      <c r="M11" s="2">
+        <v>0</v>
+      </c>
+      <c r="N11" s="2">
+        <v>0</v>
+      </c>
+      <c r="O11" s="2">
+        <v>0</v>
+      </c>
+      <c r="P11" s="2">
+        <v>30</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>0</v>
+      </c>
+      <c r="R11" s="2">
+        <v>0</v>
+      </c>
+      <c r="S11" s="2">
+        <v>0</v>
+      </c>
+      <c r="T11" s="2">
+        <v>0</v>
+      </c>
+      <c r="U11" s="2">
+        <v>0</v>
+      </c>
+      <c r="V11" s="2">
+        <v>0</v>
+      </c>
+      <c r="W11" s="2">
         <v>50</v>
       </c>
-      <c r="Q11" s="7">
-        <v>0</v>
-      </c>
-      <c r="R11" s="7">
-        <v>0</v>
-      </c>
-      <c r="S11" s="7">
-        <v>0</v>
-      </c>
-      <c r="T11" s="7">
-        <v>0</v>
-      </c>
-      <c r="U11" s="7">
-        <v>0</v>
-      </c>
-      <c r="V11" s="7">
-        <v>0</v>
-      </c>
-      <c r="W11" s="7">
-        <v>50</v>
-      </c>
-      <c r="X11" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="Y11" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z11" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA11" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="AB11" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="AC11" s="8">
-        <v>0</v>
-      </c>
-      <c r="AD11" s="8">
-        <v>0</v>
-      </c>
-      <c r="AE11" s="8">
-        <v>0</v>
-      </c>
-      <c r="AF11" s="8">
-        <v>0</v>
-      </c>
-      <c r="AG11" s="8">
-        <v>0</v>
-      </c>
-      <c r="AH11" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="AI11" s="11" t="s">
-        <v>78</v>
+      <c r="X11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH11" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="AI11" s="4" t="s">
+        <v>89</v>
       </c>
     </row>
-    <row r="12" spans="1:35" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="2">
+    <row r="12" spans="1:35" s="10" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="7">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B12" s="2">
-        <f>INDEX(B:B,MATCH(3000,B:B,0),1)+((ROW()-MATCH(3000,B:B,0))*10)</f>
-        <v>3010</v>
-      </c>
-      <c r="C12" s="2">
-        <v>0</v>
-      </c>
-      <c r="D12" s="2">
+      <c r="B12" s="7">
+        <v>3000</v>
+      </c>
+      <c r="C12" s="7">
+        <v>0</v>
+      </c>
+      <c r="D12" s="7">
         <v>9999</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G12" s="2" t="s">
+      <c r="E12" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H12" s="2">
-        <v>0</v>
-      </c>
-      <c r="I12" s="2">
-        <v>1</v>
-      </c>
-      <c r="J12" s="2">
-        <v>1</v>
-      </c>
-      <c r="K12" s="2">
-        <v>400</v>
-      </c>
-      <c r="L12" s="2">
-        <v>0</v>
-      </c>
-      <c r="M12" s="2">
+      <c r="H12" s="7">
+        <v>0</v>
+      </c>
+      <c r="I12" s="7">
+        <v>1</v>
+      </c>
+      <c r="J12" s="7">
+        <v>1</v>
+      </c>
+      <c r="K12" s="7">
+        <v>300</v>
+      </c>
+      <c r="L12" s="7">
+        <v>0</v>
+      </c>
+      <c r="M12" s="7">
         <v>20</v>
       </c>
-      <c r="N12" s="2">
-        <v>0</v>
-      </c>
-      <c r="O12" s="2">
-        <v>1</v>
-      </c>
-      <c r="P12" s="2">
+      <c r="N12" s="7">
+        <v>0</v>
+      </c>
+      <c r="O12" s="7">
+        <v>0</v>
+      </c>
+      <c r="P12" s="7">
         <v>50</v>
       </c>
-      <c r="Q12" s="2">
-        <v>0</v>
-      </c>
-      <c r="R12" s="2">
-        <v>0</v>
-      </c>
-      <c r="S12" s="2">
-        <v>0</v>
-      </c>
-      <c r="T12" s="2">
-        <v>0</v>
-      </c>
-      <c r="U12" s="2">
-        <v>0</v>
-      </c>
-      <c r="V12" s="2">
-        <v>0</v>
-      </c>
-      <c r="W12" s="2">
+      <c r="Q12" s="7">
+        <v>0</v>
+      </c>
+      <c r="R12" s="7">
+        <v>0</v>
+      </c>
+      <c r="S12" s="7">
+        <v>0</v>
+      </c>
+      <c r="T12" s="7">
+        <v>0</v>
+      </c>
+      <c r="U12" s="7">
+        <v>0</v>
+      </c>
+      <c r="V12" s="7">
+        <v>0</v>
+      </c>
+      <c r="W12" s="7">
         <v>50</v>
       </c>
-      <c r="X12" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y12" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="Z12" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="AA12" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="AB12" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="AC12" s="3">
-        <v>0</v>
-      </c>
-      <c r="AD12" s="3">
-        <v>0</v>
-      </c>
-      <c r="AE12" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF12" s="3">
-        <v>0</v>
-      </c>
-      <c r="AG12" s="3">
-        <v>0</v>
-      </c>
-      <c r="AH12" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="AI12" s="4" t="s">
-        <v>68</v>
+      <c r="X12" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="Y12" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z12" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA12" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB12" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC12" s="8">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="8">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="8">
+        <v>0</v>
+      </c>
+      <c r="AF12" s="8">
+        <v>0</v>
+      </c>
+      <c r="AG12" s="8">
+        <v>0</v>
+      </c>
+      <c r="AH12" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI12" s="11" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:35" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5385,7 +5562,7 @@
       </c>
       <c r="B13" s="2">
         <f>INDEX(B:B,MATCH(3000,B:B,0),1)+((ROW()-MATCH(3000,B:B,0))*10)</f>
-        <v>3020</v>
+        <v>3010</v>
       </c>
       <c r="C13" s="2">
         <v>0</v>
@@ -5394,13 +5571,13 @@
         <v>9999</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>7</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="H13" s="2">
         <v>0</v>
@@ -5412,7 +5589,7 @@
         <v>1</v>
       </c>
       <c r="K13" s="2">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L13" s="2">
         <v>0</v>
@@ -5424,7 +5601,7 @@
         <v>0</v>
       </c>
       <c r="O13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P13" s="2">
         <v>50</v>
@@ -5451,13 +5628,13 @@
         <v>50</v>
       </c>
       <c r="X13" s="3" t="s">
-        <v>7</v>
+        <v>65</v>
       </c>
       <c r="Y13" s="3" t="s">
-        <v>7</v>
+        <v>67</v>
       </c>
       <c r="Z13" s="3" t="s">
-        <v>7</v>
+        <v>69</v>
       </c>
       <c r="AA13" s="3" t="s">
         <v>7</v>
@@ -5481,9 +5658,118 @@
         <v>0</v>
       </c>
       <c r="AH13" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI13" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:35" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B14" s="2">
+        <f>INDEX(B:B,MATCH(3000,B:B,0),1)+((ROW()-MATCH(3000,B:B,0))*10)</f>
+        <v>3020</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0</v>
+      </c>
+      <c r="D14" s="2">
+        <v>9999</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H14" s="2">
+        <v>0</v>
+      </c>
+      <c r="I14" s="2">
+        <v>1</v>
+      </c>
+      <c r="J14" s="2">
+        <v>1</v>
+      </c>
+      <c r="K14" s="2">
+        <v>300</v>
+      </c>
+      <c r="L14" s="2">
+        <v>0</v>
+      </c>
+      <c r="M14" s="2">
+        <v>20</v>
+      </c>
+      <c r="N14" s="2">
+        <v>0</v>
+      </c>
+      <c r="O14" s="2">
+        <v>0</v>
+      </c>
+      <c r="P14" s="2">
+        <v>50</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>0</v>
+      </c>
+      <c r="R14" s="2">
+        <v>0</v>
+      </c>
+      <c r="S14" s="2">
+        <v>0</v>
+      </c>
+      <c r="T14" s="2">
+        <v>0</v>
+      </c>
+      <c r="U14" s="2">
+        <v>0</v>
+      </c>
+      <c r="V14" s="2">
+        <v>0</v>
+      </c>
+      <c r="W14" s="2">
+        <v>50</v>
+      </c>
+      <c r="X14" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y14" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z14" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA14" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB14" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH14" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="AI13" s="4" t="s">
+      <c r="AI14" s="4" t="s">
         <v>64</v>
       </c>
     </row>

--- a/Assets/Excel_Data/Entity_QuestSetDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_QuestSetDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3239B76D-F2A8-4E09-B01D-126213BC0202}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{942F4A2A-91AD-4737-9AF6-EDD3CB5B1B12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="24240" windowHeight="13770" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3450" yWindow="1335" windowWidth="24240" windowHeight="13770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01_QuestSetData" sheetId="1" r:id="rId1"/>
@@ -822,29 +822,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>これは、とある&lt;color=#FF78B4&gt;貿易商&lt;/color&gt;の方からのご依頼ね。
-コーヒーに合うお菓子を探してるみたい。</t>
-    <rPh sb="22" eb="25">
-      <t>ボウエキショウ</t>
-    </rPh>
-    <rPh sb="34" eb="35">
-      <t>カタ</t>
-    </rPh>
-    <rPh sb="39" eb="41">
-      <t>イライ</t>
-    </rPh>
-    <rPh sb="49" eb="50">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="52" eb="54">
-      <t>カシ</t>
-    </rPh>
-    <rPh sb="55" eb="56">
-      <t>サガ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>tea_lavender</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1260,6 +1237,23 @@
     </rPh>
     <rPh sb="60" eb="61">
       <t>ホ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>これは、とある&lt;color=#FF78B4&gt;貿易商&lt;/color&gt;の方からのご依頼ね。
+クッキーにクリームをはさんだお菓子みたいだけど..。</t>
+    <rPh sb="22" eb="25">
+      <t>ボウエキショウ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>イライ</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>カシ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1679,10 +1673,10 @@
   </sheetPr>
   <dimension ref="A1:AI23"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="F17" sqref="F17"/>
+      <selection pane="bottomLeft" activeCell="AI18" sqref="AI18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="27.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1774,7 +1768,7 @@
         <v>73</v>
       </c>
       <c r="W1" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="X1" s="1" t="s">
         <v>8</v>
@@ -1792,19 +1786,19 @@
         <v>12</v>
       </c>
       <c r="AC1" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="AD1" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>140</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>141</v>
       </c>
       <c r="AH1" s="1" t="s">
         <v>32</v>
@@ -3006,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="AH12" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AI12" s="4" t="s">
         <v>64</v>
@@ -3085,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="X13" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="Y13" s="3" t="s">
         <v>7</v>
@@ -3137,7 +3131,7 @@
         <v>20</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>63</v>
@@ -3312,7 +3306,7 @@
         <v>97</v>
       </c>
       <c r="AA15" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AB15" s="3" t="s">
         <v>98</v>
@@ -3336,7 +3330,7 @@
         <v>99</v>
       </c>
       <c r="AI15" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="16" spans="1:35" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3554,7 +3548,7 @@
         <v>102</v>
       </c>
       <c r="AI17" s="4" t="s">
-        <v>103</v>
+        <v>148</v>
       </c>
     </row>
     <row r="18" spans="1:35" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3682,10 +3676,10 @@
         <v>40</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>7</v>
@@ -3769,10 +3763,10 @@
         <v>0</v>
       </c>
       <c r="AH19" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="AI19" s="4" t="s">
         <v>144</v>
-      </c>
-      <c r="AI19" s="4" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="20" spans="1:35" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3989,7 +3983,7 @@
         <v>75</v>
       </c>
       <c r="AI21" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="22" spans="1:35" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4224,7 +4218,7 @@
   </sheetPr>
   <dimension ref="A1:AI14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="AI11" sqref="AI11"/>
@@ -4318,7 +4312,7 @@
         <v>73</v>
       </c>
       <c r="W1" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="X1" s="1" t="s">
         <v>8</v>
@@ -4336,19 +4330,19 @@
         <v>12</v>
       </c>
       <c r="AC1" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="AD1" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>140</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>141</v>
       </c>
       <c r="AH1" s="1" t="s">
         <v>32</v>
@@ -4482,10 +4476,10 @@
         <v>2</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>7</v>
@@ -4569,10 +4563,10 @@
         <v>0</v>
       </c>
       <c r="AH3" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="AI3" s="4" t="s">
         <v>120</v>
-      </c>
-      <c r="AI3" s="4" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:35" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4591,10 +4585,10 @@
         <v>2</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>7</v>
@@ -4678,10 +4672,10 @@
         <v>0</v>
       </c>
       <c r="AH4" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="AI4" s="4" t="s">
         <v>132</v>
-      </c>
-      <c r="AI4" s="4" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:35" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4700,10 +4694,10 @@
         <v>4</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>7</v>
@@ -4787,10 +4781,10 @@
         <v>0</v>
       </c>
       <c r="AH5" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="AI5" s="4" t="s">
         <v>128</v>
-      </c>
-      <c r="AI5" s="4" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:35" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4809,13 +4803,13 @@
         <v>4</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>7</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H6" s="2">
         <v>0</v>
@@ -4896,10 +4890,10 @@
         <v>0</v>
       </c>
       <c r="AH6" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="AI6" s="4" t="s">
         <v>113</v>
-      </c>
-      <c r="AI6" s="4" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="7" spans="1:35" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4918,10 +4912,10 @@
         <v>5</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>7</v>
@@ -5005,10 +4999,10 @@
         <v>0</v>
       </c>
       <c r="AH7" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="AI7" s="4" t="s">
         <v>123</v>
-      </c>
-      <c r="AI7" s="4" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="8" spans="1:35" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5027,13 +5021,13 @@
         <v>6</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>7</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H8" s="2">
         <v>0</v>
@@ -5114,10 +5108,10 @@
         <v>0</v>
       </c>
       <c r="AH8" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="AI8" s="4" t="s">
         <v>107</v>
-      </c>
-      <c r="AI8" s="4" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="9" spans="1:35" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5136,13 +5130,13 @@
         <v>6</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>7</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H9" s="2">
         <v>0</v>
@@ -5223,10 +5217,10 @@
         <v>0</v>
       </c>
       <c r="AH9" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AI9" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="10" spans="1:35" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5245,10 +5239,10 @@
         <v>8</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>7</v>
@@ -5332,10 +5326,10 @@
         <v>0</v>
       </c>
       <c r="AH10" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="AI10" s="4" t="s">
         <v>147</v>
-      </c>
-      <c r="AI10" s="4" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="11" spans="1:35" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5519,7 +5513,7 @@
         <v>50</v>
       </c>
       <c r="X12" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="Y12" s="8" t="s">
         <v>7</v>

--- a/Assets/Excel_Data/Entity_QuestSetDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_QuestSetDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{942F4A2A-91AD-4737-9AF6-EDD3CB5B1B12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77757851-19DC-4ACA-BA13-64E9710242ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3450" yWindow="1335" windowWidth="24240" windowHeight="13770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="24240" windowHeight="13770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01_QuestSetData" sheetId="1" r:id="rId1"/>
@@ -1673,10 +1673,10 @@
   </sheetPr>
   <dimension ref="A1:AI23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="AI18" sqref="AI18"/>
+      <selection pane="bottomLeft" activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="27.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1856,7 +1856,7 @@
         <v>0</v>
       </c>
       <c r="P2" s="7">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="Q2" s="7">
         <v>0</v>
@@ -1965,7 +1965,7 @@
         <v>25</v>
       </c>
       <c r="P3" s="2">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="Q3" s="2">
         <v>0</v>
@@ -2074,7 +2074,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="2">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="Q4" s="2">
         <v>0</v>
@@ -3055,7 +3055,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="2">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="Q13" s="2">
         <v>0</v>
@@ -3164,7 +3164,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="2">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="Q14" s="2">
         <v>0</v>
@@ -3276,7 +3276,7 @@
         <v>0</v>
       </c>
       <c r="Q15" s="2">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="R15" s="2">
         <v>0</v>
@@ -3391,7 +3391,7 @@
         <v>0</v>
       </c>
       <c r="S16" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="T16" s="2">
         <v>0</v>

--- a/Assets/Excel_Data/Entity_QuestSetDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_QuestSetDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77757851-19DC-4ACA-BA13-64E9710242ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0CDFF31-E64A-4F0A-8663-17E8F21D1650}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="24240" windowHeight="13770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3510" yWindow="2430" windowWidth="24240" windowHeight="13770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01_QuestSetData" sheetId="1" r:id="rId1"/>
@@ -1676,7 +1676,7 @@
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="P19" sqref="P19"/>
+      <selection pane="bottomLeft" activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="27.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1856,7 +1856,7 @@
         <v>0</v>
       </c>
       <c r="P2" s="7">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="Q2" s="7">
         <v>0</v>
@@ -1965,7 +1965,7 @@
         <v>25</v>
       </c>
       <c r="P3" s="2">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="Q3" s="2">
         <v>0</v>
@@ -2946,7 +2946,7 @@
         <v>0</v>
       </c>
       <c r="P12" s="2">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="Q12" s="2">
         <v>0</v>
@@ -3491,7 +3491,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="2">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="Q17" s="2">
         <v>0</v>
@@ -3926,7 +3926,7 @@
         <v>0</v>
       </c>
       <c r="P21" s="7">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="Q21" s="7">
         <v>0</v>
@@ -4035,7 +4035,7 @@
         <v>20</v>
       </c>
       <c r="P22" s="2">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="Q22" s="2">
         <v>0</v>

--- a/Assets/Excel_Data/Entity_QuestSetDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_QuestSetDataBase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0CDFF31-E64A-4F0A-8663-17E8F21D1650}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{646D2ABF-1E81-428D-80C2-5D7FDB096283}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="2430" windowWidth="24240" windowHeight="13770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3600" yWindow="1590" windowWidth="24240" windowHeight="13770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01_QuestSetData" sheetId="1" r:id="rId1"/>
@@ -4218,10 +4218,10 @@
   </sheetPr>
   <dimension ref="A1:AI14"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="AI11" sqref="AI11"/>
+      <selection pane="bottomLeft" activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="27.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4827,7 +4827,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="2">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="N6" s="2">
         <v>0</v>
@@ -4836,10 +4836,10 @@
         <v>0</v>
       </c>
       <c r="P6" s="2">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="Q6" s="2">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="R6" s="2">
         <v>0</v>
@@ -5045,7 +5045,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="2">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="N8" s="2">
         <v>0</v>
@@ -5054,13 +5054,13 @@
         <v>0</v>
       </c>
       <c r="P8" s="2">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="Q8" s="2">
         <v>0</v>
       </c>
       <c r="R8" s="2">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="S8" s="2">
         <v>0</v>
@@ -5154,7 +5154,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="2">
-        <v>20</v>
+        <v>130</v>
       </c>
       <c r="N9" s="2">
         <v>0</v>
@@ -5163,10 +5163,10 @@
         <v>0</v>
       </c>
       <c r="P9" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="2">
         <v>30</v>
-      </c>
-      <c r="Q9" s="2">
-        <v>0</v>
       </c>
       <c r="R9" s="2">
         <v>0</v>
@@ -5480,7 +5480,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="7">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="N12" s="7">
         <v>0</v>
@@ -5489,7 +5489,7 @@
         <v>0</v>
       </c>
       <c r="P12" s="7">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="Q12" s="7">
         <v>0</v>
@@ -5589,16 +5589,16 @@
         <v>0</v>
       </c>
       <c r="M13" s="2">
+        <v>32</v>
+      </c>
+      <c r="N13" s="2">
+        <v>0</v>
+      </c>
+      <c r="O13" s="2">
         <v>20</v>
       </c>
-      <c r="N13" s="2">
-        <v>0</v>
-      </c>
-      <c r="O13" s="2">
-        <v>1</v>
-      </c>
       <c r="P13" s="2">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="Q13" s="2">
         <v>0</v>
@@ -5698,7 +5698,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="2">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="N14" s="2">
         <v>0</v>
@@ -5707,7 +5707,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="2">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="Q14" s="2">
         <v>0</v>

--- a/Assets/Excel_Data/Entity_QuestSetDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_QuestSetDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{646D2ABF-1E81-428D-80C2-5D7FDB096283}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBEC47A9-F0FE-4B8A-934B-B25E3E8FA059}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3600" yWindow="1590" windowWidth="24240" windowHeight="13770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3885" yWindow="1650" windowWidth="24240" windowHeight="13770" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01_QuestSetData" sheetId="1" r:id="rId1"/>
@@ -1673,10 +1673,10 @@
   </sheetPr>
   <dimension ref="A1:AI23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="P13" sqref="P13"/>
+      <selection pane="bottomLeft" activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="27.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2828,7 +2828,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="N11" s="2">
         <v>0</v>
@@ -3694,7 +3694,7 @@
         <v>1</v>
       </c>
       <c r="K19" s="2">
-        <v>1500</v>
+        <v>800</v>
       </c>
       <c r="L19" s="2">
         <v>0</v>
@@ -4218,10 +4218,10 @@
   </sheetPr>
   <dimension ref="A1:AI14"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="Q9" sqref="Q9"/>
+      <selection pane="bottomLeft" activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="27.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5257,7 +5257,7 @@
         <v>1</v>
       </c>
       <c r="K10" s="2">
-        <v>3000</v>
+        <v>1200</v>
       </c>
       <c r="L10" s="2">
         <v>0</v>

--- a/Assets/Excel_Data/Entity_QuestSetDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_QuestSetDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBEC47A9-F0FE-4B8A-934B-B25E3E8FA059}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E87E5F2-A69C-408C-84EA-FF55FFF3F87F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3885" yWindow="1650" windowWidth="24240" windowHeight="13770" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3030" yWindow="1725" windowWidth="24240" windowHeight="13770" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01_QuestSetData" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="160">
   <si>
     <t>desc</t>
   </si>
@@ -632,32 +632,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>これは、とある&lt;color=#FF78B4&gt;貴族&lt;/color&gt;の方からのご依頼ね。
-来客用に、品が良いお菓子がほしいそうね。</t>
-    <rPh sb="22" eb="24">
-      <t>キゾク</t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t>カタ</t>
-    </rPh>
-    <rPh sb="38" eb="40">
-      <t>イライ</t>
-    </rPh>
-    <rPh sb="43" eb="46">
-      <t>ライキャクヨウ</t>
-    </rPh>
-    <rPh sb="48" eb="49">
-      <t>シナ</t>
-    </rPh>
-    <rPh sb="50" eb="51">
-      <t>ヨ</t>
-    </rPh>
-    <rPh sb="53" eb="55">
-      <t>カシ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>オレンジねこクッキーが食べたい！</t>
     <rPh sb="11" eb="12">
       <t>タ</t>
@@ -812,16 +786,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>森のシュガーバターが食いたいな</t>
-    <rPh sb="0" eb="1">
-      <t>モリ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>tea_lavender</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -906,26 +870,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>これは、&lt;color=#FF78B4&gt;おじいさん&lt;/color&gt;からのご依頼ね。
-歯が弱ってるから、柔らかいカステラが食べたいとのことだわ。</t>
-    <rPh sb="36" eb="38">
-      <t>イライ</t>
-    </rPh>
-    <rPh sb="41" eb="42">
-      <t>ハ</t>
-    </rPh>
-    <rPh sb="43" eb="44">
-      <t>ヨワ</t>
-    </rPh>
-    <rPh sb="50" eb="51">
-      <t>ヤワ</t>
-    </rPh>
-    <rPh sb="59" eb="60">
-      <t>タ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Maffin</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1224,23 +1168,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>&lt;color=#FF78B4&gt;くるくる石&lt;/color&gt;を持ってない？
-くるくるしたものをひたすら集めているおじいさんが欲しいそうよ。</t>
-    <rPh sb="19" eb="20">
-      <t>イシ</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>モ</t>
-    </rPh>
-    <rPh sb="49" eb="50">
-      <t>アツ</t>
-    </rPh>
-    <rPh sb="60" eb="61">
-      <t>ホ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>これは、とある&lt;color=#FF78B4&gt;貿易商&lt;/color&gt;の方からのご依頼ね。
 クッキーにクリームをはさんだお菓子みたいだけど..。</t>
     <rPh sb="22" eb="25">
@@ -1254,6 +1181,174 @@
     </rPh>
     <rPh sb="59" eb="61">
       <t>カシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>donuts</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Donuts</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>おやつのドーナツがほしい</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>これは、&lt;color=#FF78B4&gt;メイド学校の先生&lt;/color&gt;の方からのご依頼ね。
+こどもたちの3時のおやつにドーナツをあげたいみたい。</t>
+    <rPh sb="22" eb="24">
+      <t>ガッコウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>センセイ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>イライ</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>ジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>jewery_candy</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Candy</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>キャンディが食べたい！</t>
+    <rPh sb="6" eb="7">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;color=#FF78B4&gt;くるくる石&lt;/color&gt;を持ってない？
+くるくるしたものをひたすら集めているおじいさんが、欲しいそうよ。</t>
+    <rPh sb="19" eb="20">
+      <t>イシ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>アツ</t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t>ホ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>これは、&lt;color=#FF78B4&gt;商店街&lt;/color&gt;からのご依頼ね。
+プレゼント用に、キャンディ系のお菓子が欲しいとのことだわ。</t>
+    <rPh sb="19" eb="22">
+      <t>ショウテンガイ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>イライ</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>ケイ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>カシ</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>ホ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>tiramisu</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ティラミスが食べたい！</t>
+    <rPh sb="6" eb="7">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>これは、&lt;color=#FF78B4&gt;おじいさん&lt;/color&gt;からのご依頼ね。
+甘くて柔らかいカステラが食べたいとのことだわ。</t>
+    <rPh sb="36" eb="38">
+      <t>イライ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>アマ</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>ヤワ</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>これは、とある&lt;color=#FF78B4&gt;大富豪&lt;/color&gt;の方からのご依頼ね。
+来客用に、品が良いお菓子がほしいそうね。</t>
+    <rPh sb="22" eb="25">
+      <t>ダイフゴウ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>イライ</t>
+    </rPh>
+    <rPh sb="44" eb="47">
+      <t>ライキャクヨウ</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>シナ</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>カシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>森のシュガーバターはないかね？</t>
+    <rPh sb="0" eb="1">
+      <t>モリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>これは、&lt;color=#FF78B4&gt;クララおばさん&lt;/color&gt;からのご依頼ね。
+都で大人気のティラミスというお菓子をぜひ食べたい..とのことだわ。</t>
+    <rPh sb="38" eb="40">
+      <t>イライ</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>ミヤコ</t>
+    </rPh>
+    <rPh sb="45" eb="48">
+      <t>ダイニンキ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>カシ</t>
+    </rPh>
+    <rPh sb="63" eb="64">
+      <t>タ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1337,7 +1432,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1354,6 +1449,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1671,12 +1767,12 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AI23"/>
+  <dimension ref="A1:AI24"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="K20" sqref="K20"/>
+      <selection pane="bottomLeft" activeCell="AH17" sqref="AH17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="27.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1768,7 +1864,7 @@
         <v>73</v>
       </c>
       <c r="W1" s="6" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="X1" s="1" t="s">
         <v>8</v>
@@ -1786,19 +1882,19 @@
         <v>12</v>
       </c>
       <c r="AC1" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AF1" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>140</v>
       </c>
       <c r="AH1" s="1" t="s">
         <v>32</v>
@@ -1809,11 +1905,11 @@
     </row>
     <row r="2" spans="1:35" s="10" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7">
-        <f t="shared" ref="A2:A23" si="0">ROW()-2</f>
+        <f t="shared" ref="A2:A24" si="0">ROW()-2</f>
         <v>0</v>
       </c>
       <c r="B2" s="7">
-        <f t="shared" ref="B2:B20" si="1">(ROW()-2)*10</f>
+        <f t="shared" ref="B2:B21" si="1">(ROW()-2)*10</f>
         <v>0</v>
       </c>
       <c r="C2" s="7">
@@ -2019,7 +2115,7 @@
         <v>0</v>
       </c>
       <c r="AH3" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AI3" s="4" t="s">
         <v>62</v>
@@ -2041,13 +2137,13 @@
         <v>9999</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>86</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>87</v>
       </c>
       <c r="H4" s="2">
         <v>0</v>
@@ -2128,10 +2224,10 @@
         <v>0</v>
       </c>
       <c r="AH4" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="AI4" s="4" t="s">
         <v>88</v>
-      </c>
-      <c r="AI4" s="4" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:35" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2259,10 +2355,10 @@
         <v>0</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>7</v>
@@ -2346,10 +2442,10 @@
         <v>0</v>
       </c>
       <c r="AH6" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="AI6" s="4" t="s">
         <v>92</v>
-      </c>
-      <c r="AI6" s="4" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:35" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2810,7 +2906,7 @@
         <v>7</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H11" s="2">
         <v>0</v>
@@ -3000,7 +3096,7 @@
         <v>0</v>
       </c>
       <c r="AH12" s="5" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="AI12" s="4" t="s">
         <v>64</v>
@@ -3079,7 +3175,7 @@
         <v>0</v>
       </c>
       <c r="X13" s="3" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="Y13" s="3" t="s">
         <v>7</v>
@@ -3131,7 +3227,7 @@
         <v>20</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>63</v>
@@ -3218,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="AH14" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="AI14" s="4" t="s">
         <v>84</v>
-      </c>
-      <c r="AI14" s="4" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:35" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3240,13 +3336,13 @@
         <v>30</v>
       </c>
       <c r="E15" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G15" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>95</v>
       </c>
       <c r="H15" s="2">
         <v>0</v>
@@ -3297,40 +3393,40 @@
         <v>70</v>
       </c>
       <c r="X15" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="Y15" s="3" t="s">
         <v>67</v>
       </c>
       <c r="Z15" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA15" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="AB15" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="AA15" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="AB15" s="3" t="s">
+      <c r="AC15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH15" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="AC15" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD15" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE15" s="2">
-        <v>0</v>
-      </c>
-      <c r="AF15" s="2">
-        <v>0</v>
-      </c>
-      <c r="AG15" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH15" s="5" t="s">
-        <v>99</v>
-      </c>
       <c r="AI15" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16" spans="1:35" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3439,7 +3535,7 @@
         <v>81</v>
       </c>
       <c r="AI16" s="4" t="s">
-        <v>82</v>
+        <v>157</v>
       </c>
     </row>
     <row r="17" spans="1:35" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3458,10 +3554,10 @@
         <v>30</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>7</v>
@@ -3545,10 +3641,10 @@
         <v>0</v>
       </c>
       <c r="AH17" s="5" t="s">
-        <v>102</v>
+        <v>158</v>
       </c>
       <c r="AI17" s="4" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="18" spans="1:35" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3567,7 +3663,7 @@
         <v>9999</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>51</v>
@@ -3666,23 +3762,23 @@
         <v>17</v>
       </c>
       <c r="B19" s="2">
-        <f t="shared" si="1"/>
+        <f>(ROW()-2)*10</f>
         <v>170</v>
       </c>
       <c r="C19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" s="2">
         <v>40</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>142</v>
+        <v>7</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>7</v>
+        <v>146</v>
       </c>
       <c r="H19" s="2">
         <v>0</v>
@@ -3694,13 +3790,13 @@
         <v>1</v>
       </c>
       <c r="K19" s="2">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="L19" s="2">
         <v>0</v>
       </c>
       <c r="M19" s="2">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="N19" s="2">
         <v>0</v>
@@ -3712,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="Q19" s="2">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="R19" s="2">
         <v>0</v>
@@ -3730,7 +3826,7 @@
         <v>0</v>
       </c>
       <c r="W19" s="2">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="X19" s="3" t="s">
         <v>7</v>
@@ -3763,10 +3859,10 @@
         <v>0</v>
       </c>
       <c r="AH19" s="5" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="AI19" s="4" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="20" spans="1:35" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3785,10 +3881,10 @@
         <v>40</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>53</v>
+        <v>139</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>53</v>
+        <v>139</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>7</v>
@@ -3800,10 +3896,10 @@
         <v>1</v>
       </c>
       <c r="J20" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K20" s="2">
-        <v>330</v>
+        <v>800</v>
       </c>
       <c r="L20" s="2">
         <v>0</v>
@@ -3872,227 +3968,227 @@
         <v>0</v>
       </c>
       <c r="AH20" s="5" t="s">
-        <v>54</v>
+        <v>140</v>
       </c>
       <c r="AI20" s="4" t="s">
-        <v>55</v>
+        <v>141</v>
       </c>
     </row>
-    <row r="21" spans="1:35" s="10" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="7">
+    <row r="21" spans="1:35" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="2">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B21" s="7">
-        <v>1000</v>
-      </c>
-      <c r="C21" s="7">
-        <v>0</v>
-      </c>
-      <c r="D21" s="7">
-        <v>0</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H21" s="7">
-        <v>0</v>
-      </c>
-      <c r="I21" s="7">
-        <v>1</v>
-      </c>
-      <c r="J21" s="7">
-        <v>1</v>
-      </c>
-      <c r="K21" s="7">
-        <v>600</v>
-      </c>
-      <c r="L21" s="7">
-        <v>0</v>
-      </c>
-      <c r="M21" s="7">
-        <v>32</v>
-      </c>
-      <c r="N21" s="7">
-        <v>0</v>
-      </c>
-      <c r="O21" s="7">
-        <v>0</v>
-      </c>
-      <c r="P21" s="7">
-        <v>90</v>
-      </c>
-      <c r="Q21" s="7">
-        <v>0</v>
-      </c>
-      <c r="R21" s="7">
-        <v>0</v>
-      </c>
-      <c r="S21" s="7">
-        <v>0</v>
-      </c>
-      <c r="T21" s="7">
-        <v>0</v>
-      </c>
-      <c r="U21" s="7">
-        <v>0</v>
-      </c>
-      <c r="V21" s="7">
-        <v>0</v>
-      </c>
-      <c r="W21" s="7">
+      <c r="B21" s="2">
+        <f t="shared" si="1"/>
+        <v>190</v>
+      </c>
+      <c r="C21" s="2">
+        <v>1</v>
+      </c>
+      <c r="D21" s="2">
+        <v>40</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H21" s="2">
+        <v>0</v>
+      </c>
+      <c r="I21" s="2">
+        <v>1</v>
+      </c>
+      <c r="J21" s="2">
+        <v>2</v>
+      </c>
+      <c r="K21" s="2">
+        <v>330</v>
+      </c>
+      <c r="L21" s="2">
+        <v>0</v>
+      </c>
+      <c r="M21" s="2">
+        <v>0</v>
+      </c>
+      <c r="N21" s="2">
+        <v>0</v>
+      </c>
+      <c r="O21" s="2">
+        <v>0</v>
+      </c>
+      <c r="P21" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="2">
+        <v>0</v>
+      </c>
+      <c r="R21" s="2">
+        <v>0</v>
+      </c>
+      <c r="S21" s="2">
+        <v>0</v>
+      </c>
+      <c r="T21" s="2">
+        <v>0</v>
+      </c>
+      <c r="U21" s="2">
+        <v>0</v>
+      </c>
+      <c r="V21" s="2">
+        <v>0</v>
+      </c>
+      <c r="W21" s="2">
         <v>50</v>
       </c>
-      <c r="X21" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y21" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z21" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA21" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="AB21" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="AC21" s="8">
-        <v>0</v>
-      </c>
-      <c r="AD21" s="8">
-        <v>0</v>
-      </c>
-      <c r="AE21" s="8">
-        <v>0</v>
-      </c>
-      <c r="AF21" s="8">
-        <v>0</v>
-      </c>
-      <c r="AG21" s="8">
-        <v>0</v>
-      </c>
-      <c r="AH21" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="AI21" s="11" t="s">
-        <v>133</v>
+      <c r="X21" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y21" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z21" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA21" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB21" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC21" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD21" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE21" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF21" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG21" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH21" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI21" s="4" t="s">
+        <v>55</v>
       </c>
     </row>
-    <row r="22" spans="1:35" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="2">
+    <row r="22" spans="1:35" s="10" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="7">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B22" s="2">
-        <f>INDEX(B:B,MATCH(1000,B:B,0),1)+((ROW()-MATCH(1000,B:B,0))*10)</f>
-        <v>1010</v>
-      </c>
-      <c r="C22" s="2">
-        <v>0</v>
-      </c>
-      <c r="D22" s="2">
-        <v>0</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G22" s="2" t="s">
+      <c r="B22" s="7">
+        <v>1000</v>
+      </c>
+      <c r="C22" s="7">
+        <v>0</v>
+      </c>
+      <c r="D22" s="7">
+        <v>0</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H22" s="2">
-        <v>0</v>
-      </c>
-      <c r="I22" s="2">
-        <v>1</v>
-      </c>
-      <c r="J22" s="2">
-        <v>1</v>
-      </c>
-      <c r="K22" s="2">
-        <v>800</v>
-      </c>
-      <c r="L22" s="2">
-        <v>0</v>
-      </c>
-      <c r="M22" s="2">
+      <c r="H22" s="7">
+        <v>0</v>
+      </c>
+      <c r="I22" s="7">
+        <v>1</v>
+      </c>
+      <c r="J22" s="7">
+        <v>1</v>
+      </c>
+      <c r="K22" s="7">
+        <v>600</v>
+      </c>
+      <c r="L22" s="7">
+        <v>0</v>
+      </c>
+      <c r="M22" s="7">
         <v>32</v>
       </c>
-      <c r="N22" s="2">
-        <v>0</v>
-      </c>
-      <c r="O22" s="2">
-        <v>20</v>
-      </c>
-      <c r="P22" s="2">
+      <c r="N22" s="7">
+        <v>0</v>
+      </c>
+      <c r="O22" s="7">
+        <v>0</v>
+      </c>
+      <c r="P22" s="7">
         <v>90</v>
       </c>
-      <c r="Q22" s="2">
-        <v>0</v>
-      </c>
-      <c r="R22" s="2">
-        <v>0</v>
-      </c>
-      <c r="S22" s="2">
-        <v>0</v>
-      </c>
-      <c r="T22" s="2">
-        <v>0</v>
-      </c>
-      <c r="U22" s="2">
-        <v>0</v>
-      </c>
-      <c r="V22" s="2">
-        <v>0</v>
-      </c>
-      <c r="W22" s="2">
+      <c r="Q22" s="7">
+        <v>0</v>
+      </c>
+      <c r="R22" s="7">
+        <v>0</v>
+      </c>
+      <c r="S22" s="7">
+        <v>0</v>
+      </c>
+      <c r="T22" s="7">
+        <v>0</v>
+      </c>
+      <c r="U22" s="7">
+        <v>0</v>
+      </c>
+      <c r="V22" s="7">
+        <v>0</v>
+      </c>
+      <c r="W22" s="7">
         <v>50</v>
       </c>
-      <c r="X22" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y22" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="Z22" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="AA22" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="AB22" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="AC22" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD22" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE22" s="2">
-        <v>0</v>
-      </c>
-      <c r="AF22" s="2">
-        <v>0</v>
-      </c>
-      <c r="AG22" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH22" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="AI22" s="4" t="s">
-        <v>68</v>
+      <c r="X22" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y22" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z22" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA22" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB22" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC22" s="8">
+        <v>0</v>
+      </c>
+      <c r="AD22" s="8">
+        <v>0</v>
+      </c>
+      <c r="AE22" s="8">
+        <v>0</v>
+      </c>
+      <c r="AF22" s="8">
+        <v>0</v>
+      </c>
+      <c r="AG22" s="8">
+        <v>0</v>
+      </c>
+      <c r="AH22" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI22" s="11" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="23" spans="1:35" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4102,49 +4198,49 @@
       </c>
       <c r="B23" s="2">
         <f>INDEX(B:B,MATCH(1000,B:B,0),1)+((ROW()-MATCH(1000,B:B,0))*10)</f>
-        <v>1020</v>
+        <v>1010</v>
       </c>
       <c r="C23" s="2">
         <v>0</v>
       </c>
       <c r="D23" s="2">
-        <v>9999</v>
+        <v>0</v>
       </c>
       <c r="E23" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H23" s="2">
+        <v>0</v>
+      </c>
+      <c r="I23" s="2">
+        <v>1</v>
+      </c>
+      <c r="J23" s="2">
+        <v>1</v>
+      </c>
+      <c r="K23" s="2">
+        <v>800</v>
+      </c>
+      <c r="L23" s="2">
+        <v>0</v>
+      </c>
+      <c r="M23" s="2">
+        <v>32</v>
+      </c>
+      <c r="N23" s="2">
+        <v>0</v>
+      </c>
+      <c r="O23" s="2">
         <v>20</v>
       </c>
-      <c r="F23" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H23" s="2">
-        <v>0</v>
-      </c>
-      <c r="I23" s="2">
-        <v>1</v>
-      </c>
-      <c r="J23" s="2">
-        <v>1</v>
-      </c>
-      <c r="K23" s="2">
-        <v>300</v>
-      </c>
-      <c r="L23" s="2">
-        <v>0</v>
-      </c>
-      <c r="M23" s="2">
-        <v>54</v>
-      </c>
-      <c r="N23" s="2">
-        <v>0</v>
-      </c>
-      <c r="O23" s="2">
-        <v>0</v>
-      </c>
       <c r="P23" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="Q23" s="2">
         <v>0</v>
@@ -4168,13 +4264,13 @@
         <v>50</v>
       </c>
       <c r="X23" s="3" t="s">
-        <v>7</v>
+        <v>65</v>
       </c>
       <c r="Y23" s="3" t="s">
-        <v>7</v>
+        <v>67</v>
       </c>
       <c r="Z23" s="3" t="s">
-        <v>7</v>
+        <v>69</v>
       </c>
       <c r="AA23" s="3" t="s">
         <v>7</v>
@@ -4198,9 +4294,118 @@
         <v>0</v>
       </c>
       <c r="AH23" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI23" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" spans="1:35" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="2">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B24" s="2">
+        <f>INDEX(B:B,MATCH(1000,B:B,0),1)+((ROW()-MATCH(1000,B:B,0))*10)</f>
+        <v>1020</v>
+      </c>
+      <c r="C24" s="2">
+        <v>0</v>
+      </c>
+      <c r="D24" s="2">
+        <v>9999</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H24" s="2">
+        <v>0</v>
+      </c>
+      <c r="I24" s="2">
+        <v>1</v>
+      </c>
+      <c r="J24" s="2">
+        <v>1</v>
+      </c>
+      <c r="K24" s="2">
+        <v>300</v>
+      </c>
+      <c r="L24" s="2">
+        <v>0</v>
+      </c>
+      <c r="M24" s="2">
+        <v>54</v>
+      </c>
+      <c r="N24" s="2">
+        <v>0</v>
+      </c>
+      <c r="O24" s="2">
+        <v>0</v>
+      </c>
+      <c r="P24" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q24" s="2">
+        <v>0</v>
+      </c>
+      <c r="R24" s="2">
+        <v>0</v>
+      </c>
+      <c r="S24" s="2">
+        <v>0</v>
+      </c>
+      <c r="T24" s="2">
+        <v>0</v>
+      </c>
+      <c r="U24" s="2">
+        <v>0</v>
+      </c>
+      <c r="V24" s="2">
+        <v>0</v>
+      </c>
+      <c r="W24" s="2">
+        <v>50</v>
+      </c>
+      <c r="X24" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y24" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z24" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA24" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB24" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC24" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD24" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE24" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF24" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG24" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH24" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="AI23" s="4" t="s">
+      <c r="AI24" s="4" t="s">
         <v>64</v>
       </c>
     </row>
@@ -4216,12 +4421,12 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AI14"/>
+  <dimension ref="A1:AI16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="K11" sqref="K11"/>
+      <selection pane="bottomLeft" activeCell="AI13" sqref="AI13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="27.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4312,7 +4517,7 @@
         <v>73</v>
       </c>
       <c r="W1" s="6" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="X1" s="1" t="s">
         <v>8</v>
@@ -4330,19 +4535,19 @@
         <v>12</v>
       </c>
       <c r="AC1" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AF1" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>140</v>
       </c>
       <c r="AH1" s="1" t="s">
         <v>32</v>
@@ -4353,11 +4558,11 @@
     </row>
     <row r="2" spans="1:35" s="10" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7">
-        <f t="shared" ref="A2:A14" si="0">ROW()-2</f>
+        <f t="shared" ref="A2:A16" si="0">ROW()-2</f>
         <v>0</v>
       </c>
       <c r="B2" s="7">
-        <f t="shared" ref="B2:B10" si="1">(ROW()-2)*10+2000</f>
+        <f t="shared" ref="B2:B12" si="1">(ROW()-2)*10+2000</f>
         <v>2000</v>
       </c>
       <c r="C2" s="7">
@@ -4476,10 +4681,10 @@
         <v>2</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>7</v>
@@ -4563,10 +4768,10 @@
         <v>0</v>
       </c>
       <c r="AH3" s="5" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="AI3" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:35" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4585,10 +4790,10 @@
         <v>2</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>7</v>
@@ -4618,7 +4823,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="Q4" s="2">
         <v>0</v>
@@ -4627,7 +4832,7 @@
         <v>0</v>
       </c>
       <c r="S4" s="2">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="T4" s="2">
         <v>0</v>
@@ -4639,7 +4844,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="X4" s="3" t="s">
         <v>7</v>
@@ -4672,10 +4877,10 @@
         <v>0</v>
       </c>
       <c r="AH4" s="5" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="AI4" s="4" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:35" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4694,10 +4899,10 @@
         <v>4</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>7</v>
@@ -4781,10 +4986,10 @@
         <v>0</v>
       </c>
       <c r="AH5" s="5" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="AI5" s="4" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:35" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4803,13 +5008,13 @@
         <v>4</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>7</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H6" s="2">
         <v>0</v>
@@ -4890,10 +5095,10 @@
         <v>0</v>
       </c>
       <c r="AH6" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="AI6" s="4" t="s">
-        <v>113</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:35" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4912,10 +5117,10 @@
         <v>5</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>7</v>
@@ -4999,10 +5204,10 @@
         <v>0</v>
       </c>
       <c r="AH7" s="5" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="AI7" s="4" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:35" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5021,13 +5226,13 @@
         <v>6</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>7</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H8" s="2">
         <v>0</v>
@@ -5108,10 +5313,10 @@
         <v>0</v>
       </c>
       <c r="AH8" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="AI8" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:35" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5130,13 +5335,13 @@
         <v>6</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>7</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="H9" s="2">
         <v>0</v>
@@ -5217,10 +5422,10 @@
         <v>0</v>
       </c>
       <c r="AH9" s="5" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="AI9" s="4" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10" spans="1:35" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5233,19 +5438,19 @@
         <v>2080</v>
       </c>
       <c r="C10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" s="2">
         <v>8</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>145</v>
+        <v>7</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>7</v>
+        <v>150</v>
       </c>
       <c r="H10" s="2">
         <v>0</v>
@@ -5257,22 +5462,22 @@
         <v>1</v>
       </c>
       <c r="K10" s="2">
-        <v>1200</v>
+        <v>3000</v>
       </c>
       <c r="L10" s="2">
         <v>0</v>
       </c>
       <c r="M10" s="2">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="N10" s="2">
         <v>0</v>
       </c>
       <c r="O10" s="2">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="P10" s="2">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="Q10" s="2">
         <v>0</v>
@@ -5281,7 +5486,7 @@
         <v>0</v>
       </c>
       <c r="S10" s="2">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="T10" s="2">
         <v>0</v>
@@ -5326,10 +5531,10 @@
         <v>0</v>
       </c>
       <c r="AH10" s="5" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="AI10" s="4" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
     </row>
     <row r="11" spans="1:35" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5338,23 +5543,23 @@
         <v>9</v>
       </c>
       <c r="B11" s="2">
-        <f t="shared" ref="B11" si="2">(ROW()-2)*10+2000</f>
+        <f t="shared" si="1"/>
         <v>2090</v>
       </c>
       <c r="C11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" s="2">
-        <v>9999</v>
+        <v>8</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>86</v>
+        <v>142</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>7</v>
+        <v>142</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>87</v>
+        <v>7</v>
       </c>
       <c r="H11" s="2">
         <v>0</v>
@@ -5366,13 +5571,13 @@
         <v>1</v>
       </c>
       <c r="K11" s="2">
-        <v>180</v>
+        <v>1200</v>
       </c>
       <c r="L11" s="2">
         <v>0</v>
       </c>
       <c r="M11" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="N11" s="2">
         <v>0</v>
@@ -5435,118 +5640,119 @@
         <v>0</v>
       </c>
       <c r="AH11" s="5" t="s">
-        <v>88</v>
+        <v>143</v>
       </c>
       <c r="AI11" s="4" t="s">
-        <v>89</v>
+        <v>152</v>
       </c>
     </row>
-    <row r="12" spans="1:35" s="10" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="7">
+    <row r="12" spans="1:35" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B12" s="7">
-        <v>3000</v>
-      </c>
-      <c r="C12" s="7">
-        <v>0</v>
-      </c>
-      <c r="D12" s="7">
-        <v>9999</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H12" s="7">
-        <v>0</v>
-      </c>
-      <c r="I12" s="7">
-        <v>1</v>
-      </c>
-      <c r="J12" s="7">
-        <v>1</v>
-      </c>
-      <c r="K12" s="7">
-        <v>300</v>
-      </c>
-      <c r="L12" s="7">
-        <v>0</v>
-      </c>
-      <c r="M12" s="7">
-        <v>32</v>
-      </c>
-      <c r="N12" s="7">
-        <v>0</v>
-      </c>
-      <c r="O12" s="7">
-        <v>0</v>
-      </c>
-      <c r="P12" s="7">
-        <v>90</v>
-      </c>
-      <c r="Q12" s="7">
-        <v>0</v>
-      </c>
-      <c r="R12" s="7">
-        <v>0</v>
-      </c>
-      <c r="S12" s="7">
-        <v>0</v>
-      </c>
-      <c r="T12" s="7">
-        <v>0</v>
-      </c>
-      <c r="U12" s="7">
-        <v>0</v>
-      </c>
-      <c r="V12" s="7">
-        <v>0</v>
-      </c>
-      <c r="W12" s="7">
+      <c r="B12" s="2">
+        <f t="shared" si="1"/>
+        <v>2100</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0</v>
+      </c>
+      <c r="D12" s="2">
+        <v>10</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0</v>
+      </c>
+      <c r="I12" s="2">
+        <v>1</v>
+      </c>
+      <c r="J12" s="2">
+        <v>1</v>
+      </c>
+      <c r="K12" s="2">
+        <v>5000</v>
+      </c>
+      <c r="L12" s="2">
+        <v>0</v>
+      </c>
+      <c r="M12" s="12">
+        <v>100</v>
+      </c>
+      <c r="N12" s="12">
+        <v>140</v>
+      </c>
+      <c r="O12" s="12">
+        <v>0</v>
+      </c>
+      <c r="P12" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="12">
         <v>50</v>
       </c>
-      <c r="X12" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="Y12" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z12" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA12" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="AB12" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="AC12" s="8">
-        <v>0</v>
-      </c>
-      <c r="AD12" s="8">
-        <v>0</v>
-      </c>
-      <c r="AE12" s="8">
-        <v>0</v>
-      </c>
-      <c r="AF12" s="8">
-        <v>0</v>
-      </c>
-      <c r="AG12" s="8">
-        <v>0</v>
-      </c>
-      <c r="AH12" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="AI12" s="11" t="s">
-        <v>78</v>
+      <c r="R12" s="12">
+        <v>0</v>
+      </c>
+      <c r="S12" s="12">
+        <v>0</v>
+      </c>
+      <c r="T12" s="12">
+        <v>0</v>
+      </c>
+      <c r="U12" s="12">
+        <v>0</v>
+      </c>
+      <c r="V12" s="12">
+        <v>0</v>
+      </c>
+      <c r="W12" s="12">
+        <v>100</v>
+      </c>
+      <c r="X12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH12" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="AI12" s="4" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="13" spans="1:35" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5555,215 +5761,432 @@
         <v>11</v>
       </c>
       <c r="B13" s="2">
+        <f t="shared" ref="B13" si="2">(ROW()-2)*10+2000</f>
+        <v>2110</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0</v>
+      </c>
+      <c r="D13" s="2">
+        <v>9999</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H13" s="2">
+        <v>0</v>
+      </c>
+      <c r="I13" s="2">
+        <v>1</v>
+      </c>
+      <c r="J13" s="2">
+        <v>1</v>
+      </c>
+      <c r="K13" s="2">
+        <v>180</v>
+      </c>
+      <c r="L13" s="2">
+        <v>0</v>
+      </c>
+      <c r="M13" s="2">
+        <v>0</v>
+      </c>
+      <c r="N13" s="2">
+        <v>0</v>
+      </c>
+      <c r="O13" s="2">
+        <v>0</v>
+      </c>
+      <c r="P13" s="2">
+        <v>30</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>0</v>
+      </c>
+      <c r="R13" s="2">
+        <v>0</v>
+      </c>
+      <c r="S13" s="2">
+        <v>0</v>
+      </c>
+      <c r="T13" s="2">
+        <v>0</v>
+      </c>
+      <c r="U13" s="2">
+        <v>0</v>
+      </c>
+      <c r="V13" s="2">
+        <v>0</v>
+      </c>
+      <c r="W13" s="2">
+        <v>50</v>
+      </c>
+      <c r="X13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH13" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="AI13" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="14" spans="1:35" s="10" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="7">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B14" s="7">
+        <v>3000</v>
+      </c>
+      <c r="C14" s="7">
+        <v>0</v>
+      </c>
+      <c r="D14" s="7">
+        <v>9999</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H14" s="7">
+        <v>0</v>
+      </c>
+      <c r="I14" s="7">
+        <v>1</v>
+      </c>
+      <c r="J14" s="7">
+        <v>1</v>
+      </c>
+      <c r="K14" s="7">
+        <v>300</v>
+      </c>
+      <c r="L14" s="7">
+        <v>0</v>
+      </c>
+      <c r="M14" s="7">
+        <v>32</v>
+      </c>
+      <c r="N14" s="7">
+        <v>0</v>
+      </c>
+      <c r="O14" s="7">
+        <v>0</v>
+      </c>
+      <c r="P14" s="7">
+        <v>90</v>
+      </c>
+      <c r="Q14" s="7">
+        <v>0</v>
+      </c>
+      <c r="R14" s="7">
+        <v>0</v>
+      </c>
+      <c r="S14" s="7">
+        <v>0</v>
+      </c>
+      <c r="T14" s="7">
+        <v>0</v>
+      </c>
+      <c r="U14" s="7">
+        <v>0</v>
+      </c>
+      <c r="V14" s="7">
+        <v>0</v>
+      </c>
+      <c r="W14" s="7">
+        <v>50</v>
+      </c>
+      <c r="X14" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y14" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z14" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA14" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB14" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC14" s="8">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="8">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="8">
+        <v>0</v>
+      </c>
+      <c r="AF14" s="8">
+        <v>0</v>
+      </c>
+      <c r="AG14" s="8">
+        <v>0</v>
+      </c>
+      <c r="AH14" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI14" s="11" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:35" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B15" s="2">
         <f>INDEX(B:B,MATCH(3000,B:B,0),1)+((ROW()-MATCH(3000,B:B,0))*10)</f>
         <v>3010</v>
       </c>
-      <c r="C13" s="2">
-        <v>0</v>
-      </c>
-      <c r="D13" s="2">
+      <c r="C15" s="2">
+        <v>0</v>
+      </c>
+      <c r="D15" s="2">
         <v>9999</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E15" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="F13" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G13" s="2" t="s">
+      <c r="F15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G15" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H13" s="2">
-        <v>0</v>
-      </c>
-      <c r="I13" s="2">
-        <v>1</v>
-      </c>
-      <c r="J13" s="2">
-        <v>1</v>
-      </c>
-      <c r="K13" s="2">
+      <c r="H15" s="2">
+        <v>0</v>
+      </c>
+      <c r="I15" s="2">
+        <v>1</v>
+      </c>
+      <c r="J15" s="2">
+        <v>1</v>
+      </c>
+      <c r="K15" s="2">
         <v>400</v>
       </c>
-      <c r="L13" s="2">
-        <v>0</v>
-      </c>
-      <c r="M13" s="2">
+      <c r="L15" s="2">
+        <v>0</v>
+      </c>
+      <c r="M15" s="2">
         <v>32</v>
       </c>
-      <c r="N13" s="2">
-        <v>0</v>
-      </c>
-      <c r="O13" s="2">
+      <c r="N15" s="2">
+        <v>0</v>
+      </c>
+      <c r="O15" s="2">
         <v>20</v>
       </c>
-      <c r="P13" s="2">
+      <c r="P15" s="2">
         <v>90</v>
       </c>
-      <c r="Q13" s="2">
-        <v>0</v>
-      </c>
-      <c r="R13" s="2">
-        <v>0</v>
-      </c>
-      <c r="S13" s="2">
-        <v>0</v>
-      </c>
-      <c r="T13" s="2">
-        <v>0</v>
-      </c>
-      <c r="U13" s="2">
-        <v>0</v>
-      </c>
-      <c r="V13" s="2">
-        <v>0</v>
-      </c>
-      <c r="W13" s="2">
+      <c r="Q15" s="2">
+        <v>0</v>
+      </c>
+      <c r="R15" s="2">
+        <v>0</v>
+      </c>
+      <c r="S15" s="2">
+        <v>0</v>
+      </c>
+      <c r="T15" s="2">
+        <v>0</v>
+      </c>
+      <c r="U15" s="2">
+        <v>0</v>
+      </c>
+      <c r="V15" s="2">
+        <v>0</v>
+      </c>
+      <c r="W15" s="2">
         <v>50</v>
       </c>
-      <c r="X13" s="3" t="s">
+      <c r="X15" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="Y13" s="3" t="s">
+      <c r="Y15" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="Z13" s="3" t="s">
+      <c r="Z15" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="AA13" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="AB13" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="AC13" s="3">
-        <v>0</v>
-      </c>
-      <c r="AD13" s="3">
-        <v>0</v>
-      </c>
-      <c r="AE13" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF13" s="3">
-        <v>0</v>
-      </c>
-      <c r="AG13" s="3">
-        <v>0</v>
-      </c>
-      <c r="AH13" s="5" t="s">
+      <c r="AA15" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB15" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH15" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="AI13" s="4" t="s">
+      <c r="AI15" s="4" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="14" spans="1:35" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="2">
+    <row r="16" spans="1:35" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
         <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="B14" s="2">
+        <v>14</v>
+      </c>
+      <c r="B16" s="2">
         <f>INDEX(B:B,MATCH(3000,B:B,0),1)+((ROW()-MATCH(3000,B:B,0))*10)</f>
         <v>3020</v>
       </c>
-      <c r="C14" s="2">
-        <v>0</v>
-      </c>
-      <c r="D14" s="2">
+      <c r="C16" s="2">
+        <v>0</v>
+      </c>
+      <c r="D16" s="2">
         <v>9999</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E16" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F14" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G14" s="2" t="s">
+      <c r="F16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G16" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H14" s="2">
-        <v>0</v>
-      </c>
-      <c r="I14" s="2">
-        <v>1</v>
-      </c>
-      <c r="J14" s="2">
-        <v>1</v>
-      </c>
-      <c r="K14" s="2">
+      <c r="H16" s="2">
+        <v>0</v>
+      </c>
+      <c r="I16" s="2">
+        <v>1</v>
+      </c>
+      <c r="J16" s="2">
+        <v>1</v>
+      </c>
+      <c r="K16" s="2">
         <v>300</v>
       </c>
-      <c r="L14" s="2">
-        <v>0</v>
-      </c>
-      <c r="M14" s="2">
+      <c r="L16" s="2">
+        <v>0</v>
+      </c>
+      <c r="M16" s="2">
         <v>54</v>
       </c>
-      <c r="N14" s="2">
-        <v>0</v>
-      </c>
-      <c r="O14" s="2">
-        <v>0</v>
-      </c>
-      <c r="P14" s="2">
+      <c r="N16" s="2">
+        <v>0</v>
+      </c>
+      <c r="O16" s="2">
+        <v>0</v>
+      </c>
+      <c r="P16" s="2">
         <v>80</v>
       </c>
-      <c r="Q14" s="2">
-        <v>0</v>
-      </c>
-      <c r="R14" s="2">
-        <v>0</v>
-      </c>
-      <c r="S14" s="2">
-        <v>0</v>
-      </c>
-      <c r="T14" s="2">
-        <v>0</v>
-      </c>
-      <c r="U14" s="2">
-        <v>0</v>
-      </c>
-      <c r="V14" s="2">
-        <v>0</v>
-      </c>
-      <c r="W14" s="2">
+      <c r="Q16" s="2">
+        <v>0</v>
+      </c>
+      <c r="R16" s="2">
+        <v>0</v>
+      </c>
+      <c r="S16" s="2">
+        <v>0</v>
+      </c>
+      <c r="T16" s="2">
+        <v>0</v>
+      </c>
+      <c r="U16" s="2">
+        <v>0</v>
+      </c>
+      <c r="V16" s="2">
+        <v>0</v>
+      </c>
+      <c r="W16" s="2">
         <v>50</v>
       </c>
-      <c r="X14" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y14" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z14" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA14" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="AB14" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="AC14" s="3">
-        <v>0</v>
-      </c>
-      <c r="AD14" s="3">
-        <v>0</v>
-      </c>
-      <c r="AE14" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF14" s="3">
-        <v>0</v>
-      </c>
-      <c r="AG14" s="3">
-        <v>0</v>
-      </c>
-      <c r="AH14" s="5" t="s">
+      <c r="X16" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y16" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z16" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA16" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB16" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC16" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD16" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE16" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF16" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG16" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH16" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="AI14" s="4" t="s">
+      <c r="AI16" s="4" t="s">
         <v>64</v>
       </c>
     </row>

--- a/Assets/Excel_Data/Entity_QuestSetDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_QuestSetDataBase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E87E5F2-A69C-408C-84EA-FF55FFF3F87F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C596C18C-A97E-4BFC-81F2-A78AA6E9DC05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3030" yWindow="1725" windowWidth="24240" windowHeight="13770" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3015" yWindow="1305" windowWidth="24240" windowHeight="13770" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01_QuestSetData" sheetId="1" r:id="rId1"/>
@@ -4423,10 +4423,10 @@
   </sheetPr>
   <dimension ref="A1:AI16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="AI13" sqref="AI13"/>
+      <selection pane="bottomLeft" activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="27.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5462,7 +5462,7 @@
         <v>1</v>
       </c>
       <c r="K10" s="2">
-        <v>3000</v>
+        <v>1950</v>
       </c>
       <c r="L10" s="2">
         <v>0</v>

--- a/Assets/Excel_Data/Entity_QuestSetDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_QuestSetDataBase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C596C18C-A97E-4BFC-81F2-A78AA6E9DC05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BE0D199-F379-4807-A9F2-3721BA5BF1AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3015" yWindow="1305" windowWidth="24240" windowHeight="13770" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3345" yWindow="1185" windowWidth="24240" windowHeight="13770" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01_QuestSetData" sheetId="1" r:id="rId1"/>
@@ -4426,7 +4426,7 @@
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="K11" sqref="K11"/>
+      <selection pane="bottomLeft" activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="27.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4823,7 +4823,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="2">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="2">
         <v>0</v>

--- a/Assets/Excel_Data/Entity_QuestSetDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_QuestSetDataBase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BE0D199-F379-4807-A9F2-3721BA5BF1AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4AFADFD-4C76-479B-A904-713B85B21F01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3345" yWindow="1185" windowWidth="24240" windowHeight="13770" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2310" yWindow="2535" windowWidth="21660" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01_QuestSetData" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="240">
   <si>
     <t>desc</t>
   </si>
@@ -1350,6 +1350,790 @@
     <rPh sb="63" eb="64">
       <t>タ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>sea_losanonos</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>これは、とある&lt;color=#FF78B4&gt;大富豪&lt;/color&gt;の方からのご依頼ね。
+お仕事前の一服に、おいしいコーヒーが飲みたいみたい。</t>
+    <rPh sb="22" eb="25">
+      <t>ダイフゴウ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>イライ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>シゴト</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>イップク</t>
+    </rPh>
+    <rPh sb="62" eb="63">
+      <t>ノ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>strawberry_cookie</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>rusk_berry</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>rusk_juwery</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>berry_crepe</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>pan_cake</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>haloween_juice</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>mix_fruits_juice</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>hydrangea_tea</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>violatte_tea</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>vanilla_parfe</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>egg_neko_cookie</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>crystal_neko_cookie</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>heart_neko_cookie</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>rusk_strawberry</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>cheese_crepe</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>maffin_jewery</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>maffin_starcup</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>banana_cookie</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>PanCake</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CrystalSuger</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>KirakiraHeart</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>cherry_cookie</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>コーヒーが飲みたい</t>
+    <rPh sb="5" eb="6">
+      <t>ノ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>いちごのクッキーがほしい</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ベリーラスクが食べたい</t>
+    <rPh sb="7" eb="8">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ジュエリーシュガーラスクが食べたい</t>
+    <rPh sb="13" eb="14">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ベリークレープが食べたい</t>
+    <rPh sb="8" eb="9">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>おいしいパンケーキが食べたい</t>
+    <rPh sb="10" eb="11">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>バナナクッキーが食べたい</t>
+    <rPh sb="8" eb="9">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ハロウィンに合うジュースがほしい</t>
+    <rPh sb="6" eb="7">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ミックスフルーツジュースが飲みたい</t>
+    <rPh sb="13" eb="14">
+      <t>ノ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>カムロ茶が飲みたい</t>
+    <rPh sb="3" eb="4">
+      <t>チャ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ノ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>高級バニラパフェが食べたい</t>
+    <rPh sb="0" eb="2">
+      <t>コウキュウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>味わい深いねこクッキーが食べたい</t>
+    <rPh sb="0" eb="1">
+      <t>アジ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>フカ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ちっちゃなクリスタルクッキーが食べたい</t>
+    <rPh sb="15" eb="16">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ちっちゃなハートのクッキーが食べたい</t>
+    <rPh sb="14" eb="15">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>青いすみれの紅茶を飲みたい</t>
+    <rPh sb="0" eb="1">
+      <t>アオ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>コウチャ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ノ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>チェリークッキーが食べたい</t>
+    <rPh sb="9" eb="10">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ストロベリーラスクが食べたい</t>
+    <rPh sb="10" eb="11">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>チーズクレープが食べたい</t>
+    <rPh sb="8" eb="9">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>キラキラしたマフィンが食べたい</t>
+    <rPh sb="11" eb="12">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>スターカップケーキが食べたい</t>
+    <rPh sb="10" eb="11">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>これは、&lt;color=#FF78B4&gt;メイド学校の先生&lt;/color&gt;の方からのご依頼ね。
+いちごのクッキーがほしいみたい。</t>
+    <rPh sb="22" eb="24">
+      <t>ガッコウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>センセイ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>イライ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>これは、&lt;color=#FF78B4&gt;ベリー好きの貴婦人&lt;/color&gt;の方からのご依頼ね。
+ベリー味のあまずっぱいラスクを食べてみたいそうよ。</t>
+    <rPh sb="22" eb="23">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="25" eb="28">
+      <t>キフジン</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>イライ</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>アジ</t>
+    </rPh>
+    <rPh sb="62" eb="63">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>これは、&lt;color=#FF78B4&gt;宝石好きのご婦人&lt;/color&gt;の方からのご依頼ね。
+キラキラしたラスクのお菓子をお土産に持って帰りたいそうよ。</t>
+    <rPh sb="19" eb="21">
+      <t>ホウセキ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ス</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>フジン</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>イライ</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>カシ</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>ミヤゲ</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="67" eb="68">
+      <t>カエ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>これは、&lt;color=#FF78B4&gt;貿易商&lt;/color&gt;の方からのご依頼ね。
+ふわふわのパンケーキを食べてお仕事に向かいたいそうよ。</t>
+    <rPh sb="19" eb="22">
+      <t>ボウエキショウ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>イライ</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>シゴト</t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t>ム</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>これは、&lt;color=#FF78B4&gt;バナナ好きなメイドさん&lt;/color&gt;からのご依頼ね。
+バナナのクッキーを食べて栄養補給したいそうよ。</t>
+    <rPh sb="22" eb="23">
+      <t>ス</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>イライ</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>エイヨウ</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>ホキュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>これは、&lt;color=#FF78B4&gt;メイド学校の先生&lt;/color&gt;の方からのご依頼ね。
+ハロゥーンのイベントに合う飲み物を探してるみたい。</t>
+    <rPh sb="22" eb="24">
+      <t>ガッコウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>センセイ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>イライ</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t>ノ</t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t>モノ</t>
+    </rPh>
+    <rPh sb="63" eb="64">
+      <t>サガ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>これは、&lt;color=#FF78B4&gt;メイド学校の先生&lt;/color&gt;の方からのご依頼ね。
+こどもたちに、栄養満点のジュースをあげたいそうよ。</t>
+    <rPh sb="22" eb="24">
+      <t>ガッコウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>センセイ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>イライ</t>
+    </rPh>
+    <rPh sb="53" eb="57">
+      <t>エイヨウマンテン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>これは、&lt;color=#FF78B4&gt;クレープ好きなご婦人&lt;/color&gt;の方からのご依頼ね。
+ベリー味で、あまずっぱいクレープが食べたいそうよ。</t>
+    <rPh sb="23" eb="24">
+      <t>ス</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>フジン</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>イライ</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>アジ</t>
+    </rPh>
+    <rPh sb="65" eb="66">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>これは、&lt;color=#FF78B4&gt;とある東洋の外国の方&lt;/color&gt;からのご依頼ね。
+少し変わった珍しいお茶を探してるみたい。</t>
+    <rPh sb="22" eb="24">
+      <t>トウヨウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ガイコク</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>イライ</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>スコ</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>メズラ</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>チャ</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>サガ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>これは、&lt;color=#FF78B4&gt;クララおばさん&lt;/color&gt;からのご依頼ね。
+高級感のある、濃厚なバニラパフェが食べたいそうよ。</t>
+    <rPh sb="38" eb="40">
+      <t>イライ</t>
+    </rPh>
+    <rPh sb="43" eb="46">
+      <t>コウキュウカン</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>ノウコウ</t>
+    </rPh>
+    <rPh sb="60" eb="61">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>これは、とある&lt;color=#FF78B4&gt;貿易商&lt;/color&gt;の方からのご依頼ね。
+濃厚で腹持ちがいいクッキーが食べたいそうよ。</t>
+    <rPh sb="22" eb="25">
+      <t>ボウエキショウ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>イライ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ノウコウ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>ハラモ</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>これは、&lt;color=#FF78B4&gt;ご婦人&lt;/color&gt;の方からのご依頼ね。
+こどものお誕生日にキラキラしたクッキーをあげたいそうよ。</t>
+    <rPh sb="20" eb="22">
+      <t>フジン</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>イライ</t>
+    </rPh>
+    <rPh sb="46" eb="49">
+      <t>タンジョウビ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>これは、&lt;color=#FF78B4&gt;老紳士&lt;/color&gt;の方からのご依頼ね。
+こどもへのお土産に、かわいいクッキーを探してるみたい。</t>
+    <rPh sb="19" eb="22">
+      <t>ロウシンシ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>イライ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>ミヤゲ</t>
+    </rPh>
+    <rPh sb="60" eb="61">
+      <t>サガ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>これは、&lt;color=#FF78B4&gt;とある東洋の外国の方&lt;/color&gt;からのご依頼ね。
+西洋でしか飲めない珍しいお茶を探してるみたい。</t>
+    <rPh sb="22" eb="24">
+      <t>トウヨウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ガイコク</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>イライ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>セイヨウ</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>ノ</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>メズラ</t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t>チャ</t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t>サガ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>これは、&lt;color=#FF78B4&gt;商店街&lt;/color&gt;からのご依頼ね。
+イベントのお客さん用にお土産のクッキーを探してるみたい。</t>
+    <rPh sb="19" eb="22">
+      <t>ショウテンガイ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>イライ</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>キャク</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>ミヤゲ</t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t>サガ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>これは、&lt;color=#FF78B4&gt;いちご大好きなお母さん&lt;/color&gt;からのご依頼ね。
+こどものお誕生日にいちごのラスクをあげたいそうよ。</t>
+    <rPh sb="22" eb="24">
+      <t>ダイス</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>カア</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>イライ</t>
+    </rPh>
+    <rPh sb="52" eb="55">
+      <t>タンジョウビ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>これは、&lt;color=#FF78B4&gt;私&lt;/color&gt;からのご依頼ね。
+お仕事の疲れがふっとぶ、濃厚なチーズのクレープが食べたいわ。</t>
+    <rPh sb="19" eb="20">
+      <t>ワタシ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>イライ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>シゴト</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>ノウコウ</t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>これは、&lt;color=#FF78B4&gt;宝石好きのご婦人&lt;/color&gt;の方からのご依頼ね。
+宝石のような見た目のケーキを食べてみたいそうよ。</t>
+    <rPh sb="19" eb="21">
+      <t>ホウセキ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ス</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>フジン</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>イライ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>ホウセキ</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="60" eb="61">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>これは、&lt;color=#FF78B4&gt;老紳士&lt;/color&gt;の方からのご依頼ね。
+こどもへのお土産に、かわいいケーキを探してるみたい。</t>
+    <rPh sb="19" eb="22">
+      <t>ロウシンシ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>イライ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>ミヤゲ</t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t>サガ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>crepe_berry</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>rusk_jewery</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>rusk_butter_berry</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>banana_neko_cookie</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>juice_haloween</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>juice_mix</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>tea_hydrangea</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>parfe_vanilla</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>neko_cookie_egg</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>neko_cookie_crystal</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>neko_cookie_heart</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>tea_violatte</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>cherry_neko_cookie</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>rusk_butter_strawberry</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>crepe_cheese</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>coffee</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>strawberry_neko_cookie</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1432,7 +2216,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1450,6 +2234,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1767,12 +2552,12 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AI24"/>
+  <dimension ref="A1:AI44"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="AH17" sqref="AH17"/>
+      <selection pane="bottomLeft" activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="27.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1905,11 +2690,11 @@
     </row>
     <row r="2" spans="1:35" s="10" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7">
-        <f t="shared" ref="A2:A24" si="0">ROW()-2</f>
+        <f t="shared" ref="A2:A44" si="0">ROW()-2</f>
         <v>0</v>
       </c>
       <c r="B2" s="7">
-        <f t="shared" ref="B2:B21" si="1">(ROW()-2)*10</f>
+        <f t="shared" ref="B2:B41" si="1">(ROW()-2)*10</f>
         <v>0</v>
       </c>
       <c r="C2" s="7">
@@ -4083,112 +4868,113 @@
         <v>55</v>
       </c>
     </row>
-    <row r="22" spans="1:35" s="10" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="7">
+    <row r="22" spans="1:35" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="2">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B22" s="7">
-        <v>1000</v>
-      </c>
-      <c r="C22" s="7">
-        <v>0</v>
-      </c>
-      <c r="D22" s="7">
-        <v>0</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H22" s="7">
-        <v>0</v>
-      </c>
-      <c r="I22" s="7">
-        <v>1</v>
-      </c>
-      <c r="J22" s="7">
-        <v>1</v>
-      </c>
-      <c r="K22" s="7">
-        <v>600</v>
-      </c>
-      <c r="L22" s="7">
-        <v>0</v>
-      </c>
-      <c r="M22" s="7">
-        <v>32</v>
-      </c>
-      <c r="N22" s="7">
-        <v>0</v>
-      </c>
-      <c r="O22" s="7">
-        <v>0</v>
-      </c>
-      <c r="P22" s="7">
-        <v>90</v>
-      </c>
-      <c r="Q22" s="7">
-        <v>0</v>
-      </c>
-      <c r="R22" s="7">
-        <v>0</v>
-      </c>
-      <c r="S22" s="7">
-        <v>0</v>
-      </c>
-      <c r="T22" s="7">
-        <v>0</v>
-      </c>
-      <c r="U22" s="7">
-        <v>0</v>
-      </c>
-      <c r="V22" s="7">
-        <v>0</v>
-      </c>
-      <c r="W22" s="7">
+      <c r="B22" s="2">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+      <c r="C22" s="2">
+        <v>0</v>
+      </c>
+      <c r="D22" s="2">
         <v>50</v>
       </c>
-      <c r="X22" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y22" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z22" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA22" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="AB22" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="AC22" s="8">
-        <v>0</v>
-      </c>
-      <c r="AD22" s="8">
-        <v>0</v>
-      </c>
-      <c r="AE22" s="8">
-        <v>0</v>
-      </c>
-      <c r="AF22" s="8">
-        <v>0</v>
-      </c>
-      <c r="AG22" s="8">
-        <v>0</v>
-      </c>
-      <c r="AH22" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="AI22" s="11" t="s">
-        <v>130</v>
+      <c r="E22" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H22" s="2">
+        <v>0</v>
+      </c>
+      <c r="I22" s="2">
+        <v>1</v>
+      </c>
+      <c r="J22" s="2">
+        <v>2</v>
+      </c>
+      <c r="K22" s="2">
+        <v>850</v>
+      </c>
+      <c r="L22" s="2">
+        <v>0</v>
+      </c>
+      <c r="M22" s="12">
+        <v>27</v>
+      </c>
+      <c r="N22" s="12">
+        <v>150</v>
+      </c>
+      <c r="O22" s="12">
+        <v>0</v>
+      </c>
+      <c r="P22" s="12">
+        <v>60</v>
+      </c>
+      <c r="Q22" s="12">
+        <v>0</v>
+      </c>
+      <c r="R22" s="12">
+        <v>0</v>
+      </c>
+      <c r="S22" s="12">
+        <v>0</v>
+      </c>
+      <c r="T22" s="12">
+        <v>0</v>
+      </c>
+      <c r="U22" s="12">
+        <v>0</v>
+      </c>
+      <c r="V22" s="12">
+        <v>0</v>
+      </c>
+      <c r="W22" s="12">
+        <v>50</v>
+      </c>
+      <c r="X22" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y22" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z22" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA22" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB22" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC22" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD22" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE22" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF22" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG22" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH22" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="AI22" s="4" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="23" spans="1:35" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4197,23 +4983,23 @@
         <v>21</v>
       </c>
       <c r="B23" s="2">
-        <f>INDEX(B:B,MATCH(1000,B:B,0),1)+((ROW()-MATCH(1000,B:B,0))*10)</f>
-        <v>1010</v>
+        <f t="shared" si="1"/>
+        <v>210</v>
       </c>
       <c r="C23" s="2">
         <v>0</v>
       </c>
       <c r="D23" s="2">
-        <v>0</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>66</v>
+        <v>50</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>239</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>7</v>
+        <v>162</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="H23" s="2">
         <v>0</v>
@@ -4222,55 +5008,55 @@
         <v>1</v>
       </c>
       <c r="J23" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K23" s="2">
-        <v>800</v>
-      </c>
-      <c r="L23" s="2">
-        <v>0</v>
-      </c>
-      <c r="M23" s="2">
+        <v>500</v>
+      </c>
+      <c r="L23" s="12">
+        <v>0</v>
+      </c>
+      <c r="M23" s="12">
         <v>32</v>
       </c>
-      <c r="N23" s="2">
-        <v>0</v>
-      </c>
-      <c r="O23" s="2">
-        <v>20</v>
-      </c>
-      <c r="P23" s="2">
-        <v>90</v>
-      </c>
-      <c r="Q23" s="2">
-        <v>0</v>
-      </c>
-      <c r="R23" s="2">
-        <v>0</v>
-      </c>
-      <c r="S23" s="2">
-        <v>0</v>
-      </c>
-      <c r="T23" s="2">
-        <v>0</v>
-      </c>
-      <c r="U23" s="2">
-        <v>0</v>
-      </c>
-      <c r="V23" s="2">
-        <v>0</v>
-      </c>
-      <c r="W23" s="2">
+      <c r="N23" s="12">
+        <v>0</v>
+      </c>
+      <c r="O23" s="12">
+        <v>30</v>
+      </c>
+      <c r="P23" s="12">
+        <v>60</v>
+      </c>
+      <c r="Q23" s="12">
+        <v>0</v>
+      </c>
+      <c r="R23" s="12">
+        <v>0</v>
+      </c>
+      <c r="S23" s="12">
+        <v>0</v>
+      </c>
+      <c r="T23" s="12">
+        <v>0</v>
+      </c>
+      <c r="U23" s="12">
+        <v>0</v>
+      </c>
+      <c r="V23" s="12">
+        <v>0</v>
+      </c>
+      <c r="W23" s="12">
         <v>50</v>
       </c>
       <c r="X23" s="3" t="s">
-        <v>65</v>
+        <v>7</v>
       </c>
       <c r="Y23" s="3" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="Z23" s="3" t="s">
-        <v>69</v>
+        <v>7</v>
       </c>
       <c r="AA23" s="3" t="s">
         <v>7</v>
@@ -4294,10 +5080,10 @@
         <v>0</v>
       </c>
       <c r="AH23" s="5" t="s">
-        <v>76</v>
+        <v>185</v>
       </c>
       <c r="AI23" s="4" t="s">
-        <v>68</v>
+        <v>204</v>
       </c>
     </row>
     <row r="24" spans="1:35" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4306,106 +5092,2285 @@
         <v>22</v>
       </c>
       <c r="B24" s="2">
+        <f t="shared" si="1"/>
+        <v>220</v>
+      </c>
+      <c r="C24" s="2">
+        <v>0</v>
+      </c>
+      <c r="D24" s="2">
+        <v>50</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H24" s="2">
+        <v>0</v>
+      </c>
+      <c r="I24" s="2">
+        <v>1</v>
+      </c>
+      <c r="J24" s="2">
+        <v>2</v>
+      </c>
+      <c r="K24" s="2">
+        <v>450</v>
+      </c>
+      <c r="L24" s="2">
+        <v>0</v>
+      </c>
+      <c r="M24" s="12">
+        <v>54</v>
+      </c>
+      <c r="N24" s="12">
+        <v>0</v>
+      </c>
+      <c r="O24" s="12">
+        <v>30</v>
+      </c>
+      <c r="P24" s="12">
+        <v>50</v>
+      </c>
+      <c r="Q24" s="12">
+        <v>0</v>
+      </c>
+      <c r="R24" s="12">
+        <v>0</v>
+      </c>
+      <c r="S24" s="12">
+        <v>0</v>
+      </c>
+      <c r="T24" s="12">
+        <v>0</v>
+      </c>
+      <c r="U24" s="12">
+        <v>0</v>
+      </c>
+      <c r="V24" s="12">
+        <v>0</v>
+      </c>
+      <c r="W24" s="12">
+        <v>50</v>
+      </c>
+      <c r="X24" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y24" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z24" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA24" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB24" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC24" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD24" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE24" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF24" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG24" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH24" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="AI24" s="4" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="25" spans="1:35" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="2">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B25" s="2">
+        <f t="shared" si="1"/>
+        <v>230</v>
+      </c>
+      <c r="C25" s="2">
+        <v>0</v>
+      </c>
+      <c r="D25" s="2">
+        <v>50</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H25" s="2">
+        <v>0</v>
+      </c>
+      <c r="I25" s="2">
+        <v>1</v>
+      </c>
+      <c r="J25" s="2">
+        <v>2</v>
+      </c>
+      <c r="K25" s="2">
+        <v>450</v>
+      </c>
+      <c r="L25" s="2">
+        <v>0</v>
+      </c>
+      <c r="M25" s="12">
+        <v>70</v>
+      </c>
+      <c r="N25" s="12">
+        <v>0</v>
+      </c>
+      <c r="O25" s="12">
+        <v>0</v>
+      </c>
+      <c r="P25" s="12">
+        <v>50</v>
+      </c>
+      <c r="Q25" s="12">
+        <v>0</v>
+      </c>
+      <c r="R25" s="12">
+        <v>0</v>
+      </c>
+      <c r="S25" s="12">
+        <v>0</v>
+      </c>
+      <c r="T25" s="12">
+        <v>0</v>
+      </c>
+      <c r="U25" s="12">
+        <v>0</v>
+      </c>
+      <c r="V25" s="12">
+        <v>0</v>
+      </c>
+      <c r="W25" s="12">
+        <v>50</v>
+      </c>
+      <c r="X25" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y25" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z25" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA25" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB25" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC25" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD25" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE25" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF25" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG25" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH25" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="AI25" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="26" spans="1:35" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="2">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B26" s="2">
+        <f t="shared" si="1"/>
+        <v>240</v>
+      </c>
+      <c r="C26" s="2">
+        <v>0</v>
+      </c>
+      <c r="D26" s="2">
+        <v>50</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H26" s="2">
+        <v>0</v>
+      </c>
+      <c r="I26" s="2">
+        <v>1</v>
+      </c>
+      <c r="J26" s="2">
+        <v>2</v>
+      </c>
+      <c r="K26" s="2">
+        <v>1100</v>
+      </c>
+      <c r="L26" s="2">
+        <v>0</v>
+      </c>
+      <c r="M26" s="12">
+        <v>130</v>
+      </c>
+      <c r="N26" s="12">
+        <v>0</v>
+      </c>
+      <c r="O26" s="12">
+        <v>70</v>
+      </c>
+      <c r="P26" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="12">
+        <v>85</v>
+      </c>
+      <c r="R26" s="12">
+        <v>0</v>
+      </c>
+      <c r="S26" s="12">
+        <v>0</v>
+      </c>
+      <c r="T26" s="12">
+        <v>0</v>
+      </c>
+      <c r="U26" s="12">
+        <v>0</v>
+      </c>
+      <c r="V26" s="12">
+        <v>0</v>
+      </c>
+      <c r="W26" s="12">
+        <v>90</v>
+      </c>
+      <c r="X26" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y26" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z26" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA26" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB26" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC26" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD26" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE26" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF26" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG26" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH26" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="AI26" s="4" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="27" spans="1:35" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="2">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B27" s="2">
+        <f t="shared" si="1"/>
+        <v>250</v>
+      </c>
+      <c r="C27" s="2">
+        <v>0</v>
+      </c>
+      <c r="D27" s="2">
+        <v>50</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G27" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="H27" s="2">
+        <v>0</v>
+      </c>
+      <c r="I27" s="2">
+        <v>1</v>
+      </c>
+      <c r="J27" s="2">
+        <v>2</v>
+      </c>
+      <c r="K27" s="2">
+        <v>1500</v>
+      </c>
+      <c r="L27" s="2">
+        <v>0</v>
+      </c>
+      <c r="M27" s="12">
+        <v>77</v>
+      </c>
+      <c r="N27" s="12">
+        <v>0</v>
+      </c>
+      <c r="O27" s="12">
+        <v>0</v>
+      </c>
+      <c r="P27" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="12">
+        <v>80</v>
+      </c>
+      <c r="R27" s="12">
+        <v>0</v>
+      </c>
+      <c r="S27" s="12">
+        <v>0</v>
+      </c>
+      <c r="T27" s="12">
+        <v>0</v>
+      </c>
+      <c r="U27" s="12">
+        <v>0</v>
+      </c>
+      <c r="V27" s="12">
+        <v>0</v>
+      </c>
+      <c r="W27" s="12">
+        <v>80</v>
+      </c>
+      <c r="X27" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y27" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z27" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA27" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB27" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC27" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD27" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE27" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF27" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG27" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH27" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="AI27" s="4" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="28" spans="1:35" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="2">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B28" s="2">
+        <f t="shared" si="1"/>
+        <v>260</v>
+      </c>
+      <c r="C28" s="2">
+        <v>0</v>
+      </c>
+      <c r="D28" s="2">
+        <v>50</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H28" s="2">
+        <v>0</v>
+      </c>
+      <c r="I28" s="2">
+        <v>1</v>
+      </c>
+      <c r="J28" s="2">
+        <v>2</v>
+      </c>
+      <c r="K28" s="2">
+        <v>500</v>
+      </c>
+      <c r="L28" s="2">
+        <v>0</v>
+      </c>
+      <c r="M28" s="12">
+        <v>80</v>
+      </c>
+      <c r="N28" s="12">
+        <v>0</v>
+      </c>
+      <c r="O28" s="12">
+        <v>0</v>
+      </c>
+      <c r="P28" s="12">
+        <v>80</v>
+      </c>
+      <c r="Q28" s="12">
+        <v>0</v>
+      </c>
+      <c r="R28" s="12">
+        <v>0</v>
+      </c>
+      <c r="S28" s="12">
+        <v>0</v>
+      </c>
+      <c r="T28" s="12">
+        <v>0</v>
+      </c>
+      <c r="U28" s="12">
+        <v>0</v>
+      </c>
+      <c r="V28" s="12">
+        <v>0</v>
+      </c>
+      <c r="W28" s="12">
+        <v>50</v>
+      </c>
+      <c r="X28" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y28" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z28" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA28" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB28" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC28" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD28" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE28" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF28" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG28" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH28" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="AI28" s="4" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="29" spans="1:35" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="2">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B29" s="2">
+        <f t="shared" si="1"/>
+        <v>270</v>
+      </c>
+      <c r="C29" s="2">
+        <v>0</v>
+      </c>
+      <c r="D29" s="2">
+        <v>100</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H29" s="2">
+        <v>0</v>
+      </c>
+      <c r="I29" s="2">
+        <v>1</v>
+      </c>
+      <c r="J29" s="2">
+        <v>2</v>
+      </c>
+      <c r="K29" s="2">
+        <v>500</v>
+      </c>
+      <c r="L29" s="2">
+        <v>0</v>
+      </c>
+      <c r="M29" s="12">
+        <v>55</v>
+      </c>
+      <c r="N29" s="12">
+        <v>0</v>
+      </c>
+      <c r="O29" s="12">
+        <v>0</v>
+      </c>
+      <c r="P29" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="12">
+        <v>0</v>
+      </c>
+      <c r="R29" s="12">
+        <v>0</v>
+      </c>
+      <c r="S29" s="12">
+        <v>0</v>
+      </c>
+      <c r="T29" s="12">
+        <v>0</v>
+      </c>
+      <c r="U29" s="12">
+        <v>0</v>
+      </c>
+      <c r="V29" s="12">
+        <v>50</v>
+      </c>
+      <c r="W29" s="12">
+        <v>70</v>
+      </c>
+      <c r="X29" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y29" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z29" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA29" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB29" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC29" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD29" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE29" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF29" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG29" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH29" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="AI29" s="4" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="30" spans="1:35" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="2">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B30" s="2">
+        <f t="shared" si="1"/>
+        <v>280</v>
+      </c>
+      <c r="C30" s="2">
+        <v>0</v>
+      </c>
+      <c r="D30" s="2">
+        <v>100</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H30" s="2">
+        <v>0</v>
+      </c>
+      <c r="I30" s="2">
+        <v>1</v>
+      </c>
+      <c r="J30" s="2">
+        <v>2</v>
+      </c>
+      <c r="K30" s="2">
+        <v>600</v>
+      </c>
+      <c r="L30" s="2">
+        <v>0</v>
+      </c>
+      <c r="M30" s="12">
+        <v>55</v>
+      </c>
+      <c r="N30" s="12">
+        <v>0</v>
+      </c>
+      <c r="O30" s="12">
+        <v>0</v>
+      </c>
+      <c r="P30" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="12">
+        <v>0</v>
+      </c>
+      <c r="R30" s="12">
+        <v>0</v>
+      </c>
+      <c r="S30" s="12">
+        <v>0</v>
+      </c>
+      <c r="T30" s="12">
+        <v>0</v>
+      </c>
+      <c r="U30" s="12">
+        <v>0</v>
+      </c>
+      <c r="V30" s="12">
+        <v>40</v>
+      </c>
+      <c r="W30" s="12">
+        <v>70</v>
+      </c>
+      <c r="X30" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y30" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z30" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA30" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB30" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC30" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD30" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE30" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF30" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG30" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH30" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="AI30" s="4" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="31" spans="1:35" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="2">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B31" s="2">
+        <f t="shared" si="1"/>
+        <v>290</v>
+      </c>
+      <c r="C31" s="2">
+        <v>0</v>
+      </c>
+      <c r="D31" s="2">
+        <v>100</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H31" s="2">
+        <v>0</v>
+      </c>
+      <c r="I31" s="2">
+        <v>1</v>
+      </c>
+      <c r="J31" s="2">
+        <v>2</v>
+      </c>
+      <c r="K31" s="2">
+        <v>850</v>
+      </c>
+      <c r="L31" s="2">
+        <v>0</v>
+      </c>
+      <c r="M31" s="12">
+        <v>32</v>
+      </c>
+      <c r="N31" s="12">
+        <v>30</v>
+      </c>
+      <c r="O31" s="12">
+        <v>0</v>
+      </c>
+      <c r="P31" s="12">
+        <v>50</v>
+      </c>
+      <c r="Q31" s="12">
+        <v>0</v>
+      </c>
+      <c r="R31" s="12">
+        <v>0</v>
+      </c>
+      <c r="S31" s="12">
+        <v>0</v>
+      </c>
+      <c r="T31" s="12">
+        <v>0</v>
+      </c>
+      <c r="U31" s="12">
+        <v>0</v>
+      </c>
+      <c r="V31" s="12">
+        <v>0</v>
+      </c>
+      <c r="W31" s="12">
+        <v>50</v>
+      </c>
+      <c r="X31" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y31" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z31" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA31" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB31" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC31" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD31" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE31" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF31" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG31" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH31" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="AI31" s="4" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="32" spans="1:35" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="2">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B32" s="2">
+        <f t="shared" si="1"/>
+        <v>300</v>
+      </c>
+      <c r="C32" s="2">
+        <v>0</v>
+      </c>
+      <c r="D32" s="2">
+        <v>100</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H32" s="2">
+        <v>0</v>
+      </c>
+      <c r="I32" s="2">
+        <v>1</v>
+      </c>
+      <c r="J32" s="2">
+        <v>2</v>
+      </c>
+      <c r="K32" s="2">
+        <v>3500</v>
+      </c>
+      <c r="L32" s="2">
+        <v>0</v>
+      </c>
+      <c r="M32" s="12">
+        <v>330</v>
+      </c>
+      <c r="N32" s="12">
+        <v>40</v>
+      </c>
+      <c r="O32" s="12">
+        <v>110</v>
+      </c>
+      <c r="P32" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="12">
+        <v>60</v>
+      </c>
+      <c r="R32" s="12">
+        <v>90</v>
+      </c>
+      <c r="S32" s="12">
+        <v>0</v>
+      </c>
+      <c r="T32" s="12">
+        <v>0</v>
+      </c>
+      <c r="U32" s="12">
+        <v>0</v>
+      </c>
+      <c r="V32" s="12">
+        <v>0</v>
+      </c>
+      <c r="W32" s="12">
+        <v>110</v>
+      </c>
+      <c r="X32" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y32" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z32" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA32" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB32" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC32" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD32" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE32" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF32" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG32" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH32" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="AI32" s="4" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="33" spans="1:35" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="2">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="B33" s="2">
+        <f t="shared" si="1"/>
+        <v>310</v>
+      </c>
+      <c r="C33" s="2">
+        <v>0</v>
+      </c>
+      <c r="D33" s="2">
+        <v>100</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H33" s="2">
+        <v>0</v>
+      </c>
+      <c r="I33" s="2">
+        <v>1</v>
+      </c>
+      <c r="J33" s="2">
+        <v>2</v>
+      </c>
+      <c r="K33" s="2">
+        <v>500</v>
+      </c>
+      <c r="L33" s="2">
+        <v>0</v>
+      </c>
+      <c r="M33" s="12">
+        <v>32</v>
+      </c>
+      <c r="N33" s="12">
+        <v>0</v>
+      </c>
+      <c r="O33" s="12">
+        <v>0</v>
+      </c>
+      <c r="P33" s="12">
+        <v>60</v>
+      </c>
+      <c r="Q33" s="12">
+        <v>20</v>
+      </c>
+      <c r="R33" s="12">
+        <v>0</v>
+      </c>
+      <c r="S33" s="12">
+        <v>0</v>
+      </c>
+      <c r="T33" s="12">
+        <v>0</v>
+      </c>
+      <c r="U33" s="12">
+        <v>0</v>
+      </c>
+      <c r="V33" s="12">
+        <v>0</v>
+      </c>
+      <c r="W33" s="12">
+        <v>50</v>
+      </c>
+      <c r="X33" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y33" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z33" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA33" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB33" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC33" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD33" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE33" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF33" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG33" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH33" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="AI33" s="4" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="34" spans="1:35" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="2">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="B34" s="2">
+        <f t="shared" si="1"/>
+        <v>320</v>
+      </c>
+      <c r="C34" s="2">
+        <v>0</v>
+      </c>
+      <c r="D34" s="2">
+        <v>100</v>
+      </c>
+      <c r="E34" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H34" s="2">
+        <v>0</v>
+      </c>
+      <c r="I34" s="2">
+        <v>1</v>
+      </c>
+      <c r="J34" s="2">
+        <v>2</v>
+      </c>
+      <c r="K34" s="2">
+        <v>400</v>
+      </c>
+      <c r="L34" s="2">
+        <v>0</v>
+      </c>
+      <c r="M34" s="12">
+        <v>54</v>
+      </c>
+      <c r="N34" s="12">
+        <v>0</v>
+      </c>
+      <c r="O34" s="12">
+        <v>0</v>
+      </c>
+      <c r="P34" s="12">
+        <v>70</v>
+      </c>
+      <c r="Q34" s="12">
+        <v>0</v>
+      </c>
+      <c r="R34" s="12">
+        <v>0</v>
+      </c>
+      <c r="S34" s="12">
+        <v>0</v>
+      </c>
+      <c r="T34" s="12">
+        <v>0</v>
+      </c>
+      <c r="U34" s="12">
+        <v>0</v>
+      </c>
+      <c r="V34" s="12">
+        <v>0</v>
+      </c>
+      <c r="W34" s="12">
+        <v>50</v>
+      </c>
+      <c r="X34" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="Y34" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z34" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA34" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB34" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC34" s="2">
+        <v>30</v>
+      </c>
+      <c r="AD34" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE34" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF34" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG34" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH34" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="AI34" s="4" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="35" spans="1:35" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="2">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="B35" s="2">
+        <f t="shared" si="1"/>
+        <v>330</v>
+      </c>
+      <c r="C35" s="2">
+        <v>0</v>
+      </c>
+      <c r="D35" s="2">
+        <v>100</v>
+      </c>
+      <c r="E35" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H35" s="2">
+        <v>0</v>
+      </c>
+      <c r="I35" s="2">
+        <v>1</v>
+      </c>
+      <c r="J35" s="2">
+        <v>2</v>
+      </c>
+      <c r="K35" s="2">
+        <v>400</v>
+      </c>
+      <c r="L35" s="2">
+        <v>0</v>
+      </c>
+      <c r="M35" s="12">
+        <v>54</v>
+      </c>
+      <c r="N35" s="12">
+        <v>0</v>
+      </c>
+      <c r="O35" s="12">
+        <v>0</v>
+      </c>
+      <c r="P35" s="12">
+        <v>70</v>
+      </c>
+      <c r="Q35" s="12">
+        <v>0</v>
+      </c>
+      <c r="R35" s="12">
+        <v>0</v>
+      </c>
+      <c r="S35" s="12">
+        <v>0</v>
+      </c>
+      <c r="T35" s="12">
+        <v>0</v>
+      </c>
+      <c r="U35" s="12">
+        <v>0</v>
+      </c>
+      <c r="V35" s="12">
+        <v>0</v>
+      </c>
+      <c r="W35" s="12">
+        <v>50</v>
+      </c>
+      <c r="X35" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="Y35" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z35" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA35" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB35" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC35" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD35" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE35" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF35" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG35" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH35" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="AI35" s="4" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="36" spans="1:35" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="2">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="B36" s="2">
+        <f t="shared" si="1"/>
+        <v>340</v>
+      </c>
+      <c r="C36" s="2">
+        <v>0</v>
+      </c>
+      <c r="D36" s="2">
+        <v>200</v>
+      </c>
+      <c r="E36" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H36" s="2">
+        <v>0</v>
+      </c>
+      <c r="I36" s="2">
+        <v>1</v>
+      </c>
+      <c r="J36" s="2">
+        <v>2</v>
+      </c>
+      <c r="K36" s="2">
+        <v>1200</v>
+      </c>
+      <c r="L36" s="2">
+        <v>0</v>
+      </c>
+      <c r="M36" s="12">
+        <v>32</v>
+      </c>
+      <c r="N36" s="12">
+        <v>30</v>
+      </c>
+      <c r="O36" s="12">
+        <v>0</v>
+      </c>
+      <c r="P36" s="12">
+        <v>50</v>
+      </c>
+      <c r="Q36" s="12">
+        <v>0</v>
+      </c>
+      <c r="R36" s="12">
+        <v>0</v>
+      </c>
+      <c r="S36" s="12">
+        <v>0</v>
+      </c>
+      <c r="T36" s="12">
+        <v>0</v>
+      </c>
+      <c r="U36" s="12">
+        <v>0</v>
+      </c>
+      <c r="V36" s="12">
+        <v>0</v>
+      </c>
+      <c r="W36" s="12">
+        <v>130</v>
+      </c>
+      <c r="X36" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y36" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z36" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA36" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB36" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC36" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD36" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE36" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF36" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG36" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH36" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="AI36" s="4" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="37" spans="1:35" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="2">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="B37" s="2">
+        <f t="shared" si="1"/>
+        <v>350</v>
+      </c>
+      <c r="C37" s="2">
+        <v>0</v>
+      </c>
+      <c r="D37" s="2">
+        <v>200</v>
+      </c>
+      <c r="E37" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="F37" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H37" s="2">
+        <v>0</v>
+      </c>
+      <c r="I37" s="2">
+        <v>1</v>
+      </c>
+      <c r="J37" s="2">
+        <v>2</v>
+      </c>
+      <c r="K37" s="2">
+        <v>480</v>
+      </c>
+      <c r="L37" s="2">
+        <v>0</v>
+      </c>
+      <c r="M37" s="12">
+        <v>32</v>
+      </c>
+      <c r="N37" s="12">
+        <v>0</v>
+      </c>
+      <c r="O37" s="12">
+        <v>20</v>
+      </c>
+      <c r="P37" s="12">
+        <v>60</v>
+      </c>
+      <c r="Q37" s="12">
+        <v>0</v>
+      </c>
+      <c r="R37" s="12">
+        <v>0</v>
+      </c>
+      <c r="S37" s="12">
+        <v>0</v>
+      </c>
+      <c r="T37" s="12">
+        <v>0</v>
+      </c>
+      <c r="U37" s="12">
+        <v>0</v>
+      </c>
+      <c r="V37" s="12">
+        <v>0</v>
+      </c>
+      <c r="W37" s="12">
+        <v>50</v>
+      </c>
+      <c r="X37" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y37" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z37" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA37" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB37" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC37" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD37" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE37" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF37" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG37" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH37" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="AI37" s="4" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="38" spans="1:35" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="2">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="B38" s="2">
+        <f t="shared" si="1"/>
+        <v>360</v>
+      </c>
+      <c r="C38" s="2">
+        <v>0</v>
+      </c>
+      <c r="D38" s="2">
+        <v>200</v>
+      </c>
+      <c r="E38" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H38" s="2">
+        <v>0</v>
+      </c>
+      <c r="I38" s="2">
+        <v>1</v>
+      </c>
+      <c r="J38" s="2">
+        <v>2</v>
+      </c>
+      <c r="K38" s="2">
+        <v>550</v>
+      </c>
+      <c r="L38" s="2">
+        <v>0</v>
+      </c>
+      <c r="M38" s="12">
+        <v>80</v>
+      </c>
+      <c r="N38" s="12">
+        <v>0</v>
+      </c>
+      <c r="O38" s="12">
+        <v>30</v>
+      </c>
+      <c r="P38" s="12">
+        <v>50</v>
+      </c>
+      <c r="Q38" s="12">
+        <v>0</v>
+      </c>
+      <c r="R38" s="12">
+        <v>0</v>
+      </c>
+      <c r="S38" s="12">
+        <v>0</v>
+      </c>
+      <c r="T38" s="12">
+        <v>0</v>
+      </c>
+      <c r="U38" s="12">
+        <v>0</v>
+      </c>
+      <c r="V38" s="12">
+        <v>0</v>
+      </c>
+      <c r="W38" s="12">
+        <v>50</v>
+      </c>
+      <c r="X38" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y38" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z38" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA38" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB38" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC38" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD38" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE38" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF38" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG38" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH38" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="AI38" s="4" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="39" spans="1:35" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="2">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="B39" s="2">
+        <f t="shared" si="1"/>
+        <v>370</v>
+      </c>
+      <c r="C39" s="2">
+        <v>0</v>
+      </c>
+      <c r="D39" s="2">
+        <v>200</v>
+      </c>
+      <c r="E39" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H39" s="2">
+        <v>0</v>
+      </c>
+      <c r="I39" s="2">
+        <v>1</v>
+      </c>
+      <c r="J39" s="2">
+        <v>2</v>
+      </c>
+      <c r="K39" s="2">
+        <v>1000</v>
+      </c>
+      <c r="L39" s="2">
+        <v>0</v>
+      </c>
+      <c r="M39" s="12">
+        <v>40</v>
+      </c>
+      <c r="N39" s="12">
+        <v>0</v>
+      </c>
+      <c r="O39" s="12">
+        <v>10</v>
+      </c>
+      <c r="P39" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="12">
+        <v>85</v>
+      </c>
+      <c r="R39" s="12">
+        <v>0</v>
+      </c>
+      <c r="S39" s="12">
+        <v>0</v>
+      </c>
+      <c r="T39" s="12">
+        <v>0</v>
+      </c>
+      <c r="U39" s="12">
+        <v>0</v>
+      </c>
+      <c r="V39" s="12">
+        <v>0</v>
+      </c>
+      <c r="W39" s="12">
+        <v>90</v>
+      </c>
+      <c r="X39" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y39" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z39" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA39" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB39" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC39" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD39" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE39" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF39" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG39" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH39" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="AI39" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="40" spans="1:35" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="2">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="B40" s="2">
+        <f t="shared" si="1"/>
+        <v>380</v>
+      </c>
+      <c r="C40" s="2">
+        <v>0</v>
+      </c>
+      <c r="D40" s="2">
+        <v>200</v>
+      </c>
+      <c r="E40" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H40" s="2">
+        <v>0</v>
+      </c>
+      <c r="I40" s="2">
+        <v>1</v>
+      </c>
+      <c r="J40" s="2">
+        <v>2</v>
+      </c>
+      <c r="K40" s="2">
+        <v>1300</v>
+      </c>
+      <c r="L40" s="2">
+        <v>0</v>
+      </c>
+      <c r="M40" s="12">
+        <v>88</v>
+      </c>
+      <c r="N40" s="12">
+        <v>0</v>
+      </c>
+      <c r="O40" s="12">
+        <v>0</v>
+      </c>
+      <c r="P40" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="12">
+        <v>60</v>
+      </c>
+      <c r="R40" s="12">
+        <v>0</v>
+      </c>
+      <c r="S40" s="12">
+        <v>0</v>
+      </c>
+      <c r="T40" s="12">
+        <v>0</v>
+      </c>
+      <c r="U40" s="12">
+        <v>0</v>
+      </c>
+      <c r="V40" s="12">
+        <v>0</v>
+      </c>
+      <c r="W40" s="12">
+        <v>70</v>
+      </c>
+      <c r="X40" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y40" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z40" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA40" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB40" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC40" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD40" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE40" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF40" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG40" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH40" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="AI40" s="4" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="41" spans="1:35" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="2">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="B41" s="2">
+        <f t="shared" si="1"/>
+        <v>390</v>
+      </c>
+      <c r="C41" s="2">
+        <v>0</v>
+      </c>
+      <c r="D41" s="2">
+        <v>200</v>
+      </c>
+      <c r="E41" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H41" s="2">
+        <v>0</v>
+      </c>
+      <c r="I41" s="2">
+        <v>1</v>
+      </c>
+      <c r="J41" s="2">
+        <v>2</v>
+      </c>
+      <c r="K41" s="2">
+        <v>2000</v>
+      </c>
+      <c r="L41" s="2">
+        <v>0</v>
+      </c>
+      <c r="M41" s="12">
+        <v>88</v>
+      </c>
+      <c r="N41" s="12">
+        <v>0</v>
+      </c>
+      <c r="O41" s="12">
+        <v>0</v>
+      </c>
+      <c r="P41" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="12">
+        <v>60</v>
+      </c>
+      <c r="R41" s="12">
+        <v>0</v>
+      </c>
+      <c r="S41" s="12">
+        <v>0</v>
+      </c>
+      <c r="T41" s="12">
+        <v>0</v>
+      </c>
+      <c r="U41" s="12">
+        <v>0</v>
+      </c>
+      <c r="V41" s="12">
+        <v>0</v>
+      </c>
+      <c r="W41" s="12">
+        <v>70</v>
+      </c>
+      <c r="X41" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y41" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z41" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA41" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB41" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC41" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD41" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE41" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF41" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG41" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH41" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="AI41" s="4" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="42" spans="1:35" s="10" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="7">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="B42" s="7">
+        <v>1000</v>
+      </c>
+      <c r="C42" s="7">
+        <v>0</v>
+      </c>
+      <c r="D42" s="7">
+        <v>0</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H42" s="7">
+        <v>0</v>
+      </c>
+      <c r="I42" s="7">
+        <v>1</v>
+      </c>
+      <c r="J42" s="7">
+        <v>1</v>
+      </c>
+      <c r="K42" s="7">
+        <v>600</v>
+      </c>
+      <c r="L42" s="7">
+        <v>0</v>
+      </c>
+      <c r="M42" s="7">
+        <v>32</v>
+      </c>
+      <c r="N42" s="7">
+        <v>0</v>
+      </c>
+      <c r="O42" s="7">
+        <v>0</v>
+      </c>
+      <c r="P42" s="7">
+        <v>90</v>
+      </c>
+      <c r="Q42" s="7">
+        <v>0</v>
+      </c>
+      <c r="R42" s="7">
+        <v>0</v>
+      </c>
+      <c r="S42" s="7">
+        <v>0</v>
+      </c>
+      <c r="T42" s="7">
+        <v>0</v>
+      </c>
+      <c r="U42" s="7">
+        <v>0</v>
+      </c>
+      <c r="V42" s="7">
+        <v>0</v>
+      </c>
+      <c r="W42" s="7">
+        <v>50</v>
+      </c>
+      <c r="X42" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y42" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z42" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA42" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB42" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC42" s="8">
+        <v>0</v>
+      </c>
+      <c r="AD42" s="8">
+        <v>0</v>
+      </c>
+      <c r="AE42" s="8">
+        <v>0</v>
+      </c>
+      <c r="AF42" s="8">
+        <v>0</v>
+      </c>
+      <c r="AG42" s="8">
+        <v>0</v>
+      </c>
+      <c r="AH42" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI42" s="11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="43" spans="1:35" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="2">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="B43" s="2">
+        <f>INDEX(B:B,MATCH(1000,B:B,0),1)+((ROW()-MATCH(1000,B:B,0))*10)</f>
+        <v>1010</v>
+      </c>
+      <c r="C43" s="2">
+        <v>0</v>
+      </c>
+      <c r="D43" s="2">
+        <v>0</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H43" s="2">
+        <v>0</v>
+      </c>
+      <c r="I43" s="2">
+        <v>1</v>
+      </c>
+      <c r="J43" s="2">
+        <v>1</v>
+      </c>
+      <c r="K43" s="2">
+        <v>800</v>
+      </c>
+      <c r="L43" s="2">
+        <v>0</v>
+      </c>
+      <c r="M43" s="2">
+        <v>32</v>
+      </c>
+      <c r="N43" s="2">
+        <v>0</v>
+      </c>
+      <c r="O43" s="2">
+        <v>20</v>
+      </c>
+      <c r="P43" s="2">
+        <v>90</v>
+      </c>
+      <c r="Q43" s="2">
+        <v>0</v>
+      </c>
+      <c r="R43" s="2">
+        <v>0</v>
+      </c>
+      <c r="S43" s="2">
+        <v>0</v>
+      </c>
+      <c r="T43" s="2">
+        <v>0</v>
+      </c>
+      <c r="U43" s="2">
+        <v>0</v>
+      </c>
+      <c r="V43" s="2">
+        <v>0</v>
+      </c>
+      <c r="W43" s="2">
+        <v>50</v>
+      </c>
+      <c r="X43" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y43" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z43" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA43" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB43" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC43" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD43" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE43" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF43" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG43" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH43" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI43" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="44" spans="1:35" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="2">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="B44" s="2">
         <f>INDEX(B:B,MATCH(1000,B:B,0),1)+((ROW()-MATCH(1000,B:B,0))*10)</f>
         <v>1020</v>
       </c>
-      <c r="C24" s="2">
-        <v>0</v>
-      </c>
-      <c r="D24" s="2">
+      <c r="C44" s="2">
+        <v>0</v>
+      </c>
+      <c r="D44" s="2">
         <v>9999</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="E44" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F24" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G24" s="2" t="s">
+      <c r="F44" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G44" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H24" s="2">
-        <v>0</v>
-      </c>
-      <c r="I24" s="2">
-        <v>1</v>
-      </c>
-      <c r="J24" s="2">
-        <v>1</v>
-      </c>
-      <c r="K24" s="2">
+      <c r="H44" s="2">
+        <v>0</v>
+      </c>
+      <c r="I44" s="2">
+        <v>1</v>
+      </c>
+      <c r="J44" s="2">
+        <v>1</v>
+      </c>
+      <c r="K44" s="2">
         <v>300</v>
       </c>
-      <c r="L24" s="2">
-        <v>0</v>
-      </c>
-      <c r="M24" s="2">
+      <c r="L44" s="2">
+        <v>0</v>
+      </c>
+      <c r="M44" s="2">
         <v>54</v>
       </c>
-      <c r="N24" s="2">
-        <v>0</v>
-      </c>
-      <c r="O24" s="2">
-        <v>0</v>
-      </c>
-      <c r="P24" s="2">
+      <c r="N44" s="2">
+        <v>0</v>
+      </c>
+      <c r="O44" s="2">
+        <v>0</v>
+      </c>
+      <c r="P44" s="2">
         <v>80</v>
       </c>
-      <c r="Q24" s="2">
-        <v>0</v>
-      </c>
-      <c r="R24" s="2">
-        <v>0</v>
-      </c>
-      <c r="S24" s="2">
-        <v>0</v>
-      </c>
-      <c r="T24" s="2">
-        <v>0</v>
-      </c>
-      <c r="U24" s="2">
-        <v>0</v>
-      </c>
-      <c r="V24" s="2">
-        <v>0</v>
-      </c>
-      <c r="W24" s="2">
+      <c r="Q44" s="2">
+        <v>0</v>
+      </c>
+      <c r="R44" s="2">
+        <v>0</v>
+      </c>
+      <c r="S44" s="2">
+        <v>0</v>
+      </c>
+      <c r="T44" s="2">
+        <v>0</v>
+      </c>
+      <c r="U44" s="2">
+        <v>0</v>
+      </c>
+      <c r="V44" s="2">
+        <v>0</v>
+      </c>
+      <c r="W44" s="2">
         <v>50</v>
       </c>
-      <c r="X24" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y24" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z24" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA24" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="AB24" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="AC24" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD24" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE24" s="2">
-        <v>0</v>
-      </c>
-      <c r="AF24" s="2">
-        <v>0</v>
-      </c>
-      <c r="AG24" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH24" s="5" t="s">
+      <c r="X44" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y44" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z44" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA44" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB44" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC44" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD44" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE44" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF44" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG44" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH44" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="AI24" s="4" t="s">
+      <c r="AI44" s="4" t="s">
         <v>64</v>
       </c>
     </row>
@@ -4423,10 +7388,10 @@
   </sheetPr>
   <dimension ref="A1:AI16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="P5" sqref="P5"/>
+      <selection pane="bottomLeft" activeCell="AI10" sqref="AI10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="27.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/Assets/Excel_Data/Entity_QuestSetDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_QuestSetDataBase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4AFADFD-4C76-479B-A904-713B85B21F01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83755DC7-F1C3-4351-8D41-18039C0B8FBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2310" yWindow="2535" windowWidth="21660" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3510" yWindow="3645" windowWidth="23565" windowHeight="11580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01_QuestSetData" sheetId="1" r:id="rId1"/>
@@ -1353,10 +1353,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>sea_losanonos</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>これは、とある&lt;color=#FF78B4&gt;大富豪&lt;/color&gt;の方からのご依頼ね。
 お仕事前の一服に、おいしいコーヒーが飲みたいみたい。</t>
     <rPh sb="22" eb="25">
@@ -2134,6 +2130,10 @@
   </si>
   <si>
     <t>strawberry_neko_cookie</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Coffee</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -2216,25 +2216,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+  <cellXfs count="12">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -2555,9 +2553,9 @@
   <dimension ref="A1:AI44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="K27" sqref="K27"/>
+      <selection pane="bottomLeft" activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="27.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4883,14 +4881,14 @@
       <c r="D22" s="2">
         <v>50</v>
       </c>
-      <c r="E22" s="12" t="s">
-        <v>238</v>
+      <c r="E22" s="2" t="s">
+        <v>237</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>160</v>
+        <v>7</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>7</v>
+        <v>239</v>
       </c>
       <c r="H22" s="2">
         <v>0</v>
@@ -4907,37 +4905,37 @@
       <c r="L22" s="2">
         <v>0</v>
       </c>
-      <c r="M22" s="12">
+      <c r="M22" s="2">
         <v>27</v>
       </c>
-      <c r="N22" s="12">
+      <c r="N22" s="2">
         <v>150</v>
       </c>
-      <c r="O22" s="12">
-        <v>0</v>
-      </c>
-      <c r="P22" s="12">
+      <c r="O22" s="2">
+        <v>0</v>
+      </c>
+      <c r="P22" s="2">
         <v>60</v>
       </c>
-      <c r="Q22" s="12">
-        <v>0</v>
-      </c>
-      <c r="R22" s="12">
-        <v>0</v>
-      </c>
-      <c r="S22" s="12">
-        <v>0</v>
-      </c>
-      <c r="T22" s="12">
-        <v>0</v>
-      </c>
-      <c r="U22" s="12">
-        <v>0</v>
-      </c>
-      <c r="V22" s="12">
-        <v>0</v>
-      </c>
-      <c r="W22" s="12">
+      <c r="Q22" s="2">
+        <v>0</v>
+      </c>
+      <c r="R22" s="2">
+        <v>0</v>
+      </c>
+      <c r="S22" s="2">
+        <v>0</v>
+      </c>
+      <c r="T22" s="2">
+        <v>0</v>
+      </c>
+      <c r="U22" s="2">
+        <v>0</v>
+      </c>
+      <c r="V22" s="2">
+        <v>0</v>
+      </c>
+      <c r="W22" s="2">
         <v>50</v>
       </c>
       <c r="X22" s="3" t="s">
@@ -4971,10 +4969,10 @@
         <v>0</v>
       </c>
       <c r="AH22" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AI22" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="23" spans="1:35" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4992,11 +4990,11 @@
       <c r="D23" s="2">
         <v>50</v>
       </c>
-      <c r="E23" s="12" t="s">
-        <v>239</v>
+      <c r="E23" s="2" t="s">
+        <v>238</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>7</v>
@@ -5013,40 +5011,40 @@
       <c r="K23" s="2">
         <v>500</v>
       </c>
-      <c r="L23" s="12">
-        <v>0</v>
-      </c>
-      <c r="M23" s="12">
+      <c r="L23" s="2">
+        <v>0</v>
+      </c>
+      <c r="M23" s="2">
         <v>32</v>
       </c>
-      <c r="N23" s="12">
-        <v>0</v>
-      </c>
-      <c r="O23" s="12">
+      <c r="N23" s="2">
+        <v>0</v>
+      </c>
+      <c r="O23" s="2">
         <v>30</v>
       </c>
-      <c r="P23" s="12">
+      <c r="P23" s="2">
         <v>60</v>
       </c>
-      <c r="Q23" s="12">
-        <v>0</v>
-      </c>
-      <c r="R23" s="12">
-        <v>0</v>
-      </c>
-      <c r="S23" s="12">
-        <v>0</v>
-      </c>
-      <c r="T23" s="12">
-        <v>0</v>
-      </c>
-      <c r="U23" s="12">
-        <v>0</v>
-      </c>
-      <c r="V23" s="12">
-        <v>0</v>
-      </c>
-      <c r="W23" s="12">
+      <c r="Q23" s="2">
+        <v>0</v>
+      </c>
+      <c r="R23" s="2">
+        <v>0</v>
+      </c>
+      <c r="S23" s="2">
+        <v>0</v>
+      </c>
+      <c r="T23" s="2">
+        <v>0</v>
+      </c>
+      <c r="U23" s="2">
+        <v>0</v>
+      </c>
+      <c r="V23" s="2">
+        <v>0</v>
+      </c>
+      <c r="W23" s="2">
         <v>50</v>
       </c>
       <c r="X23" s="3" t="s">
@@ -5080,10 +5078,10 @@
         <v>0</v>
       </c>
       <c r="AH23" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AI23" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="24" spans="1:35" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5102,10 +5100,10 @@
         <v>50</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>7</v>
@@ -5125,37 +5123,37 @@
       <c r="L24" s="2">
         <v>0</v>
       </c>
-      <c r="M24" s="12">
+      <c r="M24" s="2">
         <v>54</v>
       </c>
-      <c r="N24" s="12">
-        <v>0</v>
-      </c>
-      <c r="O24" s="12">
+      <c r="N24" s="2">
+        <v>0</v>
+      </c>
+      <c r="O24" s="2">
         <v>30</v>
       </c>
-      <c r="P24" s="12">
+      <c r="P24" s="2">
         <v>50</v>
       </c>
-      <c r="Q24" s="12">
-        <v>0</v>
-      </c>
-      <c r="R24" s="12">
-        <v>0</v>
-      </c>
-      <c r="S24" s="12">
-        <v>0</v>
-      </c>
-      <c r="T24" s="12">
-        <v>0</v>
-      </c>
-      <c r="U24" s="12">
-        <v>0</v>
-      </c>
-      <c r="V24" s="12">
-        <v>0</v>
-      </c>
-      <c r="W24" s="12">
+      <c r="Q24" s="2">
+        <v>0</v>
+      </c>
+      <c r="R24" s="2">
+        <v>0</v>
+      </c>
+      <c r="S24" s="2">
+        <v>0</v>
+      </c>
+      <c r="T24" s="2">
+        <v>0</v>
+      </c>
+      <c r="U24" s="2">
+        <v>0</v>
+      </c>
+      <c r="V24" s="2">
+        <v>0</v>
+      </c>
+      <c r="W24" s="2">
         <v>50</v>
       </c>
       <c r="X24" s="3" t="s">
@@ -5189,10 +5187,10 @@
         <v>0</v>
       </c>
       <c r="AH24" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AI24" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="25" spans="1:35" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5211,10 +5209,10 @@
         <v>50</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>7</v>
@@ -5234,37 +5232,37 @@
       <c r="L25" s="2">
         <v>0</v>
       </c>
-      <c r="M25" s="12">
+      <c r="M25" s="2">
         <v>70</v>
       </c>
-      <c r="N25" s="12">
-        <v>0</v>
-      </c>
-      <c r="O25" s="12">
-        <v>0</v>
-      </c>
-      <c r="P25" s="12">
+      <c r="N25" s="2">
+        <v>0</v>
+      </c>
+      <c r="O25" s="2">
+        <v>0</v>
+      </c>
+      <c r="P25" s="2">
         <v>50</v>
       </c>
-      <c r="Q25" s="12">
-        <v>0</v>
-      </c>
-      <c r="R25" s="12">
-        <v>0</v>
-      </c>
-      <c r="S25" s="12">
-        <v>0</v>
-      </c>
-      <c r="T25" s="12">
-        <v>0</v>
-      </c>
-      <c r="U25" s="12">
-        <v>0</v>
-      </c>
-      <c r="V25" s="12">
-        <v>0</v>
-      </c>
-      <c r="W25" s="12">
+      <c r="Q25" s="2">
+        <v>0</v>
+      </c>
+      <c r="R25" s="2">
+        <v>0</v>
+      </c>
+      <c r="S25" s="2">
+        <v>0</v>
+      </c>
+      <c r="T25" s="2">
+        <v>0</v>
+      </c>
+      <c r="U25" s="2">
+        <v>0</v>
+      </c>
+      <c r="V25" s="2">
+        <v>0</v>
+      </c>
+      <c r="W25" s="2">
         <v>50</v>
       </c>
       <c r="X25" s="3" t="s">
@@ -5298,10 +5296,10 @@
         <v>0</v>
       </c>
       <c r="AH25" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AI25" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="26" spans="1:35" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5320,10 +5318,10 @@
         <v>50</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>7</v>
@@ -5343,37 +5341,37 @@
       <c r="L26" s="2">
         <v>0</v>
       </c>
-      <c r="M26" s="12">
+      <c r="M26" s="2">
         <v>130</v>
       </c>
-      <c r="N26" s="12">
-        <v>0</v>
-      </c>
-      <c r="O26" s="12">
+      <c r="N26" s="2">
+        <v>0</v>
+      </c>
+      <c r="O26" s="2">
         <v>70</v>
       </c>
-      <c r="P26" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="12">
+      <c r="P26" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="2">
         <v>85</v>
       </c>
-      <c r="R26" s="12">
-        <v>0</v>
-      </c>
-      <c r="S26" s="12">
-        <v>0</v>
-      </c>
-      <c r="T26" s="12">
-        <v>0</v>
-      </c>
-      <c r="U26" s="12">
-        <v>0</v>
-      </c>
-      <c r="V26" s="12">
-        <v>0</v>
-      </c>
-      <c r="W26" s="12">
+      <c r="R26" s="2">
+        <v>0</v>
+      </c>
+      <c r="S26" s="2">
+        <v>0</v>
+      </c>
+      <c r="T26" s="2">
+        <v>0</v>
+      </c>
+      <c r="U26" s="2">
+        <v>0</v>
+      </c>
+      <c r="V26" s="2">
+        <v>0</v>
+      </c>
+      <c r="W26" s="2">
         <v>90</v>
       </c>
       <c r="X26" s="3" t="s">
@@ -5407,10 +5405,10 @@
         <v>0</v>
       </c>
       <c r="AH26" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AI26" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="27" spans="1:35" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5429,13 +5427,13 @@
         <v>50</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G27" s="12" t="s">
-        <v>180</v>
+      <c r="G27" s="2" t="s">
+        <v>179</v>
       </c>
       <c r="H27" s="2">
         <v>0</v>
@@ -5452,37 +5450,37 @@
       <c r="L27" s="2">
         <v>0</v>
       </c>
-      <c r="M27" s="12">
+      <c r="M27" s="2">
         <v>77</v>
       </c>
-      <c r="N27" s="12">
-        <v>0</v>
-      </c>
-      <c r="O27" s="12">
-        <v>0</v>
-      </c>
-      <c r="P27" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="12">
+      <c r="N27" s="2">
+        <v>0</v>
+      </c>
+      <c r="O27" s="2">
+        <v>0</v>
+      </c>
+      <c r="P27" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="2">
         <v>80</v>
       </c>
-      <c r="R27" s="12">
-        <v>0</v>
-      </c>
-      <c r="S27" s="12">
-        <v>0</v>
-      </c>
-      <c r="T27" s="12">
-        <v>0</v>
-      </c>
-      <c r="U27" s="12">
-        <v>0</v>
-      </c>
-      <c r="V27" s="12">
-        <v>0</v>
-      </c>
-      <c r="W27" s="12">
+      <c r="R27" s="2">
+        <v>0</v>
+      </c>
+      <c r="S27" s="2">
+        <v>0</v>
+      </c>
+      <c r="T27" s="2">
+        <v>0</v>
+      </c>
+      <c r="U27" s="2">
+        <v>0</v>
+      </c>
+      <c r="V27" s="2">
+        <v>0</v>
+      </c>
+      <c r="W27" s="2">
         <v>80</v>
       </c>
       <c r="X27" s="3" t="s">
@@ -5516,10 +5514,10 @@
         <v>0</v>
       </c>
       <c r="AH27" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AI27" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="28" spans="1:35" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5538,10 +5536,10 @@
         <v>50</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>7</v>
@@ -5561,37 +5559,37 @@
       <c r="L28" s="2">
         <v>0</v>
       </c>
-      <c r="M28" s="12">
+      <c r="M28" s="2">
         <v>80</v>
       </c>
-      <c r="N28" s="12">
-        <v>0</v>
-      </c>
-      <c r="O28" s="12">
-        <v>0</v>
-      </c>
-      <c r="P28" s="12">
+      <c r="N28" s="2">
+        <v>0</v>
+      </c>
+      <c r="O28" s="2">
+        <v>0</v>
+      </c>
+      <c r="P28" s="2">
         <v>80</v>
       </c>
-      <c r="Q28" s="12">
-        <v>0</v>
-      </c>
-      <c r="R28" s="12">
-        <v>0</v>
-      </c>
-      <c r="S28" s="12">
-        <v>0</v>
-      </c>
-      <c r="T28" s="12">
-        <v>0</v>
-      </c>
-      <c r="U28" s="12">
-        <v>0</v>
-      </c>
-      <c r="V28" s="12">
-        <v>0</v>
-      </c>
-      <c r="W28" s="12">
+      <c r="Q28" s="2">
+        <v>0</v>
+      </c>
+      <c r="R28" s="2">
+        <v>0</v>
+      </c>
+      <c r="S28" s="2">
+        <v>0</v>
+      </c>
+      <c r="T28" s="2">
+        <v>0</v>
+      </c>
+      <c r="U28" s="2">
+        <v>0</v>
+      </c>
+      <c r="V28" s="2">
+        <v>0</v>
+      </c>
+      <c r="W28" s="2">
         <v>50</v>
       </c>
       <c r="X28" s="3" t="s">
@@ -5625,10 +5623,10 @@
         <v>0</v>
       </c>
       <c r="AH28" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AI28" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="29" spans="1:35" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5647,10 +5645,10 @@
         <v>100</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>7</v>
@@ -5670,37 +5668,37 @@
       <c r="L29" s="2">
         <v>0</v>
       </c>
-      <c r="M29" s="12">
+      <c r="M29" s="2">
         <v>55</v>
       </c>
-      <c r="N29" s="12">
-        <v>0</v>
-      </c>
-      <c r="O29" s="12">
-        <v>0</v>
-      </c>
-      <c r="P29" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="12">
-        <v>0</v>
-      </c>
-      <c r="R29" s="12">
-        <v>0</v>
-      </c>
-      <c r="S29" s="12">
-        <v>0</v>
-      </c>
-      <c r="T29" s="12">
-        <v>0</v>
-      </c>
-      <c r="U29" s="12">
-        <v>0</v>
-      </c>
-      <c r="V29" s="12">
+      <c r="N29" s="2">
+        <v>0</v>
+      </c>
+      <c r="O29" s="2">
+        <v>0</v>
+      </c>
+      <c r="P29" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="2">
+        <v>0</v>
+      </c>
+      <c r="R29" s="2">
+        <v>0</v>
+      </c>
+      <c r="S29" s="2">
+        <v>0</v>
+      </c>
+      <c r="T29" s="2">
+        <v>0</v>
+      </c>
+      <c r="U29" s="2">
+        <v>0</v>
+      </c>
+      <c r="V29" s="2">
         <v>50</v>
       </c>
-      <c r="W29" s="12">
+      <c r="W29" s="2">
         <v>70</v>
       </c>
       <c r="X29" s="3" t="s">
@@ -5734,10 +5732,10 @@
         <v>0</v>
       </c>
       <c r="AH29" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AI29" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="30" spans="1:35" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5756,10 +5754,10 @@
         <v>100</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>7</v>
@@ -5779,37 +5777,37 @@
       <c r="L30" s="2">
         <v>0</v>
       </c>
-      <c r="M30" s="12">
+      <c r="M30" s="2">
         <v>55</v>
       </c>
-      <c r="N30" s="12">
-        <v>0</v>
-      </c>
-      <c r="O30" s="12">
-        <v>0</v>
-      </c>
-      <c r="P30" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q30" s="12">
-        <v>0</v>
-      </c>
-      <c r="R30" s="12">
-        <v>0</v>
-      </c>
-      <c r="S30" s="12">
-        <v>0</v>
-      </c>
-      <c r="T30" s="12">
-        <v>0</v>
-      </c>
-      <c r="U30" s="12">
-        <v>0</v>
-      </c>
-      <c r="V30" s="12">
+      <c r="N30" s="2">
+        <v>0</v>
+      </c>
+      <c r="O30" s="2">
+        <v>0</v>
+      </c>
+      <c r="P30" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="2">
+        <v>0</v>
+      </c>
+      <c r="R30" s="2">
+        <v>0</v>
+      </c>
+      <c r="S30" s="2">
+        <v>0</v>
+      </c>
+      <c r="T30" s="2">
+        <v>0</v>
+      </c>
+      <c r="U30" s="2">
+        <v>0</v>
+      </c>
+      <c r="V30" s="2">
         <v>40</v>
       </c>
-      <c r="W30" s="12">
+      <c r="W30" s="2">
         <v>70</v>
       </c>
       <c r="X30" s="3" t="s">
@@ -5843,10 +5841,10 @@
         <v>0</v>
       </c>
       <c r="AH30" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AI30" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="31" spans="1:35" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5865,10 +5863,10 @@
         <v>100</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>7</v>
@@ -5888,37 +5886,37 @@
       <c r="L31" s="2">
         <v>0</v>
       </c>
-      <c r="M31" s="12">
+      <c r="M31" s="2">
         <v>32</v>
       </c>
-      <c r="N31" s="12">
+      <c r="N31" s="2">
         <v>30</v>
       </c>
-      <c r="O31" s="12">
-        <v>0</v>
-      </c>
-      <c r="P31" s="12">
+      <c r="O31" s="2">
+        <v>0</v>
+      </c>
+      <c r="P31" s="2">
         <v>50</v>
       </c>
-      <c r="Q31" s="12">
-        <v>0</v>
-      </c>
-      <c r="R31" s="12">
-        <v>0</v>
-      </c>
-      <c r="S31" s="12">
-        <v>0</v>
-      </c>
-      <c r="T31" s="12">
-        <v>0</v>
-      </c>
-      <c r="U31" s="12">
-        <v>0</v>
-      </c>
-      <c r="V31" s="12">
-        <v>0</v>
-      </c>
-      <c r="W31" s="12">
+      <c r="Q31" s="2">
+        <v>0</v>
+      </c>
+      <c r="R31" s="2">
+        <v>0</v>
+      </c>
+      <c r="S31" s="2">
+        <v>0</v>
+      </c>
+      <c r="T31" s="2">
+        <v>0</v>
+      </c>
+      <c r="U31" s="2">
+        <v>0</v>
+      </c>
+      <c r="V31" s="2">
+        <v>0</v>
+      </c>
+      <c r="W31" s="2">
         <v>50</v>
       </c>
       <c r="X31" s="3" t="s">
@@ -5952,10 +5950,10 @@
         <v>0</v>
       </c>
       <c r="AH31" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AI31" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="32" spans="1:35" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5974,10 +5972,10 @@
         <v>100</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G32" s="2" t="s">
         <v>7</v>
@@ -5997,37 +5995,37 @@
       <c r="L32" s="2">
         <v>0</v>
       </c>
-      <c r="M32" s="12">
+      <c r="M32" s="2">
         <v>330</v>
       </c>
-      <c r="N32" s="12">
+      <c r="N32" s="2">
         <v>40</v>
       </c>
-      <c r="O32" s="12">
+      <c r="O32" s="2">
         <v>110</v>
       </c>
-      <c r="P32" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="12">
+      <c r="P32" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="2">
         <v>60</v>
       </c>
-      <c r="R32" s="12">
+      <c r="R32" s="2">
         <v>90</v>
       </c>
-      <c r="S32" s="12">
-        <v>0</v>
-      </c>
-      <c r="T32" s="12">
-        <v>0</v>
-      </c>
-      <c r="U32" s="12">
-        <v>0</v>
-      </c>
-      <c r="V32" s="12">
-        <v>0</v>
-      </c>
-      <c r="W32" s="12">
+      <c r="S32" s="2">
+        <v>0</v>
+      </c>
+      <c r="T32" s="2">
+        <v>0</v>
+      </c>
+      <c r="U32" s="2">
+        <v>0</v>
+      </c>
+      <c r="V32" s="2">
+        <v>0</v>
+      </c>
+      <c r="W32" s="2">
         <v>110</v>
       </c>
       <c r="X32" s="3" t="s">
@@ -6061,10 +6059,10 @@
         <v>0</v>
       </c>
       <c r="AH32" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AI32" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="33" spans="1:35" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6083,10 +6081,10 @@
         <v>100</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>7</v>
@@ -6106,37 +6104,37 @@
       <c r="L33" s="2">
         <v>0</v>
       </c>
-      <c r="M33" s="12">
+      <c r="M33" s="2">
         <v>32</v>
       </c>
-      <c r="N33" s="12">
-        <v>0</v>
-      </c>
-      <c r="O33" s="12">
-        <v>0</v>
-      </c>
-      <c r="P33" s="12">
+      <c r="N33" s="2">
+        <v>0</v>
+      </c>
+      <c r="O33" s="2">
+        <v>0</v>
+      </c>
+      <c r="P33" s="2">
         <v>60</v>
       </c>
-      <c r="Q33" s="12">
+      <c r="Q33" s="2">
         <v>20</v>
       </c>
-      <c r="R33" s="12">
-        <v>0</v>
-      </c>
-      <c r="S33" s="12">
-        <v>0</v>
-      </c>
-      <c r="T33" s="12">
-        <v>0</v>
-      </c>
-      <c r="U33" s="12">
-        <v>0</v>
-      </c>
-      <c r="V33" s="12">
-        <v>0</v>
-      </c>
-      <c r="W33" s="12">
+      <c r="R33" s="2">
+        <v>0</v>
+      </c>
+      <c r="S33" s="2">
+        <v>0</v>
+      </c>
+      <c r="T33" s="2">
+        <v>0</v>
+      </c>
+      <c r="U33" s="2">
+        <v>0</v>
+      </c>
+      <c r="V33" s="2">
+        <v>0</v>
+      </c>
+      <c r="W33" s="2">
         <v>50</v>
       </c>
       <c r="X33" s="3" t="s">
@@ -6170,10 +6168,10 @@
         <v>0</v>
       </c>
       <c r="AH33" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AI33" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="34" spans="1:35" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6191,11 +6189,11 @@
       <c r="D34" s="2">
         <v>100</v>
       </c>
-      <c r="E34" s="12" t="s">
-        <v>232</v>
+      <c r="E34" s="2" t="s">
+        <v>231</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G34" s="2" t="s">
         <v>7</v>
@@ -6215,41 +6213,41 @@
       <c r="L34" s="2">
         <v>0</v>
       </c>
-      <c r="M34" s="12">
+      <c r="M34" s="2">
         <v>54</v>
       </c>
-      <c r="N34" s="12">
-        <v>0</v>
-      </c>
-      <c r="O34" s="12">
-        <v>0</v>
-      </c>
-      <c r="P34" s="12">
+      <c r="N34" s="2">
+        <v>0</v>
+      </c>
+      <c r="O34" s="2">
+        <v>0</v>
+      </c>
+      <c r="P34" s="2">
         <v>70</v>
       </c>
-      <c r="Q34" s="12">
-        <v>0</v>
-      </c>
-      <c r="R34" s="12">
-        <v>0</v>
-      </c>
-      <c r="S34" s="12">
-        <v>0</v>
-      </c>
-      <c r="T34" s="12">
-        <v>0</v>
-      </c>
-      <c r="U34" s="12">
-        <v>0</v>
-      </c>
-      <c r="V34" s="12">
-        <v>0</v>
-      </c>
-      <c r="W34" s="12">
+      <c r="Q34" s="2">
+        <v>0</v>
+      </c>
+      <c r="R34" s="2">
+        <v>0</v>
+      </c>
+      <c r="S34" s="2">
+        <v>0</v>
+      </c>
+      <c r="T34" s="2">
+        <v>0</v>
+      </c>
+      <c r="U34" s="2">
+        <v>0</v>
+      </c>
+      <c r="V34" s="2">
+        <v>0</v>
+      </c>
+      <c r="W34" s="2">
         <v>50</v>
       </c>
-      <c r="X34" s="13" t="s">
-        <v>181</v>
+      <c r="X34" s="3" t="s">
+        <v>180</v>
       </c>
       <c r="Y34" s="3" t="s">
         <v>7</v>
@@ -6279,10 +6277,10 @@
         <v>0</v>
       </c>
       <c r="AH34" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AI34" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="35" spans="1:35" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6300,11 +6298,11 @@
       <c r="D35" s="2">
         <v>100</v>
       </c>
-      <c r="E35" s="12" t="s">
-        <v>233</v>
+      <c r="E35" s="2" t="s">
+        <v>232</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G35" s="2" t="s">
         <v>7</v>
@@ -6324,41 +6322,41 @@
       <c r="L35" s="2">
         <v>0</v>
       </c>
-      <c r="M35" s="12">
+      <c r="M35" s="2">
         <v>54</v>
       </c>
-      <c r="N35" s="12">
-        <v>0</v>
-      </c>
-      <c r="O35" s="12">
-        <v>0</v>
-      </c>
-      <c r="P35" s="12">
+      <c r="N35" s="2">
+        <v>0</v>
+      </c>
+      <c r="O35" s="2">
+        <v>0</v>
+      </c>
+      <c r="P35" s="2">
         <v>70</v>
       </c>
-      <c r="Q35" s="12">
-        <v>0</v>
-      </c>
-      <c r="R35" s="12">
-        <v>0</v>
-      </c>
-      <c r="S35" s="12">
-        <v>0</v>
-      </c>
-      <c r="T35" s="12">
-        <v>0</v>
-      </c>
-      <c r="U35" s="12">
-        <v>0</v>
-      </c>
-      <c r="V35" s="12">
-        <v>0</v>
-      </c>
-      <c r="W35" s="12">
+      <c r="Q35" s="2">
+        <v>0</v>
+      </c>
+      <c r="R35" s="2">
+        <v>0</v>
+      </c>
+      <c r="S35" s="2">
+        <v>0</v>
+      </c>
+      <c r="T35" s="2">
+        <v>0</v>
+      </c>
+      <c r="U35" s="2">
+        <v>0</v>
+      </c>
+      <c r="V35" s="2">
+        <v>0</v>
+      </c>
+      <c r="W35" s="2">
         <v>50</v>
       </c>
-      <c r="X35" s="13" t="s">
-        <v>182</v>
+      <c r="X35" s="3" t="s">
+        <v>181</v>
       </c>
       <c r="Y35" s="3" t="s">
         <v>7</v>
@@ -6388,10 +6386,10 @@
         <v>0</v>
       </c>
       <c r="AH35" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AI35" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="36" spans="1:35" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6409,11 +6407,11 @@
       <c r="D36" s="2">
         <v>200</v>
       </c>
-      <c r="E36" s="12" t="s">
-        <v>234</v>
+      <c r="E36" s="2" t="s">
+        <v>233</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G36" s="2" t="s">
         <v>7</v>
@@ -6433,37 +6431,37 @@
       <c r="L36" s="2">
         <v>0</v>
       </c>
-      <c r="M36" s="12">
+      <c r="M36" s="2">
         <v>32</v>
       </c>
-      <c r="N36" s="12">
+      <c r="N36" s="2">
         <v>30</v>
       </c>
-      <c r="O36" s="12">
-        <v>0</v>
-      </c>
-      <c r="P36" s="12">
+      <c r="O36" s="2">
+        <v>0</v>
+      </c>
+      <c r="P36" s="2">
         <v>50</v>
       </c>
-      <c r="Q36" s="12">
-        <v>0</v>
-      </c>
-      <c r="R36" s="12">
-        <v>0</v>
-      </c>
-      <c r="S36" s="12">
-        <v>0</v>
-      </c>
-      <c r="T36" s="12">
-        <v>0</v>
-      </c>
-      <c r="U36" s="12">
-        <v>0</v>
-      </c>
-      <c r="V36" s="12">
-        <v>0</v>
-      </c>
-      <c r="W36" s="12">
+      <c r="Q36" s="2">
+        <v>0</v>
+      </c>
+      <c r="R36" s="2">
+        <v>0</v>
+      </c>
+      <c r="S36" s="2">
+        <v>0</v>
+      </c>
+      <c r="T36" s="2">
+        <v>0</v>
+      </c>
+      <c r="U36" s="2">
+        <v>0</v>
+      </c>
+      <c r="V36" s="2">
+        <v>0</v>
+      </c>
+      <c r="W36" s="2">
         <v>130</v>
       </c>
       <c r="X36" s="3" t="s">
@@ -6497,10 +6495,10 @@
         <v>0</v>
       </c>
       <c r="AH36" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AI36" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="37" spans="1:35" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6518,11 +6516,11 @@
       <c r="D37" s="2">
         <v>200</v>
       </c>
-      <c r="E37" s="12" t="s">
-        <v>235</v>
-      </c>
-      <c r="F37" s="12" t="s">
-        <v>183</v>
+      <c r="E37" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>182</v>
       </c>
       <c r="G37" s="2" t="s">
         <v>7</v>
@@ -6542,37 +6540,37 @@
       <c r="L37" s="2">
         <v>0</v>
       </c>
-      <c r="M37" s="12">
+      <c r="M37" s="2">
         <v>32</v>
       </c>
-      <c r="N37" s="12">
-        <v>0</v>
-      </c>
-      <c r="O37" s="12">
+      <c r="N37" s="2">
+        <v>0</v>
+      </c>
+      <c r="O37" s="2">
         <v>20</v>
       </c>
-      <c r="P37" s="12">
+      <c r="P37" s="2">
         <v>60</v>
       </c>
-      <c r="Q37" s="12">
-        <v>0</v>
-      </c>
-      <c r="R37" s="12">
-        <v>0</v>
-      </c>
-      <c r="S37" s="12">
-        <v>0</v>
-      </c>
-      <c r="T37" s="12">
-        <v>0</v>
-      </c>
-      <c r="U37" s="12">
-        <v>0</v>
-      </c>
-      <c r="V37" s="12">
-        <v>0</v>
-      </c>
-      <c r="W37" s="12">
+      <c r="Q37" s="2">
+        <v>0</v>
+      </c>
+      <c r="R37" s="2">
+        <v>0</v>
+      </c>
+      <c r="S37" s="2">
+        <v>0</v>
+      </c>
+      <c r="T37" s="2">
+        <v>0</v>
+      </c>
+      <c r="U37" s="2">
+        <v>0</v>
+      </c>
+      <c r="V37" s="2">
+        <v>0</v>
+      </c>
+      <c r="W37" s="2">
         <v>50</v>
       </c>
       <c r="X37" s="3" t="s">
@@ -6606,10 +6604,10 @@
         <v>0</v>
       </c>
       <c r="AH37" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AI37" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="38" spans="1:35" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6627,11 +6625,11 @@
       <c r="D38" s="2">
         <v>200</v>
       </c>
-      <c r="E38" s="12" t="s">
-        <v>236</v>
+      <c r="E38" s="2" t="s">
+        <v>235</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>7</v>
@@ -6651,37 +6649,37 @@
       <c r="L38" s="2">
         <v>0</v>
       </c>
-      <c r="M38" s="12">
+      <c r="M38" s="2">
         <v>80</v>
       </c>
-      <c r="N38" s="12">
-        <v>0</v>
-      </c>
-      <c r="O38" s="12">
+      <c r="N38" s="2">
+        <v>0</v>
+      </c>
+      <c r="O38" s="2">
         <v>30</v>
       </c>
-      <c r="P38" s="12">
+      <c r="P38" s="2">
         <v>50</v>
       </c>
-      <c r="Q38" s="12">
-        <v>0</v>
-      </c>
-      <c r="R38" s="12">
-        <v>0</v>
-      </c>
-      <c r="S38" s="12">
-        <v>0</v>
-      </c>
-      <c r="T38" s="12">
-        <v>0</v>
-      </c>
-      <c r="U38" s="12">
-        <v>0</v>
-      </c>
-      <c r="V38" s="12">
-        <v>0</v>
-      </c>
-      <c r="W38" s="12">
+      <c r="Q38" s="2">
+        <v>0</v>
+      </c>
+      <c r="R38" s="2">
+        <v>0</v>
+      </c>
+      <c r="S38" s="2">
+        <v>0</v>
+      </c>
+      <c r="T38" s="2">
+        <v>0</v>
+      </c>
+      <c r="U38" s="2">
+        <v>0</v>
+      </c>
+      <c r="V38" s="2">
+        <v>0</v>
+      </c>
+      <c r="W38" s="2">
         <v>50</v>
       </c>
       <c r="X38" s="3" t="s">
@@ -6715,10 +6713,10 @@
         <v>0</v>
       </c>
       <c r="AH38" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AI38" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="39" spans="1:35" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6736,11 +6734,11 @@
       <c r="D39" s="2">
         <v>200</v>
       </c>
-      <c r="E39" s="12" t="s">
-        <v>237</v>
+      <c r="E39" s="2" t="s">
+        <v>236</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G39" s="2" t="s">
         <v>7</v>
@@ -6760,37 +6758,37 @@
       <c r="L39" s="2">
         <v>0</v>
       </c>
-      <c r="M39" s="12">
+      <c r="M39" s="2">
         <v>40</v>
       </c>
-      <c r="N39" s="12">
-        <v>0</v>
-      </c>
-      <c r="O39" s="12">
+      <c r="N39" s="2">
+        <v>0</v>
+      </c>
+      <c r="O39" s="2">
         <v>10</v>
       </c>
-      <c r="P39" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q39" s="12">
+      <c r="P39" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="2">
         <v>85</v>
       </c>
-      <c r="R39" s="12">
-        <v>0</v>
-      </c>
-      <c r="S39" s="12">
-        <v>0</v>
-      </c>
-      <c r="T39" s="12">
-        <v>0</v>
-      </c>
-      <c r="U39" s="12">
-        <v>0</v>
-      </c>
-      <c r="V39" s="12">
-        <v>0</v>
-      </c>
-      <c r="W39" s="12">
+      <c r="R39" s="2">
+        <v>0</v>
+      </c>
+      <c r="S39" s="2">
+        <v>0</v>
+      </c>
+      <c r="T39" s="2">
+        <v>0</v>
+      </c>
+      <c r="U39" s="2">
+        <v>0</v>
+      </c>
+      <c r="V39" s="2">
+        <v>0</v>
+      </c>
+      <c r="W39" s="2">
         <v>90</v>
       </c>
       <c r="X39" s="3" t="s">
@@ -6824,10 +6822,10 @@
         <v>0</v>
       </c>
       <c r="AH39" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AI39" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="40" spans="1:35" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6845,11 +6843,11 @@
       <c r="D40" s="2">
         <v>200</v>
       </c>
-      <c r="E40" s="12" t="s">
-        <v>177</v>
+      <c r="E40" s="2" t="s">
+        <v>176</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G40" s="2" t="s">
         <v>7</v>
@@ -6869,37 +6867,37 @@
       <c r="L40" s="2">
         <v>0</v>
       </c>
-      <c r="M40" s="12">
+      <c r="M40" s="2">
         <v>88</v>
       </c>
-      <c r="N40" s="12">
-        <v>0</v>
-      </c>
-      <c r="O40" s="12">
-        <v>0</v>
-      </c>
-      <c r="P40" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q40" s="12">
+      <c r="N40" s="2">
+        <v>0</v>
+      </c>
+      <c r="O40" s="2">
+        <v>0</v>
+      </c>
+      <c r="P40" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="2">
         <v>60</v>
       </c>
-      <c r="R40" s="12">
-        <v>0</v>
-      </c>
-      <c r="S40" s="12">
-        <v>0</v>
-      </c>
-      <c r="T40" s="12">
-        <v>0</v>
-      </c>
-      <c r="U40" s="12">
-        <v>0</v>
-      </c>
-      <c r="V40" s="12">
-        <v>0</v>
-      </c>
-      <c r="W40" s="12">
+      <c r="R40" s="2">
+        <v>0</v>
+      </c>
+      <c r="S40" s="2">
+        <v>0</v>
+      </c>
+      <c r="T40" s="2">
+        <v>0</v>
+      </c>
+      <c r="U40" s="2">
+        <v>0</v>
+      </c>
+      <c r="V40" s="2">
+        <v>0</v>
+      </c>
+      <c r="W40" s="2">
         <v>70</v>
       </c>
       <c r="X40" s="3" t="s">
@@ -6933,10 +6931,10 @@
         <v>0</v>
       </c>
       <c r="AH40" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AI40" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="41" spans="1:35" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6954,11 +6952,11 @@
       <c r="D41" s="2">
         <v>200</v>
       </c>
-      <c r="E41" s="12" t="s">
-        <v>178</v>
+      <c r="E41" s="2" t="s">
+        <v>177</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G41" s="2" t="s">
         <v>7</v>
@@ -6978,37 +6976,37 @@
       <c r="L41" s="2">
         <v>0</v>
       </c>
-      <c r="M41" s="12">
+      <c r="M41" s="2">
         <v>88</v>
       </c>
-      <c r="N41" s="12">
-        <v>0</v>
-      </c>
-      <c r="O41" s="12">
-        <v>0</v>
-      </c>
-      <c r="P41" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q41" s="12">
+      <c r="N41" s="2">
+        <v>0</v>
+      </c>
+      <c r="O41" s="2">
+        <v>0</v>
+      </c>
+      <c r="P41" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="2">
         <v>60</v>
       </c>
-      <c r="R41" s="12">
-        <v>0</v>
-      </c>
-      <c r="S41" s="12">
-        <v>0</v>
-      </c>
-      <c r="T41" s="12">
-        <v>0</v>
-      </c>
-      <c r="U41" s="12">
-        <v>0</v>
-      </c>
-      <c r="V41" s="12">
-        <v>0</v>
-      </c>
-      <c r="W41" s="12">
+      <c r="R41" s="2">
+        <v>0</v>
+      </c>
+      <c r="S41" s="2">
+        <v>0</v>
+      </c>
+      <c r="T41" s="2">
+        <v>0</v>
+      </c>
+      <c r="U41" s="2">
+        <v>0</v>
+      </c>
+      <c r="V41" s="2">
+        <v>0</v>
+      </c>
+      <c r="W41" s="2">
         <v>70</v>
       </c>
       <c r="X41" s="3" t="s">
@@ -7042,10 +7040,10 @@
         <v>0</v>
       </c>
       <c r="AH41" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AI41" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="42" spans="1:35" s="10" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7388,7 +7386,7 @@
   </sheetPr>
   <dimension ref="A1:AI16"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="AI10" sqref="AI10"/>
@@ -8650,37 +8648,37 @@
       <c r="L12" s="2">
         <v>0</v>
       </c>
-      <c r="M12" s="12">
+      <c r="M12" s="2">
         <v>100</v>
       </c>
-      <c r="N12" s="12">
+      <c r="N12" s="2">
         <v>140</v>
       </c>
-      <c r="O12" s="12">
-        <v>0</v>
-      </c>
-      <c r="P12" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="12">
+      <c r="O12" s="2">
+        <v>0</v>
+      </c>
+      <c r="P12" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="2">
         <v>50</v>
       </c>
-      <c r="R12" s="12">
-        <v>0</v>
-      </c>
-      <c r="S12" s="12">
-        <v>0</v>
-      </c>
-      <c r="T12" s="12">
-        <v>0</v>
-      </c>
-      <c r="U12" s="12">
-        <v>0</v>
-      </c>
-      <c r="V12" s="12">
-        <v>0</v>
-      </c>
-      <c r="W12" s="12">
+      <c r="R12" s="2">
+        <v>0</v>
+      </c>
+      <c r="S12" s="2">
+        <v>0</v>
+      </c>
+      <c r="T12" s="2">
+        <v>0</v>
+      </c>
+      <c r="U12" s="2">
+        <v>0</v>
+      </c>
+      <c r="V12" s="2">
+        <v>0</v>
+      </c>
+      <c r="W12" s="2">
         <v>100</v>
       </c>
       <c r="X12" s="3" t="s">
